--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$125</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -120,228 +120,231 @@
     <t xml:space="preserve">#271</t>
   </si>
   <si>
+    <t xml:space="preserve">Okapi plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraneous tags which are not escaped in XML target file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OmegaT 5.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag issues check does not flag missing tags in NEXT repetitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenXML: equations not extracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim authentication details in team projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block creation of target files only if the SELECTED issues are found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console-translate mode (CLI) to download mapped files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target files include recent edits in enforced translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of issues stays hidden in the background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Download team project with shallow history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected entries in XLIFF show translation as source text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect segment based on XLIFF status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove old buggy "Resolve conflicts" dialog (and keep the new "Merge" one)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection of match for pre-translation varies through different OS's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random selection of match for pre-translation depending on TMX file paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapt customization script to work in version 6.1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error 403 when accessing different repo with different creds in same domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmx comments provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;A notes: T&amp;A note is "null" if the target language doesn't match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T&amp;A notes: source text in notes/notes.tmx used as the note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 instead of repo name in repository credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing a new project does not register pre-populated translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve colors in the list of project files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving does not register pre-translation in new projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin-omt-package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoClassDefFoundError when packing project in OmegaT 6.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML filter does not extract resname if unit contains HTML block-level tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforced translations lose background color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-populated translations disappear when a segment gets activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project not loaded if it contains DTD internal entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Set empty translation" does not work in XML file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Commit target files" also commits stats file to repo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okapi plugin</t>
   </si>
   <si>
-    <t xml:space="preserve">Extraneous tags which are not escaped in XML target file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OmegaT (cApStAn)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag issues check does not flag missing tags in NEXT repetitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenXML: equations not extracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trim authentication details in team projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block creation of target files only if the SELECTED issues are found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">console-translate mode (CLI) to download mapped files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target files include recent edits in enforced translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List of issues stays hidden in the background</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1720</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download team project with shallow history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protected entries in XLIFF show translation as source text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protect segment based on XLIFF status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove old buggy "Resolve conflicts" dialog (and keep the new "Merge" one)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection of match for pre-translation varies through different OS's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random selection of match for pre-translation depending on TMX file paths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapt customization script to work in version 6.1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error 403 when accessing different repo with different creds in same domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TmxCommentsProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;A notes: T&amp;A note is "null" if the target language doesn't match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T&amp;A notes: source text in notes/notes.tmx used as the note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1 instead of repo name in repository credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing a new project does not register pre-populated translations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Improve colors in the list of project files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saving does not register pre-translation in new projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin-omt-package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoClassDefFoundError when packing project in OmegaT 6.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML filter does not extract resname if unit contains HTML block-level tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforced translations lose background color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-populated translations disappear when a segment gets activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project not loaded if it contains DTD internal entities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Set empty translation" does not work in XML file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Commit target files" also commits stats file to repo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Backported latest Okapi plugin to JDK 8</t>
   </si>
   <si>
@@ -381,6 +384,9 @@
     <t xml:space="preserve">Translation displayed as source text if state="final" with Okapi XLIFF filter</t>
   </si>
   <si>
+    <t xml:space="preserve">Invalid</t>
+  </si>
+  <si>
     <t xml:space="preserve">#8</t>
   </si>
   <si>
@@ -471,9 +477,6 @@
     <t xml:space="preserve">#43</t>
   </si>
   <si>
-    <t xml:space="preserve">Okapi plugin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tag tooltips do not show the locked text</t>
   </si>
   <si>
@@ -691,9 +694,6 @@
   </si>
   <si>
     <t xml:space="preserve">XLIFF filter (for OmegaT) hides files with DOCTYPE including URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid</t>
   </si>
   <si>
     <t xml:space="preserve">Project file filters are not preserved</t>
@@ -885,7 +885,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -960,6 +960,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF784B04"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <strike val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -976,9 +991,31 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Atkinson Hyperlegible"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFED4C05"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Atkinson Hyperlegible"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1020,7 +1057,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,20 +1090,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1110,7 +1159,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1159,19 +1208,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1179,7 +1232,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,7 +1260,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1195,15 +1268,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1211,27 +1284,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1246,7 +1319,7 @@
     <cellStyle name="Untitled1" xfId="20"/>
     <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1313,10 +1386,103 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFDBB6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF006600"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF127622"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF784B04"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFC9211E"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFED4C05"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF10D0C"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC0000"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1329,8 +1495,8 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1338,7 +1504,7 @@
       <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FFFFF5CE"/>
       <rgbColor rgb="FFD9EEF2"/>
       <rgbColor rgb="FF660066"/>
@@ -1350,30 +1516,30 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFED4C05"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF784B04"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1663,17 +1829,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMF129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1716,7 +1882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
         <v>45390</v>
@@ -1733,7 +1899,7 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1747,7 +1913,7 @@
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -1787,13 +1953,13 @@
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1813,7 +1979,7 @@
       <c r="E8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1853,7 +2019,7 @@
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1873,7 +2039,7 @@
       <c r="E11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1978,22 +2144,22 @@
       </c>
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="15" t="n">
         <v>45145</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2013,8 +2179,8 @@
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>49</v>
+      <c r="F18" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,18 +2188,18 @@
         <v>45145</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2045,10 +2211,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="9" t="s">
         <v>68</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2233,7 @@
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2087,7 +2253,7 @@
       <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2107,7 +2273,7 @@
       <c r="E23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2127,7 +2293,7 @@
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2147,7 +2313,7 @@
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2187,7 +2353,7 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="20" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2207,8 +2373,8 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>68</v>
+      <c r="F28" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2393,7 @@
       <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="21" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2247,8 +2413,8 @@
       <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>68</v>
+      <c r="F30" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,8 +2453,8 @@
       <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>49</v>
+      <c r="F32" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2298,7 +2464,7 @@
       <c r="B33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="9" t="s">
@@ -2307,8 +2473,8 @@
       <c r="E33" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>68</v>
+      <c r="F33" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,8 +2493,8 @@
       <c r="E34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>68</v>
+      <c r="F34" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2367,8 +2533,8 @@
       <c r="E36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>49</v>
+      <c r="F36" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,13 +2542,13 @@
         <v>44996</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>68</v>
+        <v>106</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,19 +2556,19 @@
         <v>45007</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>37</v>
+      <c r="F38" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,18 +2576,18 @@
         <v>44993</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="20" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2430,18 +2596,18 @@
         <v>44993</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="20" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2456,13 +2622,13 @@
         <v>13</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,13 +2636,13 @@
         <v>44981</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>40</v>
@@ -2486,325 +2652,325 @@
       </c>
     </row>
     <row r="43" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
+      <c r="A43" s="15" t="n">
         <v>44972</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="B43" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="C43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="17" t="s">
+    <row r="45" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="n">
-        <v>44967</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="17" t="s">
+      <c r="F45" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F46" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="24" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="24" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="n">
-        <v>44964</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="17" t="s">
+    <row r="50" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="n">
+      <c r="F50" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="n">
         <v>44946</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="17" t="s">
+      <c r="B51" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="F51" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" s="17" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="n">
+      <c r="C51" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" s="23" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="n">
         <v>44929</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="17" t="s">
+      <c r="B52" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="n">
+      <c r="A54" s="24" t="n">
         <v>44879</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>138</v>
+      <c r="B54" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" s="17" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="n">
+    <row r="55" s="23" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="n">
         <v>44858</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="17" t="s">
+      <c r="B55" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="n">
+      <c r="A56" s="24" t="n">
         <v>44855</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>142</v>
+      <c r="B56" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="57" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="n">
+      <c r="A57" s="24" t="n">
         <v>44844</v>
       </c>
-      <c r="B57" s="22" t="s">
-        <v>144</v>
+      <c r="B57" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="n">
+      <c r="A58" s="24" t="n">
         <v>44757</v>
       </c>
-      <c r="B58" s="23" t="s">
-        <v>147</v>
+      <c r="B58" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="n">
+      <c r="A59" s="24" t="n">
         <v>373466</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>150</v>
+      <c r="B59" s="28" t="s">
+        <v>151</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>23</v>
@@ -2814,131 +2980,131 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="n">
+      <c r="A60" s="24" t="n">
         <v>44743</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>68</v>
+        <v>153</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="n">
+      <c r="A61" s="24" t="n">
         <v>44740</v>
       </c>
-      <c r="B61" s="24" t="s">
-        <v>153</v>
+      <c r="B61" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="n">
+      <c r="A62" s="24" t="n">
         <v>44739</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>155</v>
+      <c r="B62" s="31" t="s">
+        <v>156</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="n">
+      <c r="A63" s="24" t="n">
         <v>44693</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>157</v>
+      <c r="B63" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="n">
+      <c r="A64" s="24" t="n">
         <v>44695</v>
       </c>
-      <c r="B64" s="26" t="s">
-        <v>159</v>
+      <c r="B64" s="32" t="s">
+        <v>160</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="n">
+      <c r="A65" s="24" t="n">
         <v>44659</v>
       </c>
-      <c r="B65" s="26" t="s">
-        <v>161</v>
+      <c r="B65" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="n">
+      <c r="A66" s="24" t="n">
         <v>44712</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>163</v>
+      <c r="B66" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>40</v>
@@ -2948,57 +3114,57 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="n">
+      <c r="A67" s="24" t="n">
         <v>44705</v>
       </c>
-      <c r="B67" s="22" t="s">
-        <v>165</v>
+      <c r="B67" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="n">
+      <c r="A68" s="24" t="n">
         <v>44705</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>167</v>
+      <c r="B68" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="n">
+      <c r="A69" s="24" t="n">
         <v>44693</v>
       </c>
-      <c r="B69" s="22" t="s">
-        <v>169</v>
+      <c r="B69" s="28" t="s">
+        <v>170</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>40</v>
@@ -3008,182 +3174,182 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="n">
+      <c r="A70" s="24" t="n">
         <v>44622</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>171</v>
+      <c r="B70" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="n">
+      <c r="A71" s="24" t="n">
         <v>44614</v>
       </c>
-      <c r="B71" s="22" t="s">
-        <v>173</v>
+      <c r="B71" s="28" t="s">
+        <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="n">
+      <c r="A72" s="24" t="n">
         <v>44613</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>175</v>
+      <c r="B72" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="n">
+      <c r="A73" s="24" t="n">
         <v>44608</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>177</v>
+      <c r="B73" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>68</v>
+      <c r="F73" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="n">
+      <c r="A74" s="24" t="n">
         <v>44580</v>
       </c>
-      <c r="B74" s="22" t="s">
-        <v>179</v>
+      <c r="B74" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="n">
+      <c r="A76" s="24" t="n">
         <v>44463</v>
       </c>
-      <c r="B76" s="22" t="s">
-        <v>182</v>
+      <c r="B76" s="28" t="s">
+        <v>183</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="n">
+      <c r="A77" s="24" t="n">
         <v>44460</v>
       </c>
-      <c r="B77" s="22" t="s">
-        <v>184</v>
+      <c r="B77" s="28" t="s">
+        <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="n">
+      <c r="A78" s="24" t="n">
         <v>44460</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>187</v>
+      <c r="B78" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>37</v>
+      <c r="F78" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="n">
+      <c r="A79" s="24" t="n">
         <v>44372</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>189</v>
+      <c r="B79" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>23</v>
@@ -3193,57 +3359,57 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18" t="n">
+      <c r="A80" s="24" t="n">
         <v>44326</v>
       </c>
-      <c r="B80" s="22" t="s">
-        <v>191</v>
+      <c r="B80" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="n">
+      <c r="A81" s="24" t="n">
         <v>44325</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>193</v>
+      <c r="B81" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="n">
+      <c r="A82" s="24" t="n">
         <v>44325</v>
       </c>
-      <c r="B82" s="22" t="s">
-        <v>195</v>
+      <c r="B82" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>23</v>
@@ -3253,197 +3419,197 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18" t="n">
+      <c r="A83" s="24" t="n">
         <v>44321</v>
       </c>
-      <c r="B83" s="22" t="s">
-        <v>197</v>
+      <c r="B83" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="n">
+      <c r="A84" s="24" t="n">
         <v>44316</v>
       </c>
-      <c r="B84" s="22" t="s">
-        <v>199</v>
+      <c r="B84" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18" t="n">
+      <c r="A85" s="24" t="n">
         <v>44279</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18" t="n">
+      <c r="A86" s="24" t="n">
         <v>44257</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>204</v>
+      <c r="B86" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18" t="n">
+      <c r="A87" s="24" t="n">
         <v>44243</v>
       </c>
-      <c r="B87" s="22" t="s">
-        <v>206</v>
+      <c r="B87" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="27" t="n">
+      <c r="A88" s="33" t="n">
         <v>44231</v>
       </c>
-      <c r="B88" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F88" s="29" t="s">
+      <c r="B88" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="n">
+      <c r="A89" s="24" t="n">
         <v>44218</v>
       </c>
-      <c r="B89" s="22" t="s">
-        <v>209</v>
+      <c r="B89" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18" t="n">
+      <c r="A90" s="24" t="n">
         <v>44216</v>
       </c>
-      <c r="B90" s="25" t="s">
-        <v>211</v>
+      <c r="B90" s="31" t="s">
+        <v>212</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18" t="n">
+      <c r="A91" s="24" t="n">
         <v>44175</v>
       </c>
-      <c r="B91" s="22" t="s">
-        <v>213</v>
+      <c r="B91" s="28" t="s">
+        <v>214</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18" t="n">
+      <c r="A92" s="24" t="n">
         <v>44175</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>215</v>
+      <c r="B92" s="28" t="s">
+        <v>216</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>23</v>
@@ -3452,23 +3618,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18" t="n">
+      <c r="A94" s="24" t="n">
         <v>44162</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>217</v>
+      <c r="B94" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>40</v>
@@ -3478,11 +3644,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="18" t="n">
+      <c r="A95" s="24" t="n">
         <v>44148</v>
       </c>
-      <c r="B95" s="22" t="s">
-        <v>219</v>
+      <c r="B95" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>7</v>
@@ -3491,38 +3657,38 @@
         <v>8</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="27" t="n">
+      <c r="A96" s="33" t="n">
         <v>44146</v>
       </c>
-      <c r="B96" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" s="29" t="s">
+      <c r="B96" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F96" s="29" t="s">
+      <c r="D96" s="35" t="s">
         <v>222</v>
       </c>
+      <c r="E96" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18" t="n">
+      <c r="A97" s="24" t="n">
         <v>44132</v>
       </c>
-      <c r="B97" s="22" t="s">
-        <v>208</v>
+      <c r="B97" s="28" t="s">
+        <v>209</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>7</v>
@@ -3531,17 +3697,17 @@
         <v>223</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18" t="n">
+      <c r="A98" s="24" t="n">
         <v>44103</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="28" t="s">
         <v>224</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3551,37 +3717,37 @@
         <v>225</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="27" t="n">
+      <c r="A99" s="33" t="n">
         <v>44095</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="C99" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="29" t="s">
+      <c r="C99" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="29" t="s">
-        <v>201</v>
+      <c r="F99" s="35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="n">
+      <c r="A100" s="24" t="n">
         <v>44095</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="28" t="s">
         <v>228</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -3593,15 +3759,15 @@
       <c r="E100" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F100" s="5" t="s">
-        <v>68</v>
+      <c r="F100" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18" t="n">
+      <c r="A101" s="24" t="n">
         <v>44057</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="28" t="s">
         <v>230</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3614,14 +3780,14 @@
         <v>40</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18" t="n">
+      <c r="A102" s="24" t="n">
         <v>44028</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="28" t="s">
         <v>232</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3631,17 +3797,17 @@
         <v>233</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="n">
+      <c r="A103" s="24" t="n">
         <v>44064</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="28" t="s">
         <v>234</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3651,17 +3817,17 @@
         <v>235</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="18" t="n">
+      <c r="A104" s="24" t="n">
         <v>44028</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="28" t="s">
         <v>236</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3671,17 +3837,17 @@
         <v>237</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18" t="n">
+      <c r="A105" s="24" t="n">
         <v>44016</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="28" t="s">
         <v>238</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3698,10 +3864,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18" t="n">
+      <c r="A106" s="24" t="n">
         <v>44010</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="28" t="s">
         <v>240</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3718,10 +3884,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="18" t="n">
+      <c r="A107" s="24" t="n">
         <v>43995</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="28" t="s">
         <v>242</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3738,10 +3904,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="18" t="n">
+      <c r="A108" s="24" t="n">
         <v>43948</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="28" t="s">
         <v>244</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3751,17 +3917,17 @@
         <v>245</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="18" t="n">
+      <c r="A109" s="24" t="n">
         <v>43947</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="28" t="s">
         <v>246</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3771,17 +3937,17 @@
         <v>247</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F109" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="18" t="n">
+      <c r="A110" s="24" t="n">
         <v>43936</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="28" t="s">
         <v>248</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3798,10 +3964,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="18" t="n">
+      <c r="A111" s="24" t="n">
         <v>43929</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="28" t="s">
         <v>250</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3811,17 +3977,17 @@
         <v>251</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="18" t="n">
+      <c r="A112" s="24" t="n">
         <v>43891</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="28" t="s">
         <v>252</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3831,17 +3997,17 @@
         <v>253</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>68</v>
+        <v>136</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="18" t="n">
+      <c r="A113" s="24" t="n">
         <v>43885</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="28" t="s">
         <v>254</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3851,17 +4017,17 @@
         <v>255</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="18" t="n">
+      <c r="A114" s="24" t="n">
         <v>43857</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="28" t="s">
         <v>256</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3871,17 +4037,17 @@
         <v>257</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="18" t="n">
+      <c r="A115" s="24" t="n">
         <v>43857</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="28" t="s">
         <v>258</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3891,17 +4057,17 @@
         <v>259</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="18" t="n">
+      <c r="A116" s="24" t="n">
         <v>43852</v>
       </c>
-      <c r="B116" s="22" t="s">
+      <c r="B116" s="28" t="s">
         <v>260</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3911,17 +4077,17 @@
         <v>261</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="18" t="n">
+      <c r="A117" s="24" t="n">
         <v>43584</v>
       </c>
-      <c r="B117" s="22" t="s">
+      <c r="B117" s="28" t="s">
         <v>262</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3938,10 +4104,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="18" t="n">
+      <c r="A118" s="24" t="n">
         <v>43584</v>
       </c>
-      <c r="B118" s="22" t="s">
+      <c r="B118" s="28" t="s">
         <v>264</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3958,7 +4124,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="18" t="n">
+      <c r="A119" s="24" t="n">
         <v>43540</v>
       </c>
       <c r="B119" s="5" t="s">
@@ -3977,60 +4143,60 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="18" t="n">
+      <c r="A121" s="24" t="n">
         <v>43203</v>
       </c>
-      <c r="B121" s="30" t="s">
+      <c r="B121" s="36" t="s">
         <v>268</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F121" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="18" t="n">
+      <c r="A122" s="24" t="n">
         <v>43203</v>
       </c>
-      <c r="B122" s="30" t="s">
+      <c r="B122" s="36" t="s">
         <v>270</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="18" t="n">
+      <c r="A123" s="24" t="n">
         <v>42842</v>
       </c>
-      <c r="B123" s="30" t="s">
+      <c r="B123" s="36" t="s">
         <v>273</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>274</v>
@@ -4038,12 +4204,12 @@
       <c r="E123" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18" t="n">
+      <c r="A124" s="24" t="n">
         <v>42457</v>
       </c>
       <c r="B124" s="5" t="s">
@@ -4063,7 +4229,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18" t="n">
+      <c r="A125" s="24" t="n">
         <v>39028</v>
       </c>
       <c r="B125" s="5" t="s">
@@ -4083,1028 +4249,1028 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
-      <c r="R127" s="17"/>
-      <c r="S127" s="17"/>
-      <c r="T127" s="17"/>
-      <c r="U127" s="17"/>
-      <c r="V127" s="17"/>
-      <c r="W127" s="17"/>
-      <c r="X127" s="17"/>
-      <c r="Y127" s="17"/>
-      <c r="Z127" s="17"/>
-      <c r="AA127" s="17"/>
-      <c r="AB127" s="17"/>
-      <c r="AC127" s="17"/>
-      <c r="AD127" s="17"/>
-      <c r="AE127" s="17"/>
-      <c r="AF127" s="17"/>
-      <c r="AG127" s="17"/>
-      <c r="AH127" s="17"/>
-      <c r="AI127" s="17"/>
-      <c r="AJ127" s="17"/>
-      <c r="AK127" s="17"/>
-      <c r="AL127" s="17"/>
-      <c r="AM127" s="17"/>
-      <c r="AN127" s="17"/>
-      <c r="AO127" s="17"/>
-      <c r="AP127" s="17"/>
-      <c r="AQ127" s="17"/>
-      <c r="AR127" s="17"/>
-      <c r="AS127" s="17"/>
-      <c r="AT127" s="17"/>
-      <c r="AU127" s="17"/>
-      <c r="AV127" s="17"/>
-      <c r="AW127" s="17"/>
-      <c r="AX127" s="17"/>
-      <c r="AY127" s="17"/>
-      <c r="AZ127" s="17"/>
-      <c r="BA127" s="17"/>
-      <c r="BB127" s="17"/>
-      <c r="BC127" s="17"/>
-      <c r="BD127" s="17"/>
-      <c r="BE127" s="17"/>
-      <c r="BF127" s="17"/>
-      <c r="BG127" s="17"/>
-      <c r="BH127" s="17"/>
-      <c r="BI127" s="17"/>
-      <c r="BJ127" s="17"/>
-      <c r="BK127" s="17"/>
-      <c r="BL127" s="17"/>
-      <c r="BM127" s="17"/>
-      <c r="BN127" s="17"/>
-      <c r="BO127" s="17"/>
-      <c r="BP127" s="17"/>
-      <c r="BQ127" s="17"/>
-      <c r="BR127" s="17"/>
-      <c r="BS127" s="17"/>
-      <c r="BT127" s="17"/>
-      <c r="BU127" s="17"/>
-      <c r="BV127" s="17"/>
-      <c r="BW127" s="17"/>
-      <c r="BX127" s="17"/>
-      <c r="BY127" s="17"/>
-      <c r="BZ127" s="17"/>
-      <c r="CA127" s="17"/>
-      <c r="CB127" s="17"/>
-      <c r="CC127" s="17"/>
-      <c r="CD127" s="17"/>
-      <c r="CE127" s="17"/>
-      <c r="CF127" s="17"/>
-      <c r="CG127" s="17"/>
-      <c r="CH127" s="17"/>
-      <c r="CI127" s="17"/>
-      <c r="CJ127" s="17"/>
-      <c r="CK127" s="17"/>
-      <c r="CL127" s="17"/>
-      <c r="CM127" s="17"/>
-      <c r="CN127" s="17"/>
-      <c r="CO127" s="17"/>
-      <c r="CP127" s="17"/>
-      <c r="CQ127" s="17"/>
-      <c r="CR127" s="17"/>
-      <c r="CS127" s="17"/>
-      <c r="CT127" s="17"/>
-      <c r="CU127" s="17"/>
-      <c r="CV127" s="17"/>
-      <c r="CW127" s="17"/>
-      <c r="CX127" s="17"/>
-      <c r="CY127" s="17"/>
-      <c r="CZ127" s="17"/>
-      <c r="DA127" s="17"/>
-      <c r="DB127" s="17"/>
-      <c r="DC127" s="17"/>
-      <c r="DD127" s="17"/>
-      <c r="DE127" s="17"/>
-      <c r="DF127" s="17"/>
-      <c r="DG127" s="17"/>
-      <c r="DH127" s="17"/>
-      <c r="DI127" s="17"/>
-      <c r="DJ127" s="17"/>
-      <c r="DK127" s="17"/>
-      <c r="DL127" s="17"/>
-      <c r="DM127" s="17"/>
-      <c r="DN127" s="17"/>
-      <c r="DO127" s="17"/>
-      <c r="DP127" s="17"/>
-      <c r="DQ127" s="17"/>
-      <c r="DR127" s="17"/>
-      <c r="DS127" s="17"/>
-      <c r="DT127" s="17"/>
-      <c r="DU127" s="17"/>
-      <c r="DV127" s="17"/>
-      <c r="DW127" s="17"/>
-      <c r="DX127" s="17"/>
-      <c r="DY127" s="17"/>
-      <c r="DZ127" s="17"/>
-      <c r="EA127" s="17"/>
-      <c r="EB127" s="17"/>
-      <c r="EC127" s="17"/>
-      <c r="ED127" s="17"/>
-      <c r="EE127" s="17"/>
-      <c r="EF127" s="17"/>
-      <c r="EG127" s="17"/>
-      <c r="EH127" s="17"/>
-      <c r="EI127" s="17"/>
-      <c r="EJ127" s="17"/>
-      <c r="EK127" s="17"/>
-      <c r="EL127" s="17"/>
-      <c r="EM127" s="17"/>
-      <c r="EN127" s="17"/>
-      <c r="EO127" s="17"/>
-      <c r="EP127" s="17"/>
-      <c r="EQ127" s="17"/>
-      <c r="ER127" s="17"/>
-      <c r="ES127" s="17"/>
-      <c r="ET127" s="17"/>
-      <c r="EU127" s="17"/>
-      <c r="EV127" s="17"/>
-      <c r="EW127" s="17"/>
-      <c r="EX127" s="17"/>
-      <c r="EY127" s="17"/>
-      <c r="EZ127" s="17"/>
-      <c r="FA127" s="17"/>
-      <c r="FB127" s="17"/>
-      <c r="FC127" s="17"/>
-      <c r="FD127" s="17"/>
-      <c r="FE127" s="17"/>
-      <c r="FF127" s="17"/>
-      <c r="FG127" s="17"/>
-      <c r="FH127" s="17"/>
-      <c r="FI127" s="17"/>
-      <c r="FJ127" s="17"/>
-      <c r="FK127" s="17"/>
-      <c r="FL127" s="17"/>
-      <c r="FM127" s="17"/>
-      <c r="FN127" s="17"/>
-      <c r="FO127" s="17"/>
-      <c r="FP127" s="17"/>
-      <c r="FQ127" s="17"/>
-      <c r="FR127" s="17"/>
-      <c r="FS127" s="17"/>
-      <c r="FT127" s="17"/>
-      <c r="FU127" s="17"/>
-      <c r="FV127" s="17"/>
-      <c r="FW127" s="17"/>
-      <c r="FX127" s="17"/>
-      <c r="FY127" s="17"/>
-      <c r="FZ127" s="17"/>
-      <c r="GA127" s="17"/>
-      <c r="GB127" s="17"/>
-      <c r="GC127" s="17"/>
-      <c r="GD127" s="17"/>
-      <c r="GE127" s="17"/>
-      <c r="GF127" s="17"/>
-      <c r="GG127" s="17"/>
-      <c r="GH127" s="17"/>
-      <c r="GI127" s="17"/>
-      <c r="GJ127" s="17"/>
-      <c r="GK127" s="17"/>
-      <c r="GL127" s="17"/>
-      <c r="GM127" s="17"/>
-      <c r="GN127" s="17"/>
-      <c r="GO127" s="17"/>
-      <c r="GP127" s="17"/>
-      <c r="GQ127" s="17"/>
-      <c r="GR127" s="17"/>
-      <c r="GS127" s="17"/>
-      <c r="GT127" s="17"/>
-      <c r="GU127" s="17"/>
-      <c r="GV127" s="17"/>
-      <c r="GW127" s="17"/>
-      <c r="GX127" s="17"/>
-      <c r="GY127" s="17"/>
-      <c r="GZ127" s="17"/>
-      <c r="HA127" s="17"/>
-      <c r="HB127" s="17"/>
-      <c r="HC127" s="17"/>
-      <c r="HD127" s="17"/>
-      <c r="HE127" s="17"/>
-      <c r="HF127" s="17"/>
-      <c r="HG127" s="17"/>
-      <c r="HH127" s="17"/>
-      <c r="HI127" s="17"/>
-      <c r="HJ127" s="17"/>
-      <c r="HK127" s="17"/>
-      <c r="HL127" s="17"/>
-      <c r="HM127" s="17"/>
-      <c r="HN127" s="17"/>
-      <c r="HO127" s="17"/>
-      <c r="HP127" s="17"/>
-      <c r="HQ127" s="17"/>
-      <c r="HR127" s="17"/>
-      <c r="HS127" s="17"/>
-      <c r="HT127" s="17"/>
-      <c r="HU127" s="17"/>
-      <c r="HV127" s="17"/>
-      <c r="HW127" s="17"/>
-      <c r="HX127" s="17"/>
-      <c r="HY127" s="17"/>
-      <c r="HZ127" s="17"/>
-      <c r="IA127" s="17"/>
-      <c r="IB127" s="17"/>
-      <c r="IC127" s="17"/>
-      <c r="ID127" s="17"/>
-      <c r="IE127" s="17"/>
-      <c r="IF127" s="17"/>
-      <c r="IG127" s="17"/>
-      <c r="IH127" s="17"/>
-      <c r="II127" s="17"/>
-      <c r="IJ127" s="17"/>
-      <c r="IK127" s="17"/>
-      <c r="IL127" s="17"/>
-      <c r="IM127" s="17"/>
-      <c r="IN127" s="17"/>
-      <c r="IO127" s="17"/>
-      <c r="IP127" s="17"/>
-      <c r="IQ127" s="17"/>
-      <c r="IR127" s="17"/>
-      <c r="IS127" s="17"/>
-      <c r="IT127" s="17"/>
-      <c r="IU127" s="17"/>
-      <c r="IV127" s="17"/>
-      <c r="IW127" s="17"/>
-      <c r="IX127" s="17"/>
-      <c r="IY127" s="17"/>
-      <c r="IZ127" s="17"/>
-      <c r="JA127" s="17"/>
-      <c r="JB127" s="17"/>
-      <c r="JC127" s="17"/>
-      <c r="JD127" s="17"/>
-      <c r="JE127" s="17"/>
-      <c r="JF127" s="17"/>
-      <c r="JG127" s="17"/>
-      <c r="JH127" s="17"/>
-      <c r="JI127" s="17"/>
-      <c r="JJ127" s="17"/>
-      <c r="JK127" s="17"/>
-      <c r="JL127" s="17"/>
-      <c r="JM127" s="17"/>
-      <c r="JN127" s="17"/>
-      <c r="JO127" s="17"/>
-      <c r="JP127" s="17"/>
-      <c r="JQ127" s="17"/>
-      <c r="JR127" s="17"/>
-      <c r="JS127" s="17"/>
-      <c r="JT127" s="17"/>
-      <c r="JU127" s="17"/>
-      <c r="JV127" s="17"/>
-      <c r="JW127" s="17"/>
-      <c r="JX127" s="17"/>
-      <c r="JY127" s="17"/>
-      <c r="JZ127" s="17"/>
-      <c r="KA127" s="17"/>
-      <c r="KB127" s="17"/>
-      <c r="KC127" s="17"/>
-      <c r="KD127" s="17"/>
-      <c r="KE127" s="17"/>
-      <c r="KF127" s="17"/>
-      <c r="KG127" s="17"/>
-      <c r="KH127" s="17"/>
-      <c r="KI127" s="17"/>
-      <c r="KJ127" s="17"/>
-      <c r="KK127" s="17"/>
-      <c r="KL127" s="17"/>
-      <c r="KM127" s="17"/>
-      <c r="KN127" s="17"/>
-      <c r="KO127" s="17"/>
-      <c r="KP127" s="17"/>
-      <c r="KQ127" s="17"/>
-      <c r="KR127" s="17"/>
-      <c r="KS127" s="17"/>
-      <c r="KT127" s="17"/>
-      <c r="KU127" s="17"/>
-      <c r="KV127" s="17"/>
-      <c r="KW127" s="17"/>
-      <c r="KX127" s="17"/>
-      <c r="KY127" s="17"/>
-      <c r="KZ127" s="17"/>
-      <c r="LA127" s="17"/>
-      <c r="LB127" s="17"/>
-      <c r="LC127" s="17"/>
-      <c r="LD127" s="17"/>
-      <c r="LE127" s="17"/>
-      <c r="LF127" s="17"/>
-      <c r="LG127" s="17"/>
-      <c r="LH127" s="17"/>
-      <c r="LI127" s="17"/>
-      <c r="LJ127" s="17"/>
-      <c r="LK127" s="17"/>
-      <c r="LL127" s="17"/>
-      <c r="LM127" s="17"/>
-      <c r="LN127" s="17"/>
-      <c r="LO127" s="17"/>
-      <c r="LP127" s="17"/>
-      <c r="LQ127" s="17"/>
-      <c r="LR127" s="17"/>
-      <c r="LS127" s="17"/>
-      <c r="LT127" s="17"/>
-      <c r="LU127" s="17"/>
-      <c r="LV127" s="17"/>
-      <c r="LW127" s="17"/>
-      <c r="LX127" s="17"/>
-      <c r="LY127" s="17"/>
-      <c r="LZ127" s="17"/>
-      <c r="MA127" s="17"/>
-      <c r="MB127" s="17"/>
-      <c r="MC127" s="17"/>
-      <c r="MD127" s="17"/>
-      <c r="ME127" s="17"/>
-      <c r="MF127" s="17"/>
-      <c r="MG127" s="17"/>
-      <c r="MH127" s="17"/>
-      <c r="MI127" s="17"/>
-      <c r="MJ127" s="17"/>
-      <c r="MK127" s="17"/>
-      <c r="ML127" s="17"/>
-      <c r="MM127" s="17"/>
-      <c r="MN127" s="17"/>
-      <c r="MO127" s="17"/>
-      <c r="MP127" s="17"/>
-      <c r="MQ127" s="17"/>
-      <c r="MR127" s="17"/>
-      <c r="MS127" s="17"/>
-      <c r="MT127" s="17"/>
-      <c r="MU127" s="17"/>
-      <c r="MV127" s="17"/>
-      <c r="MW127" s="17"/>
-      <c r="MX127" s="17"/>
-      <c r="MY127" s="17"/>
-      <c r="MZ127" s="17"/>
-      <c r="NA127" s="17"/>
-      <c r="NB127" s="17"/>
-      <c r="NC127" s="17"/>
-      <c r="ND127" s="17"/>
-      <c r="NE127" s="17"/>
-      <c r="NF127" s="17"/>
-      <c r="NG127" s="17"/>
-      <c r="NH127" s="17"/>
-      <c r="NI127" s="17"/>
-      <c r="NJ127" s="17"/>
-      <c r="NK127" s="17"/>
-      <c r="NL127" s="17"/>
-      <c r="NM127" s="17"/>
-      <c r="NN127" s="17"/>
-      <c r="NO127" s="17"/>
-      <c r="NP127" s="17"/>
-      <c r="NQ127" s="17"/>
-      <c r="NR127" s="17"/>
-      <c r="NS127" s="17"/>
-      <c r="NT127" s="17"/>
-      <c r="NU127" s="17"/>
-      <c r="NV127" s="17"/>
-      <c r="NW127" s="17"/>
-      <c r="NX127" s="17"/>
-      <c r="NY127" s="17"/>
-      <c r="NZ127" s="17"/>
-      <c r="OA127" s="17"/>
-      <c r="OB127" s="17"/>
-      <c r="OC127" s="17"/>
-      <c r="OD127" s="17"/>
-      <c r="OE127" s="17"/>
-      <c r="OF127" s="17"/>
-      <c r="OG127" s="17"/>
-      <c r="OH127" s="17"/>
-      <c r="OI127" s="17"/>
-      <c r="OJ127" s="17"/>
-      <c r="OK127" s="17"/>
-      <c r="OL127" s="17"/>
-      <c r="OM127" s="17"/>
-      <c r="ON127" s="17"/>
-      <c r="OO127" s="17"/>
-      <c r="OP127" s="17"/>
-      <c r="OQ127" s="17"/>
-      <c r="OR127" s="17"/>
-      <c r="OS127" s="17"/>
-      <c r="OT127" s="17"/>
-      <c r="OU127" s="17"/>
-      <c r="OV127" s="17"/>
-      <c r="OW127" s="17"/>
-      <c r="OX127" s="17"/>
-      <c r="OY127" s="17"/>
-      <c r="OZ127" s="17"/>
-      <c r="PA127" s="17"/>
-      <c r="PB127" s="17"/>
-      <c r="PC127" s="17"/>
-      <c r="PD127" s="17"/>
-      <c r="PE127" s="17"/>
-      <c r="PF127" s="17"/>
-      <c r="PG127" s="17"/>
-      <c r="PH127" s="17"/>
-      <c r="PI127" s="17"/>
-      <c r="PJ127" s="17"/>
-      <c r="PK127" s="17"/>
-      <c r="PL127" s="17"/>
-      <c r="PM127" s="17"/>
-      <c r="PN127" s="17"/>
-      <c r="PO127" s="17"/>
-      <c r="PP127" s="17"/>
-      <c r="PQ127" s="17"/>
-      <c r="PR127" s="17"/>
-      <c r="PS127" s="17"/>
-      <c r="PT127" s="17"/>
-      <c r="PU127" s="17"/>
-      <c r="PV127" s="17"/>
-      <c r="PW127" s="17"/>
-      <c r="PX127" s="17"/>
-      <c r="PY127" s="17"/>
-      <c r="PZ127" s="17"/>
-      <c r="QA127" s="17"/>
-      <c r="QB127" s="17"/>
-      <c r="QC127" s="17"/>
-      <c r="QD127" s="17"/>
-      <c r="QE127" s="17"/>
-      <c r="QF127" s="17"/>
-      <c r="QG127" s="17"/>
-      <c r="QH127" s="17"/>
-      <c r="QI127" s="17"/>
-      <c r="QJ127" s="17"/>
-      <c r="QK127" s="17"/>
-      <c r="QL127" s="17"/>
-      <c r="QM127" s="17"/>
-      <c r="QN127" s="17"/>
-      <c r="QO127" s="17"/>
-      <c r="QP127" s="17"/>
-      <c r="QQ127" s="17"/>
-      <c r="QR127" s="17"/>
-      <c r="QS127" s="17"/>
-      <c r="QT127" s="17"/>
-      <c r="QU127" s="17"/>
-      <c r="QV127" s="17"/>
-      <c r="QW127" s="17"/>
-      <c r="QX127" s="17"/>
-      <c r="QY127" s="17"/>
-      <c r="QZ127" s="17"/>
-      <c r="RA127" s="17"/>
-      <c r="RB127" s="17"/>
-      <c r="RC127" s="17"/>
-      <c r="RD127" s="17"/>
-      <c r="RE127" s="17"/>
-      <c r="RF127" s="17"/>
-      <c r="RG127" s="17"/>
-      <c r="RH127" s="17"/>
-      <c r="RI127" s="17"/>
-      <c r="RJ127" s="17"/>
-      <c r="RK127" s="17"/>
-      <c r="RL127" s="17"/>
-      <c r="RM127" s="17"/>
-      <c r="RN127" s="17"/>
-      <c r="RO127" s="17"/>
-      <c r="RP127" s="17"/>
-      <c r="RQ127" s="17"/>
-      <c r="RR127" s="17"/>
-      <c r="RS127" s="17"/>
-      <c r="RT127" s="17"/>
-      <c r="RU127" s="17"/>
-      <c r="RV127" s="17"/>
-      <c r="RW127" s="17"/>
-      <c r="RX127" s="17"/>
-      <c r="RY127" s="17"/>
-      <c r="RZ127" s="17"/>
-      <c r="SA127" s="17"/>
-      <c r="SB127" s="17"/>
-      <c r="SC127" s="17"/>
-      <c r="SD127" s="17"/>
-      <c r="SE127" s="17"/>
-      <c r="SF127" s="17"/>
-      <c r="SG127" s="17"/>
-      <c r="SH127" s="17"/>
-      <c r="SI127" s="17"/>
-      <c r="SJ127" s="17"/>
-      <c r="SK127" s="17"/>
-      <c r="SL127" s="17"/>
-      <c r="SM127" s="17"/>
-      <c r="SN127" s="17"/>
-      <c r="SO127" s="17"/>
-      <c r="SP127" s="17"/>
-      <c r="SQ127" s="17"/>
-      <c r="SR127" s="17"/>
-      <c r="SS127" s="17"/>
-      <c r="ST127" s="17"/>
-      <c r="SU127" s="17"/>
-      <c r="SV127" s="17"/>
-      <c r="SW127" s="17"/>
-      <c r="SX127" s="17"/>
-      <c r="SY127" s="17"/>
-      <c r="SZ127" s="17"/>
-      <c r="TA127" s="17"/>
-      <c r="TB127" s="17"/>
-      <c r="TC127" s="17"/>
-      <c r="TD127" s="17"/>
-      <c r="TE127" s="17"/>
-      <c r="TF127" s="17"/>
-      <c r="TG127" s="17"/>
-      <c r="TH127" s="17"/>
-      <c r="TI127" s="17"/>
-      <c r="TJ127" s="17"/>
-      <c r="TK127" s="17"/>
-      <c r="TL127" s="17"/>
-      <c r="TM127" s="17"/>
-      <c r="TN127" s="17"/>
-      <c r="TO127" s="17"/>
-      <c r="TP127" s="17"/>
-      <c r="TQ127" s="17"/>
-      <c r="TR127" s="17"/>
-      <c r="TS127" s="17"/>
-      <c r="TT127" s="17"/>
-      <c r="TU127" s="17"/>
-      <c r="TV127" s="17"/>
-      <c r="TW127" s="17"/>
-      <c r="TX127" s="17"/>
-      <c r="TY127" s="17"/>
-      <c r="TZ127" s="17"/>
-      <c r="UA127" s="17"/>
-      <c r="UB127" s="17"/>
-      <c r="UC127" s="17"/>
-      <c r="UD127" s="17"/>
-      <c r="UE127" s="17"/>
-      <c r="UF127" s="17"/>
-      <c r="UG127" s="17"/>
-      <c r="UH127" s="17"/>
-      <c r="UI127" s="17"/>
-      <c r="UJ127" s="17"/>
-      <c r="UK127" s="17"/>
-      <c r="UL127" s="17"/>
-      <c r="UM127" s="17"/>
-      <c r="UN127" s="17"/>
-      <c r="UO127" s="17"/>
-      <c r="UP127" s="17"/>
-      <c r="UQ127" s="17"/>
-      <c r="UR127" s="17"/>
-      <c r="US127" s="17"/>
-      <c r="UT127" s="17"/>
-      <c r="UU127" s="17"/>
-      <c r="UV127" s="17"/>
-      <c r="UW127" s="17"/>
-      <c r="UX127" s="17"/>
-      <c r="UY127" s="17"/>
-      <c r="UZ127" s="17"/>
-      <c r="VA127" s="17"/>
-      <c r="VB127" s="17"/>
-      <c r="VC127" s="17"/>
-      <c r="VD127" s="17"/>
-      <c r="VE127" s="17"/>
-      <c r="VF127" s="17"/>
-      <c r="VG127" s="17"/>
-      <c r="VH127" s="17"/>
-      <c r="VI127" s="17"/>
-      <c r="VJ127" s="17"/>
-      <c r="VK127" s="17"/>
-      <c r="VL127" s="17"/>
-      <c r="VM127" s="17"/>
-      <c r="VN127" s="17"/>
-      <c r="VO127" s="17"/>
-      <c r="VP127" s="17"/>
-      <c r="VQ127" s="17"/>
-      <c r="VR127" s="17"/>
-      <c r="VS127" s="17"/>
-      <c r="VT127" s="17"/>
-      <c r="VU127" s="17"/>
-      <c r="VV127" s="17"/>
-      <c r="VW127" s="17"/>
-      <c r="VX127" s="17"/>
-      <c r="VY127" s="17"/>
-      <c r="VZ127" s="17"/>
-      <c r="WA127" s="17"/>
-      <c r="WB127" s="17"/>
-      <c r="WC127" s="17"/>
-      <c r="WD127" s="17"/>
-      <c r="WE127" s="17"/>
-      <c r="WF127" s="17"/>
-      <c r="WG127" s="17"/>
-      <c r="WH127" s="17"/>
-      <c r="WI127" s="17"/>
-      <c r="WJ127" s="17"/>
-      <c r="WK127" s="17"/>
-      <c r="WL127" s="17"/>
-      <c r="WM127" s="17"/>
-      <c r="WN127" s="17"/>
-      <c r="WO127" s="17"/>
-      <c r="WP127" s="17"/>
-      <c r="WQ127" s="17"/>
-      <c r="WR127" s="17"/>
-      <c r="WS127" s="17"/>
-      <c r="WT127" s="17"/>
-      <c r="WU127" s="17"/>
-      <c r="WV127" s="17"/>
-      <c r="WW127" s="17"/>
-      <c r="WX127" s="17"/>
-      <c r="WY127" s="17"/>
-      <c r="WZ127" s="17"/>
-      <c r="XA127" s="17"/>
-      <c r="XB127" s="17"/>
-      <c r="XC127" s="17"/>
-      <c r="XD127" s="17"/>
-      <c r="XE127" s="17"/>
-      <c r="XF127" s="17"/>
-      <c r="XG127" s="17"/>
-      <c r="XH127" s="17"/>
-      <c r="XI127" s="17"/>
-      <c r="XJ127" s="17"/>
-      <c r="XK127" s="17"/>
-      <c r="XL127" s="17"/>
-      <c r="XM127" s="17"/>
-      <c r="XN127" s="17"/>
-      <c r="XO127" s="17"/>
-      <c r="XP127" s="17"/>
-      <c r="XQ127" s="17"/>
-      <c r="XR127" s="17"/>
-      <c r="XS127" s="17"/>
-      <c r="XT127" s="17"/>
-      <c r="XU127" s="17"/>
-      <c r="XV127" s="17"/>
-      <c r="XW127" s="17"/>
-      <c r="XX127" s="17"/>
-      <c r="XY127" s="17"/>
-      <c r="XZ127" s="17"/>
-      <c r="YA127" s="17"/>
-      <c r="YB127" s="17"/>
-      <c r="YC127" s="17"/>
-      <c r="YD127" s="17"/>
-      <c r="YE127" s="17"/>
-      <c r="YF127" s="17"/>
-      <c r="YG127" s="17"/>
-      <c r="YH127" s="17"/>
-      <c r="YI127" s="17"/>
-      <c r="YJ127" s="17"/>
-      <c r="YK127" s="17"/>
-      <c r="YL127" s="17"/>
-      <c r="YM127" s="17"/>
-      <c r="YN127" s="17"/>
-      <c r="YO127" s="17"/>
-      <c r="YP127" s="17"/>
-      <c r="YQ127" s="17"/>
-      <c r="YR127" s="17"/>
-      <c r="YS127" s="17"/>
-      <c r="YT127" s="17"/>
-      <c r="YU127" s="17"/>
-      <c r="YV127" s="17"/>
-      <c r="YW127" s="17"/>
-      <c r="YX127" s="17"/>
-      <c r="YY127" s="17"/>
-      <c r="YZ127" s="17"/>
-      <c r="ZA127" s="17"/>
-      <c r="ZB127" s="17"/>
-      <c r="ZC127" s="17"/>
-      <c r="ZD127" s="17"/>
-      <c r="ZE127" s="17"/>
-      <c r="ZF127" s="17"/>
-      <c r="ZG127" s="17"/>
-      <c r="ZH127" s="17"/>
-      <c r="ZI127" s="17"/>
-      <c r="ZJ127" s="17"/>
-      <c r="ZK127" s="17"/>
-      <c r="ZL127" s="17"/>
-      <c r="ZM127" s="17"/>
-      <c r="ZN127" s="17"/>
-      <c r="ZO127" s="17"/>
-      <c r="ZP127" s="17"/>
-      <c r="ZQ127" s="17"/>
-      <c r="ZR127" s="17"/>
-      <c r="ZS127" s="17"/>
-      <c r="ZT127" s="17"/>
-      <c r="ZU127" s="17"/>
-      <c r="ZV127" s="17"/>
-      <c r="ZW127" s="17"/>
-      <c r="ZX127" s="17"/>
-      <c r="ZY127" s="17"/>
-      <c r="ZZ127" s="17"/>
-      <c r="AAA127" s="17"/>
-      <c r="AAB127" s="17"/>
-      <c r="AAC127" s="17"/>
-      <c r="AAD127" s="17"/>
-      <c r="AAE127" s="17"/>
-      <c r="AAF127" s="17"/>
-      <c r="AAG127" s="17"/>
-      <c r="AAH127" s="17"/>
-      <c r="AAI127" s="17"/>
-      <c r="AAJ127" s="17"/>
-      <c r="AAK127" s="17"/>
-      <c r="AAL127" s="17"/>
-      <c r="AAM127" s="17"/>
-      <c r="AAN127" s="17"/>
-      <c r="AAO127" s="17"/>
-      <c r="AAP127" s="17"/>
-      <c r="AAQ127" s="17"/>
-      <c r="AAR127" s="17"/>
-      <c r="AAS127" s="17"/>
-      <c r="AAT127" s="17"/>
-      <c r="AAU127" s="17"/>
-      <c r="AAV127" s="17"/>
-      <c r="AAW127" s="17"/>
-      <c r="AAX127" s="17"/>
-      <c r="AAY127" s="17"/>
-      <c r="AAZ127" s="17"/>
-      <c r="ABA127" s="17"/>
-      <c r="ABB127" s="17"/>
-      <c r="ABC127" s="17"/>
-      <c r="ABD127" s="17"/>
-      <c r="ABE127" s="17"/>
-      <c r="ABF127" s="17"/>
-      <c r="ABG127" s="17"/>
-      <c r="ABH127" s="17"/>
-      <c r="ABI127" s="17"/>
-      <c r="ABJ127" s="17"/>
-      <c r="ABK127" s="17"/>
-      <c r="ABL127" s="17"/>
-      <c r="ABM127" s="17"/>
-      <c r="ABN127" s="17"/>
-      <c r="ABO127" s="17"/>
-      <c r="ABP127" s="17"/>
-      <c r="ABQ127" s="17"/>
-      <c r="ABR127" s="17"/>
-      <c r="ABS127" s="17"/>
-      <c r="ABT127" s="17"/>
-      <c r="ABU127" s="17"/>
-      <c r="ABV127" s="17"/>
-      <c r="ABW127" s="17"/>
-      <c r="ABX127" s="17"/>
-      <c r="ABY127" s="17"/>
-      <c r="ABZ127" s="17"/>
-      <c r="ACA127" s="17"/>
-      <c r="ACB127" s="17"/>
-      <c r="ACC127" s="17"/>
-      <c r="ACD127" s="17"/>
-      <c r="ACE127" s="17"/>
-      <c r="ACF127" s="17"/>
-      <c r="ACG127" s="17"/>
-      <c r="ACH127" s="17"/>
-      <c r="ACI127" s="17"/>
-      <c r="ACJ127" s="17"/>
-      <c r="ACK127" s="17"/>
-      <c r="ACL127" s="17"/>
-      <c r="ACM127" s="17"/>
-      <c r="ACN127" s="17"/>
-      <c r="ACO127" s="17"/>
-      <c r="ACP127" s="17"/>
-      <c r="ACQ127" s="17"/>
-      <c r="ACR127" s="17"/>
-      <c r="ACS127" s="17"/>
-      <c r="ACT127" s="17"/>
-      <c r="ACU127" s="17"/>
-      <c r="ACV127" s="17"/>
-      <c r="ACW127" s="17"/>
-      <c r="ACX127" s="17"/>
-      <c r="ACY127" s="17"/>
-      <c r="ACZ127" s="17"/>
-      <c r="ADA127" s="17"/>
-      <c r="ADB127" s="17"/>
-      <c r="ADC127" s="17"/>
-      <c r="ADD127" s="17"/>
-      <c r="ADE127" s="17"/>
-      <c r="ADF127" s="17"/>
-      <c r="ADG127" s="17"/>
-      <c r="ADH127" s="17"/>
-      <c r="ADI127" s="17"/>
-      <c r="ADJ127" s="17"/>
-      <c r="ADK127" s="17"/>
-      <c r="ADL127" s="17"/>
-      <c r="ADM127" s="17"/>
-      <c r="ADN127" s="17"/>
-      <c r="ADO127" s="17"/>
-      <c r="ADP127" s="17"/>
-      <c r="ADQ127" s="17"/>
-      <c r="ADR127" s="17"/>
-      <c r="ADS127" s="17"/>
-      <c r="ADT127" s="17"/>
-      <c r="ADU127" s="17"/>
-      <c r="ADV127" s="17"/>
-      <c r="ADW127" s="17"/>
-      <c r="ADX127" s="17"/>
-      <c r="ADY127" s="17"/>
-      <c r="ADZ127" s="17"/>
-      <c r="AEA127" s="17"/>
-      <c r="AEB127" s="17"/>
-      <c r="AEC127" s="17"/>
-      <c r="AED127" s="17"/>
-      <c r="AEE127" s="17"/>
-      <c r="AEF127" s="17"/>
-      <c r="AEG127" s="17"/>
-      <c r="AEH127" s="17"/>
-      <c r="AEI127" s="17"/>
-      <c r="AEJ127" s="17"/>
-      <c r="AEK127" s="17"/>
-      <c r="AEL127" s="17"/>
-      <c r="AEM127" s="17"/>
-      <c r="AEN127" s="17"/>
-      <c r="AEO127" s="17"/>
-      <c r="AEP127" s="17"/>
-      <c r="AEQ127" s="17"/>
-      <c r="AER127" s="17"/>
-      <c r="AES127" s="17"/>
-      <c r="AET127" s="17"/>
-      <c r="AEU127" s="17"/>
-      <c r="AEV127" s="17"/>
-      <c r="AEW127" s="17"/>
-      <c r="AEX127" s="17"/>
-      <c r="AEY127" s="17"/>
-      <c r="AEZ127" s="17"/>
-      <c r="AFA127" s="17"/>
-      <c r="AFB127" s="17"/>
-      <c r="AFC127" s="17"/>
-      <c r="AFD127" s="17"/>
-      <c r="AFE127" s="17"/>
-      <c r="AFF127" s="17"/>
-      <c r="AFG127" s="17"/>
-      <c r="AFH127" s="17"/>
-      <c r="AFI127" s="17"/>
-      <c r="AFJ127" s="17"/>
-      <c r="AFK127" s="17"/>
-      <c r="AFL127" s="17"/>
-      <c r="AFM127" s="17"/>
-      <c r="AFN127" s="17"/>
-      <c r="AFO127" s="17"/>
-      <c r="AFP127" s="17"/>
-      <c r="AFQ127" s="17"/>
-      <c r="AFR127" s="17"/>
-      <c r="AFS127" s="17"/>
-      <c r="AFT127" s="17"/>
-      <c r="AFU127" s="17"/>
-      <c r="AFV127" s="17"/>
-      <c r="AFW127" s="17"/>
-      <c r="AFX127" s="17"/>
-      <c r="AFY127" s="17"/>
-      <c r="AFZ127" s="17"/>
-      <c r="AGA127" s="17"/>
-      <c r="AGB127" s="17"/>
-      <c r="AGC127" s="17"/>
-      <c r="AGD127" s="17"/>
-      <c r="AGE127" s="17"/>
-      <c r="AGF127" s="17"/>
-      <c r="AGG127" s="17"/>
-      <c r="AGH127" s="17"/>
-      <c r="AGI127" s="17"/>
-      <c r="AGJ127" s="17"/>
-      <c r="AGK127" s="17"/>
-      <c r="AGL127" s="17"/>
-      <c r="AGM127" s="17"/>
-      <c r="AGN127" s="17"/>
-      <c r="AGO127" s="17"/>
-      <c r="AGP127" s="17"/>
-      <c r="AGQ127" s="17"/>
-      <c r="AGR127" s="17"/>
-      <c r="AGS127" s="17"/>
-      <c r="AGT127" s="17"/>
-      <c r="AGU127" s="17"/>
-      <c r="AGV127" s="17"/>
-      <c r="AGW127" s="17"/>
-      <c r="AGX127" s="17"/>
-      <c r="AGY127" s="17"/>
-      <c r="AGZ127" s="17"/>
-      <c r="AHA127" s="17"/>
-      <c r="AHB127" s="17"/>
-      <c r="AHC127" s="17"/>
-      <c r="AHD127" s="17"/>
-      <c r="AHE127" s="17"/>
-      <c r="AHF127" s="17"/>
-      <c r="AHG127" s="17"/>
-      <c r="AHH127" s="17"/>
-      <c r="AHI127" s="17"/>
-      <c r="AHJ127" s="17"/>
-      <c r="AHK127" s="17"/>
-      <c r="AHL127" s="17"/>
-      <c r="AHM127" s="17"/>
-      <c r="AHN127" s="17"/>
-      <c r="AHO127" s="17"/>
-      <c r="AHP127" s="17"/>
-      <c r="AHQ127" s="17"/>
-      <c r="AHR127" s="17"/>
-      <c r="AHS127" s="17"/>
-      <c r="AHT127" s="17"/>
-      <c r="AHU127" s="17"/>
-      <c r="AHV127" s="17"/>
-      <c r="AHW127" s="17"/>
-      <c r="AHX127" s="17"/>
-      <c r="AHY127" s="17"/>
-      <c r="AHZ127" s="17"/>
-      <c r="AIA127" s="17"/>
-      <c r="AIB127" s="17"/>
-      <c r="AIC127" s="17"/>
-      <c r="AID127" s="17"/>
-      <c r="AIE127" s="17"/>
-      <c r="AIF127" s="17"/>
-      <c r="AIG127" s="17"/>
-      <c r="AIH127" s="17"/>
-      <c r="AII127" s="17"/>
-      <c r="AIJ127" s="17"/>
-      <c r="AIK127" s="17"/>
-      <c r="AIL127" s="17"/>
-      <c r="AIM127" s="17"/>
-      <c r="AIN127" s="17"/>
-      <c r="AIO127" s="17"/>
-      <c r="AIP127" s="17"/>
-      <c r="AIQ127" s="17"/>
-      <c r="AIR127" s="17"/>
-      <c r="AIS127" s="17"/>
-      <c r="AIT127" s="17"/>
-      <c r="AIU127" s="17"/>
-      <c r="AIV127" s="17"/>
-      <c r="AIW127" s="17"/>
-      <c r="AIX127" s="17"/>
-      <c r="AIY127" s="17"/>
-      <c r="AIZ127" s="17"/>
-      <c r="AJA127" s="17"/>
-      <c r="AJB127" s="17"/>
-      <c r="AJC127" s="17"/>
-      <c r="AJD127" s="17"/>
-      <c r="AJE127" s="17"/>
-      <c r="AJF127" s="17"/>
-      <c r="AJG127" s="17"/>
-      <c r="AJH127" s="17"/>
-      <c r="AJI127" s="17"/>
-      <c r="AJJ127" s="17"/>
-      <c r="AJK127" s="17"/>
-      <c r="AJL127" s="17"/>
-      <c r="AJM127" s="17"/>
-      <c r="AJN127" s="17"/>
-      <c r="AJO127" s="17"/>
-      <c r="AJP127" s="17"/>
-      <c r="AJQ127" s="17"/>
-      <c r="AJR127" s="17"/>
-      <c r="AJS127" s="17"/>
-      <c r="AJT127" s="17"/>
-      <c r="AJU127" s="17"/>
-      <c r="AJV127" s="17"/>
-      <c r="AJW127" s="17"/>
-      <c r="AJX127" s="17"/>
-      <c r="AJY127" s="17"/>
-      <c r="AJZ127" s="17"/>
-      <c r="AKA127" s="17"/>
-      <c r="AKB127" s="17"/>
-      <c r="AKC127" s="17"/>
-      <c r="AKD127" s="17"/>
-      <c r="AKE127" s="17"/>
-      <c r="AKF127" s="17"/>
-      <c r="AKG127" s="17"/>
-      <c r="AKH127" s="17"/>
-      <c r="AKI127" s="17"/>
-      <c r="AKJ127" s="17"/>
-      <c r="AKK127" s="17"/>
-      <c r="AKL127" s="17"/>
-      <c r="AKM127" s="17"/>
-      <c r="AKN127" s="17"/>
-      <c r="AKO127" s="17"/>
-      <c r="AKP127" s="17"/>
-      <c r="AKQ127" s="17"/>
-      <c r="AKR127" s="17"/>
-      <c r="AKS127" s="17"/>
-      <c r="AKT127" s="17"/>
-      <c r="AKU127" s="17"/>
-      <c r="AKV127" s="17"/>
-      <c r="AKW127" s="17"/>
-      <c r="AKX127" s="17"/>
-      <c r="AKY127" s="17"/>
-      <c r="AKZ127" s="17"/>
-      <c r="ALA127" s="17"/>
-      <c r="ALB127" s="17"/>
-      <c r="ALC127" s="17"/>
-      <c r="ALD127" s="17"/>
-      <c r="ALE127" s="17"/>
-      <c r="ALF127" s="17"/>
-      <c r="ALG127" s="17"/>
-      <c r="ALH127" s="17"/>
-      <c r="ALI127" s="17"/>
-      <c r="ALJ127" s="17"/>
-      <c r="ALK127" s="17"/>
-      <c r="ALL127" s="17"/>
-      <c r="ALM127" s="17"/>
-      <c r="ALN127" s="17"/>
-      <c r="ALO127" s="17"/>
-      <c r="ALP127" s="17"/>
-      <c r="ALQ127" s="17"/>
-      <c r="ALR127" s="17"/>
-      <c r="ALS127" s="17"/>
-      <c r="ALT127" s="17"/>
-      <c r="ALU127" s="17"/>
-      <c r="ALV127" s="17"/>
-      <c r="ALW127" s="17"/>
-      <c r="ALX127" s="17"/>
-      <c r="ALY127" s="17"/>
-      <c r="ALZ127" s="17"/>
-      <c r="AMA127" s="17"/>
-      <c r="AMB127" s="17"/>
-      <c r="AMC127" s="17"/>
-      <c r="AMD127" s="17"/>
-      <c r="AME127" s="17"/>
-      <c r="AMF127" s="17"/>
-    </row>
-    <row r="129" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="23"/>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="23"/>
+      <c r="T127" s="23"/>
+      <c r="U127" s="23"/>
+      <c r="V127" s="23"/>
+      <c r="W127" s="23"/>
+      <c r="X127" s="23"/>
+      <c r="Y127" s="23"/>
+      <c r="Z127" s="23"/>
+      <c r="AA127" s="23"/>
+      <c r="AB127" s="23"/>
+      <c r="AC127" s="23"/>
+      <c r="AD127" s="23"/>
+      <c r="AE127" s="23"/>
+      <c r="AF127" s="23"/>
+      <c r="AG127" s="23"/>
+      <c r="AH127" s="23"/>
+      <c r="AI127" s="23"/>
+      <c r="AJ127" s="23"/>
+      <c r="AK127" s="23"/>
+      <c r="AL127" s="23"/>
+      <c r="AM127" s="23"/>
+      <c r="AN127" s="23"/>
+      <c r="AO127" s="23"/>
+      <c r="AP127" s="23"/>
+      <c r="AQ127" s="23"/>
+      <c r="AR127" s="23"/>
+      <c r="AS127" s="23"/>
+      <c r="AT127" s="23"/>
+      <c r="AU127" s="23"/>
+      <c r="AV127" s="23"/>
+      <c r="AW127" s="23"/>
+      <c r="AX127" s="23"/>
+      <c r="AY127" s="23"/>
+      <c r="AZ127" s="23"/>
+      <c r="BA127" s="23"/>
+      <c r="BB127" s="23"/>
+      <c r="BC127" s="23"/>
+      <c r="BD127" s="23"/>
+      <c r="BE127" s="23"/>
+      <c r="BF127" s="23"/>
+      <c r="BG127" s="23"/>
+      <c r="BH127" s="23"/>
+      <c r="BI127" s="23"/>
+      <c r="BJ127" s="23"/>
+      <c r="BK127" s="23"/>
+      <c r="BL127" s="23"/>
+      <c r="BM127" s="23"/>
+      <c r="BN127" s="23"/>
+      <c r="BO127" s="23"/>
+      <c r="BP127" s="23"/>
+      <c r="BQ127" s="23"/>
+      <c r="BR127" s="23"/>
+      <c r="BS127" s="23"/>
+      <c r="BT127" s="23"/>
+      <c r="BU127" s="23"/>
+      <c r="BV127" s="23"/>
+      <c r="BW127" s="23"/>
+      <c r="BX127" s="23"/>
+      <c r="BY127" s="23"/>
+      <c r="BZ127" s="23"/>
+      <c r="CA127" s="23"/>
+      <c r="CB127" s="23"/>
+      <c r="CC127" s="23"/>
+      <c r="CD127" s="23"/>
+      <c r="CE127" s="23"/>
+      <c r="CF127" s="23"/>
+      <c r="CG127" s="23"/>
+      <c r="CH127" s="23"/>
+      <c r="CI127" s="23"/>
+      <c r="CJ127" s="23"/>
+      <c r="CK127" s="23"/>
+      <c r="CL127" s="23"/>
+      <c r="CM127" s="23"/>
+      <c r="CN127" s="23"/>
+      <c r="CO127" s="23"/>
+      <c r="CP127" s="23"/>
+      <c r="CQ127" s="23"/>
+      <c r="CR127" s="23"/>
+      <c r="CS127" s="23"/>
+      <c r="CT127" s="23"/>
+      <c r="CU127" s="23"/>
+      <c r="CV127" s="23"/>
+      <c r="CW127" s="23"/>
+      <c r="CX127" s="23"/>
+      <c r="CY127" s="23"/>
+      <c r="CZ127" s="23"/>
+      <c r="DA127" s="23"/>
+      <c r="DB127" s="23"/>
+      <c r="DC127" s="23"/>
+      <c r="DD127" s="23"/>
+      <c r="DE127" s="23"/>
+      <c r="DF127" s="23"/>
+      <c r="DG127" s="23"/>
+      <c r="DH127" s="23"/>
+      <c r="DI127" s="23"/>
+      <c r="DJ127" s="23"/>
+      <c r="DK127" s="23"/>
+      <c r="DL127" s="23"/>
+      <c r="DM127" s="23"/>
+      <c r="DN127" s="23"/>
+      <c r="DO127" s="23"/>
+      <c r="DP127" s="23"/>
+      <c r="DQ127" s="23"/>
+      <c r="DR127" s="23"/>
+      <c r="DS127" s="23"/>
+      <c r="DT127" s="23"/>
+      <c r="DU127" s="23"/>
+      <c r="DV127" s="23"/>
+      <c r="DW127" s="23"/>
+      <c r="DX127" s="23"/>
+      <c r="DY127" s="23"/>
+      <c r="DZ127" s="23"/>
+      <c r="EA127" s="23"/>
+      <c r="EB127" s="23"/>
+      <c r="EC127" s="23"/>
+      <c r="ED127" s="23"/>
+      <c r="EE127" s="23"/>
+      <c r="EF127" s="23"/>
+      <c r="EG127" s="23"/>
+      <c r="EH127" s="23"/>
+      <c r="EI127" s="23"/>
+      <c r="EJ127" s="23"/>
+      <c r="EK127" s="23"/>
+      <c r="EL127" s="23"/>
+      <c r="EM127" s="23"/>
+      <c r="EN127" s="23"/>
+      <c r="EO127" s="23"/>
+      <c r="EP127" s="23"/>
+      <c r="EQ127" s="23"/>
+      <c r="ER127" s="23"/>
+      <c r="ES127" s="23"/>
+      <c r="ET127" s="23"/>
+      <c r="EU127" s="23"/>
+      <c r="EV127" s="23"/>
+      <c r="EW127" s="23"/>
+      <c r="EX127" s="23"/>
+      <c r="EY127" s="23"/>
+      <c r="EZ127" s="23"/>
+      <c r="FA127" s="23"/>
+      <c r="FB127" s="23"/>
+      <c r="FC127" s="23"/>
+      <c r="FD127" s="23"/>
+      <c r="FE127" s="23"/>
+      <c r="FF127" s="23"/>
+      <c r="FG127" s="23"/>
+      <c r="FH127" s="23"/>
+      <c r="FI127" s="23"/>
+      <c r="FJ127" s="23"/>
+      <c r="FK127" s="23"/>
+      <c r="FL127" s="23"/>
+      <c r="FM127" s="23"/>
+      <c r="FN127" s="23"/>
+      <c r="FO127" s="23"/>
+      <c r="FP127" s="23"/>
+      <c r="FQ127" s="23"/>
+      <c r="FR127" s="23"/>
+      <c r="FS127" s="23"/>
+      <c r="FT127" s="23"/>
+      <c r="FU127" s="23"/>
+      <c r="FV127" s="23"/>
+      <c r="FW127" s="23"/>
+      <c r="FX127" s="23"/>
+      <c r="FY127" s="23"/>
+      <c r="FZ127" s="23"/>
+      <c r="GA127" s="23"/>
+      <c r="GB127" s="23"/>
+      <c r="GC127" s="23"/>
+      <c r="GD127" s="23"/>
+      <c r="GE127" s="23"/>
+      <c r="GF127" s="23"/>
+      <c r="GG127" s="23"/>
+      <c r="GH127" s="23"/>
+      <c r="GI127" s="23"/>
+      <c r="GJ127" s="23"/>
+      <c r="GK127" s="23"/>
+      <c r="GL127" s="23"/>
+      <c r="GM127" s="23"/>
+      <c r="GN127" s="23"/>
+      <c r="GO127" s="23"/>
+      <c r="GP127" s="23"/>
+      <c r="GQ127" s="23"/>
+      <c r="GR127" s="23"/>
+      <c r="GS127" s="23"/>
+      <c r="GT127" s="23"/>
+      <c r="GU127" s="23"/>
+      <c r="GV127" s="23"/>
+      <c r="GW127" s="23"/>
+      <c r="GX127" s="23"/>
+      <c r="GY127" s="23"/>
+      <c r="GZ127" s="23"/>
+      <c r="HA127" s="23"/>
+      <c r="HB127" s="23"/>
+      <c r="HC127" s="23"/>
+      <c r="HD127" s="23"/>
+      <c r="HE127" s="23"/>
+      <c r="HF127" s="23"/>
+      <c r="HG127" s="23"/>
+      <c r="HH127" s="23"/>
+      <c r="HI127" s="23"/>
+      <c r="HJ127" s="23"/>
+      <c r="HK127" s="23"/>
+      <c r="HL127" s="23"/>
+      <c r="HM127" s="23"/>
+      <c r="HN127" s="23"/>
+      <c r="HO127" s="23"/>
+      <c r="HP127" s="23"/>
+      <c r="HQ127" s="23"/>
+      <c r="HR127" s="23"/>
+      <c r="HS127" s="23"/>
+      <c r="HT127" s="23"/>
+      <c r="HU127" s="23"/>
+      <c r="HV127" s="23"/>
+      <c r="HW127" s="23"/>
+      <c r="HX127" s="23"/>
+      <c r="HY127" s="23"/>
+      <c r="HZ127" s="23"/>
+      <c r="IA127" s="23"/>
+      <c r="IB127" s="23"/>
+      <c r="IC127" s="23"/>
+      <c r="ID127" s="23"/>
+      <c r="IE127" s="23"/>
+      <c r="IF127" s="23"/>
+      <c r="IG127" s="23"/>
+      <c r="IH127" s="23"/>
+      <c r="II127" s="23"/>
+      <c r="IJ127" s="23"/>
+      <c r="IK127" s="23"/>
+      <c r="IL127" s="23"/>
+      <c r="IM127" s="23"/>
+      <c r="IN127" s="23"/>
+      <c r="IO127" s="23"/>
+      <c r="IP127" s="23"/>
+      <c r="IQ127" s="23"/>
+      <c r="IR127" s="23"/>
+      <c r="IS127" s="23"/>
+      <c r="IT127" s="23"/>
+      <c r="IU127" s="23"/>
+      <c r="IV127" s="23"/>
+      <c r="IW127" s="23"/>
+      <c r="IX127" s="23"/>
+      <c r="IY127" s="23"/>
+      <c r="IZ127" s="23"/>
+      <c r="JA127" s="23"/>
+      <c r="JB127" s="23"/>
+      <c r="JC127" s="23"/>
+      <c r="JD127" s="23"/>
+      <c r="JE127" s="23"/>
+      <c r="JF127" s="23"/>
+      <c r="JG127" s="23"/>
+      <c r="JH127" s="23"/>
+      <c r="JI127" s="23"/>
+      <c r="JJ127" s="23"/>
+      <c r="JK127" s="23"/>
+      <c r="JL127" s="23"/>
+      <c r="JM127" s="23"/>
+      <c r="JN127" s="23"/>
+      <c r="JO127" s="23"/>
+      <c r="JP127" s="23"/>
+      <c r="JQ127" s="23"/>
+      <c r="JR127" s="23"/>
+      <c r="JS127" s="23"/>
+      <c r="JT127" s="23"/>
+      <c r="JU127" s="23"/>
+      <c r="JV127" s="23"/>
+      <c r="JW127" s="23"/>
+      <c r="JX127" s="23"/>
+      <c r="JY127" s="23"/>
+      <c r="JZ127" s="23"/>
+      <c r="KA127" s="23"/>
+      <c r="KB127" s="23"/>
+      <c r="KC127" s="23"/>
+      <c r="KD127" s="23"/>
+      <c r="KE127" s="23"/>
+      <c r="KF127" s="23"/>
+      <c r="KG127" s="23"/>
+      <c r="KH127" s="23"/>
+      <c r="KI127" s="23"/>
+      <c r="KJ127" s="23"/>
+      <c r="KK127" s="23"/>
+      <c r="KL127" s="23"/>
+      <c r="KM127" s="23"/>
+      <c r="KN127" s="23"/>
+      <c r="KO127" s="23"/>
+      <c r="KP127" s="23"/>
+      <c r="KQ127" s="23"/>
+      <c r="KR127" s="23"/>
+      <c r="KS127" s="23"/>
+      <c r="KT127" s="23"/>
+      <c r="KU127" s="23"/>
+      <c r="KV127" s="23"/>
+      <c r="KW127" s="23"/>
+      <c r="KX127" s="23"/>
+      <c r="KY127" s="23"/>
+      <c r="KZ127" s="23"/>
+      <c r="LA127" s="23"/>
+      <c r="LB127" s="23"/>
+      <c r="LC127" s="23"/>
+      <c r="LD127" s="23"/>
+      <c r="LE127" s="23"/>
+      <c r="LF127" s="23"/>
+      <c r="LG127" s="23"/>
+      <c r="LH127" s="23"/>
+      <c r="LI127" s="23"/>
+      <c r="LJ127" s="23"/>
+      <c r="LK127" s="23"/>
+      <c r="LL127" s="23"/>
+      <c r="LM127" s="23"/>
+      <c r="LN127" s="23"/>
+      <c r="LO127" s="23"/>
+      <c r="LP127" s="23"/>
+      <c r="LQ127" s="23"/>
+      <c r="LR127" s="23"/>
+      <c r="LS127" s="23"/>
+      <c r="LT127" s="23"/>
+      <c r="LU127" s="23"/>
+      <c r="LV127" s="23"/>
+      <c r="LW127" s="23"/>
+      <c r="LX127" s="23"/>
+      <c r="LY127" s="23"/>
+      <c r="LZ127" s="23"/>
+      <c r="MA127" s="23"/>
+      <c r="MB127" s="23"/>
+      <c r="MC127" s="23"/>
+      <c r="MD127" s="23"/>
+      <c r="ME127" s="23"/>
+      <c r="MF127" s="23"/>
+      <c r="MG127" s="23"/>
+      <c r="MH127" s="23"/>
+      <c r="MI127" s="23"/>
+      <c r="MJ127" s="23"/>
+      <c r="MK127" s="23"/>
+      <c r="ML127" s="23"/>
+      <c r="MM127" s="23"/>
+      <c r="MN127" s="23"/>
+      <c r="MO127" s="23"/>
+      <c r="MP127" s="23"/>
+      <c r="MQ127" s="23"/>
+      <c r="MR127" s="23"/>
+      <c r="MS127" s="23"/>
+      <c r="MT127" s="23"/>
+      <c r="MU127" s="23"/>
+      <c r="MV127" s="23"/>
+      <c r="MW127" s="23"/>
+      <c r="MX127" s="23"/>
+      <c r="MY127" s="23"/>
+      <c r="MZ127" s="23"/>
+      <c r="NA127" s="23"/>
+      <c r="NB127" s="23"/>
+      <c r="NC127" s="23"/>
+      <c r="ND127" s="23"/>
+      <c r="NE127" s="23"/>
+      <c r="NF127" s="23"/>
+      <c r="NG127" s="23"/>
+      <c r="NH127" s="23"/>
+      <c r="NI127" s="23"/>
+      <c r="NJ127" s="23"/>
+      <c r="NK127" s="23"/>
+      <c r="NL127" s="23"/>
+      <c r="NM127" s="23"/>
+      <c r="NN127" s="23"/>
+      <c r="NO127" s="23"/>
+      <c r="NP127" s="23"/>
+      <c r="NQ127" s="23"/>
+      <c r="NR127" s="23"/>
+      <c r="NS127" s="23"/>
+      <c r="NT127" s="23"/>
+      <c r="NU127" s="23"/>
+      <c r="NV127" s="23"/>
+      <c r="NW127" s="23"/>
+      <c r="NX127" s="23"/>
+      <c r="NY127" s="23"/>
+      <c r="NZ127" s="23"/>
+      <c r="OA127" s="23"/>
+      <c r="OB127" s="23"/>
+      <c r="OC127" s="23"/>
+      <c r="OD127" s="23"/>
+      <c r="OE127" s="23"/>
+      <c r="OF127" s="23"/>
+      <c r="OG127" s="23"/>
+      <c r="OH127" s="23"/>
+      <c r="OI127" s="23"/>
+      <c r="OJ127" s="23"/>
+      <c r="OK127" s="23"/>
+      <c r="OL127" s="23"/>
+      <c r="OM127" s="23"/>
+      <c r="ON127" s="23"/>
+      <c r="OO127" s="23"/>
+      <c r="OP127" s="23"/>
+      <c r="OQ127" s="23"/>
+      <c r="OR127" s="23"/>
+      <c r="OS127" s="23"/>
+      <c r="OT127" s="23"/>
+      <c r="OU127" s="23"/>
+      <c r="OV127" s="23"/>
+      <c r="OW127" s="23"/>
+      <c r="OX127" s="23"/>
+      <c r="OY127" s="23"/>
+      <c r="OZ127" s="23"/>
+      <c r="PA127" s="23"/>
+      <c r="PB127" s="23"/>
+      <c r="PC127" s="23"/>
+      <c r="PD127" s="23"/>
+      <c r="PE127" s="23"/>
+      <c r="PF127" s="23"/>
+      <c r="PG127" s="23"/>
+      <c r="PH127" s="23"/>
+      <c r="PI127" s="23"/>
+      <c r="PJ127" s="23"/>
+      <c r="PK127" s="23"/>
+      <c r="PL127" s="23"/>
+      <c r="PM127" s="23"/>
+      <c r="PN127" s="23"/>
+      <c r="PO127" s="23"/>
+      <c r="PP127" s="23"/>
+      <c r="PQ127" s="23"/>
+      <c r="PR127" s="23"/>
+      <c r="PS127" s="23"/>
+      <c r="PT127" s="23"/>
+      <c r="PU127" s="23"/>
+      <c r="PV127" s="23"/>
+      <c r="PW127" s="23"/>
+      <c r="PX127" s="23"/>
+      <c r="PY127" s="23"/>
+      <c r="PZ127" s="23"/>
+      <c r="QA127" s="23"/>
+      <c r="QB127" s="23"/>
+      <c r="QC127" s="23"/>
+      <c r="QD127" s="23"/>
+      <c r="QE127" s="23"/>
+      <c r="QF127" s="23"/>
+      <c r="QG127" s="23"/>
+      <c r="QH127" s="23"/>
+      <c r="QI127" s="23"/>
+      <c r="QJ127" s="23"/>
+      <c r="QK127" s="23"/>
+      <c r="QL127" s="23"/>
+      <c r="QM127" s="23"/>
+      <c r="QN127" s="23"/>
+      <c r="QO127" s="23"/>
+      <c r="QP127" s="23"/>
+      <c r="QQ127" s="23"/>
+      <c r="QR127" s="23"/>
+      <c r="QS127" s="23"/>
+      <c r="QT127" s="23"/>
+      <c r="QU127" s="23"/>
+      <c r="QV127" s="23"/>
+      <c r="QW127" s="23"/>
+      <c r="QX127" s="23"/>
+      <c r="QY127" s="23"/>
+      <c r="QZ127" s="23"/>
+      <c r="RA127" s="23"/>
+      <c r="RB127" s="23"/>
+      <c r="RC127" s="23"/>
+      <c r="RD127" s="23"/>
+      <c r="RE127" s="23"/>
+      <c r="RF127" s="23"/>
+      <c r="RG127" s="23"/>
+      <c r="RH127" s="23"/>
+      <c r="RI127" s="23"/>
+      <c r="RJ127" s="23"/>
+      <c r="RK127" s="23"/>
+      <c r="RL127" s="23"/>
+      <c r="RM127" s="23"/>
+      <c r="RN127" s="23"/>
+      <c r="RO127" s="23"/>
+      <c r="RP127" s="23"/>
+      <c r="RQ127" s="23"/>
+      <c r="RR127" s="23"/>
+      <c r="RS127" s="23"/>
+      <c r="RT127" s="23"/>
+      <c r="RU127" s="23"/>
+      <c r="RV127" s="23"/>
+      <c r="RW127" s="23"/>
+      <c r="RX127" s="23"/>
+      <c r="RY127" s="23"/>
+      <c r="RZ127" s="23"/>
+      <c r="SA127" s="23"/>
+      <c r="SB127" s="23"/>
+      <c r="SC127" s="23"/>
+      <c r="SD127" s="23"/>
+      <c r="SE127" s="23"/>
+      <c r="SF127" s="23"/>
+      <c r="SG127" s="23"/>
+      <c r="SH127" s="23"/>
+      <c r="SI127" s="23"/>
+      <c r="SJ127" s="23"/>
+      <c r="SK127" s="23"/>
+      <c r="SL127" s="23"/>
+      <c r="SM127" s="23"/>
+      <c r="SN127" s="23"/>
+      <c r="SO127" s="23"/>
+      <c r="SP127" s="23"/>
+      <c r="SQ127" s="23"/>
+      <c r="SR127" s="23"/>
+      <c r="SS127" s="23"/>
+      <c r="ST127" s="23"/>
+      <c r="SU127" s="23"/>
+      <c r="SV127" s="23"/>
+      <c r="SW127" s="23"/>
+      <c r="SX127" s="23"/>
+      <c r="SY127" s="23"/>
+      <c r="SZ127" s="23"/>
+      <c r="TA127" s="23"/>
+      <c r="TB127" s="23"/>
+      <c r="TC127" s="23"/>
+      <c r="TD127" s="23"/>
+      <c r="TE127" s="23"/>
+      <c r="TF127" s="23"/>
+      <c r="TG127" s="23"/>
+      <c r="TH127" s="23"/>
+      <c r="TI127" s="23"/>
+      <c r="TJ127" s="23"/>
+      <c r="TK127" s="23"/>
+      <c r="TL127" s="23"/>
+      <c r="TM127" s="23"/>
+      <c r="TN127" s="23"/>
+      <c r="TO127" s="23"/>
+      <c r="TP127" s="23"/>
+      <c r="TQ127" s="23"/>
+      <c r="TR127" s="23"/>
+      <c r="TS127" s="23"/>
+      <c r="TT127" s="23"/>
+      <c r="TU127" s="23"/>
+      <c r="TV127" s="23"/>
+      <c r="TW127" s="23"/>
+      <c r="TX127" s="23"/>
+      <c r="TY127" s="23"/>
+      <c r="TZ127" s="23"/>
+      <c r="UA127" s="23"/>
+      <c r="UB127" s="23"/>
+      <c r="UC127" s="23"/>
+      <c r="UD127" s="23"/>
+      <c r="UE127" s="23"/>
+      <c r="UF127" s="23"/>
+      <c r="UG127" s="23"/>
+      <c r="UH127" s="23"/>
+      <c r="UI127" s="23"/>
+      <c r="UJ127" s="23"/>
+      <c r="UK127" s="23"/>
+      <c r="UL127" s="23"/>
+      <c r="UM127" s="23"/>
+      <c r="UN127" s="23"/>
+      <c r="UO127" s="23"/>
+      <c r="UP127" s="23"/>
+      <c r="UQ127" s="23"/>
+      <c r="UR127" s="23"/>
+      <c r="US127" s="23"/>
+      <c r="UT127" s="23"/>
+      <c r="UU127" s="23"/>
+      <c r="UV127" s="23"/>
+      <c r="UW127" s="23"/>
+      <c r="UX127" s="23"/>
+      <c r="UY127" s="23"/>
+      <c r="UZ127" s="23"/>
+      <c r="VA127" s="23"/>
+      <c r="VB127" s="23"/>
+      <c r="VC127" s="23"/>
+      <c r="VD127" s="23"/>
+      <c r="VE127" s="23"/>
+      <c r="VF127" s="23"/>
+      <c r="VG127" s="23"/>
+      <c r="VH127" s="23"/>
+      <c r="VI127" s="23"/>
+      <c r="VJ127" s="23"/>
+      <c r="VK127" s="23"/>
+      <c r="VL127" s="23"/>
+      <c r="VM127" s="23"/>
+      <c r="VN127" s="23"/>
+      <c r="VO127" s="23"/>
+      <c r="VP127" s="23"/>
+      <c r="VQ127" s="23"/>
+      <c r="VR127" s="23"/>
+      <c r="VS127" s="23"/>
+      <c r="VT127" s="23"/>
+      <c r="VU127" s="23"/>
+      <c r="VV127" s="23"/>
+      <c r="VW127" s="23"/>
+      <c r="VX127" s="23"/>
+      <c r="VY127" s="23"/>
+      <c r="VZ127" s="23"/>
+      <c r="WA127" s="23"/>
+      <c r="WB127" s="23"/>
+      <c r="WC127" s="23"/>
+      <c r="WD127" s="23"/>
+      <c r="WE127" s="23"/>
+      <c r="WF127" s="23"/>
+      <c r="WG127" s="23"/>
+      <c r="WH127" s="23"/>
+      <c r="WI127" s="23"/>
+      <c r="WJ127" s="23"/>
+      <c r="WK127" s="23"/>
+      <c r="WL127" s="23"/>
+      <c r="WM127" s="23"/>
+      <c r="WN127" s="23"/>
+      <c r="WO127" s="23"/>
+      <c r="WP127" s="23"/>
+      <c r="WQ127" s="23"/>
+      <c r="WR127" s="23"/>
+      <c r="WS127" s="23"/>
+      <c r="WT127" s="23"/>
+      <c r="WU127" s="23"/>
+      <c r="WV127" s="23"/>
+      <c r="WW127" s="23"/>
+      <c r="WX127" s="23"/>
+      <c r="WY127" s="23"/>
+      <c r="WZ127" s="23"/>
+      <c r="XA127" s="23"/>
+      <c r="XB127" s="23"/>
+      <c r="XC127" s="23"/>
+      <c r="XD127" s="23"/>
+      <c r="XE127" s="23"/>
+      <c r="XF127" s="23"/>
+      <c r="XG127" s="23"/>
+      <c r="XH127" s="23"/>
+      <c r="XI127" s="23"/>
+      <c r="XJ127" s="23"/>
+      <c r="XK127" s="23"/>
+      <c r="XL127" s="23"/>
+      <c r="XM127" s="23"/>
+      <c r="XN127" s="23"/>
+      <c r="XO127" s="23"/>
+      <c r="XP127" s="23"/>
+      <c r="XQ127" s="23"/>
+      <c r="XR127" s="23"/>
+      <c r="XS127" s="23"/>
+      <c r="XT127" s="23"/>
+      <c r="XU127" s="23"/>
+      <c r="XV127" s="23"/>
+      <c r="XW127" s="23"/>
+      <c r="XX127" s="23"/>
+      <c r="XY127" s="23"/>
+      <c r="XZ127" s="23"/>
+      <c r="YA127" s="23"/>
+      <c r="YB127" s="23"/>
+      <c r="YC127" s="23"/>
+      <c r="YD127" s="23"/>
+      <c r="YE127" s="23"/>
+      <c r="YF127" s="23"/>
+      <c r="YG127" s="23"/>
+      <c r="YH127" s="23"/>
+      <c r="YI127" s="23"/>
+      <c r="YJ127" s="23"/>
+      <c r="YK127" s="23"/>
+      <c r="YL127" s="23"/>
+      <c r="YM127" s="23"/>
+      <c r="YN127" s="23"/>
+      <c r="YO127" s="23"/>
+      <c r="YP127" s="23"/>
+      <c r="YQ127" s="23"/>
+      <c r="YR127" s="23"/>
+      <c r="YS127" s="23"/>
+      <c r="YT127" s="23"/>
+      <c r="YU127" s="23"/>
+      <c r="YV127" s="23"/>
+      <c r="YW127" s="23"/>
+      <c r="YX127" s="23"/>
+      <c r="YY127" s="23"/>
+      <c r="YZ127" s="23"/>
+      <c r="ZA127" s="23"/>
+      <c r="ZB127" s="23"/>
+      <c r="ZC127" s="23"/>
+      <c r="ZD127" s="23"/>
+      <c r="ZE127" s="23"/>
+      <c r="ZF127" s="23"/>
+      <c r="ZG127" s="23"/>
+      <c r="ZH127" s="23"/>
+      <c r="ZI127" s="23"/>
+      <c r="ZJ127" s="23"/>
+      <c r="ZK127" s="23"/>
+      <c r="ZL127" s="23"/>
+      <c r="ZM127" s="23"/>
+      <c r="ZN127" s="23"/>
+      <c r="ZO127" s="23"/>
+      <c r="ZP127" s="23"/>
+      <c r="ZQ127" s="23"/>
+      <c r="ZR127" s="23"/>
+      <c r="ZS127" s="23"/>
+      <c r="ZT127" s="23"/>
+      <c r="ZU127" s="23"/>
+      <c r="ZV127" s="23"/>
+      <c r="ZW127" s="23"/>
+      <c r="ZX127" s="23"/>
+      <c r="ZY127" s="23"/>
+      <c r="ZZ127" s="23"/>
+      <c r="AAA127" s="23"/>
+      <c r="AAB127" s="23"/>
+      <c r="AAC127" s="23"/>
+      <c r="AAD127" s="23"/>
+      <c r="AAE127" s="23"/>
+      <c r="AAF127" s="23"/>
+      <c r="AAG127" s="23"/>
+      <c r="AAH127" s="23"/>
+      <c r="AAI127" s="23"/>
+      <c r="AAJ127" s="23"/>
+      <c r="AAK127" s="23"/>
+      <c r="AAL127" s="23"/>
+      <c r="AAM127" s="23"/>
+      <c r="AAN127" s="23"/>
+      <c r="AAO127" s="23"/>
+      <c r="AAP127" s="23"/>
+      <c r="AAQ127" s="23"/>
+      <c r="AAR127" s="23"/>
+      <c r="AAS127" s="23"/>
+      <c r="AAT127" s="23"/>
+      <c r="AAU127" s="23"/>
+      <c r="AAV127" s="23"/>
+      <c r="AAW127" s="23"/>
+      <c r="AAX127" s="23"/>
+      <c r="AAY127" s="23"/>
+      <c r="AAZ127" s="23"/>
+      <c r="ABA127" s="23"/>
+      <c r="ABB127" s="23"/>
+      <c r="ABC127" s="23"/>
+      <c r="ABD127" s="23"/>
+      <c r="ABE127" s="23"/>
+      <c r="ABF127" s="23"/>
+      <c r="ABG127" s="23"/>
+      <c r="ABH127" s="23"/>
+      <c r="ABI127" s="23"/>
+      <c r="ABJ127" s="23"/>
+      <c r="ABK127" s="23"/>
+      <c r="ABL127" s="23"/>
+      <c r="ABM127" s="23"/>
+      <c r="ABN127" s="23"/>
+      <c r="ABO127" s="23"/>
+      <c r="ABP127" s="23"/>
+      <c r="ABQ127" s="23"/>
+      <c r="ABR127" s="23"/>
+      <c r="ABS127" s="23"/>
+      <c r="ABT127" s="23"/>
+      <c r="ABU127" s="23"/>
+      <c r="ABV127" s="23"/>
+      <c r="ABW127" s="23"/>
+      <c r="ABX127" s="23"/>
+      <c r="ABY127" s="23"/>
+      <c r="ABZ127" s="23"/>
+      <c r="ACA127" s="23"/>
+      <c r="ACB127" s="23"/>
+      <c r="ACC127" s="23"/>
+      <c r="ACD127" s="23"/>
+      <c r="ACE127" s="23"/>
+      <c r="ACF127" s="23"/>
+      <c r="ACG127" s="23"/>
+      <c r="ACH127" s="23"/>
+      <c r="ACI127" s="23"/>
+      <c r="ACJ127" s="23"/>
+      <c r="ACK127" s="23"/>
+      <c r="ACL127" s="23"/>
+      <c r="ACM127" s="23"/>
+      <c r="ACN127" s="23"/>
+      <c r="ACO127" s="23"/>
+      <c r="ACP127" s="23"/>
+      <c r="ACQ127" s="23"/>
+      <c r="ACR127" s="23"/>
+      <c r="ACS127" s="23"/>
+      <c r="ACT127" s="23"/>
+      <c r="ACU127" s="23"/>
+      <c r="ACV127" s="23"/>
+      <c r="ACW127" s="23"/>
+      <c r="ACX127" s="23"/>
+      <c r="ACY127" s="23"/>
+      <c r="ACZ127" s="23"/>
+      <c r="ADA127" s="23"/>
+      <c r="ADB127" s="23"/>
+      <c r="ADC127" s="23"/>
+      <c r="ADD127" s="23"/>
+      <c r="ADE127" s="23"/>
+      <c r="ADF127" s="23"/>
+      <c r="ADG127" s="23"/>
+      <c r="ADH127" s="23"/>
+      <c r="ADI127" s="23"/>
+      <c r="ADJ127" s="23"/>
+      <c r="ADK127" s="23"/>
+      <c r="ADL127" s="23"/>
+      <c r="ADM127" s="23"/>
+      <c r="ADN127" s="23"/>
+      <c r="ADO127" s="23"/>
+      <c r="ADP127" s="23"/>
+      <c r="ADQ127" s="23"/>
+      <c r="ADR127" s="23"/>
+      <c r="ADS127" s="23"/>
+      <c r="ADT127" s="23"/>
+      <c r="ADU127" s="23"/>
+      <c r="ADV127" s="23"/>
+      <c r="ADW127" s="23"/>
+      <c r="ADX127" s="23"/>
+      <c r="ADY127" s="23"/>
+      <c r="ADZ127" s="23"/>
+      <c r="AEA127" s="23"/>
+      <c r="AEB127" s="23"/>
+      <c r="AEC127" s="23"/>
+      <c r="AED127" s="23"/>
+      <c r="AEE127" s="23"/>
+      <c r="AEF127" s="23"/>
+      <c r="AEG127" s="23"/>
+      <c r="AEH127" s="23"/>
+      <c r="AEI127" s="23"/>
+      <c r="AEJ127" s="23"/>
+      <c r="AEK127" s="23"/>
+      <c r="AEL127" s="23"/>
+      <c r="AEM127" s="23"/>
+      <c r="AEN127" s="23"/>
+      <c r="AEO127" s="23"/>
+      <c r="AEP127" s="23"/>
+      <c r="AEQ127" s="23"/>
+      <c r="AER127" s="23"/>
+      <c r="AES127" s="23"/>
+      <c r="AET127" s="23"/>
+      <c r="AEU127" s="23"/>
+      <c r="AEV127" s="23"/>
+      <c r="AEW127" s="23"/>
+      <c r="AEX127" s="23"/>
+      <c r="AEY127" s="23"/>
+      <c r="AEZ127" s="23"/>
+      <c r="AFA127" s="23"/>
+      <c r="AFB127" s="23"/>
+      <c r="AFC127" s="23"/>
+      <c r="AFD127" s="23"/>
+      <c r="AFE127" s="23"/>
+      <c r="AFF127" s="23"/>
+      <c r="AFG127" s="23"/>
+      <c r="AFH127" s="23"/>
+      <c r="AFI127" s="23"/>
+      <c r="AFJ127" s="23"/>
+      <c r="AFK127" s="23"/>
+      <c r="AFL127" s="23"/>
+      <c r="AFM127" s="23"/>
+      <c r="AFN127" s="23"/>
+      <c r="AFO127" s="23"/>
+      <c r="AFP127" s="23"/>
+      <c r="AFQ127" s="23"/>
+      <c r="AFR127" s="23"/>
+      <c r="AFS127" s="23"/>
+      <c r="AFT127" s="23"/>
+      <c r="AFU127" s="23"/>
+      <c r="AFV127" s="23"/>
+      <c r="AFW127" s="23"/>
+      <c r="AFX127" s="23"/>
+      <c r="AFY127" s="23"/>
+      <c r="AFZ127" s="23"/>
+      <c r="AGA127" s="23"/>
+      <c r="AGB127" s="23"/>
+      <c r="AGC127" s="23"/>
+      <c r="AGD127" s="23"/>
+      <c r="AGE127" s="23"/>
+      <c r="AGF127" s="23"/>
+      <c r="AGG127" s="23"/>
+      <c r="AGH127" s="23"/>
+      <c r="AGI127" s="23"/>
+      <c r="AGJ127" s="23"/>
+      <c r="AGK127" s="23"/>
+      <c r="AGL127" s="23"/>
+      <c r="AGM127" s="23"/>
+      <c r="AGN127" s="23"/>
+      <c r="AGO127" s="23"/>
+      <c r="AGP127" s="23"/>
+      <c r="AGQ127" s="23"/>
+      <c r="AGR127" s="23"/>
+      <c r="AGS127" s="23"/>
+      <c r="AGT127" s="23"/>
+      <c r="AGU127" s="23"/>
+      <c r="AGV127" s="23"/>
+      <c r="AGW127" s="23"/>
+      <c r="AGX127" s="23"/>
+      <c r="AGY127" s="23"/>
+      <c r="AGZ127" s="23"/>
+      <c r="AHA127" s="23"/>
+      <c r="AHB127" s="23"/>
+      <c r="AHC127" s="23"/>
+      <c r="AHD127" s="23"/>
+      <c r="AHE127" s="23"/>
+      <c r="AHF127" s="23"/>
+      <c r="AHG127" s="23"/>
+      <c r="AHH127" s="23"/>
+      <c r="AHI127" s="23"/>
+      <c r="AHJ127" s="23"/>
+      <c r="AHK127" s="23"/>
+      <c r="AHL127" s="23"/>
+      <c r="AHM127" s="23"/>
+      <c r="AHN127" s="23"/>
+      <c r="AHO127" s="23"/>
+      <c r="AHP127" s="23"/>
+      <c r="AHQ127" s="23"/>
+      <c r="AHR127" s="23"/>
+      <c r="AHS127" s="23"/>
+      <c r="AHT127" s="23"/>
+      <c r="AHU127" s="23"/>
+      <c r="AHV127" s="23"/>
+      <c r="AHW127" s="23"/>
+      <c r="AHX127" s="23"/>
+      <c r="AHY127" s="23"/>
+      <c r="AHZ127" s="23"/>
+      <c r="AIA127" s="23"/>
+      <c r="AIB127" s="23"/>
+      <c r="AIC127" s="23"/>
+      <c r="AID127" s="23"/>
+      <c r="AIE127" s="23"/>
+      <c r="AIF127" s="23"/>
+      <c r="AIG127" s="23"/>
+      <c r="AIH127" s="23"/>
+      <c r="AII127" s="23"/>
+      <c r="AIJ127" s="23"/>
+      <c r="AIK127" s="23"/>
+      <c r="AIL127" s="23"/>
+      <c r="AIM127" s="23"/>
+      <c r="AIN127" s="23"/>
+      <c r="AIO127" s="23"/>
+      <c r="AIP127" s="23"/>
+      <c r="AIQ127" s="23"/>
+      <c r="AIR127" s="23"/>
+      <c r="AIS127" s="23"/>
+      <c r="AIT127" s="23"/>
+      <c r="AIU127" s="23"/>
+      <c r="AIV127" s="23"/>
+      <c r="AIW127" s="23"/>
+      <c r="AIX127" s="23"/>
+      <c r="AIY127" s="23"/>
+      <c r="AIZ127" s="23"/>
+      <c r="AJA127" s="23"/>
+      <c r="AJB127" s="23"/>
+      <c r="AJC127" s="23"/>
+      <c r="AJD127" s="23"/>
+      <c r="AJE127" s="23"/>
+      <c r="AJF127" s="23"/>
+      <c r="AJG127" s="23"/>
+      <c r="AJH127" s="23"/>
+      <c r="AJI127" s="23"/>
+      <c r="AJJ127" s="23"/>
+      <c r="AJK127" s="23"/>
+      <c r="AJL127" s="23"/>
+      <c r="AJM127" s="23"/>
+      <c r="AJN127" s="23"/>
+      <c r="AJO127" s="23"/>
+      <c r="AJP127" s="23"/>
+      <c r="AJQ127" s="23"/>
+      <c r="AJR127" s="23"/>
+      <c r="AJS127" s="23"/>
+      <c r="AJT127" s="23"/>
+      <c r="AJU127" s="23"/>
+      <c r="AJV127" s="23"/>
+      <c r="AJW127" s="23"/>
+      <c r="AJX127" s="23"/>
+      <c r="AJY127" s="23"/>
+      <c r="AJZ127" s="23"/>
+      <c r="AKA127" s="23"/>
+      <c r="AKB127" s="23"/>
+      <c r="AKC127" s="23"/>
+      <c r="AKD127" s="23"/>
+      <c r="AKE127" s="23"/>
+      <c r="AKF127" s="23"/>
+      <c r="AKG127" s="23"/>
+      <c r="AKH127" s="23"/>
+      <c r="AKI127" s="23"/>
+      <c r="AKJ127" s="23"/>
+      <c r="AKK127" s="23"/>
+      <c r="AKL127" s="23"/>
+      <c r="AKM127" s="23"/>
+      <c r="AKN127" s="23"/>
+      <c r="AKO127" s="23"/>
+      <c r="AKP127" s="23"/>
+      <c r="AKQ127" s="23"/>
+      <c r="AKR127" s="23"/>
+      <c r="AKS127" s="23"/>
+      <c r="AKT127" s="23"/>
+      <c r="AKU127" s="23"/>
+      <c r="AKV127" s="23"/>
+      <c r="AKW127" s="23"/>
+      <c r="AKX127" s="23"/>
+      <c r="AKY127" s="23"/>
+      <c r="AKZ127" s="23"/>
+      <c r="ALA127" s="23"/>
+      <c r="ALB127" s="23"/>
+      <c r="ALC127" s="23"/>
+      <c r="ALD127" s="23"/>
+      <c r="ALE127" s="23"/>
+      <c r="ALF127" s="23"/>
+      <c r="ALG127" s="23"/>
+      <c r="ALH127" s="23"/>
+      <c r="ALI127" s="23"/>
+      <c r="ALJ127" s="23"/>
+      <c r="ALK127" s="23"/>
+      <c r="ALL127" s="23"/>
+      <c r="ALM127" s="23"/>
+      <c r="ALN127" s="23"/>
+      <c r="ALO127" s="23"/>
+      <c r="ALP127" s="23"/>
+      <c r="ALQ127" s="23"/>
+      <c r="ALR127" s="23"/>
+      <c r="ALS127" s="23"/>
+      <c r="ALT127" s="23"/>
+      <c r="ALU127" s="23"/>
+      <c r="ALV127" s="23"/>
+      <c r="ALW127" s="23"/>
+      <c r="ALX127" s="23"/>
+      <c r="ALY127" s="23"/>
+      <c r="ALZ127" s="23"/>
+      <c r="AMA127" s="23"/>
+      <c r="AMB127" s="23"/>
+      <c r="AMC127" s="23"/>
+      <c r="AMD127" s="23"/>
+      <c r="AME127" s="23"/>
+      <c r="AMF127" s="23"/>
+    </row>
+    <row r="129" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -6127,26 +6293,15 @@
       <c r="AMF129" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F125">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Fixed?"/>
-        <filter val="Invalid"/>
-        <filter val="Open"/>
-        <filter val="Open!"/>
-        <filter val="Open!!"/>
-        <filter val="Open+"/>
-        <filter val="Open?"/>
-        <filter val="Open~"/>
-        <filter val="Rejected"/>
-        <filter val="Resolved"/>
-        <filter val="Resolved?"/>
-        <filter val="Solved"/>
-        <filter val="Transfered"/>
-        <filter val="WIP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A:F"/>
+  <conditionalFormatting sqref="F76:F1048576 F1:F74">
+    <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="17">
+      <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="3" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="open" dxfId="18">
+      <formula>NOT(ISERROR(SEARCH("open",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="#271"/>
     <hyperlink ref="B5" r:id="rId2" display="#2"/>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="289">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -117,16 +117,22 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforced translations are read-only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1743</t>
   </si>
   <si>
     <t xml:space="preserve">Commit specified files on SAVE or COMPILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
   </si>
   <si>
     <t xml:space="preserve">#1258</t>
@@ -1806,14 +1812,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMF130"/>
+  <dimension ref="A1:AMF131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1858,7 +1864,7 @@
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>45411</v>
+        <v>45784</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>30</v>
@@ -1876,9 +1882,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
-        <v>45394</v>
+        <v>45411</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>34</v>
@@ -1890,95 +1896,95 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
-        <v>45390</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="n">
-        <v>45365</v>
+        <v>45390</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>36</v>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="n">
-        <v>45238</v>
+        <v>45363</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>33</v>
+      <c r="F8" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>47</v>
@@ -1986,7 +1992,7 @@
       <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1998,7 +2004,7 @@
     </row>
     <row r="10" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="n">
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>49</v>
@@ -2012,13 +2018,13 @@
       <c r="E10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>36</v>
+      <c r="F10" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="n">
-        <v>45236</v>
+        <v>45223</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>51</v>
@@ -2030,35 +2036,35 @@
         <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>33</v>
+      <c r="F12" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="n">
-        <v>45213</v>
+        <v>45233</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>56</v>
@@ -2070,55 +2076,55 @@
         <v>57</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="n">
-        <v>45199</v>
+        <v>45213</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="n">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>62</v>
@@ -2133,7 +2139,7 @@
         <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,53 +2153,53 @@
         <v>7</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="n">
+      <c r="F18" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
         <v>45145</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="B19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
-        <v>45145</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="F19" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,41 +2207,44 @@
         <v>45145</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>53</v>
+      <c r="F20" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="n">
-        <v>45112</v>
+        <v>45145</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>73</v>
+        <v>45112</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>7</v>
@@ -2243,28 +2252,25 @@
       <c r="D22" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>33</v>
+      <c r="F22" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="n">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>33</v>
@@ -2275,10 +2281,10 @@
         <v>45119</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>79</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="25" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>33</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="27" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>84</v>
@@ -2344,15 +2350,15 @@
         <v>85</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>86</v>
@@ -2364,41 +2370,41 @@
         <v>87</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>88</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>69</v>
+      <c r="F29" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>93</v>
@@ -2406,8 +2412,8 @@
       <c r="E30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>94</v>
+      <c r="F30" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,24 +2421,24 @@
         <v>45069</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>96</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="21" t="s">
-        <v>69</v>
+      <c r="F31" s="23" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>97</v>
@@ -2446,13 +2452,13 @@
       <c r="E32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>36</v>
+      <c r="F32" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="14" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>99</v>
@@ -2466,8 +2472,8 @@
       <c r="E33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>69</v>
+      <c r="F33" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2477,42 +2483,42 @@
       <c r="B34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>90</v>
+      <c r="C34" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>7</v>
+      <c r="C35" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>105</v>
@@ -2526,13 +2532,13 @@
       <c r="E36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>36</v>
+      <c r="F36" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>107</v>
@@ -2544,49 +2550,49 @@
         <v>108</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>110</v>
       </c>
+      <c r="E38" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F38" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B39" s="10" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="F39" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>113</v>
@@ -2600,8 +2606,8 @@
       <c r="E40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>88</v>
+      <c r="F40" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,98 +2627,98 @@
         <v>9</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>118</v>
+      <c r="F42" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
         <v>44981</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="13" t="s">
+      <c r="B44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="n">
+      <c r="F44" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="n">
         <v>44972</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="19" t="s">
+      <c r="B45" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="F45" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="46" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B46" s="27" t="s">
         <v>126</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>127</v>
@@ -2720,13 +2726,13 @@
       <c r="E46" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>33</v>
+      <c r="F46" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>128</v>
@@ -2740,13 +2746,13 @@
       <c r="E47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>88</v>
+      <c r="F47" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>130</v>
@@ -2761,7 +2767,7 @@
         <v>32</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,161 +2786,161 @@
       <c r="E49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>69</v>
+      <c r="F49" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>136</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>137</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>139</v>
       </c>
       <c r="E52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="26" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="n">
+      <c r="C53" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="26" t="n">
         <v>44929</v>
       </c>
-      <c r="B53" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="B54" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="F54" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F54" s="8" t="s">
+    <row r="55" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="n">
+    <row r="56" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="26" t="n">
         <v>44879</v>
       </c>
-      <c r="B55" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="n">
+      <c r="B56" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="26" t="n">
         <v>44858</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E56" s="25" t="s">
+      <c r="B57" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>88</v>
+      <c r="F57" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="58" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B58" s="29" t="s">
         <v>150</v>
@@ -2946,101 +2952,101 @@
         <v>151</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="26" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B59" s="29" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B59" s="30" t="s">
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B60" s="29" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="26" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>69</v>
+      <c r="F61" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>158</v>
+        <v>44743</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>33</v>
+      <c r="F62" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B63" s="32" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B63" s="31" t="s">
         <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>33</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>162</v>
@@ -3060,7 +3066,7 @@
         <v>163</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>33</v>
@@ -3068,69 +3074,69 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B65" s="33" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B65" s="32" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B66" s="33" t="s">
         <v>166</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B67" s="32" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>94</v>
+        <v>142</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B68" s="29" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3140,10 +3146,10 @@
         <v>171</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,15 +3166,15 @@
         <v>173</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B70" s="29" t="s">
         <v>174</v>
@@ -3180,15 +3186,15 @@
         <v>175</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B71" s="29" t="s">
         <v>176</v>
@@ -3200,57 +3206,57 @@
         <v>177</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="21" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B72" s="29" t="s">
         <v>178</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B73" s="29" t="s">
         <v>180</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B74" s="32" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>182</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3260,60 +3266,60 @@
         <v>183</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B75" s="29" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B75" s="32" t="s">
         <v>184</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>186</v>
+      <c r="F76" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="A77" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B78" s="29" t="s">
         <v>189</v>
@@ -3325,10 +3331,10 @@
         <v>190</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,24 +3342,24 @@
         <v>44460</v>
       </c>
       <c r="B79" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" s="21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B80" s="29" t="s">
         <v>194</v>
@@ -3367,73 +3373,73 @@
       <c r="E80" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>36</v>
+      <c r="F80" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B81" s="29" t="s">
         <v>196</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B82" s="33" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B82" s="29" t="s">
         <v>198</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
         <v>44325</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>202</v>
@@ -3445,15 +3451,15 @@
         <v>203</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="26" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>204</v>
@@ -3465,37 +3471,37 @@
         <v>205</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>206</v>
+        <v>32</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B86" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B87" s="29" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3505,15 +3511,15 @@
         <v>210</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>211</v>
@@ -3525,57 +3531,57 @@
         <v>212</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="34" t="n">
+      <c r="A89" s="26" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="34" t="n">
         <v>44231</v>
       </c>
-      <c r="B89" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E89" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F89" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B90" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="B90" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>36</v>
+      <c r="C90" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E90" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F90" s="36" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B91" s="32" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B91" s="29" t="s">
         <v>216</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3585,17 +3591,17 @@
         <v>217</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B92" s="29" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B92" s="32" t="s">
         <v>218</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3605,10 +3611,10 @@
         <v>219</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,40 +3631,40 @@
         <v>221</v>
       </c>
       <c r="E93" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="26" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B94" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>186</v>
+      <c r="F94" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="26" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B95" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>36</v>
+      <c r="A95" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B96" s="29" t="s">
         <v>224</v>
@@ -3667,124 +3673,124 @@
         <v>7</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="26" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="34" t="n">
+      <c r="E97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="34" t="n">
         <v>44146</v>
       </c>
-      <c r="B97" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" s="36" t="s">
+      <c r="B98" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E97" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>36</v>
+      <c r="D98" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="34" t="n">
+      <c r="A100" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="34" t="n">
         <v>44095</v>
       </c>
-      <c r="B100" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E100" s="36" t="s">
+      <c r="B101" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F100" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B101" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F101" s="21" t="s">
-        <v>69</v>
+      <c r="F101" s="36" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B102" s="29" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>235</v>
@@ -3792,33 +3798,33 @@
       <c r="E102" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>191</v>
+      <c r="F102" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B103" s="29" t="s">
         <v>236</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F103" s="21" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="26" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B104" s="29" t="s">
         <v>238</v>
@@ -3830,15 +3836,15 @@
         <v>239</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B105" s="29" t="s">
         <v>240</v>
@@ -3850,15 +3856,15 @@
         <v>241</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F105" s="21" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B106" s="29" t="s">
         <v>242</v>
@@ -3870,15 +3876,15 @@
         <v>243</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="26" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B107" s="29" t="s">
         <v>244</v>
@@ -3890,35 +3896,35 @@
         <v>245</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B108" s="29" t="s">
         <v>246</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="26" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B109" s="29" t="s">
         <v>248</v>
@@ -3930,15 +3936,15 @@
         <v>249</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F109" s="21" t="s">
-        <v>69</v>
+        <v>32</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B110" s="29" t="s">
         <v>250</v>
@@ -3950,15 +3956,15 @@
         <v>251</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B111" s="29" t="s">
         <v>252</v>
@@ -3970,35 +3976,35 @@
         <v>253</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B112" s="29" t="s">
         <v>254</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>255</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>256</v>
@@ -4010,15 +4016,15 @@
         <v>257</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F113" s="21" t="s">
-        <v>69</v>
+        <v>142</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B114" s="29" t="s">
         <v>258</v>
@@ -4030,15 +4036,15 @@
         <v>259</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>260</v>
@@ -4050,10 +4056,10 @@
         <v>261</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,15 +4076,15 @@
         <v>263</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B117" s="29" t="s">
         <v>264</v>
@@ -4090,15 +4096,15 @@
         <v>265</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B118" s="29" t="s">
         <v>266</v>
@@ -4110,10 +4116,10 @@
         <v>267</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,14 +4139,14 @@
         <v>23</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B120" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B120" s="29" t="s">
         <v>270</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -4153,32 +4159,32 @@
         <v>23</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="s">
-        <v>186</v>
+      <c r="A121" s="26" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="26" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B122" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F122" s="15" t="s">
-        <v>33</v>
+      <c r="A122" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,61 +4195,61 @@
         <v>274</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>275</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>276</v>
+        <v>142</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="26" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B124" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="26" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B125" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B125" s="37" t="s">
         <v>279</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>280</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="26" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>281</v>
@@ -4255,2059 +4261,2079 @@
         <v>282</v>
       </c>
       <c r="E126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="26" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E127" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="25"/>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="25"/>
-      <c r="S128" s="25"/>
-      <c r="T128" s="25"/>
-      <c r="U128" s="25"/>
-      <c r="V128" s="25"/>
-      <c r="W128" s="25"/>
-      <c r="X128" s="25"/>
-      <c r="Y128" s="25"/>
-      <c r="Z128" s="25"/>
-      <c r="AA128" s="25"/>
-      <c r="AB128" s="25"/>
-      <c r="AC128" s="25"/>
-      <c r="AD128" s="25"/>
-      <c r="AE128" s="25"/>
-      <c r="AF128" s="25"/>
-      <c r="AG128" s="25"/>
-      <c r="AH128" s="25"/>
-      <c r="AI128" s="25"/>
-      <c r="AJ128" s="25"/>
-      <c r="AK128" s="25"/>
-      <c r="AL128" s="25"/>
-      <c r="AM128" s="25"/>
-      <c r="AN128" s="25"/>
-      <c r="AO128" s="25"/>
-      <c r="AP128" s="25"/>
-      <c r="AQ128" s="25"/>
-      <c r="AR128" s="25"/>
-      <c r="AS128" s="25"/>
-      <c r="AT128" s="25"/>
-      <c r="AU128" s="25"/>
-      <c r="AV128" s="25"/>
-      <c r="AW128" s="25"/>
-      <c r="AX128" s="25"/>
-      <c r="AY128" s="25"/>
-      <c r="AZ128" s="25"/>
-      <c r="BA128" s="25"/>
-      <c r="BB128" s="25"/>
-      <c r="BC128" s="25"/>
-      <c r="BD128" s="25"/>
-      <c r="BE128" s="25"/>
-      <c r="BF128" s="25"/>
-      <c r="BG128" s="25"/>
-      <c r="BH128" s="25"/>
-      <c r="BI128" s="25"/>
-      <c r="BJ128" s="25"/>
-      <c r="BK128" s="25"/>
-      <c r="BL128" s="25"/>
-      <c r="BM128" s="25"/>
-      <c r="BN128" s="25"/>
-      <c r="BO128" s="25"/>
-      <c r="BP128" s="25"/>
-      <c r="BQ128" s="25"/>
-      <c r="BR128" s="25"/>
-      <c r="BS128" s="25"/>
-      <c r="BT128" s="25"/>
-      <c r="BU128" s="25"/>
-      <c r="BV128" s="25"/>
-      <c r="BW128" s="25"/>
-      <c r="BX128" s="25"/>
-      <c r="BY128" s="25"/>
-      <c r="BZ128" s="25"/>
-      <c r="CA128" s="25"/>
-      <c r="CB128" s="25"/>
-      <c r="CC128" s="25"/>
-      <c r="CD128" s="25"/>
-      <c r="CE128" s="25"/>
-      <c r="CF128" s="25"/>
-      <c r="CG128" s="25"/>
-      <c r="CH128" s="25"/>
-      <c r="CI128" s="25"/>
-      <c r="CJ128" s="25"/>
-      <c r="CK128" s="25"/>
-      <c r="CL128" s="25"/>
-      <c r="CM128" s="25"/>
-      <c r="CN128" s="25"/>
-      <c r="CO128" s="25"/>
-      <c r="CP128" s="25"/>
-      <c r="CQ128" s="25"/>
-      <c r="CR128" s="25"/>
-      <c r="CS128" s="25"/>
-      <c r="CT128" s="25"/>
-      <c r="CU128" s="25"/>
-      <c r="CV128" s="25"/>
-      <c r="CW128" s="25"/>
-      <c r="CX128" s="25"/>
-      <c r="CY128" s="25"/>
-      <c r="CZ128" s="25"/>
-      <c r="DA128" s="25"/>
-      <c r="DB128" s="25"/>
-      <c r="DC128" s="25"/>
-      <c r="DD128" s="25"/>
-      <c r="DE128" s="25"/>
-      <c r="DF128" s="25"/>
-      <c r="DG128" s="25"/>
-      <c r="DH128" s="25"/>
-      <c r="DI128" s="25"/>
-      <c r="DJ128" s="25"/>
-      <c r="DK128" s="25"/>
-      <c r="DL128" s="25"/>
-      <c r="DM128" s="25"/>
-      <c r="DN128" s="25"/>
-      <c r="DO128" s="25"/>
-      <c r="DP128" s="25"/>
-      <c r="DQ128" s="25"/>
-      <c r="DR128" s="25"/>
-      <c r="DS128" s="25"/>
-      <c r="DT128" s="25"/>
-      <c r="DU128" s="25"/>
-      <c r="DV128" s="25"/>
-      <c r="DW128" s="25"/>
-      <c r="DX128" s="25"/>
-      <c r="DY128" s="25"/>
-      <c r="DZ128" s="25"/>
-      <c r="EA128" s="25"/>
-      <c r="EB128" s="25"/>
-      <c r="EC128" s="25"/>
-      <c r="ED128" s="25"/>
-      <c r="EE128" s="25"/>
-      <c r="EF128" s="25"/>
-      <c r="EG128" s="25"/>
-      <c r="EH128" s="25"/>
-      <c r="EI128" s="25"/>
-      <c r="EJ128" s="25"/>
-      <c r="EK128" s="25"/>
-      <c r="EL128" s="25"/>
-      <c r="EM128" s="25"/>
-      <c r="EN128" s="25"/>
-      <c r="EO128" s="25"/>
-      <c r="EP128" s="25"/>
-      <c r="EQ128" s="25"/>
-      <c r="ER128" s="25"/>
-      <c r="ES128" s="25"/>
-      <c r="ET128" s="25"/>
-      <c r="EU128" s="25"/>
-      <c r="EV128" s="25"/>
-      <c r="EW128" s="25"/>
-      <c r="EX128" s="25"/>
-      <c r="EY128" s="25"/>
-      <c r="EZ128" s="25"/>
-      <c r="FA128" s="25"/>
-      <c r="FB128" s="25"/>
-      <c r="FC128" s="25"/>
-      <c r="FD128" s="25"/>
-      <c r="FE128" s="25"/>
-      <c r="FF128" s="25"/>
-      <c r="FG128" s="25"/>
-      <c r="FH128" s="25"/>
-      <c r="FI128" s="25"/>
-      <c r="FJ128" s="25"/>
-      <c r="FK128" s="25"/>
-      <c r="FL128" s="25"/>
-      <c r="FM128" s="25"/>
-      <c r="FN128" s="25"/>
-      <c r="FO128" s="25"/>
-      <c r="FP128" s="25"/>
-      <c r="FQ128" s="25"/>
-      <c r="FR128" s="25"/>
-      <c r="FS128" s="25"/>
-      <c r="FT128" s="25"/>
-      <c r="FU128" s="25"/>
-      <c r="FV128" s="25"/>
-      <c r="FW128" s="25"/>
-      <c r="FX128" s="25"/>
-      <c r="FY128" s="25"/>
-      <c r="FZ128" s="25"/>
-      <c r="GA128" s="25"/>
-      <c r="GB128" s="25"/>
-      <c r="GC128" s="25"/>
-      <c r="GD128" s="25"/>
-      <c r="GE128" s="25"/>
-      <c r="GF128" s="25"/>
-      <c r="GG128" s="25"/>
-      <c r="GH128" s="25"/>
-      <c r="GI128" s="25"/>
-      <c r="GJ128" s="25"/>
-      <c r="GK128" s="25"/>
-      <c r="GL128" s="25"/>
-      <c r="GM128" s="25"/>
-      <c r="GN128" s="25"/>
-      <c r="GO128" s="25"/>
-      <c r="GP128" s="25"/>
-      <c r="GQ128" s="25"/>
-      <c r="GR128" s="25"/>
-      <c r="GS128" s="25"/>
-      <c r="GT128" s="25"/>
-      <c r="GU128" s="25"/>
-      <c r="GV128" s="25"/>
-      <c r="GW128" s="25"/>
-      <c r="GX128" s="25"/>
-      <c r="GY128" s="25"/>
-      <c r="GZ128" s="25"/>
-      <c r="HA128" s="25"/>
-      <c r="HB128" s="25"/>
-      <c r="HC128" s="25"/>
-      <c r="HD128" s="25"/>
-      <c r="HE128" s="25"/>
-      <c r="HF128" s="25"/>
-      <c r="HG128" s="25"/>
-      <c r="HH128" s="25"/>
-      <c r="HI128" s="25"/>
-      <c r="HJ128" s="25"/>
-      <c r="HK128" s="25"/>
-      <c r="HL128" s="25"/>
-      <c r="HM128" s="25"/>
-      <c r="HN128" s="25"/>
-      <c r="HO128" s="25"/>
-      <c r="HP128" s="25"/>
-      <c r="HQ128" s="25"/>
-      <c r="HR128" s="25"/>
-      <c r="HS128" s="25"/>
-      <c r="HT128" s="25"/>
-      <c r="HU128" s="25"/>
-      <c r="HV128" s="25"/>
-      <c r="HW128" s="25"/>
-      <c r="HX128" s="25"/>
-      <c r="HY128" s="25"/>
-      <c r="HZ128" s="25"/>
-      <c r="IA128" s="25"/>
-      <c r="IB128" s="25"/>
-      <c r="IC128" s="25"/>
-      <c r="ID128" s="25"/>
-      <c r="IE128" s="25"/>
-      <c r="IF128" s="25"/>
-      <c r="IG128" s="25"/>
-      <c r="IH128" s="25"/>
-      <c r="II128" s="25"/>
-      <c r="IJ128" s="25"/>
-      <c r="IK128" s="25"/>
-      <c r="IL128" s="25"/>
-      <c r="IM128" s="25"/>
-      <c r="IN128" s="25"/>
-      <c r="IO128" s="25"/>
-      <c r="IP128" s="25"/>
-      <c r="IQ128" s="25"/>
-      <c r="IR128" s="25"/>
-      <c r="IS128" s="25"/>
-      <c r="IT128" s="25"/>
-      <c r="IU128" s="25"/>
-      <c r="IV128" s="25"/>
-      <c r="IW128" s="25"/>
-      <c r="IX128" s="25"/>
-      <c r="IY128" s="25"/>
-      <c r="IZ128" s="25"/>
-      <c r="JA128" s="25"/>
-      <c r="JB128" s="25"/>
-      <c r="JC128" s="25"/>
-      <c r="JD128" s="25"/>
-      <c r="JE128" s="25"/>
-      <c r="JF128" s="25"/>
-      <c r="JG128" s="25"/>
-      <c r="JH128" s="25"/>
-      <c r="JI128" s="25"/>
-      <c r="JJ128" s="25"/>
-      <c r="JK128" s="25"/>
-      <c r="JL128" s="25"/>
-      <c r="JM128" s="25"/>
-      <c r="JN128" s="25"/>
-      <c r="JO128" s="25"/>
-      <c r="JP128" s="25"/>
-      <c r="JQ128" s="25"/>
-      <c r="JR128" s="25"/>
-      <c r="JS128" s="25"/>
-      <c r="JT128" s="25"/>
-      <c r="JU128" s="25"/>
-      <c r="JV128" s="25"/>
-      <c r="JW128" s="25"/>
-      <c r="JX128" s="25"/>
-      <c r="JY128" s="25"/>
-      <c r="JZ128" s="25"/>
-      <c r="KA128" s="25"/>
-      <c r="KB128" s="25"/>
-      <c r="KC128" s="25"/>
-      <c r="KD128" s="25"/>
-      <c r="KE128" s="25"/>
-      <c r="KF128" s="25"/>
-      <c r="KG128" s="25"/>
-      <c r="KH128" s="25"/>
-      <c r="KI128" s="25"/>
-      <c r="KJ128" s="25"/>
-      <c r="KK128" s="25"/>
-      <c r="KL128" s="25"/>
-      <c r="KM128" s="25"/>
-      <c r="KN128" s="25"/>
-      <c r="KO128" s="25"/>
-      <c r="KP128" s="25"/>
-      <c r="KQ128" s="25"/>
-      <c r="KR128" s="25"/>
-      <c r="KS128" s="25"/>
-      <c r="KT128" s="25"/>
-      <c r="KU128" s="25"/>
-      <c r="KV128" s="25"/>
-      <c r="KW128" s="25"/>
-      <c r="KX128" s="25"/>
-      <c r="KY128" s="25"/>
-      <c r="KZ128" s="25"/>
-      <c r="LA128" s="25"/>
-      <c r="LB128" s="25"/>
-      <c r="LC128" s="25"/>
-      <c r="LD128" s="25"/>
-      <c r="LE128" s="25"/>
-      <c r="LF128" s="25"/>
-      <c r="LG128" s="25"/>
-      <c r="LH128" s="25"/>
-      <c r="LI128" s="25"/>
-      <c r="LJ128" s="25"/>
-      <c r="LK128" s="25"/>
-      <c r="LL128" s="25"/>
-      <c r="LM128" s="25"/>
-      <c r="LN128" s="25"/>
-      <c r="LO128" s="25"/>
-      <c r="LP128" s="25"/>
-      <c r="LQ128" s="25"/>
-      <c r="LR128" s="25"/>
-      <c r="LS128" s="25"/>
-      <c r="LT128" s="25"/>
-      <c r="LU128" s="25"/>
-      <c r="LV128" s="25"/>
-      <c r="LW128" s="25"/>
-      <c r="LX128" s="25"/>
-      <c r="LY128" s="25"/>
-      <c r="LZ128" s="25"/>
-      <c r="MA128" s="25"/>
-      <c r="MB128" s="25"/>
-      <c r="MC128" s="25"/>
-      <c r="MD128" s="25"/>
-      <c r="ME128" s="25"/>
-      <c r="MF128" s="25"/>
-      <c r="MG128" s="25"/>
-      <c r="MH128" s="25"/>
-      <c r="MI128" s="25"/>
-      <c r="MJ128" s="25"/>
-      <c r="MK128" s="25"/>
-      <c r="ML128" s="25"/>
-      <c r="MM128" s="25"/>
-      <c r="MN128" s="25"/>
-      <c r="MO128" s="25"/>
-      <c r="MP128" s="25"/>
-      <c r="MQ128" s="25"/>
-      <c r="MR128" s="25"/>
-      <c r="MS128" s="25"/>
-      <c r="MT128" s="25"/>
-      <c r="MU128" s="25"/>
-      <c r="MV128" s="25"/>
-      <c r="MW128" s="25"/>
-      <c r="MX128" s="25"/>
-      <c r="MY128" s="25"/>
-      <c r="MZ128" s="25"/>
-      <c r="NA128" s="25"/>
-      <c r="NB128" s="25"/>
-      <c r="NC128" s="25"/>
-      <c r="ND128" s="25"/>
-      <c r="NE128" s="25"/>
-      <c r="NF128" s="25"/>
-      <c r="NG128" s="25"/>
-      <c r="NH128" s="25"/>
-      <c r="NI128" s="25"/>
-      <c r="NJ128" s="25"/>
-      <c r="NK128" s="25"/>
-      <c r="NL128" s="25"/>
-      <c r="NM128" s="25"/>
-      <c r="NN128" s="25"/>
-      <c r="NO128" s="25"/>
-      <c r="NP128" s="25"/>
-      <c r="NQ128" s="25"/>
-      <c r="NR128" s="25"/>
-      <c r="NS128" s="25"/>
-      <c r="NT128" s="25"/>
-      <c r="NU128" s="25"/>
-      <c r="NV128" s="25"/>
-      <c r="NW128" s="25"/>
-      <c r="NX128" s="25"/>
-      <c r="NY128" s="25"/>
-      <c r="NZ128" s="25"/>
-      <c r="OA128" s="25"/>
-      <c r="OB128" s="25"/>
-      <c r="OC128" s="25"/>
-      <c r="OD128" s="25"/>
-      <c r="OE128" s="25"/>
-      <c r="OF128" s="25"/>
-      <c r="OG128" s="25"/>
-      <c r="OH128" s="25"/>
-      <c r="OI128" s="25"/>
-      <c r="OJ128" s="25"/>
-      <c r="OK128" s="25"/>
-      <c r="OL128" s="25"/>
-      <c r="OM128" s="25"/>
-      <c r="ON128" s="25"/>
-      <c r="OO128" s="25"/>
-      <c r="OP128" s="25"/>
-      <c r="OQ128" s="25"/>
-      <c r="OR128" s="25"/>
-      <c r="OS128" s="25"/>
-      <c r="OT128" s="25"/>
-      <c r="OU128" s="25"/>
-      <c r="OV128" s="25"/>
-      <c r="OW128" s="25"/>
-      <c r="OX128" s="25"/>
-      <c r="OY128" s="25"/>
-      <c r="OZ128" s="25"/>
-      <c r="PA128" s="25"/>
-      <c r="PB128" s="25"/>
-      <c r="PC128" s="25"/>
-      <c r="PD128" s="25"/>
-      <c r="PE128" s="25"/>
-      <c r="PF128" s="25"/>
-      <c r="PG128" s="25"/>
-      <c r="PH128" s="25"/>
-      <c r="PI128" s="25"/>
-      <c r="PJ128" s="25"/>
-      <c r="PK128" s="25"/>
-      <c r="PL128" s="25"/>
-      <c r="PM128" s="25"/>
-      <c r="PN128" s="25"/>
-      <c r="PO128" s="25"/>
-      <c r="PP128" s="25"/>
-      <c r="PQ128" s="25"/>
-      <c r="PR128" s="25"/>
-      <c r="PS128" s="25"/>
-      <c r="PT128" s="25"/>
-      <c r="PU128" s="25"/>
-      <c r="PV128" s="25"/>
-      <c r="PW128" s="25"/>
-      <c r="PX128" s="25"/>
-      <c r="PY128" s="25"/>
-      <c r="PZ128" s="25"/>
-      <c r="QA128" s="25"/>
-      <c r="QB128" s="25"/>
-      <c r="QC128" s="25"/>
-      <c r="QD128" s="25"/>
-      <c r="QE128" s="25"/>
-      <c r="QF128" s="25"/>
-      <c r="QG128" s="25"/>
-      <c r="QH128" s="25"/>
-      <c r="QI128" s="25"/>
-      <c r="QJ128" s="25"/>
-      <c r="QK128" s="25"/>
-      <c r="QL128" s="25"/>
-      <c r="QM128" s="25"/>
-      <c r="QN128" s="25"/>
-      <c r="QO128" s="25"/>
-      <c r="QP128" s="25"/>
-      <c r="QQ128" s="25"/>
-      <c r="QR128" s="25"/>
-      <c r="QS128" s="25"/>
-      <c r="QT128" s="25"/>
-      <c r="QU128" s="25"/>
-      <c r="QV128" s="25"/>
-      <c r="QW128" s="25"/>
-      <c r="QX128" s="25"/>
-      <c r="QY128" s="25"/>
-      <c r="QZ128" s="25"/>
-      <c r="RA128" s="25"/>
-      <c r="RB128" s="25"/>
-      <c r="RC128" s="25"/>
-      <c r="RD128" s="25"/>
-      <c r="RE128" s="25"/>
-      <c r="RF128" s="25"/>
-      <c r="RG128" s="25"/>
-      <c r="RH128" s="25"/>
-      <c r="RI128" s="25"/>
-      <c r="RJ128" s="25"/>
-      <c r="RK128" s="25"/>
-      <c r="RL128" s="25"/>
-      <c r="RM128" s="25"/>
-      <c r="RN128" s="25"/>
-      <c r="RO128" s="25"/>
-      <c r="RP128" s="25"/>
-      <c r="RQ128" s="25"/>
-      <c r="RR128" s="25"/>
-      <c r="RS128" s="25"/>
-      <c r="RT128" s="25"/>
-      <c r="RU128" s="25"/>
-      <c r="RV128" s="25"/>
-      <c r="RW128" s="25"/>
-      <c r="RX128" s="25"/>
-      <c r="RY128" s="25"/>
-      <c r="RZ128" s="25"/>
-      <c r="SA128" s="25"/>
-      <c r="SB128" s="25"/>
-      <c r="SC128" s="25"/>
-      <c r="SD128" s="25"/>
-      <c r="SE128" s="25"/>
-      <c r="SF128" s="25"/>
-      <c r="SG128" s="25"/>
-      <c r="SH128" s="25"/>
-      <c r="SI128" s="25"/>
-      <c r="SJ128" s="25"/>
-      <c r="SK128" s="25"/>
-      <c r="SL128" s="25"/>
-      <c r="SM128" s="25"/>
-      <c r="SN128" s="25"/>
-      <c r="SO128" s="25"/>
-      <c r="SP128" s="25"/>
-      <c r="SQ128" s="25"/>
-      <c r="SR128" s="25"/>
-      <c r="SS128" s="25"/>
-      <c r="ST128" s="25"/>
-      <c r="SU128" s="25"/>
-      <c r="SV128" s="25"/>
-      <c r="SW128" s="25"/>
-      <c r="SX128" s="25"/>
-      <c r="SY128" s="25"/>
-      <c r="SZ128" s="25"/>
-      <c r="TA128" s="25"/>
-      <c r="TB128" s="25"/>
-      <c r="TC128" s="25"/>
-      <c r="TD128" s="25"/>
-      <c r="TE128" s="25"/>
-      <c r="TF128" s="25"/>
-      <c r="TG128" s="25"/>
-      <c r="TH128" s="25"/>
-      <c r="TI128" s="25"/>
-      <c r="TJ128" s="25"/>
-      <c r="TK128" s="25"/>
-      <c r="TL128" s="25"/>
-      <c r="TM128" s="25"/>
-      <c r="TN128" s="25"/>
-      <c r="TO128" s="25"/>
-      <c r="TP128" s="25"/>
-      <c r="TQ128" s="25"/>
-      <c r="TR128" s="25"/>
-      <c r="TS128" s="25"/>
-      <c r="TT128" s="25"/>
-      <c r="TU128" s="25"/>
-      <c r="TV128" s="25"/>
-      <c r="TW128" s="25"/>
-      <c r="TX128" s="25"/>
-      <c r="TY128" s="25"/>
-      <c r="TZ128" s="25"/>
-      <c r="UA128" s="25"/>
-      <c r="UB128" s="25"/>
-      <c r="UC128" s="25"/>
-      <c r="UD128" s="25"/>
-      <c r="UE128" s="25"/>
-      <c r="UF128" s="25"/>
-      <c r="UG128" s="25"/>
-      <c r="UH128" s="25"/>
-      <c r="UI128" s="25"/>
-      <c r="UJ128" s="25"/>
-      <c r="UK128" s="25"/>
-      <c r="UL128" s="25"/>
-      <c r="UM128" s="25"/>
-      <c r="UN128" s="25"/>
-      <c r="UO128" s="25"/>
-      <c r="UP128" s="25"/>
-      <c r="UQ128" s="25"/>
-      <c r="UR128" s="25"/>
-      <c r="US128" s="25"/>
-      <c r="UT128" s="25"/>
-      <c r="UU128" s="25"/>
-      <c r="UV128" s="25"/>
-      <c r="UW128" s="25"/>
-      <c r="UX128" s="25"/>
-      <c r="UY128" s="25"/>
-      <c r="UZ128" s="25"/>
-      <c r="VA128" s="25"/>
-      <c r="VB128" s="25"/>
-      <c r="VC128" s="25"/>
-      <c r="VD128" s="25"/>
-      <c r="VE128" s="25"/>
-      <c r="VF128" s="25"/>
-      <c r="VG128" s="25"/>
-      <c r="VH128" s="25"/>
-      <c r="VI128" s="25"/>
-      <c r="VJ128" s="25"/>
-      <c r="VK128" s="25"/>
-      <c r="VL128" s="25"/>
-      <c r="VM128" s="25"/>
-      <c r="VN128" s="25"/>
-      <c r="VO128" s="25"/>
-      <c r="VP128" s="25"/>
-      <c r="VQ128" s="25"/>
-      <c r="VR128" s="25"/>
-      <c r="VS128" s="25"/>
-      <c r="VT128" s="25"/>
-      <c r="VU128" s="25"/>
-      <c r="VV128" s="25"/>
-      <c r="VW128" s="25"/>
-      <c r="VX128" s="25"/>
-      <c r="VY128" s="25"/>
-      <c r="VZ128" s="25"/>
-      <c r="WA128" s="25"/>
-      <c r="WB128" s="25"/>
-      <c r="WC128" s="25"/>
-      <c r="WD128" s="25"/>
-      <c r="WE128" s="25"/>
-      <c r="WF128" s="25"/>
-      <c r="WG128" s="25"/>
-      <c r="WH128" s="25"/>
-      <c r="WI128" s="25"/>
-      <c r="WJ128" s="25"/>
-      <c r="WK128" s="25"/>
-      <c r="WL128" s="25"/>
-      <c r="WM128" s="25"/>
-      <c r="WN128" s="25"/>
-      <c r="WO128" s="25"/>
-      <c r="WP128" s="25"/>
-      <c r="WQ128" s="25"/>
-      <c r="WR128" s="25"/>
-      <c r="WS128" s="25"/>
-      <c r="WT128" s="25"/>
-      <c r="WU128" s="25"/>
-      <c r="WV128" s="25"/>
-      <c r="WW128" s="25"/>
-      <c r="WX128" s="25"/>
-      <c r="WY128" s="25"/>
-      <c r="WZ128" s="25"/>
-      <c r="XA128" s="25"/>
-      <c r="XB128" s="25"/>
-      <c r="XC128" s="25"/>
-      <c r="XD128" s="25"/>
-      <c r="XE128" s="25"/>
-      <c r="XF128" s="25"/>
-      <c r="XG128" s="25"/>
-      <c r="XH128" s="25"/>
-      <c r="XI128" s="25"/>
-      <c r="XJ128" s="25"/>
-      <c r="XK128" s="25"/>
-      <c r="XL128" s="25"/>
-      <c r="XM128" s="25"/>
-      <c r="XN128" s="25"/>
-      <c r="XO128" s="25"/>
-      <c r="XP128" s="25"/>
-      <c r="XQ128" s="25"/>
-      <c r="XR128" s="25"/>
-      <c r="XS128" s="25"/>
-      <c r="XT128" s="25"/>
-      <c r="XU128" s="25"/>
-      <c r="XV128" s="25"/>
-      <c r="XW128" s="25"/>
-      <c r="XX128" s="25"/>
-      <c r="XY128" s="25"/>
-      <c r="XZ128" s="25"/>
-      <c r="YA128" s="25"/>
-      <c r="YB128" s="25"/>
-      <c r="YC128" s="25"/>
-      <c r="YD128" s="25"/>
-      <c r="YE128" s="25"/>
-      <c r="YF128" s="25"/>
-      <c r="YG128" s="25"/>
-      <c r="YH128" s="25"/>
-      <c r="YI128" s="25"/>
-      <c r="YJ128" s="25"/>
-      <c r="YK128" s="25"/>
-      <c r="YL128" s="25"/>
-      <c r="YM128" s="25"/>
-      <c r="YN128" s="25"/>
-      <c r="YO128" s="25"/>
-      <c r="YP128" s="25"/>
-      <c r="YQ128" s="25"/>
-      <c r="YR128" s="25"/>
-      <c r="YS128" s="25"/>
-      <c r="YT128" s="25"/>
-      <c r="YU128" s="25"/>
-      <c r="YV128" s="25"/>
-      <c r="YW128" s="25"/>
-      <c r="YX128" s="25"/>
-      <c r="YY128" s="25"/>
-      <c r="YZ128" s="25"/>
-      <c r="ZA128" s="25"/>
-      <c r="ZB128" s="25"/>
-      <c r="ZC128" s="25"/>
-      <c r="ZD128" s="25"/>
-      <c r="ZE128" s="25"/>
-      <c r="ZF128" s="25"/>
-      <c r="ZG128" s="25"/>
-      <c r="ZH128" s="25"/>
-      <c r="ZI128" s="25"/>
-      <c r="ZJ128" s="25"/>
-      <c r="ZK128" s="25"/>
-      <c r="ZL128" s="25"/>
-      <c r="ZM128" s="25"/>
-      <c r="ZN128" s="25"/>
-      <c r="ZO128" s="25"/>
-      <c r="ZP128" s="25"/>
-      <c r="ZQ128" s="25"/>
-      <c r="ZR128" s="25"/>
-      <c r="ZS128" s="25"/>
-      <c r="ZT128" s="25"/>
-      <c r="ZU128" s="25"/>
-      <c r="ZV128" s="25"/>
-      <c r="ZW128" s="25"/>
-      <c r="ZX128" s="25"/>
-      <c r="ZY128" s="25"/>
-      <c r="ZZ128" s="25"/>
-      <c r="AAA128" s="25"/>
-      <c r="AAB128" s="25"/>
-      <c r="AAC128" s="25"/>
-      <c r="AAD128" s="25"/>
-      <c r="AAE128" s="25"/>
-      <c r="AAF128" s="25"/>
-      <c r="AAG128" s="25"/>
-      <c r="AAH128" s="25"/>
-      <c r="AAI128" s="25"/>
-      <c r="AAJ128" s="25"/>
-      <c r="AAK128" s="25"/>
-      <c r="AAL128" s="25"/>
-      <c r="AAM128" s="25"/>
-      <c r="AAN128" s="25"/>
-      <c r="AAO128" s="25"/>
-      <c r="AAP128" s="25"/>
-      <c r="AAQ128" s="25"/>
-      <c r="AAR128" s="25"/>
-      <c r="AAS128" s="25"/>
-      <c r="AAT128" s="25"/>
-      <c r="AAU128" s="25"/>
-      <c r="AAV128" s="25"/>
-      <c r="AAW128" s="25"/>
-      <c r="AAX128" s="25"/>
-      <c r="AAY128" s="25"/>
-      <c r="AAZ128" s="25"/>
-      <c r="ABA128" s="25"/>
-      <c r="ABB128" s="25"/>
-      <c r="ABC128" s="25"/>
-      <c r="ABD128" s="25"/>
-      <c r="ABE128" s="25"/>
-      <c r="ABF128" s="25"/>
-      <c r="ABG128" s="25"/>
-      <c r="ABH128" s="25"/>
-      <c r="ABI128" s="25"/>
-      <c r="ABJ128" s="25"/>
-      <c r="ABK128" s="25"/>
-      <c r="ABL128" s="25"/>
-      <c r="ABM128" s="25"/>
-      <c r="ABN128" s="25"/>
-      <c r="ABO128" s="25"/>
-      <c r="ABP128" s="25"/>
-      <c r="ABQ128" s="25"/>
-      <c r="ABR128" s="25"/>
-      <c r="ABS128" s="25"/>
-      <c r="ABT128" s="25"/>
-      <c r="ABU128" s="25"/>
-      <c r="ABV128" s="25"/>
-      <c r="ABW128" s="25"/>
-      <c r="ABX128" s="25"/>
-      <c r="ABY128" s="25"/>
-      <c r="ABZ128" s="25"/>
-      <c r="ACA128" s="25"/>
-      <c r="ACB128" s="25"/>
-      <c r="ACC128" s="25"/>
-      <c r="ACD128" s="25"/>
-      <c r="ACE128" s="25"/>
-      <c r="ACF128" s="25"/>
-      <c r="ACG128" s="25"/>
-      <c r="ACH128" s="25"/>
-      <c r="ACI128" s="25"/>
-      <c r="ACJ128" s="25"/>
-      <c r="ACK128" s="25"/>
-      <c r="ACL128" s="25"/>
-      <c r="ACM128" s="25"/>
-      <c r="ACN128" s="25"/>
-      <c r="ACO128" s="25"/>
-      <c r="ACP128" s="25"/>
-      <c r="ACQ128" s="25"/>
-      <c r="ACR128" s="25"/>
-      <c r="ACS128" s="25"/>
-      <c r="ACT128" s="25"/>
-      <c r="ACU128" s="25"/>
-      <c r="ACV128" s="25"/>
-      <c r="ACW128" s="25"/>
-      <c r="ACX128" s="25"/>
-      <c r="ACY128" s="25"/>
-      <c r="ACZ128" s="25"/>
-      <c r="ADA128" s="25"/>
-      <c r="ADB128" s="25"/>
-      <c r="ADC128" s="25"/>
-      <c r="ADD128" s="25"/>
-      <c r="ADE128" s="25"/>
-      <c r="ADF128" s="25"/>
-      <c r="ADG128" s="25"/>
-      <c r="ADH128" s="25"/>
-      <c r="ADI128" s="25"/>
-      <c r="ADJ128" s="25"/>
-      <c r="ADK128" s="25"/>
-      <c r="ADL128" s="25"/>
-      <c r="ADM128" s="25"/>
-      <c r="ADN128" s="25"/>
-      <c r="ADO128" s="25"/>
-      <c r="ADP128" s="25"/>
-      <c r="ADQ128" s="25"/>
-      <c r="ADR128" s="25"/>
-      <c r="ADS128" s="25"/>
-      <c r="ADT128" s="25"/>
-      <c r="ADU128" s="25"/>
-      <c r="ADV128" s="25"/>
-      <c r="ADW128" s="25"/>
-      <c r="ADX128" s="25"/>
-      <c r="ADY128" s="25"/>
-      <c r="ADZ128" s="25"/>
-      <c r="AEA128" s="25"/>
-      <c r="AEB128" s="25"/>
-      <c r="AEC128" s="25"/>
-      <c r="AED128" s="25"/>
-      <c r="AEE128" s="25"/>
-      <c r="AEF128" s="25"/>
-      <c r="AEG128" s="25"/>
-      <c r="AEH128" s="25"/>
-      <c r="AEI128" s="25"/>
-      <c r="AEJ128" s="25"/>
-      <c r="AEK128" s="25"/>
-      <c r="AEL128" s="25"/>
-      <c r="AEM128" s="25"/>
-      <c r="AEN128" s="25"/>
-      <c r="AEO128" s="25"/>
-      <c r="AEP128" s="25"/>
-      <c r="AEQ128" s="25"/>
-      <c r="AER128" s="25"/>
-      <c r="AES128" s="25"/>
-      <c r="AET128" s="25"/>
-      <c r="AEU128" s="25"/>
-      <c r="AEV128" s="25"/>
-      <c r="AEW128" s="25"/>
-      <c r="AEX128" s="25"/>
-      <c r="AEY128" s="25"/>
-      <c r="AEZ128" s="25"/>
-      <c r="AFA128" s="25"/>
-      <c r="AFB128" s="25"/>
-      <c r="AFC128" s="25"/>
-      <c r="AFD128" s="25"/>
-      <c r="AFE128" s="25"/>
-      <c r="AFF128" s="25"/>
-      <c r="AFG128" s="25"/>
-      <c r="AFH128" s="25"/>
-      <c r="AFI128" s="25"/>
-      <c r="AFJ128" s="25"/>
-      <c r="AFK128" s="25"/>
-      <c r="AFL128" s="25"/>
-      <c r="AFM128" s="25"/>
-      <c r="AFN128" s="25"/>
-      <c r="AFO128" s="25"/>
-      <c r="AFP128" s="25"/>
-      <c r="AFQ128" s="25"/>
-      <c r="AFR128" s="25"/>
-      <c r="AFS128" s="25"/>
-      <c r="AFT128" s="25"/>
-      <c r="AFU128" s="25"/>
-      <c r="AFV128" s="25"/>
-      <c r="AFW128" s="25"/>
-      <c r="AFX128" s="25"/>
-      <c r="AFY128" s="25"/>
-      <c r="AFZ128" s="25"/>
-      <c r="AGA128" s="25"/>
-      <c r="AGB128" s="25"/>
-      <c r="AGC128" s="25"/>
-      <c r="AGD128" s="25"/>
-      <c r="AGE128" s="25"/>
-      <c r="AGF128" s="25"/>
-      <c r="AGG128" s="25"/>
-      <c r="AGH128" s="25"/>
-      <c r="AGI128" s="25"/>
-      <c r="AGJ128" s="25"/>
-      <c r="AGK128" s="25"/>
-      <c r="AGL128" s="25"/>
-      <c r="AGM128" s="25"/>
-      <c r="AGN128" s="25"/>
-      <c r="AGO128" s="25"/>
-      <c r="AGP128" s="25"/>
-      <c r="AGQ128" s="25"/>
-      <c r="AGR128" s="25"/>
-      <c r="AGS128" s="25"/>
-      <c r="AGT128" s="25"/>
-      <c r="AGU128" s="25"/>
-      <c r="AGV128" s="25"/>
-      <c r="AGW128" s="25"/>
-      <c r="AGX128" s="25"/>
-      <c r="AGY128" s="25"/>
-      <c r="AGZ128" s="25"/>
-      <c r="AHA128" s="25"/>
-      <c r="AHB128" s="25"/>
-      <c r="AHC128" s="25"/>
-      <c r="AHD128" s="25"/>
-      <c r="AHE128" s="25"/>
-      <c r="AHF128" s="25"/>
-      <c r="AHG128" s="25"/>
-      <c r="AHH128" s="25"/>
-      <c r="AHI128" s="25"/>
-      <c r="AHJ128" s="25"/>
-      <c r="AHK128" s="25"/>
-      <c r="AHL128" s="25"/>
-      <c r="AHM128" s="25"/>
-      <c r="AHN128" s="25"/>
-      <c r="AHO128" s="25"/>
-      <c r="AHP128" s="25"/>
-      <c r="AHQ128" s="25"/>
-      <c r="AHR128" s="25"/>
-      <c r="AHS128" s="25"/>
-      <c r="AHT128" s="25"/>
-      <c r="AHU128" s="25"/>
-      <c r="AHV128" s="25"/>
-      <c r="AHW128" s="25"/>
-      <c r="AHX128" s="25"/>
-      <c r="AHY128" s="25"/>
-      <c r="AHZ128" s="25"/>
-      <c r="AIA128" s="25"/>
-      <c r="AIB128" s="25"/>
-      <c r="AIC128" s="25"/>
-      <c r="AID128" s="25"/>
-      <c r="AIE128" s="25"/>
-      <c r="AIF128" s="25"/>
-      <c r="AIG128" s="25"/>
-      <c r="AIH128" s="25"/>
-      <c r="AII128" s="25"/>
-      <c r="AIJ128" s="25"/>
-      <c r="AIK128" s="25"/>
-      <c r="AIL128" s="25"/>
-      <c r="AIM128" s="25"/>
-      <c r="AIN128" s="25"/>
-      <c r="AIO128" s="25"/>
-      <c r="AIP128" s="25"/>
-      <c r="AIQ128" s="25"/>
-      <c r="AIR128" s="25"/>
-      <c r="AIS128" s="25"/>
-      <c r="AIT128" s="25"/>
-      <c r="AIU128" s="25"/>
-      <c r="AIV128" s="25"/>
-      <c r="AIW128" s="25"/>
-      <c r="AIX128" s="25"/>
-      <c r="AIY128" s="25"/>
-      <c r="AIZ128" s="25"/>
-      <c r="AJA128" s="25"/>
-      <c r="AJB128" s="25"/>
-      <c r="AJC128" s="25"/>
-      <c r="AJD128" s="25"/>
-      <c r="AJE128" s="25"/>
-      <c r="AJF128" s="25"/>
-      <c r="AJG128" s="25"/>
-      <c r="AJH128" s="25"/>
-      <c r="AJI128" s="25"/>
-      <c r="AJJ128" s="25"/>
-      <c r="AJK128" s="25"/>
-      <c r="AJL128" s="25"/>
-      <c r="AJM128" s="25"/>
-      <c r="AJN128" s="25"/>
-      <c r="AJO128" s="25"/>
-      <c r="AJP128" s="25"/>
-      <c r="AJQ128" s="25"/>
-      <c r="AJR128" s="25"/>
-      <c r="AJS128" s="25"/>
-      <c r="AJT128" s="25"/>
-      <c r="AJU128" s="25"/>
-      <c r="AJV128" s="25"/>
-      <c r="AJW128" s="25"/>
-      <c r="AJX128" s="25"/>
-      <c r="AJY128" s="25"/>
-      <c r="AJZ128" s="25"/>
-      <c r="AKA128" s="25"/>
-      <c r="AKB128" s="25"/>
-      <c r="AKC128" s="25"/>
-      <c r="AKD128" s="25"/>
-      <c r="AKE128" s="25"/>
-      <c r="AKF128" s="25"/>
-      <c r="AKG128" s="25"/>
-      <c r="AKH128" s="25"/>
-      <c r="AKI128" s="25"/>
-      <c r="AKJ128" s="25"/>
-      <c r="AKK128" s="25"/>
-      <c r="AKL128" s="25"/>
-      <c r="AKM128" s="25"/>
-      <c r="AKN128" s="25"/>
-      <c r="AKO128" s="25"/>
-      <c r="AKP128" s="25"/>
-      <c r="AKQ128" s="25"/>
-      <c r="AKR128" s="25"/>
-      <c r="AKS128" s="25"/>
-      <c r="AKT128" s="25"/>
-      <c r="AKU128" s="25"/>
-      <c r="AKV128" s="25"/>
-      <c r="AKW128" s="25"/>
-      <c r="AKX128" s="25"/>
-      <c r="AKY128" s="25"/>
-      <c r="AKZ128" s="25"/>
-      <c r="ALA128" s="25"/>
-      <c r="ALB128" s="25"/>
-      <c r="ALC128" s="25"/>
-      <c r="ALD128" s="25"/>
-      <c r="ALE128" s="25"/>
-      <c r="ALF128" s="25"/>
-      <c r="ALG128" s="25"/>
-      <c r="ALH128" s="25"/>
-      <c r="ALI128" s="25"/>
-      <c r="ALJ128" s="25"/>
-      <c r="ALK128" s="25"/>
-      <c r="ALL128" s="25"/>
-      <c r="ALM128" s="25"/>
-      <c r="ALN128" s="25"/>
-      <c r="ALO128" s="25"/>
-      <c r="ALP128" s="25"/>
-      <c r="ALQ128" s="25"/>
-      <c r="ALR128" s="25"/>
-      <c r="ALS128" s="25"/>
-      <c r="ALT128" s="25"/>
-      <c r="ALU128" s="25"/>
-      <c r="ALV128" s="25"/>
-      <c r="ALW128" s="25"/>
-      <c r="ALX128" s="25"/>
-      <c r="ALY128" s="25"/>
-      <c r="ALZ128" s="25"/>
-      <c r="AMA128" s="25"/>
-      <c r="AMB128" s="25"/>
-      <c r="AMC128" s="25"/>
-      <c r="AMD128" s="25"/>
-      <c r="AME128" s="25"/>
-      <c r="AMF128" s="25"/>
-    </row>
-    <row r="130" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="5"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-      <c r="AD130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AF130" s="5"/>
-      <c r="AG130" s="5"/>
-      <c r="AH130" s="5"/>
-      <c r="AI130" s="5"/>
-      <c r="AJ130" s="5"/>
-      <c r="AK130" s="5"/>
-      <c r="AL130" s="5"/>
-      <c r="AM130" s="5"/>
-      <c r="AN130" s="5"/>
-      <c r="AO130" s="5"/>
-      <c r="AP130" s="5"/>
-      <c r="AQ130" s="5"/>
-      <c r="AR130" s="5"/>
-      <c r="AS130" s="5"/>
-      <c r="AT130" s="5"/>
-      <c r="AU130" s="5"/>
-      <c r="AV130" s="5"/>
-      <c r="AW130" s="5"/>
-      <c r="AX130" s="5"/>
-      <c r="AY130" s="5"/>
-      <c r="AZ130" s="5"/>
-      <c r="BA130" s="5"/>
-      <c r="BB130" s="5"/>
-      <c r="BC130" s="5"/>
-      <c r="BD130" s="5"/>
-      <c r="BE130" s="5"/>
-      <c r="BF130" s="5"/>
-      <c r="BG130" s="5"/>
-      <c r="BH130" s="5"/>
-      <c r="BI130" s="5"/>
-      <c r="BJ130" s="5"/>
-      <c r="BK130" s="5"/>
-      <c r="BL130" s="5"/>
-      <c r="BM130" s="5"/>
-      <c r="BN130" s="5"/>
-      <c r="BO130" s="5"/>
-      <c r="BP130" s="5"/>
-      <c r="BQ130" s="5"/>
-      <c r="BR130" s="5"/>
-      <c r="BS130" s="5"/>
-      <c r="BT130" s="5"/>
-      <c r="BU130" s="5"/>
-      <c r="BV130" s="5"/>
-      <c r="BW130" s="5"/>
-      <c r="BX130" s="5"/>
-      <c r="BY130" s="5"/>
-      <c r="BZ130" s="5"/>
-      <c r="CA130" s="5"/>
-      <c r="CB130" s="5"/>
-      <c r="CC130" s="5"/>
-      <c r="CD130" s="5"/>
-      <c r="CE130" s="5"/>
-      <c r="CF130" s="5"/>
-      <c r="CG130" s="5"/>
-      <c r="CH130" s="5"/>
-      <c r="CI130" s="5"/>
-      <c r="CJ130" s="5"/>
-      <c r="CK130" s="5"/>
-      <c r="CL130" s="5"/>
-      <c r="CM130" s="5"/>
-      <c r="CN130" s="5"/>
-      <c r="CO130" s="5"/>
-      <c r="CP130" s="5"/>
-      <c r="CQ130" s="5"/>
-      <c r="CR130" s="5"/>
-      <c r="CS130" s="5"/>
-      <c r="CT130" s="5"/>
-      <c r="CU130" s="5"/>
-      <c r="CV130" s="5"/>
-      <c r="CW130" s="5"/>
-      <c r="CX130" s="5"/>
-      <c r="CY130" s="5"/>
-      <c r="CZ130" s="5"/>
-      <c r="DA130" s="5"/>
-      <c r="DB130" s="5"/>
-      <c r="DC130" s="5"/>
-      <c r="DD130" s="5"/>
-      <c r="DE130" s="5"/>
-      <c r="DF130" s="5"/>
-      <c r="DG130" s="5"/>
-      <c r="DH130" s="5"/>
-      <c r="DI130" s="5"/>
-      <c r="DJ130" s="5"/>
-      <c r="DK130" s="5"/>
-      <c r="DL130" s="5"/>
-      <c r="DM130" s="5"/>
-      <c r="DN130" s="5"/>
-      <c r="DO130" s="5"/>
-      <c r="DP130" s="5"/>
-      <c r="DQ130" s="5"/>
-      <c r="DR130" s="5"/>
-      <c r="DS130" s="5"/>
-      <c r="DT130" s="5"/>
-      <c r="DU130" s="5"/>
-      <c r="DV130" s="5"/>
-      <c r="DW130" s="5"/>
-      <c r="DX130" s="5"/>
-      <c r="DY130" s="5"/>
-      <c r="DZ130" s="5"/>
-      <c r="EA130" s="5"/>
-      <c r="EB130" s="5"/>
-      <c r="EC130" s="5"/>
-      <c r="ED130" s="5"/>
-      <c r="EE130" s="5"/>
-      <c r="EF130" s="5"/>
-      <c r="EG130" s="5"/>
-      <c r="EH130" s="5"/>
-      <c r="EI130" s="5"/>
-      <c r="EJ130" s="5"/>
-      <c r="EK130" s="5"/>
-      <c r="EL130" s="5"/>
-      <c r="EM130" s="5"/>
-      <c r="EN130" s="5"/>
-      <c r="EO130" s="5"/>
-      <c r="EP130" s="5"/>
-      <c r="EQ130" s="5"/>
-      <c r="ER130" s="5"/>
-      <c r="ES130" s="5"/>
-      <c r="ET130" s="5"/>
-      <c r="EU130" s="5"/>
-      <c r="EV130" s="5"/>
-      <c r="EW130" s="5"/>
-      <c r="EX130" s="5"/>
-      <c r="EY130" s="5"/>
-      <c r="EZ130" s="5"/>
-      <c r="FA130" s="5"/>
-      <c r="FB130" s="5"/>
-      <c r="FC130" s="5"/>
-      <c r="FD130" s="5"/>
-      <c r="FE130" s="5"/>
-      <c r="FF130" s="5"/>
-      <c r="FG130" s="5"/>
-      <c r="FH130" s="5"/>
-      <c r="FI130" s="5"/>
-      <c r="FJ130" s="5"/>
-      <c r="FK130" s="5"/>
-      <c r="FL130" s="5"/>
-      <c r="FM130" s="5"/>
-      <c r="FN130" s="5"/>
-      <c r="FO130" s="5"/>
-      <c r="FP130" s="5"/>
-      <c r="FQ130" s="5"/>
-      <c r="FR130" s="5"/>
-      <c r="FS130" s="5"/>
-      <c r="FT130" s="5"/>
-      <c r="FU130" s="5"/>
-      <c r="FV130" s="5"/>
-      <c r="FW130" s="5"/>
-      <c r="FX130" s="5"/>
-      <c r="FY130" s="5"/>
-      <c r="FZ130" s="5"/>
-      <c r="GA130" s="5"/>
-      <c r="GB130" s="5"/>
-      <c r="GC130" s="5"/>
-      <c r="GD130" s="5"/>
-      <c r="GE130" s="5"/>
-      <c r="GF130" s="5"/>
-      <c r="GG130" s="5"/>
-      <c r="GH130" s="5"/>
-      <c r="GI130" s="5"/>
-      <c r="GJ130" s="5"/>
-      <c r="GK130" s="5"/>
-      <c r="GL130" s="5"/>
-      <c r="GM130" s="5"/>
-      <c r="GN130" s="5"/>
-      <c r="GO130" s="5"/>
-      <c r="GP130" s="5"/>
-      <c r="GQ130" s="5"/>
-      <c r="GR130" s="5"/>
-      <c r="GS130" s="5"/>
-      <c r="GT130" s="5"/>
-      <c r="GU130" s="5"/>
-      <c r="GV130" s="5"/>
-      <c r="GW130" s="5"/>
-      <c r="GX130" s="5"/>
-      <c r="GY130" s="5"/>
-      <c r="GZ130" s="5"/>
-      <c r="HA130" s="5"/>
-      <c r="HB130" s="5"/>
-      <c r="HC130" s="5"/>
-      <c r="HD130" s="5"/>
-      <c r="HE130" s="5"/>
-      <c r="HF130" s="5"/>
-      <c r="HG130" s="5"/>
-      <c r="HH130" s="5"/>
-      <c r="HI130" s="5"/>
-      <c r="HJ130" s="5"/>
-      <c r="HK130" s="5"/>
-      <c r="HL130" s="5"/>
-      <c r="HM130" s="5"/>
-      <c r="HN130" s="5"/>
-      <c r="HO130" s="5"/>
-      <c r="HP130" s="5"/>
-      <c r="HQ130" s="5"/>
-      <c r="HR130" s="5"/>
-      <c r="HS130" s="5"/>
-      <c r="HT130" s="5"/>
-      <c r="HU130" s="5"/>
-      <c r="HV130" s="5"/>
-      <c r="HW130" s="5"/>
-      <c r="HX130" s="5"/>
-      <c r="HY130" s="5"/>
-      <c r="HZ130" s="5"/>
-      <c r="IA130" s="5"/>
-      <c r="IB130" s="5"/>
-      <c r="IC130" s="5"/>
-      <c r="ID130" s="5"/>
-      <c r="IE130" s="5"/>
-      <c r="IF130" s="5"/>
-      <c r="IG130" s="5"/>
-      <c r="IH130" s="5"/>
-      <c r="II130" s="5"/>
-      <c r="IJ130" s="5"/>
-      <c r="IK130" s="5"/>
-      <c r="IL130" s="5"/>
-      <c r="IM130" s="5"/>
-      <c r="IN130" s="5"/>
-      <c r="IO130" s="5"/>
-      <c r="IP130" s="5"/>
-      <c r="IQ130" s="5"/>
-      <c r="IR130" s="5"/>
-      <c r="IS130" s="5"/>
-      <c r="IT130" s="5"/>
-      <c r="IU130" s="5"/>
-      <c r="IV130" s="5"/>
-      <c r="IW130" s="5"/>
-      <c r="IX130" s="5"/>
-      <c r="IY130" s="5"/>
-      <c r="IZ130" s="5"/>
-      <c r="JA130" s="5"/>
-      <c r="JB130" s="5"/>
-      <c r="JC130" s="5"/>
-      <c r="JD130" s="5"/>
-      <c r="JE130" s="5"/>
-      <c r="JF130" s="5"/>
-      <c r="JG130" s="5"/>
-      <c r="JH130" s="5"/>
-      <c r="JI130" s="5"/>
-      <c r="JJ130" s="5"/>
-      <c r="JK130" s="5"/>
-      <c r="JL130" s="5"/>
-      <c r="JM130" s="5"/>
-      <c r="JN130" s="5"/>
-      <c r="JO130" s="5"/>
-      <c r="JP130" s="5"/>
-      <c r="JQ130" s="5"/>
-      <c r="JR130" s="5"/>
-      <c r="JS130" s="5"/>
-      <c r="JT130" s="5"/>
-      <c r="JU130" s="5"/>
-      <c r="JV130" s="5"/>
-      <c r="JW130" s="5"/>
-      <c r="JX130" s="5"/>
-      <c r="JY130" s="5"/>
-      <c r="JZ130" s="5"/>
-      <c r="KA130" s="5"/>
-      <c r="KB130" s="5"/>
-      <c r="KC130" s="5"/>
-      <c r="KD130" s="5"/>
-      <c r="KE130" s="5"/>
-      <c r="KF130" s="5"/>
-      <c r="KG130" s="5"/>
-      <c r="KH130" s="5"/>
-      <c r="KI130" s="5"/>
-      <c r="KJ130" s="5"/>
-      <c r="KK130" s="5"/>
-      <c r="KL130" s="5"/>
-      <c r="KM130" s="5"/>
-      <c r="KN130" s="5"/>
-      <c r="KO130" s="5"/>
-      <c r="KP130" s="5"/>
-      <c r="KQ130" s="5"/>
-      <c r="KR130" s="5"/>
-      <c r="KS130" s="5"/>
-      <c r="KT130" s="5"/>
-      <c r="KU130" s="5"/>
-      <c r="KV130" s="5"/>
-      <c r="KW130" s="5"/>
-      <c r="KX130" s="5"/>
-      <c r="KY130" s="5"/>
-      <c r="KZ130" s="5"/>
-      <c r="LA130" s="5"/>
-      <c r="LB130" s="5"/>
-      <c r="LC130" s="5"/>
-      <c r="LD130" s="5"/>
-      <c r="LE130" s="5"/>
-      <c r="LF130" s="5"/>
-      <c r="LG130" s="5"/>
-      <c r="LH130" s="5"/>
-      <c r="LI130" s="5"/>
-      <c r="LJ130" s="5"/>
-      <c r="LK130" s="5"/>
-      <c r="LL130" s="5"/>
-      <c r="LM130" s="5"/>
-      <c r="LN130" s="5"/>
-      <c r="LO130" s="5"/>
-      <c r="LP130" s="5"/>
-      <c r="LQ130" s="5"/>
-      <c r="LR130" s="5"/>
-      <c r="LS130" s="5"/>
-      <c r="LT130" s="5"/>
-      <c r="LU130" s="5"/>
-      <c r="LV130" s="5"/>
-      <c r="LW130" s="5"/>
-      <c r="LX130" s="5"/>
-      <c r="LY130" s="5"/>
-      <c r="LZ130" s="5"/>
-      <c r="MA130" s="5"/>
-      <c r="MB130" s="5"/>
-      <c r="MC130" s="5"/>
-      <c r="MD130" s="5"/>
-      <c r="ME130" s="5"/>
-      <c r="MF130" s="5"/>
-      <c r="MG130" s="5"/>
-      <c r="MH130" s="5"/>
-      <c r="MI130" s="5"/>
-      <c r="MJ130" s="5"/>
-      <c r="MK130" s="5"/>
-      <c r="ML130" s="5"/>
-      <c r="MM130" s="5"/>
-      <c r="MN130" s="5"/>
-      <c r="MO130" s="5"/>
-      <c r="MP130" s="5"/>
-      <c r="MQ130" s="5"/>
-      <c r="MR130" s="5"/>
-      <c r="MS130" s="5"/>
-      <c r="MT130" s="5"/>
-      <c r="MU130" s="5"/>
-      <c r="MV130" s="5"/>
-      <c r="MW130" s="5"/>
-      <c r="MX130" s="5"/>
-      <c r="MY130" s="5"/>
-      <c r="MZ130" s="5"/>
-      <c r="NA130" s="5"/>
-      <c r="NB130" s="5"/>
-      <c r="NC130" s="5"/>
-      <c r="ND130" s="5"/>
-      <c r="NE130" s="5"/>
-      <c r="NF130" s="5"/>
-      <c r="NG130" s="5"/>
-      <c r="NH130" s="5"/>
-      <c r="NI130" s="5"/>
-      <c r="NJ130" s="5"/>
-      <c r="NK130" s="5"/>
-      <c r="NL130" s="5"/>
-      <c r="NM130" s="5"/>
-      <c r="NN130" s="5"/>
-      <c r="NO130" s="5"/>
-      <c r="NP130" s="5"/>
-      <c r="NQ130" s="5"/>
-      <c r="NR130" s="5"/>
-      <c r="NS130" s="5"/>
-      <c r="NT130" s="5"/>
-      <c r="NU130" s="5"/>
-      <c r="NV130" s="5"/>
-      <c r="NW130" s="5"/>
-      <c r="NX130" s="5"/>
-      <c r="NY130" s="5"/>
-      <c r="NZ130" s="5"/>
-      <c r="OA130" s="5"/>
-      <c r="OB130" s="5"/>
-      <c r="OC130" s="5"/>
-      <c r="OD130" s="5"/>
-      <c r="OE130" s="5"/>
-      <c r="OF130" s="5"/>
-      <c r="OG130" s="5"/>
-      <c r="OH130" s="5"/>
-      <c r="OI130" s="5"/>
-      <c r="OJ130" s="5"/>
-      <c r="OK130" s="5"/>
-      <c r="OL130" s="5"/>
-      <c r="OM130" s="5"/>
-      <c r="ON130" s="5"/>
-      <c r="OO130" s="5"/>
-      <c r="OP130" s="5"/>
-      <c r="OQ130" s="5"/>
-      <c r="OR130" s="5"/>
-      <c r="OS130" s="5"/>
-      <c r="OT130" s="5"/>
-      <c r="OU130" s="5"/>
-      <c r="OV130" s="5"/>
-      <c r="OW130" s="5"/>
-      <c r="OX130" s="5"/>
-      <c r="OY130" s="5"/>
-      <c r="OZ130" s="5"/>
-      <c r="PA130" s="5"/>
-      <c r="PB130" s="5"/>
-      <c r="PC130" s="5"/>
-      <c r="PD130" s="5"/>
-      <c r="PE130" s="5"/>
-      <c r="PF130" s="5"/>
-      <c r="PG130" s="5"/>
-      <c r="PH130" s="5"/>
-      <c r="PI130" s="5"/>
-      <c r="PJ130" s="5"/>
-      <c r="PK130" s="5"/>
-      <c r="PL130" s="5"/>
-      <c r="PM130" s="5"/>
-      <c r="PN130" s="5"/>
-      <c r="PO130" s="5"/>
-      <c r="PP130" s="5"/>
-      <c r="PQ130" s="5"/>
-      <c r="PR130" s="5"/>
-      <c r="PS130" s="5"/>
-      <c r="PT130" s="5"/>
-      <c r="PU130" s="5"/>
-      <c r="PV130" s="5"/>
-      <c r="PW130" s="5"/>
-      <c r="PX130" s="5"/>
-      <c r="PY130" s="5"/>
-      <c r="PZ130" s="5"/>
-      <c r="QA130" s="5"/>
-      <c r="QB130" s="5"/>
-      <c r="QC130" s="5"/>
-      <c r="QD130" s="5"/>
-      <c r="QE130" s="5"/>
-      <c r="QF130" s="5"/>
-      <c r="QG130" s="5"/>
-      <c r="QH130" s="5"/>
-      <c r="QI130" s="5"/>
-      <c r="QJ130" s="5"/>
-      <c r="QK130" s="5"/>
-      <c r="QL130" s="5"/>
-      <c r="QM130" s="5"/>
-      <c r="QN130" s="5"/>
-      <c r="QO130" s="5"/>
-      <c r="QP130" s="5"/>
-      <c r="QQ130" s="5"/>
-      <c r="QR130" s="5"/>
-      <c r="QS130" s="5"/>
-      <c r="QT130" s="5"/>
-      <c r="QU130" s="5"/>
-      <c r="QV130" s="5"/>
-      <c r="QW130" s="5"/>
-      <c r="QX130" s="5"/>
-      <c r="QY130" s="5"/>
-      <c r="QZ130" s="5"/>
-      <c r="RA130" s="5"/>
-      <c r="RB130" s="5"/>
-      <c r="RC130" s="5"/>
-      <c r="RD130" s="5"/>
-      <c r="RE130" s="5"/>
-      <c r="RF130" s="5"/>
-      <c r="RG130" s="5"/>
-      <c r="RH130" s="5"/>
-      <c r="RI130" s="5"/>
-      <c r="RJ130" s="5"/>
-      <c r="RK130" s="5"/>
-      <c r="RL130" s="5"/>
-      <c r="RM130" s="5"/>
-      <c r="RN130" s="5"/>
-      <c r="RO130" s="5"/>
-      <c r="RP130" s="5"/>
-      <c r="RQ130" s="5"/>
-      <c r="RR130" s="5"/>
-      <c r="RS130" s="5"/>
-      <c r="RT130" s="5"/>
-      <c r="RU130" s="5"/>
-      <c r="RV130" s="5"/>
-      <c r="RW130" s="5"/>
-      <c r="RX130" s="5"/>
-      <c r="RY130" s="5"/>
-      <c r="RZ130" s="5"/>
-      <c r="SA130" s="5"/>
-      <c r="SB130" s="5"/>
-      <c r="SC130" s="5"/>
-      <c r="SD130" s="5"/>
-      <c r="SE130" s="5"/>
-      <c r="SF130" s="5"/>
-      <c r="SG130" s="5"/>
-      <c r="SH130" s="5"/>
-      <c r="SI130" s="5"/>
-      <c r="SJ130" s="5"/>
-      <c r="SK130" s="5"/>
-      <c r="SL130" s="5"/>
-      <c r="SM130" s="5"/>
-      <c r="SN130" s="5"/>
-      <c r="SO130" s="5"/>
-      <c r="SP130" s="5"/>
-      <c r="SQ130" s="5"/>
-      <c r="SR130" s="5"/>
-      <c r="SS130" s="5"/>
-      <c r="ST130" s="5"/>
-      <c r="SU130" s="5"/>
-      <c r="SV130" s="5"/>
-      <c r="SW130" s="5"/>
-      <c r="SX130" s="5"/>
-      <c r="SY130" s="5"/>
-      <c r="SZ130" s="5"/>
-      <c r="TA130" s="5"/>
-      <c r="TB130" s="5"/>
-      <c r="TC130" s="5"/>
-      <c r="TD130" s="5"/>
-      <c r="TE130" s="5"/>
-      <c r="TF130" s="5"/>
-      <c r="TG130" s="5"/>
-      <c r="TH130" s="5"/>
-      <c r="TI130" s="5"/>
-      <c r="TJ130" s="5"/>
-      <c r="TK130" s="5"/>
-      <c r="TL130" s="5"/>
-      <c r="TM130" s="5"/>
-      <c r="TN130" s="5"/>
-      <c r="TO130" s="5"/>
-      <c r="TP130" s="5"/>
-      <c r="TQ130" s="5"/>
-      <c r="TR130" s="5"/>
-      <c r="TS130" s="5"/>
-      <c r="TT130" s="5"/>
-      <c r="TU130" s="5"/>
-      <c r="TV130" s="5"/>
-      <c r="TW130" s="5"/>
-      <c r="TX130" s="5"/>
-      <c r="TY130" s="5"/>
-      <c r="TZ130" s="5"/>
-      <c r="UA130" s="5"/>
-      <c r="UB130" s="5"/>
-      <c r="UC130" s="5"/>
-      <c r="UD130" s="5"/>
-      <c r="UE130" s="5"/>
-      <c r="UF130" s="5"/>
-      <c r="UG130" s="5"/>
-      <c r="UH130" s="5"/>
-      <c r="UI130" s="5"/>
-      <c r="UJ130" s="5"/>
-      <c r="UK130" s="5"/>
-      <c r="UL130" s="5"/>
-      <c r="UM130" s="5"/>
-      <c r="UN130" s="5"/>
-      <c r="UO130" s="5"/>
-      <c r="UP130" s="5"/>
-      <c r="UQ130" s="5"/>
-      <c r="UR130" s="5"/>
-      <c r="US130" s="5"/>
-      <c r="UT130" s="5"/>
-      <c r="UU130" s="5"/>
-      <c r="UV130" s="5"/>
-      <c r="UW130" s="5"/>
-      <c r="UX130" s="5"/>
-      <c r="UY130" s="5"/>
-      <c r="UZ130" s="5"/>
-      <c r="VA130" s="5"/>
-      <c r="VB130" s="5"/>
-      <c r="VC130" s="5"/>
-      <c r="VD130" s="5"/>
-      <c r="VE130" s="5"/>
-      <c r="VF130" s="5"/>
-      <c r="VG130" s="5"/>
-      <c r="VH130" s="5"/>
-      <c r="VI130" s="5"/>
-      <c r="VJ130" s="5"/>
-      <c r="VK130" s="5"/>
-      <c r="VL130" s="5"/>
-      <c r="VM130" s="5"/>
-      <c r="VN130" s="5"/>
-      <c r="VO130" s="5"/>
-      <c r="VP130" s="5"/>
-      <c r="VQ130" s="5"/>
-      <c r="VR130" s="5"/>
-      <c r="VS130" s="5"/>
-      <c r="VT130" s="5"/>
-      <c r="VU130" s="5"/>
-      <c r="VV130" s="5"/>
-      <c r="VW130" s="5"/>
-      <c r="VX130" s="5"/>
-      <c r="VY130" s="5"/>
-      <c r="VZ130" s="5"/>
-      <c r="WA130" s="5"/>
-      <c r="WB130" s="5"/>
-      <c r="WC130" s="5"/>
-      <c r="WD130" s="5"/>
-      <c r="WE130" s="5"/>
-      <c r="WF130" s="5"/>
-      <c r="WG130" s="5"/>
-      <c r="WH130" s="5"/>
-      <c r="WI130" s="5"/>
-      <c r="WJ130" s="5"/>
-      <c r="WK130" s="5"/>
-      <c r="WL130" s="5"/>
-      <c r="WM130" s="5"/>
-      <c r="WN130" s="5"/>
-      <c r="WO130" s="5"/>
-      <c r="WP130" s="5"/>
-      <c r="WQ130" s="5"/>
-      <c r="WR130" s="5"/>
-      <c r="WS130" s="5"/>
-      <c r="WT130" s="5"/>
-      <c r="WU130" s="5"/>
-      <c r="WV130" s="5"/>
-      <c r="WW130" s="5"/>
-      <c r="WX130" s="5"/>
-      <c r="WY130" s="5"/>
-      <c r="WZ130" s="5"/>
-      <c r="XA130" s="5"/>
-      <c r="XB130" s="5"/>
-      <c r="XC130" s="5"/>
-      <c r="XD130" s="5"/>
-      <c r="XE130" s="5"/>
-      <c r="XF130" s="5"/>
-      <c r="XG130" s="5"/>
-      <c r="XH130" s="5"/>
-      <c r="XI130" s="5"/>
-      <c r="XJ130" s="5"/>
-      <c r="XK130" s="5"/>
-      <c r="XL130" s="5"/>
-      <c r="XM130" s="5"/>
-      <c r="XN130" s="5"/>
-      <c r="XO130" s="5"/>
-      <c r="XP130" s="5"/>
-      <c r="XQ130" s="5"/>
-      <c r="XR130" s="5"/>
-      <c r="XS130" s="5"/>
-      <c r="XT130" s="5"/>
-      <c r="XU130" s="5"/>
-      <c r="XV130" s="5"/>
-      <c r="XW130" s="5"/>
-      <c r="XX130" s="5"/>
-      <c r="XY130" s="5"/>
-      <c r="XZ130" s="5"/>
-      <c r="YA130" s="5"/>
-      <c r="YB130" s="5"/>
-      <c r="YC130" s="5"/>
-      <c r="YD130" s="5"/>
-      <c r="YE130" s="5"/>
-      <c r="YF130" s="5"/>
-      <c r="YG130" s="5"/>
-      <c r="YH130" s="5"/>
-      <c r="YI130" s="5"/>
-      <c r="YJ130" s="5"/>
-      <c r="YK130" s="5"/>
-      <c r="YL130" s="5"/>
-      <c r="YM130" s="5"/>
-      <c r="YN130" s="5"/>
-      <c r="YO130" s="5"/>
-      <c r="YP130" s="5"/>
-      <c r="YQ130" s="5"/>
-      <c r="YR130" s="5"/>
-      <c r="YS130" s="5"/>
-      <c r="YT130" s="5"/>
-      <c r="YU130" s="5"/>
-      <c r="YV130" s="5"/>
-      <c r="YW130" s="5"/>
-      <c r="YX130" s="5"/>
-      <c r="YY130" s="5"/>
-      <c r="YZ130" s="5"/>
-      <c r="ZA130" s="5"/>
-      <c r="ZB130" s="5"/>
-      <c r="ZC130" s="5"/>
-      <c r="ZD130" s="5"/>
-      <c r="ZE130" s="5"/>
-      <c r="ZF130" s="5"/>
-      <c r="ZG130" s="5"/>
-      <c r="ZH130" s="5"/>
-      <c r="ZI130" s="5"/>
-      <c r="ZJ130" s="5"/>
-      <c r="ZK130" s="5"/>
-      <c r="ZL130" s="5"/>
-      <c r="ZM130" s="5"/>
-      <c r="ZN130" s="5"/>
-      <c r="ZO130" s="5"/>
-      <c r="ZP130" s="5"/>
-      <c r="ZQ130" s="5"/>
-      <c r="ZR130" s="5"/>
-      <c r="ZS130" s="5"/>
-      <c r="ZT130" s="5"/>
-      <c r="ZU130" s="5"/>
-      <c r="ZV130" s="5"/>
-      <c r="ZW130" s="5"/>
-      <c r="ZX130" s="5"/>
-      <c r="ZY130" s="5"/>
-      <c r="ZZ130" s="5"/>
-      <c r="AAA130" s="5"/>
-      <c r="AAB130" s="5"/>
-      <c r="AAC130" s="5"/>
-      <c r="AAD130" s="5"/>
-      <c r="AAE130" s="5"/>
-      <c r="AAF130" s="5"/>
-      <c r="AAG130" s="5"/>
-      <c r="AAH130" s="5"/>
-      <c r="AAI130" s="5"/>
-      <c r="AAJ130" s="5"/>
-      <c r="AAK130" s="5"/>
-      <c r="AAL130" s="5"/>
-      <c r="AAM130" s="5"/>
-      <c r="AAN130" s="5"/>
-      <c r="AAO130" s="5"/>
-      <c r="AAP130" s="5"/>
-      <c r="AAQ130" s="5"/>
-      <c r="AAR130" s="5"/>
-      <c r="AAS130" s="5"/>
-      <c r="AAT130" s="5"/>
-      <c r="AAU130" s="5"/>
-      <c r="AAV130" s="5"/>
-      <c r="AAW130" s="5"/>
-      <c r="AAX130" s="5"/>
-      <c r="AAY130" s="5"/>
-      <c r="AAZ130" s="5"/>
-      <c r="ABA130" s="5"/>
-      <c r="ABB130" s="5"/>
-      <c r="ABC130" s="5"/>
-      <c r="ABD130" s="5"/>
-      <c r="ABE130" s="5"/>
-      <c r="ABF130" s="5"/>
-      <c r="ABG130" s="5"/>
-      <c r="ABH130" s="5"/>
-      <c r="ABI130" s="5"/>
-      <c r="ABJ130" s="5"/>
-      <c r="ABK130" s="5"/>
-      <c r="ABL130" s="5"/>
-      <c r="ABM130" s="5"/>
-      <c r="ABN130" s="5"/>
-      <c r="ABO130" s="5"/>
-      <c r="ABP130" s="5"/>
-      <c r="ABQ130" s="5"/>
-      <c r="ABR130" s="5"/>
-      <c r="ABS130" s="5"/>
-      <c r="ABT130" s="5"/>
-      <c r="ABU130" s="5"/>
-      <c r="ABV130" s="5"/>
-      <c r="ABW130" s="5"/>
-      <c r="ABX130" s="5"/>
-      <c r="ABY130" s="5"/>
-      <c r="ABZ130" s="5"/>
-      <c r="ACA130" s="5"/>
-      <c r="ACB130" s="5"/>
-      <c r="ACC130" s="5"/>
-      <c r="ACD130" s="5"/>
-      <c r="ACE130" s="5"/>
-      <c r="ACF130" s="5"/>
-      <c r="ACG130" s="5"/>
-      <c r="ACH130" s="5"/>
-      <c r="ACI130" s="5"/>
-      <c r="ACJ130" s="5"/>
-      <c r="ACK130" s="5"/>
-      <c r="ACL130" s="5"/>
-      <c r="ACM130" s="5"/>
-      <c r="ACN130" s="5"/>
-      <c r="ACO130" s="5"/>
-      <c r="ACP130" s="5"/>
-      <c r="ACQ130" s="5"/>
-      <c r="ACR130" s="5"/>
-      <c r="ACS130" s="5"/>
-      <c r="ACT130" s="5"/>
-      <c r="ACU130" s="5"/>
-      <c r="ACV130" s="5"/>
-      <c r="ACW130" s="5"/>
-      <c r="ACX130" s="5"/>
-      <c r="ACY130" s="5"/>
-      <c r="ACZ130" s="5"/>
-      <c r="ADA130" s="5"/>
-      <c r="ADB130" s="5"/>
-      <c r="ADC130" s="5"/>
-      <c r="ADD130" s="5"/>
-      <c r="ADE130" s="5"/>
-      <c r="ADF130" s="5"/>
-      <c r="ADG130" s="5"/>
-      <c r="ADH130" s="5"/>
-      <c r="ADI130" s="5"/>
-      <c r="ADJ130" s="5"/>
-      <c r="ADK130" s="5"/>
-      <c r="ADL130" s="5"/>
-      <c r="ADM130" s="5"/>
-      <c r="ADN130" s="5"/>
-      <c r="ADO130" s="5"/>
-      <c r="ADP130" s="5"/>
-      <c r="ADQ130" s="5"/>
-      <c r="ADR130" s="5"/>
-      <c r="ADS130" s="5"/>
-      <c r="ADT130" s="5"/>
-      <c r="ADU130" s="5"/>
-      <c r="ADV130" s="5"/>
-      <c r="ADW130" s="5"/>
-      <c r="ADX130" s="5"/>
-      <c r="ADY130" s="5"/>
-      <c r="ADZ130" s="5"/>
-      <c r="AEA130" s="5"/>
-      <c r="AEB130" s="5"/>
-      <c r="AEC130" s="5"/>
-      <c r="AED130" s="5"/>
-      <c r="AEE130" s="5"/>
-      <c r="AEF130" s="5"/>
-      <c r="AEG130" s="5"/>
-      <c r="AEH130" s="5"/>
-      <c r="AEI130" s="5"/>
-      <c r="AEJ130" s="5"/>
-      <c r="AEK130" s="5"/>
-      <c r="AEL130" s="5"/>
-      <c r="AEM130" s="5"/>
-      <c r="AEN130" s="5"/>
-      <c r="AEO130" s="5"/>
-      <c r="AEP130" s="5"/>
-      <c r="AEQ130" s="5"/>
-      <c r="AER130" s="5"/>
-      <c r="AES130" s="5"/>
-      <c r="AET130" s="5"/>
-      <c r="AEU130" s="5"/>
-      <c r="AEV130" s="5"/>
-      <c r="AEW130" s="5"/>
-      <c r="AEX130" s="5"/>
-      <c r="AEY130" s="5"/>
-      <c r="AEZ130" s="5"/>
-      <c r="AFA130" s="5"/>
-      <c r="AFB130" s="5"/>
-      <c r="AFC130" s="5"/>
-      <c r="AFD130" s="5"/>
-      <c r="AFE130" s="5"/>
-      <c r="AFF130" s="5"/>
-      <c r="AFG130" s="5"/>
-      <c r="AFH130" s="5"/>
-      <c r="AFI130" s="5"/>
-      <c r="AFJ130" s="5"/>
-      <c r="AFK130" s="5"/>
-      <c r="AFL130" s="5"/>
-      <c r="AFM130" s="5"/>
-      <c r="AFN130" s="5"/>
-      <c r="AFO130" s="5"/>
-      <c r="AFP130" s="5"/>
-      <c r="AFQ130" s="5"/>
-      <c r="AFR130" s="5"/>
-      <c r="AFS130" s="5"/>
-      <c r="AFT130" s="5"/>
-      <c r="AFU130" s="5"/>
-      <c r="AFV130" s="5"/>
-      <c r="AFW130" s="5"/>
-      <c r="AFX130" s="5"/>
-      <c r="AFY130" s="5"/>
-      <c r="AFZ130" s="5"/>
-      <c r="AGA130" s="5"/>
-      <c r="AGB130" s="5"/>
-      <c r="AGC130" s="5"/>
-      <c r="AGD130" s="5"/>
-      <c r="AGE130" s="5"/>
-      <c r="AGF130" s="5"/>
-      <c r="AGG130" s="5"/>
-      <c r="AGH130" s="5"/>
-      <c r="AGI130" s="5"/>
-      <c r="AGJ130" s="5"/>
-      <c r="AGK130" s="5"/>
-      <c r="AGL130" s="5"/>
-      <c r="AGM130" s="5"/>
-      <c r="AGN130" s="5"/>
-      <c r="AGO130" s="5"/>
-      <c r="AGP130" s="5"/>
-      <c r="AGQ130" s="5"/>
-      <c r="AGR130" s="5"/>
-      <c r="AGS130" s="5"/>
-      <c r="AGT130" s="5"/>
-      <c r="AGU130" s="5"/>
-      <c r="AGV130" s="5"/>
-      <c r="AGW130" s="5"/>
-      <c r="AGX130" s="5"/>
-      <c r="AGY130" s="5"/>
-      <c r="AGZ130" s="5"/>
-      <c r="AHA130" s="5"/>
-      <c r="AHB130" s="5"/>
-      <c r="AHC130" s="5"/>
-      <c r="AHD130" s="5"/>
-      <c r="AHE130" s="5"/>
-      <c r="AHF130" s="5"/>
-      <c r="AHG130" s="5"/>
-      <c r="AHH130" s="5"/>
-      <c r="AHI130" s="5"/>
-      <c r="AHJ130" s="5"/>
-      <c r="AHK130" s="5"/>
-      <c r="AHL130" s="5"/>
-      <c r="AHM130" s="5"/>
-      <c r="AHN130" s="5"/>
-      <c r="AHO130" s="5"/>
-      <c r="AHP130" s="5"/>
-      <c r="AHQ130" s="5"/>
-      <c r="AHR130" s="5"/>
-      <c r="AHS130" s="5"/>
-      <c r="AHT130" s="5"/>
-      <c r="AHU130" s="5"/>
-      <c r="AHV130" s="5"/>
-      <c r="AHW130" s="5"/>
-      <c r="AHX130" s="5"/>
-      <c r="AHY130" s="5"/>
-      <c r="AHZ130" s="5"/>
-      <c r="AIA130" s="5"/>
-      <c r="AIB130" s="5"/>
-      <c r="AIC130" s="5"/>
-      <c r="AID130" s="5"/>
-      <c r="AIE130" s="5"/>
-      <c r="AIF130" s="5"/>
-      <c r="AIG130" s="5"/>
-      <c r="AIH130" s="5"/>
-      <c r="AII130" s="5"/>
-      <c r="AIJ130" s="5"/>
-      <c r="AIK130" s="5"/>
-      <c r="AIL130" s="5"/>
-      <c r="AIM130" s="5"/>
-      <c r="AIN130" s="5"/>
-      <c r="AIO130" s="5"/>
-      <c r="AIP130" s="5"/>
-      <c r="AIQ130" s="5"/>
-      <c r="AIR130" s="5"/>
-      <c r="AIS130" s="5"/>
-      <c r="AIT130" s="5"/>
-      <c r="AIU130" s="5"/>
-      <c r="AIV130" s="5"/>
-      <c r="AIW130" s="5"/>
-      <c r="AIX130" s="5"/>
-      <c r="AIY130" s="5"/>
-      <c r="AIZ130" s="5"/>
-      <c r="AJA130" s="5"/>
-      <c r="AJB130" s="5"/>
-      <c r="AJC130" s="5"/>
-      <c r="AJD130" s="5"/>
-      <c r="AJE130" s="5"/>
-      <c r="AJF130" s="5"/>
-      <c r="AJG130" s="5"/>
-      <c r="AJH130" s="5"/>
-      <c r="AJI130" s="5"/>
-      <c r="AJJ130" s="5"/>
-      <c r="AJK130" s="5"/>
-      <c r="AJL130" s="5"/>
-      <c r="AJM130" s="5"/>
-      <c r="AJN130" s="5"/>
-      <c r="AJO130" s="5"/>
-      <c r="AJP130" s="5"/>
-      <c r="AJQ130" s="5"/>
-      <c r="AJR130" s="5"/>
-      <c r="AJS130" s="5"/>
-      <c r="AJT130" s="5"/>
-      <c r="AJU130" s="5"/>
-      <c r="AJV130" s="5"/>
-      <c r="AJW130" s="5"/>
-      <c r="AJX130" s="5"/>
-      <c r="AJY130" s="5"/>
-      <c r="AJZ130" s="5"/>
-      <c r="AKA130" s="5"/>
-      <c r="AKB130" s="5"/>
-      <c r="AKC130" s="5"/>
-      <c r="AKD130" s="5"/>
-      <c r="AKE130" s="5"/>
-      <c r="AKF130" s="5"/>
-      <c r="AKG130" s="5"/>
-      <c r="AKH130" s="5"/>
-      <c r="AKI130" s="5"/>
-      <c r="AKJ130" s="5"/>
-      <c r="AKK130" s="5"/>
-      <c r="AKL130" s="5"/>
-      <c r="AKM130" s="5"/>
-      <c r="AKN130" s="5"/>
-      <c r="AKO130" s="5"/>
-      <c r="AKP130" s="5"/>
-      <c r="AKQ130" s="5"/>
-      <c r="AKR130" s="5"/>
-      <c r="AKS130" s="5"/>
-      <c r="AKT130" s="5"/>
-      <c r="AKU130" s="5"/>
-      <c r="AKV130" s="5"/>
-      <c r="AKW130" s="5"/>
-      <c r="AKX130" s="5"/>
-      <c r="AKY130" s="5"/>
-      <c r="AKZ130" s="5"/>
-      <c r="ALA130" s="5"/>
-      <c r="ALB130" s="5"/>
-      <c r="ALC130" s="5"/>
-      <c r="ALD130" s="5"/>
-      <c r="ALE130" s="5"/>
-      <c r="ALF130" s="5"/>
-      <c r="ALG130" s="5"/>
-      <c r="ALH130" s="5"/>
-      <c r="ALI130" s="5"/>
-      <c r="ALJ130" s="5"/>
-      <c r="ALK130" s="5"/>
-      <c r="ALL130" s="5"/>
-      <c r="ALM130" s="5"/>
-      <c r="ALN130" s="5"/>
-      <c r="ALO130" s="5"/>
-      <c r="ALP130" s="5"/>
-      <c r="ALQ130" s="5"/>
-      <c r="ALR130" s="5"/>
-      <c r="ALS130" s="5"/>
-      <c r="ALT130" s="5"/>
-      <c r="ALU130" s="5"/>
-      <c r="ALV130" s="5"/>
-      <c r="ALW130" s="5"/>
-      <c r="ALX130" s="5"/>
-      <c r="ALY130" s="5"/>
-      <c r="ALZ130" s="5"/>
-      <c r="AMA130" s="5"/>
-      <c r="AMB130" s="5"/>
-      <c r="AMC130" s="5"/>
-      <c r="AMD130" s="5"/>
-      <c r="AME130" s="5"/>
-      <c r="AMF130" s="5"/>
+      <c r="F127" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="25"/>
+      <c r="X129" s="25"/>
+      <c r="Y129" s="25"/>
+      <c r="Z129" s="25"/>
+      <c r="AA129" s="25"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="25"/>
+      <c r="AD129" s="25"/>
+      <c r="AE129" s="25"/>
+      <c r="AF129" s="25"/>
+      <c r="AG129" s="25"/>
+      <c r="AH129" s="25"/>
+      <c r="AI129" s="25"/>
+      <c r="AJ129" s="25"/>
+      <c r="AK129" s="25"/>
+      <c r="AL129" s="25"/>
+      <c r="AM129" s="25"/>
+      <c r="AN129" s="25"/>
+      <c r="AO129" s="25"/>
+      <c r="AP129" s="25"/>
+      <c r="AQ129" s="25"/>
+      <c r="AR129" s="25"/>
+      <c r="AS129" s="25"/>
+      <c r="AT129" s="25"/>
+      <c r="AU129" s="25"/>
+      <c r="AV129" s="25"/>
+      <c r="AW129" s="25"/>
+      <c r="AX129" s="25"/>
+      <c r="AY129" s="25"/>
+      <c r="AZ129" s="25"/>
+      <c r="BA129" s="25"/>
+      <c r="BB129" s="25"/>
+      <c r="BC129" s="25"/>
+      <c r="BD129" s="25"/>
+      <c r="BE129" s="25"/>
+      <c r="BF129" s="25"/>
+      <c r="BG129" s="25"/>
+      <c r="BH129" s="25"/>
+      <c r="BI129" s="25"/>
+      <c r="BJ129" s="25"/>
+      <c r="BK129" s="25"/>
+      <c r="BL129" s="25"/>
+      <c r="BM129" s="25"/>
+      <c r="BN129" s="25"/>
+      <c r="BO129" s="25"/>
+      <c r="BP129" s="25"/>
+      <c r="BQ129" s="25"/>
+      <c r="BR129" s="25"/>
+      <c r="BS129" s="25"/>
+      <c r="BT129" s="25"/>
+      <c r="BU129" s="25"/>
+      <c r="BV129" s="25"/>
+      <c r="BW129" s="25"/>
+      <c r="BX129" s="25"/>
+      <c r="BY129" s="25"/>
+      <c r="BZ129" s="25"/>
+      <c r="CA129" s="25"/>
+      <c r="CB129" s="25"/>
+      <c r="CC129" s="25"/>
+      <c r="CD129" s="25"/>
+      <c r="CE129" s="25"/>
+      <c r="CF129" s="25"/>
+      <c r="CG129" s="25"/>
+      <c r="CH129" s="25"/>
+      <c r="CI129" s="25"/>
+      <c r="CJ129" s="25"/>
+      <c r="CK129" s="25"/>
+      <c r="CL129" s="25"/>
+      <c r="CM129" s="25"/>
+      <c r="CN129" s="25"/>
+      <c r="CO129" s="25"/>
+      <c r="CP129" s="25"/>
+      <c r="CQ129" s="25"/>
+      <c r="CR129" s="25"/>
+      <c r="CS129" s="25"/>
+      <c r="CT129" s="25"/>
+      <c r="CU129" s="25"/>
+      <c r="CV129" s="25"/>
+      <c r="CW129" s="25"/>
+      <c r="CX129" s="25"/>
+      <c r="CY129" s="25"/>
+      <c r="CZ129" s="25"/>
+      <c r="DA129" s="25"/>
+      <c r="DB129" s="25"/>
+      <c r="DC129" s="25"/>
+      <c r="DD129" s="25"/>
+      <c r="DE129" s="25"/>
+      <c r="DF129" s="25"/>
+      <c r="DG129" s="25"/>
+      <c r="DH129" s="25"/>
+      <c r="DI129" s="25"/>
+      <c r="DJ129" s="25"/>
+      <c r="DK129" s="25"/>
+      <c r="DL129" s="25"/>
+      <c r="DM129" s="25"/>
+      <c r="DN129" s="25"/>
+      <c r="DO129" s="25"/>
+      <c r="DP129" s="25"/>
+      <c r="DQ129" s="25"/>
+      <c r="DR129" s="25"/>
+      <c r="DS129" s="25"/>
+      <c r="DT129" s="25"/>
+      <c r="DU129" s="25"/>
+      <c r="DV129" s="25"/>
+      <c r="DW129" s="25"/>
+      <c r="DX129" s="25"/>
+      <c r="DY129" s="25"/>
+      <c r="DZ129" s="25"/>
+      <c r="EA129" s="25"/>
+      <c r="EB129" s="25"/>
+      <c r="EC129" s="25"/>
+      <c r="ED129" s="25"/>
+      <c r="EE129" s="25"/>
+      <c r="EF129" s="25"/>
+      <c r="EG129" s="25"/>
+      <c r="EH129" s="25"/>
+      <c r="EI129" s="25"/>
+      <c r="EJ129" s="25"/>
+      <c r="EK129" s="25"/>
+      <c r="EL129" s="25"/>
+      <c r="EM129" s="25"/>
+      <c r="EN129" s="25"/>
+      <c r="EO129" s="25"/>
+      <c r="EP129" s="25"/>
+      <c r="EQ129" s="25"/>
+      <c r="ER129" s="25"/>
+      <c r="ES129" s="25"/>
+      <c r="ET129" s="25"/>
+      <c r="EU129" s="25"/>
+      <c r="EV129" s="25"/>
+      <c r="EW129" s="25"/>
+      <c r="EX129" s="25"/>
+      <c r="EY129" s="25"/>
+      <c r="EZ129" s="25"/>
+      <c r="FA129" s="25"/>
+      <c r="FB129" s="25"/>
+      <c r="FC129" s="25"/>
+      <c r="FD129" s="25"/>
+      <c r="FE129" s="25"/>
+      <c r="FF129" s="25"/>
+      <c r="FG129" s="25"/>
+      <c r="FH129" s="25"/>
+      <c r="FI129" s="25"/>
+      <c r="FJ129" s="25"/>
+      <c r="FK129" s="25"/>
+      <c r="FL129" s="25"/>
+      <c r="FM129" s="25"/>
+      <c r="FN129" s="25"/>
+      <c r="FO129" s="25"/>
+      <c r="FP129" s="25"/>
+      <c r="FQ129" s="25"/>
+      <c r="FR129" s="25"/>
+      <c r="FS129" s="25"/>
+      <c r="FT129" s="25"/>
+      <c r="FU129" s="25"/>
+      <c r="FV129" s="25"/>
+      <c r="FW129" s="25"/>
+      <c r="FX129" s="25"/>
+      <c r="FY129" s="25"/>
+      <c r="FZ129" s="25"/>
+      <c r="GA129" s="25"/>
+      <c r="GB129" s="25"/>
+      <c r="GC129" s="25"/>
+      <c r="GD129" s="25"/>
+      <c r="GE129" s="25"/>
+      <c r="GF129" s="25"/>
+      <c r="GG129" s="25"/>
+      <c r="GH129" s="25"/>
+      <c r="GI129" s="25"/>
+      <c r="GJ129" s="25"/>
+      <c r="GK129" s="25"/>
+      <c r="GL129" s="25"/>
+      <c r="GM129" s="25"/>
+      <c r="GN129" s="25"/>
+      <c r="GO129" s="25"/>
+      <c r="GP129" s="25"/>
+      <c r="GQ129" s="25"/>
+      <c r="GR129" s="25"/>
+      <c r="GS129" s="25"/>
+      <c r="GT129" s="25"/>
+      <c r="GU129" s="25"/>
+      <c r="GV129" s="25"/>
+      <c r="GW129" s="25"/>
+      <c r="GX129" s="25"/>
+      <c r="GY129" s="25"/>
+      <c r="GZ129" s="25"/>
+      <c r="HA129" s="25"/>
+      <c r="HB129" s="25"/>
+      <c r="HC129" s="25"/>
+      <c r="HD129" s="25"/>
+      <c r="HE129" s="25"/>
+      <c r="HF129" s="25"/>
+      <c r="HG129" s="25"/>
+      <c r="HH129" s="25"/>
+      <c r="HI129" s="25"/>
+      <c r="HJ129" s="25"/>
+      <c r="HK129" s="25"/>
+      <c r="HL129" s="25"/>
+      <c r="HM129" s="25"/>
+      <c r="HN129" s="25"/>
+      <c r="HO129" s="25"/>
+      <c r="HP129" s="25"/>
+      <c r="HQ129" s="25"/>
+      <c r="HR129" s="25"/>
+      <c r="HS129" s="25"/>
+      <c r="HT129" s="25"/>
+      <c r="HU129" s="25"/>
+      <c r="HV129" s="25"/>
+      <c r="HW129" s="25"/>
+      <c r="HX129" s="25"/>
+      <c r="HY129" s="25"/>
+      <c r="HZ129" s="25"/>
+      <c r="IA129" s="25"/>
+      <c r="IB129" s="25"/>
+      <c r="IC129" s="25"/>
+      <c r="ID129" s="25"/>
+      <c r="IE129" s="25"/>
+      <c r="IF129" s="25"/>
+      <c r="IG129" s="25"/>
+      <c r="IH129" s="25"/>
+      <c r="II129" s="25"/>
+      <c r="IJ129" s="25"/>
+      <c r="IK129" s="25"/>
+      <c r="IL129" s="25"/>
+      <c r="IM129" s="25"/>
+      <c r="IN129" s="25"/>
+      <c r="IO129" s="25"/>
+      <c r="IP129" s="25"/>
+      <c r="IQ129" s="25"/>
+      <c r="IR129" s="25"/>
+      <c r="IS129" s="25"/>
+      <c r="IT129" s="25"/>
+      <c r="IU129" s="25"/>
+      <c r="IV129" s="25"/>
+      <c r="IW129" s="25"/>
+      <c r="IX129" s="25"/>
+      <c r="IY129" s="25"/>
+      <c r="IZ129" s="25"/>
+      <c r="JA129" s="25"/>
+      <c r="JB129" s="25"/>
+      <c r="JC129" s="25"/>
+      <c r="JD129" s="25"/>
+      <c r="JE129" s="25"/>
+      <c r="JF129" s="25"/>
+      <c r="JG129" s="25"/>
+      <c r="JH129" s="25"/>
+      <c r="JI129" s="25"/>
+      <c r="JJ129" s="25"/>
+      <c r="JK129" s="25"/>
+      <c r="JL129" s="25"/>
+      <c r="JM129" s="25"/>
+      <c r="JN129" s="25"/>
+      <c r="JO129" s="25"/>
+      <c r="JP129" s="25"/>
+      <c r="JQ129" s="25"/>
+      <c r="JR129" s="25"/>
+      <c r="JS129" s="25"/>
+      <c r="JT129" s="25"/>
+      <c r="JU129" s="25"/>
+      <c r="JV129" s="25"/>
+      <c r="JW129" s="25"/>
+      <c r="JX129" s="25"/>
+      <c r="JY129" s="25"/>
+      <c r="JZ129" s="25"/>
+      <c r="KA129" s="25"/>
+      <c r="KB129" s="25"/>
+      <c r="KC129" s="25"/>
+      <c r="KD129" s="25"/>
+      <c r="KE129" s="25"/>
+      <c r="KF129" s="25"/>
+      <c r="KG129" s="25"/>
+      <c r="KH129" s="25"/>
+      <c r="KI129" s="25"/>
+      <c r="KJ129" s="25"/>
+      <c r="KK129" s="25"/>
+      <c r="KL129" s="25"/>
+      <c r="KM129" s="25"/>
+      <c r="KN129" s="25"/>
+      <c r="KO129" s="25"/>
+      <c r="KP129" s="25"/>
+      <c r="KQ129" s="25"/>
+      <c r="KR129" s="25"/>
+      <c r="KS129" s="25"/>
+      <c r="KT129" s="25"/>
+      <c r="KU129" s="25"/>
+      <c r="KV129" s="25"/>
+      <c r="KW129" s="25"/>
+      <c r="KX129" s="25"/>
+      <c r="KY129" s="25"/>
+      <c r="KZ129" s="25"/>
+      <c r="LA129" s="25"/>
+      <c r="LB129" s="25"/>
+      <c r="LC129" s="25"/>
+      <c r="LD129" s="25"/>
+      <c r="LE129" s="25"/>
+      <c r="LF129" s="25"/>
+      <c r="LG129" s="25"/>
+      <c r="LH129" s="25"/>
+      <c r="LI129" s="25"/>
+      <c r="LJ129" s="25"/>
+      <c r="LK129" s="25"/>
+      <c r="LL129" s="25"/>
+      <c r="LM129" s="25"/>
+      <c r="LN129" s="25"/>
+      <c r="LO129" s="25"/>
+      <c r="LP129" s="25"/>
+      <c r="LQ129" s="25"/>
+      <c r="LR129" s="25"/>
+      <c r="LS129" s="25"/>
+      <c r="LT129" s="25"/>
+      <c r="LU129" s="25"/>
+      <c r="LV129" s="25"/>
+      <c r="LW129" s="25"/>
+      <c r="LX129" s="25"/>
+      <c r="LY129" s="25"/>
+      <c r="LZ129" s="25"/>
+      <c r="MA129" s="25"/>
+      <c r="MB129" s="25"/>
+      <c r="MC129" s="25"/>
+      <c r="MD129" s="25"/>
+      <c r="ME129" s="25"/>
+      <c r="MF129" s="25"/>
+      <c r="MG129" s="25"/>
+      <c r="MH129" s="25"/>
+      <c r="MI129" s="25"/>
+      <c r="MJ129" s="25"/>
+      <c r="MK129" s="25"/>
+      <c r="ML129" s="25"/>
+      <c r="MM129" s="25"/>
+      <c r="MN129" s="25"/>
+      <c r="MO129" s="25"/>
+      <c r="MP129" s="25"/>
+      <c r="MQ129" s="25"/>
+      <c r="MR129" s="25"/>
+      <c r="MS129" s="25"/>
+      <c r="MT129" s="25"/>
+      <c r="MU129" s="25"/>
+      <c r="MV129" s="25"/>
+      <c r="MW129" s="25"/>
+      <c r="MX129" s="25"/>
+      <c r="MY129" s="25"/>
+      <c r="MZ129" s="25"/>
+      <c r="NA129" s="25"/>
+      <c r="NB129" s="25"/>
+      <c r="NC129" s="25"/>
+      <c r="ND129" s="25"/>
+      <c r="NE129" s="25"/>
+      <c r="NF129" s="25"/>
+      <c r="NG129" s="25"/>
+      <c r="NH129" s="25"/>
+      <c r="NI129" s="25"/>
+      <c r="NJ129" s="25"/>
+      <c r="NK129" s="25"/>
+      <c r="NL129" s="25"/>
+      <c r="NM129" s="25"/>
+      <c r="NN129" s="25"/>
+      <c r="NO129" s="25"/>
+      <c r="NP129" s="25"/>
+      <c r="NQ129" s="25"/>
+      <c r="NR129" s="25"/>
+      <c r="NS129" s="25"/>
+      <c r="NT129" s="25"/>
+      <c r="NU129" s="25"/>
+      <c r="NV129" s="25"/>
+      <c r="NW129" s="25"/>
+      <c r="NX129" s="25"/>
+      <c r="NY129" s="25"/>
+      <c r="NZ129" s="25"/>
+      <c r="OA129" s="25"/>
+      <c r="OB129" s="25"/>
+      <c r="OC129" s="25"/>
+      <c r="OD129" s="25"/>
+      <c r="OE129" s="25"/>
+      <c r="OF129" s="25"/>
+      <c r="OG129" s="25"/>
+      <c r="OH129" s="25"/>
+      <c r="OI129" s="25"/>
+      <c r="OJ129" s="25"/>
+      <c r="OK129" s="25"/>
+      <c r="OL129" s="25"/>
+      <c r="OM129" s="25"/>
+      <c r="ON129" s="25"/>
+      <c r="OO129" s="25"/>
+      <c r="OP129" s="25"/>
+      <c r="OQ129" s="25"/>
+      <c r="OR129" s="25"/>
+      <c r="OS129" s="25"/>
+      <c r="OT129" s="25"/>
+      <c r="OU129" s="25"/>
+      <c r="OV129" s="25"/>
+      <c r="OW129" s="25"/>
+      <c r="OX129" s="25"/>
+      <c r="OY129" s="25"/>
+      <c r="OZ129" s="25"/>
+      <c r="PA129" s="25"/>
+      <c r="PB129" s="25"/>
+      <c r="PC129" s="25"/>
+      <c r="PD129" s="25"/>
+      <c r="PE129" s="25"/>
+      <c r="PF129" s="25"/>
+      <c r="PG129" s="25"/>
+      <c r="PH129" s="25"/>
+      <c r="PI129" s="25"/>
+      <c r="PJ129" s="25"/>
+      <c r="PK129" s="25"/>
+      <c r="PL129" s="25"/>
+      <c r="PM129" s="25"/>
+      <c r="PN129" s="25"/>
+      <c r="PO129" s="25"/>
+      <c r="PP129" s="25"/>
+      <c r="PQ129" s="25"/>
+      <c r="PR129" s="25"/>
+      <c r="PS129" s="25"/>
+      <c r="PT129" s="25"/>
+      <c r="PU129" s="25"/>
+      <c r="PV129" s="25"/>
+      <c r="PW129" s="25"/>
+      <c r="PX129" s="25"/>
+      <c r="PY129" s="25"/>
+      <c r="PZ129" s="25"/>
+      <c r="QA129" s="25"/>
+      <c r="QB129" s="25"/>
+      <c r="QC129" s="25"/>
+      <c r="QD129" s="25"/>
+      <c r="QE129" s="25"/>
+      <c r="QF129" s="25"/>
+      <c r="QG129" s="25"/>
+      <c r="QH129" s="25"/>
+      <c r="QI129" s="25"/>
+      <c r="QJ129" s="25"/>
+      <c r="QK129" s="25"/>
+      <c r="QL129" s="25"/>
+      <c r="QM129" s="25"/>
+      <c r="QN129" s="25"/>
+      <c r="QO129" s="25"/>
+      <c r="QP129" s="25"/>
+      <c r="QQ129" s="25"/>
+      <c r="QR129" s="25"/>
+      <c r="QS129" s="25"/>
+      <c r="QT129" s="25"/>
+      <c r="QU129" s="25"/>
+      <c r="QV129" s="25"/>
+      <c r="QW129" s="25"/>
+      <c r="QX129" s="25"/>
+      <c r="QY129" s="25"/>
+      <c r="QZ129" s="25"/>
+      <c r="RA129" s="25"/>
+      <c r="RB129" s="25"/>
+      <c r="RC129" s="25"/>
+      <c r="RD129" s="25"/>
+      <c r="RE129" s="25"/>
+      <c r="RF129" s="25"/>
+      <c r="RG129" s="25"/>
+      <c r="RH129" s="25"/>
+      <c r="RI129" s="25"/>
+      <c r="RJ129" s="25"/>
+      <c r="RK129" s="25"/>
+      <c r="RL129" s="25"/>
+      <c r="RM129" s="25"/>
+      <c r="RN129" s="25"/>
+      <c r="RO129" s="25"/>
+      <c r="RP129" s="25"/>
+      <c r="RQ129" s="25"/>
+      <c r="RR129" s="25"/>
+      <c r="RS129" s="25"/>
+      <c r="RT129" s="25"/>
+      <c r="RU129" s="25"/>
+      <c r="RV129" s="25"/>
+      <c r="RW129" s="25"/>
+      <c r="RX129" s="25"/>
+      <c r="RY129" s="25"/>
+      <c r="RZ129" s="25"/>
+      <c r="SA129" s="25"/>
+      <c r="SB129" s="25"/>
+      <c r="SC129" s="25"/>
+      <c r="SD129" s="25"/>
+      <c r="SE129" s="25"/>
+      <c r="SF129" s="25"/>
+      <c r="SG129" s="25"/>
+      <c r="SH129" s="25"/>
+      <c r="SI129" s="25"/>
+      <c r="SJ129" s="25"/>
+      <c r="SK129" s="25"/>
+      <c r="SL129" s="25"/>
+      <c r="SM129" s="25"/>
+      <c r="SN129" s="25"/>
+      <c r="SO129" s="25"/>
+      <c r="SP129" s="25"/>
+      <c r="SQ129" s="25"/>
+      <c r="SR129" s="25"/>
+      <c r="SS129" s="25"/>
+      <c r="ST129" s="25"/>
+      <c r="SU129" s="25"/>
+      <c r="SV129" s="25"/>
+      <c r="SW129" s="25"/>
+      <c r="SX129" s="25"/>
+      <c r="SY129" s="25"/>
+      <c r="SZ129" s="25"/>
+      <c r="TA129" s="25"/>
+      <c r="TB129" s="25"/>
+      <c r="TC129" s="25"/>
+      <c r="TD129" s="25"/>
+      <c r="TE129" s="25"/>
+      <c r="TF129" s="25"/>
+      <c r="TG129" s="25"/>
+      <c r="TH129" s="25"/>
+      <c r="TI129" s="25"/>
+      <c r="TJ129" s="25"/>
+      <c r="TK129" s="25"/>
+      <c r="TL129" s="25"/>
+      <c r="TM129" s="25"/>
+      <c r="TN129" s="25"/>
+      <c r="TO129" s="25"/>
+      <c r="TP129" s="25"/>
+      <c r="TQ129" s="25"/>
+      <c r="TR129" s="25"/>
+      <c r="TS129" s="25"/>
+      <c r="TT129" s="25"/>
+      <c r="TU129" s="25"/>
+      <c r="TV129" s="25"/>
+      <c r="TW129" s="25"/>
+      <c r="TX129" s="25"/>
+      <c r="TY129" s="25"/>
+      <c r="TZ129" s="25"/>
+      <c r="UA129" s="25"/>
+      <c r="UB129" s="25"/>
+      <c r="UC129" s="25"/>
+      <c r="UD129" s="25"/>
+      <c r="UE129" s="25"/>
+      <c r="UF129" s="25"/>
+      <c r="UG129" s="25"/>
+      <c r="UH129" s="25"/>
+      <c r="UI129" s="25"/>
+      <c r="UJ129" s="25"/>
+      <c r="UK129" s="25"/>
+      <c r="UL129" s="25"/>
+      <c r="UM129" s="25"/>
+      <c r="UN129" s="25"/>
+      <c r="UO129" s="25"/>
+      <c r="UP129" s="25"/>
+      <c r="UQ129" s="25"/>
+      <c r="UR129" s="25"/>
+      <c r="US129" s="25"/>
+      <c r="UT129" s="25"/>
+      <c r="UU129" s="25"/>
+      <c r="UV129" s="25"/>
+      <c r="UW129" s="25"/>
+      <c r="UX129" s="25"/>
+      <c r="UY129" s="25"/>
+      <c r="UZ129" s="25"/>
+      <c r="VA129" s="25"/>
+      <c r="VB129" s="25"/>
+      <c r="VC129" s="25"/>
+      <c r="VD129" s="25"/>
+      <c r="VE129" s="25"/>
+      <c r="VF129" s="25"/>
+      <c r="VG129" s="25"/>
+      <c r="VH129" s="25"/>
+      <c r="VI129" s="25"/>
+      <c r="VJ129" s="25"/>
+      <c r="VK129" s="25"/>
+      <c r="VL129" s="25"/>
+      <c r="VM129" s="25"/>
+      <c r="VN129" s="25"/>
+      <c r="VO129" s="25"/>
+      <c r="VP129" s="25"/>
+      <c r="VQ129" s="25"/>
+      <c r="VR129" s="25"/>
+      <c r="VS129" s="25"/>
+      <c r="VT129" s="25"/>
+      <c r="VU129" s="25"/>
+      <c r="VV129" s="25"/>
+      <c r="VW129" s="25"/>
+      <c r="VX129" s="25"/>
+      <c r="VY129" s="25"/>
+      <c r="VZ129" s="25"/>
+      <c r="WA129" s="25"/>
+      <c r="WB129" s="25"/>
+      <c r="WC129" s="25"/>
+      <c r="WD129" s="25"/>
+      <c r="WE129" s="25"/>
+      <c r="WF129" s="25"/>
+      <c r="WG129" s="25"/>
+      <c r="WH129" s="25"/>
+      <c r="WI129" s="25"/>
+      <c r="WJ129" s="25"/>
+      <c r="WK129" s="25"/>
+      <c r="WL129" s="25"/>
+      <c r="WM129" s="25"/>
+      <c r="WN129" s="25"/>
+      <c r="WO129" s="25"/>
+      <c r="WP129" s="25"/>
+      <c r="WQ129" s="25"/>
+      <c r="WR129" s="25"/>
+      <c r="WS129" s="25"/>
+      <c r="WT129" s="25"/>
+      <c r="WU129" s="25"/>
+      <c r="WV129" s="25"/>
+      <c r="WW129" s="25"/>
+      <c r="WX129" s="25"/>
+      <c r="WY129" s="25"/>
+      <c r="WZ129" s="25"/>
+      <c r="XA129" s="25"/>
+      <c r="XB129" s="25"/>
+      <c r="XC129" s="25"/>
+      <c r="XD129" s="25"/>
+      <c r="XE129" s="25"/>
+      <c r="XF129" s="25"/>
+      <c r="XG129" s="25"/>
+      <c r="XH129" s="25"/>
+      <c r="XI129" s="25"/>
+      <c r="XJ129" s="25"/>
+      <c r="XK129" s="25"/>
+      <c r="XL129" s="25"/>
+      <c r="XM129" s="25"/>
+      <c r="XN129" s="25"/>
+      <c r="XO129" s="25"/>
+      <c r="XP129" s="25"/>
+      <c r="XQ129" s="25"/>
+      <c r="XR129" s="25"/>
+      <c r="XS129" s="25"/>
+      <c r="XT129" s="25"/>
+      <c r="XU129" s="25"/>
+      <c r="XV129" s="25"/>
+      <c r="XW129" s="25"/>
+      <c r="XX129" s="25"/>
+      <c r="XY129" s="25"/>
+      <c r="XZ129" s="25"/>
+      <c r="YA129" s="25"/>
+      <c r="YB129" s="25"/>
+      <c r="YC129" s="25"/>
+      <c r="YD129" s="25"/>
+      <c r="YE129" s="25"/>
+      <c r="YF129" s="25"/>
+      <c r="YG129" s="25"/>
+      <c r="YH129" s="25"/>
+      <c r="YI129" s="25"/>
+      <c r="YJ129" s="25"/>
+      <c r="YK129" s="25"/>
+      <c r="YL129" s="25"/>
+      <c r="YM129" s="25"/>
+      <c r="YN129" s="25"/>
+      <c r="YO129" s="25"/>
+      <c r="YP129" s="25"/>
+      <c r="YQ129" s="25"/>
+      <c r="YR129" s="25"/>
+      <c r="YS129" s="25"/>
+      <c r="YT129" s="25"/>
+      <c r="YU129" s="25"/>
+      <c r="YV129" s="25"/>
+      <c r="YW129" s="25"/>
+      <c r="YX129" s="25"/>
+      <c r="YY129" s="25"/>
+      <c r="YZ129" s="25"/>
+      <c r="ZA129" s="25"/>
+      <c r="ZB129" s="25"/>
+      <c r="ZC129" s="25"/>
+      <c r="ZD129" s="25"/>
+      <c r="ZE129" s="25"/>
+      <c r="ZF129" s="25"/>
+      <c r="ZG129" s="25"/>
+      <c r="ZH129" s="25"/>
+      <c r="ZI129" s="25"/>
+      <c r="ZJ129" s="25"/>
+      <c r="ZK129" s="25"/>
+      <c r="ZL129" s="25"/>
+      <c r="ZM129" s="25"/>
+      <c r="ZN129" s="25"/>
+      <c r="ZO129" s="25"/>
+      <c r="ZP129" s="25"/>
+      <c r="ZQ129" s="25"/>
+      <c r="ZR129" s="25"/>
+      <c r="ZS129" s="25"/>
+      <c r="ZT129" s="25"/>
+      <c r="ZU129" s="25"/>
+      <c r="ZV129" s="25"/>
+      <c r="ZW129" s="25"/>
+      <c r="ZX129" s="25"/>
+      <c r="ZY129" s="25"/>
+      <c r="ZZ129" s="25"/>
+      <c r="AAA129" s="25"/>
+      <c r="AAB129" s="25"/>
+      <c r="AAC129" s="25"/>
+      <c r="AAD129" s="25"/>
+      <c r="AAE129" s="25"/>
+      <c r="AAF129" s="25"/>
+      <c r="AAG129" s="25"/>
+      <c r="AAH129" s="25"/>
+      <c r="AAI129" s="25"/>
+      <c r="AAJ129" s="25"/>
+      <c r="AAK129" s="25"/>
+      <c r="AAL129" s="25"/>
+      <c r="AAM129" s="25"/>
+      <c r="AAN129" s="25"/>
+      <c r="AAO129" s="25"/>
+      <c r="AAP129" s="25"/>
+      <c r="AAQ129" s="25"/>
+      <c r="AAR129" s="25"/>
+      <c r="AAS129" s="25"/>
+      <c r="AAT129" s="25"/>
+      <c r="AAU129" s="25"/>
+      <c r="AAV129" s="25"/>
+      <c r="AAW129" s="25"/>
+      <c r="AAX129" s="25"/>
+      <c r="AAY129" s="25"/>
+      <c r="AAZ129" s="25"/>
+      <c r="ABA129" s="25"/>
+      <c r="ABB129" s="25"/>
+      <c r="ABC129" s="25"/>
+      <c r="ABD129" s="25"/>
+      <c r="ABE129" s="25"/>
+      <c r="ABF129" s="25"/>
+      <c r="ABG129" s="25"/>
+      <c r="ABH129" s="25"/>
+      <c r="ABI129" s="25"/>
+      <c r="ABJ129" s="25"/>
+      <c r="ABK129" s="25"/>
+      <c r="ABL129" s="25"/>
+      <c r="ABM129" s="25"/>
+      <c r="ABN129" s="25"/>
+      <c r="ABO129" s="25"/>
+      <c r="ABP129" s="25"/>
+      <c r="ABQ129" s="25"/>
+      <c r="ABR129" s="25"/>
+      <c r="ABS129" s="25"/>
+      <c r="ABT129" s="25"/>
+      <c r="ABU129" s="25"/>
+      <c r="ABV129" s="25"/>
+      <c r="ABW129" s="25"/>
+      <c r="ABX129" s="25"/>
+      <c r="ABY129" s="25"/>
+      <c r="ABZ129" s="25"/>
+      <c r="ACA129" s="25"/>
+      <c r="ACB129" s="25"/>
+      <c r="ACC129" s="25"/>
+      <c r="ACD129" s="25"/>
+      <c r="ACE129" s="25"/>
+      <c r="ACF129" s="25"/>
+      <c r="ACG129" s="25"/>
+      <c r="ACH129" s="25"/>
+      <c r="ACI129" s="25"/>
+      <c r="ACJ129" s="25"/>
+      <c r="ACK129" s="25"/>
+      <c r="ACL129" s="25"/>
+      <c r="ACM129" s="25"/>
+      <c r="ACN129" s="25"/>
+      <c r="ACO129" s="25"/>
+      <c r="ACP129" s="25"/>
+      <c r="ACQ129" s="25"/>
+      <c r="ACR129" s="25"/>
+      <c r="ACS129" s="25"/>
+      <c r="ACT129" s="25"/>
+      <c r="ACU129" s="25"/>
+      <c r="ACV129" s="25"/>
+      <c r="ACW129" s="25"/>
+      <c r="ACX129" s="25"/>
+      <c r="ACY129" s="25"/>
+      <c r="ACZ129" s="25"/>
+      <c r="ADA129" s="25"/>
+      <c r="ADB129" s="25"/>
+      <c r="ADC129" s="25"/>
+      <c r="ADD129" s="25"/>
+      <c r="ADE129" s="25"/>
+      <c r="ADF129" s="25"/>
+      <c r="ADG129" s="25"/>
+      <c r="ADH129" s="25"/>
+      <c r="ADI129" s="25"/>
+      <c r="ADJ129" s="25"/>
+      <c r="ADK129" s="25"/>
+      <c r="ADL129" s="25"/>
+      <c r="ADM129" s="25"/>
+      <c r="ADN129" s="25"/>
+      <c r="ADO129" s="25"/>
+      <c r="ADP129" s="25"/>
+      <c r="ADQ129" s="25"/>
+      <c r="ADR129" s="25"/>
+      <c r="ADS129" s="25"/>
+      <c r="ADT129" s="25"/>
+      <c r="ADU129" s="25"/>
+      <c r="ADV129" s="25"/>
+      <c r="ADW129" s="25"/>
+      <c r="ADX129" s="25"/>
+      <c r="ADY129" s="25"/>
+      <c r="ADZ129" s="25"/>
+      <c r="AEA129" s="25"/>
+      <c r="AEB129" s="25"/>
+      <c r="AEC129" s="25"/>
+      <c r="AED129" s="25"/>
+      <c r="AEE129" s="25"/>
+      <c r="AEF129" s="25"/>
+      <c r="AEG129" s="25"/>
+      <c r="AEH129" s="25"/>
+      <c r="AEI129" s="25"/>
+      <c r="AEJ129" s="25"/>
+      <c r="AEK129" s="25"/>
+      <c r="AEL129" s="25"/>
+      <c r="AEM129" s="25"/>
+      <c r="AEN129" s="25"/>
+      <c r="AEO129" s="25"/>
+      <c r="AEP129" s="25"/>
+      <c r="AEQ129" s="25"/>
+      <c r="AER129" s="25"/>
+      <c r="AES129" s="25"/>
+      <c r="AET129" s="25"/>
+      <c r="AEU129" s="25"/>
+      <c r="AEV129" s="25"/>
+      <c r="AEW129" s="25"/>
+      <c r="AEX129" s="25"/>
+      <c r="AEY129" s="25"/>
+      <c r="AEZ129" s="25"/>
+      <c r="AFA129" s="25"/>
+      <c r="AFB129" s="25"/>
+      <c r="AFC129" s="25"/>
+      <c r="AFD129" s="25"/>
+      <c r="AFE129" s="25"/>
+      <c r="AFF129" s="25"/>
+      <c r="AFG129" s="25"/>
+      <c r="AFH129" s="25"/>
+      <c r="AFI129" s="25"/>
+      <c r="AFJ129" s="25"/>
+      <c r="AFK129" s="25"/>
+      <c r="AFL129" s="25"/>
+      <c r="AFM129" s="25"/>
+      <c r="AFN129" s="25"/>
+      <c r="AFO129" s="25"/>
+      <c r="AFP129" s="25"/>
+      <c r="AFQ129" s="25"/>
+      <c r="AFR129" s="25"/>
+      <c r="AFS129" s="25"/>
+      <c r="AFT129" s="25"/>
+      <c r="AFU129" s="25"/>
+      <c r="AFV129" s="25"/>
+      <c r="AFW129" s="25"/>
+      <c r="AFX129" s="25"/>
+      <c r="AFY129" s="25"/>
+      <c r="AFZ129" s="25"/>
+      <c r="AGA129" s="25"/>
+      <c r="AGB129" s="25"/>
+      <c r="AGC129" s="25"/>
+      <c r="AGD129" s="25"/>
+      <c r="AGE129" s="25"/>
+      <c r="AGF129" s="25"/>
+      <c r="AGG129" s="25"/>
+      <c r="AGH129" s="25"/>
+      <c r="AGI129" s="25"/>
+      <c r="AGJ129" s="25"/>
+      <c r="AGK129" s="25"/>
+      <c r="AGL129" s="25"/>
+      <c r="AGM129" s="25"/>
+      <c r="AGN129" s="25"/>
+      <c r="AGO129" s="25"/>
+      <c r="AGP129" s="25"/>
+      <c r="AGQ129" s="25"/>
+      <c r="AGR129" s="25"/>
+      <c r="AGS129" s="25"/>
+      <c r="AGT129" s="25"/>
+      <c r="AGU129" s="25"/>
+      <c r="AGV129" s="25"/>
+      <c r="AGW129" s="25"/>
+      <c r="AGX129" s="25"/>
+      <c r="AGY129" s="25"/>
+      <c r="AGZ129" s="25"/>
+      <c r="AHA129" s="25"/>
+      <c r="AHB129" s="25"/>
+      <c r="AHC129" s="25"/>
+      <c r="AHD129" s="25"/>
+      <c r="AHE129" s="25"/>
+      <c r="AHF129" s="25"/>
+      <c r="AHG129" s="25"/>
+      <c r="AHH129" s="25"/>
+      <c r="AHI129" s="25"/>
+      <c r="AHJ129" s="25"/>
+      <c r="AHK129" s="25"/>
+      <c r="AHL129" s="25"/>
+      <c r="AHM129" s="25"/>
+      <c r="AHN129" s="25"/>
+      <c r="AHO129" s="25"/>
+      <c r="AHP129" s="25"/>
+      <c r="AHQ129" s="25"/>
+      <c r="AHR129" s="25"/>
+      <c r="AHS129" s="25"/>
+      <c r="AHT129" s="25"/>
+      <c r="AHU129" s="25"/>
+      <c r="AHV129" s="25"/>
+      <c r="AHW129" s="25"/>
+      <c r="AHX129" s="25"/>
+      <c r="AHY129" s="25"/>
+      <c r="AHZ129" s="25"/>
+      <c r="AIA129" s="25"/>
+      <c r="AIB129" s="25"/>
+      <c r="AIC129" s="25"/>
+      <c r="AID129" s="25"/>
+      <c r="AIE129" s="25"/>
+      <c r="AIF129" s="25"/>
+      <c r="AIG129" s="25"/>
+      <c r="AIH129" s="25"/>
+      <c r="AII129" s="25"/>
+      <c r="AIJ129" s="25"/>
+      <c r="AIK129" s="25"/>
+      <c r="AIL129" s="25"/>
+      <c r="AIM129" s="25"/>
+      <c r="AIN129" s="25"/>
+      <c r="AIO129" s="25"/>
+      <c r="AIP129" s="25"/>
+      <c r="AIQ129" s="25"/>
+      <c r="AIR129" s="25"/>
+      <c r="AIS129" s="25"/>
+      <c r="AIT129" s="25"/>
+      <c r="AIU129" s="25"/>
+      <c r="AIV129" s="25"/>
+      <c r="AIW129" s="25"/>
+      <c r="AIX129" s="25"/>
+      <c r="AIY129" s="25"/>
+      <c r="AIZ129" s="25"/>
+      <c r="AJA129" s="25"/>
+      <c r="AJB129" s="25"/>
+      <c r="AJC129" s="25"/>
+      <c r="AJD129" s="25"/>
+      <c r="AJE129" s="25"/>
+      <c r="AJF129" s="25"/>
+      <c r="AJG129" s="25"/>
+      <c r="AJH129" s="25"/>
+      <c r="AJI129" s="25"/>
+      <c r="AJJ129" s="25"/>
+      <c r="AJK129" s="25"/>
+      <c r="AJL129" s="25"/>
+      <c r="AJM129" s="25"/>
+      <c r="AJN129" s="25"/>
+      <c r="AJO129" s="25"/>
+      <c r="AJP129" s="25"/>
+      <c r="AJQ129" s="25"/>
+      <c r="AJR129" s="25"/>
+      <c r="AJS129" s="25"/>
+      <c r="AJT129" s="25"/>
+      <c r="AJU129" s="25"/>
+      <c r="AJV129" s="25"/>
+      <c r="AJW129" s="25"/>
+      <c r="AJX129" s="25"/>
+      <c r="AJY129" s="25"/>
+      <c r="AJZ129" s="25"/>
+      <c r="AKA129" s="25"/>
+      <c r="AKB129" s="25"/>
+      <c r="AKC129" s="25"/>
+      <c r="AKD129" s="25"/>
+      <c r="AKE129" s="25"/>
+      <c r="AKF129" s="25"/>
+      <c r="AKG129" s="25"/>
+      <c r="AKH129" s="25"/>
+      <c r="AKI129" s="25"/>
+      <c r="AKJ129" s="25"/>
+      <c r="AKK129" s="25"/>
+      <c r="AKL129" s="25"/>
+      <c r="AKM129" s="25"/>
+      <c r="AKN129" s="25"/>
+      <c r="AKO129" s="25"/>
+      <c r="AKP129" s="25"/>
+      <c r="AKQ129" s="25"/>
+      <c r="AKR129" s="25"/>
+      <c r="AKS129" s="25"/>
+      <c r="AKT129" s="25"/>
+      <c r="AKU129" s="25"/>
+      <c r="AKV129" s="25"/>
+      <c r="AKW129" s="25"/>
+      <c r="AKX129" s="25"/>
+      <c r="AKY129" s="25"/>
+      <c r="AKZ129" s="25"/>
+      <c r="ALA129" s="25"/>
+      <c r="ALB129" s="25"/>
+      <c r="ALC129" s="25"/>
+      <c r="ALD129" s="25"/>
+      <c r="ALE129" s="25"/>
+      <c r="ALF129" s="25"/>
+      <c r="ALG129" s="25"/>
+      <c r="ALH129" s="25"/>
+      <c r="ALI129" s="25"/>
+      <c r="ALJ129" s="25"/>
+      <c r="ALK129" s="25"/>
+      <c r="ALL129" s="25"/>
+      <c r="ALM129" s="25"/>
+      <c r="ALN129" s="25"/>
+      <c r="ALO129" s="25"/>
+      <c r="ALP129" s="25"/>
+      <c r="ALQ129" s="25"/>
+      <c r="ALR129" s="25"/>
+      <c r="ALS129" s="25"/>
+      <c r="ALT129" s="25"/>
+      <c r="ALU129" s="25"/>
+      <c r="ALV129" s="25"/>
+      <c r="ALW129" s="25"/>
+      <c r="ALX129" s="25"/>
+      <c r="ALY129" s="25"/>
+      <c r="ALZ129" s="25"/>
+      <c r="AMA129" s="25"/>
+      <c r="AMB129" s="25"/>
+      <c r="AMC129" s="25"/>
+      <c r="AMD129" s="25"/>
+      <c r="AME129" s="25"/>
+      <c r="AMF129" s="25"/>
+    </row>
+    <row r="131" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="5"/>
+      <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="5"/>
+      <c r="W131" s="5"/>
+      <c r="X131" s="5"/>
+      <c r="Y131" s="5"/>
+      <c r="Z131" s="5"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5"/>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="5"/>
+      <c r="AF131" s="5"/>
+      <c r="AG131" s="5"/>
+      <c r="AH131" s="5"/>
+      <c r="AI131" s="5"/>
+      <c r="AJ131" s="5"/>
+      <c r="AK131" s="5"/>
+      <c r="AL131" s="5"/>
+      <c r="AM131" s="5"/>
+      <c r="AN131" s="5"/>
+      <c r="AO131" s="5"/>
+      <c r="AP131" s="5"/>
+      <c r="AQ131" s="5"/>
+      <c r="AR131" s="5"/>
+      <c r="AS131" s="5"/>
+      <c r="AT131" s="5"/>
+      <c r="AU131" s="5"/>
+      <c r="AV131" s="5"/>
+      <c r="AW131" s="5"/>
+      <c r="AX131" s="5"/>
+      <c r="AY131" s="5"/>
+      <c r="AZ131" s="5"/>
+      <c r="BA131" s="5"/>
+      <c r="BB131" s="5"/>
+      <c r="BC131" s="5"/>
+      <c r="BD131" s="5"/>
+      <c r="BE131" s="5"/>
+      <c r="BF131" s="5"/>
+      <c r="BG131" s="5"/>
+      <c r="BH131" s="5"/>
+      <c r="BI131" s="5"/>
+      <c r="BJ131" s="5"/>
+      <c r="BK131" s="5"/>
+      <c r="BL131" s="5"/>
+      <c r="BM131" s="5"/>
+      <c r="BN131" s="5"/>
+      <c r="BO131" s="5"/>
+      <c r="BP131" s="5"/>
+      <c r="BQ131" s="5"/>
+      <c r="BR131" s="5"/>
+      <c r="BS131" s="5"/>
+      <c r="BT131" s="5"/>
+      <c r="BU131" s="5"/>
+      <c r="BV131" s="5"/>
+      <c r="BW131" s="5"/>
+      <c r="BX131" s="5"/>
+      <c r="BY131" s="5"/>
+      <c r="BZ131" s="5"/>
+      <c r="CA131" s="5"/>
+      <c r="CB131" s="5"/>
+      <c r="CC131" s="5"/>
+      <c r="CD131" s="5"/>
+      <c r="CE131" s="5"/>
+      <c r="CF131" s="5"/>
+      <c r="CG131" s="5"/>
+      <c r="CH131" s="5"/>
+      <c r="CI131" s="5"/>
+      <c r="CJ131" s="5"/>
+      <c r="CK131" s="5"/>
+      <c r="CL131" s="5"/>
+      <c r="CM131" s="5"/>
+      <c r="CN131" s="5"/>
+      <c r="CO131" s="5"/>
+      <c r="CP131" s="5"/>
+      <c r="CQ131" s="5"/>
+      <c r="CR131" s="5"/>
+      <c r="CS131" s="5"/>
+      <c r="CT131" s="5"/>
+      <c r="CU131" s="5"/>
+      <c r="CV131" s="5"/>
+      <c r="CW131" s="5"/>
+      <c r="CX131" s="5"/>
+      <c r="CY131" s="5"/>
+      <c r="CZ131" s="5"/>
+      <c r="DA131" s="5"/>
+      <c r="DB131" s="5"/>
+      <c r="DC131" s="5"/>
+      <c r="DD131" s="5"/>
+      <c r="DE131" s="5"/>
+      <c r="DF131" s="5"/>
+      <c r="DG131" s="5"/>
+      <c r="DH131" s="5"/>
+      <c r="DI131" s="5"/>
+      <c r="DJ131" s="5"/>
+      <c r="DK131" s="5"/>
+      <c r="DL131" s="5"/>
+      <c r="DM131" s="5"/>
+      <c r="DN131" s="5"/>
+      <c r="DO131" s="5"/>
+      <c r="DP131" s="5"/>
+      <c r="DQ131" s="5"/>
+      <c r="DR131" s="5"/>
+      <c r="DS131" s="5"/>
+      <c r="DT131" s="5"/>
+      <c r="DU131" s="5"/>
+      <c r="DV131" s="5"/>
+      <c r="DW131" s="5"/>
+      <c r="DX131" s="5"/>
+      <c r="DY131" s="5"/>
+      <c r="DZ131" s="5"/>
+      <c r="EA131" s="5"/>
+      <c r="EB131" s="5"/>
+      <c r="EC131" s="5"/>
+      <c r="ED131" s="5"/>
+      <c r="EE131" s="5"/>
+      <c r="EF131" s="5"/>
+      <c r="EG131" s="5"/>
+      <c r="EH131" s="5"/>
+      <c r="EI131" s="5"/>
+      <c r="EJ131" s="5"/>
+      <c r="EK131" s="5"/>
+      <c r="EL131" s="5"/>
+      <c r="EM131" s="5"/>
+      <c r="EN131" s="5"/>
+      <c r="EO131" s="5"/>
+      <c r="EP131" s="5"/>
+      <c r="EQ131" s="5"/>
+      <c r="ER131" s="5"/>
+      <c r="ES131" s="5"/>
+      <c r="ET131" s="5"/>
+      <c r="EU131" s="5"/>
+      <c r="EV131" s="5"/>
+      <c r="EW131" s="5"/>
+      <c r="EX131" s="5"/>
+      <c r="EY131" s="5"/>
+      <c r="EZ131" s="5"/>
+      <c r="FA131" s="5"/>
+      <c r="FB131" s="5"/>
+      <c r="FC131" s="5"/>
+      <c r="FD131" s="5"/>
+      <c r="FE131" s="5"/>
+      <c r="FF131" s="5"/>
+      <c r="FG131" s="5"/>
+      <c r="FH131" s="5"/>
+      <c r="FI131" s="5"/>
+      <c r="FJ131" s="5"/>
+      <c r="FK131" s="5"/>
+      <c r="FL131" s="5"/>
+      <c r="FM131" s="5"/>
+      <c r="FN131" s="5"/>
+      <c r="FO131" s="5"/>
+      <c r="FP131" s="5"/>
+      <c r="FQ131" s="5"/>
+      <c r="FR131" s="5"/>
+      <c r="FS131" s="5"/>
+      <c r="FT131" s="5"/>
+      <c r="FU131" s="5"/>
+      <c r="FV131" s="5"/>
+      <c r="FW131" s="5"/>
+      <c r="FX131" s="5"/>
+      <c r="FY131" s="5"/>
+      <c r="FZ131" s="5"/>
+      <c r="GA131" s="5"/>
+      <c r="GB131" s="5"/>
+      <c r="GC131" s="5"/>
+      <c r="GD131" s="5"/>
+      <c r="GE131" s="5"/>
+      <c r="GF131" s="5"/>
+      <c r="GG131" s="5"/>
+      <c r="GH131" s="5"/>
+      <c r="GI131" s="5"/>
+      <c r="GJ131" s="5"/>
+      <c r="GK131" s="5"/>
+      <c r="GL131" s="5"/>
+      <c r="GM131" s="5"/>
+      <c r="GN131" s="5"/>
+      <c r="GO131" s="5"/>
+      <c r="GP131" s="5"/>
+      <c r="GQ131" s="5"/>
+      <c r="GR131" s="5"/>
+      <c r="GS131" s="5"/>
+      <c r="GT131" s="5"/>
+      <c r="GU131" s="5"/>
+      <c r="GV131" s="5"/>
+      <c r="GW131" s="5"/>
+      <c r="GX131" s="5"/>
+      <c r="GY131" s="5"/>
+      <c r="GZ131" s="5"/>
+      <c r="HA131" s="5"/>
+      <c r="HB131" s="5"/>
+      <c r="HC131" s="5"/>
+      <c r="HD131" s="5"/>
+      <c r="HE131" s="5"/>
+      <c r="HF131" s="5"/>
+      <c r="HG131" s="5"/>
+      <c r="HH131" s="5"/>
+      <c r="HI131" s="5"/>
+      <c r="HJ131" s="5"/>
+      <c r="HK131" s="5"/>
+      <c r="HL131" s="5"/>
+      <c r="HM131" s="5"/>
+      <c r="HN131" s="5"/>
+      <c r="HO131" s="5"/>
+      <c r="HP131" s="5"/>
+      <c r="HQ131" s="5"/>
+      <c r="HR131" s="5"/>
+      <c r="HS131" s="5"/>
+      <c r="HT131" s="5"/>
+      <c r="HU131" s="5"/>
+      <c r="HV131" s="5"/>
+      <c r="HW131" s="5"/>
+      <c r="HX131" s="5"/>
+      <c r="HY131" s="5"/>
+      <c r="HZ131" s="5"/>
+      <c r="IA131" s="5"/>
+      <c r="IB131" s="5"/>
+      <c r="IC131" s="5"/>
+      <c r="ID131" s="5"/>
+      <c r="IE131" s="5"/>
+      <c r="IF131" s="5"/>
+      <c r="IG131" s="5"/>
+      <c r="IH131" s="5"/>
+      <c r="II131" s="5"/>
+      <c r="IJ131" s="5"/>
+      <c r="IK131" s="5"/>
+      <c r="IL131" s="5"/>
+      <c r="IM131" s="5"/>
+      <c r="IN131" s="5"/>
+      <c r="IO131" s="5"/>
+      <c r="IP131" s="5"/>
+      <c r="IQ131" s="5"/>
+      <c r="IR131" s="5"/>
+      <c r="IS131" s="5"/>
+      <c r="IT131" s="5"/>
+      <c r="IU131" s="5"/>
+      <c r="IV131" s="5"/>
+      <c r="IW131" s="5"/>
+      <c r="IX131" s="5"/>
+      <c r="IY131" s="5"/>
+      <c r="IZ131" s="5"/>
+      <c r="JA131" s="5"/>
+      <c r="JB131" s="5"/>
+      <c r="JC131" s="5"/>
+      <c r="JD131" s="5"/>
+      <c r="JE131" s="5"/>
+      <c r="JF131" s="5"/>
+      <c r="JG131" s="5"/>
+      <c r="JH131" s="5"/>
+      <c r="JI131" s="5"/>
+      <c r="JJ131" s="5"/>
+      <c r="JK131" s="5"/>
+      <c r="JL131" s="5"/>
+      <c r="JM131" s="5"/>
+      <c r="JN131" s="5"/>
+      <c r="JO131" s="5"/>
+      <c r="JP131" s="5"/>
+      <c r="JQ131" s="5"/>
+      <c r="JR131" s="5"/>
+      <c r="JS131" s="5"/>
+      <c r="JT131" s="5"/>
+      <c r="JU131" s="5"/>
+      <c r="JV131" s="5"/>
+      <c r="JW131" s="5"/>
+      <c r="JX131" s="5"/>
+      <c r="JY131" s="5"/>
+      <c r="JZ131" s="5"/>
+      <c r="KA131" s="5"/>
+      <c r="KB131" s="5"/>
+      <c r="KC131" s="5"/>
+      <c r="KD131" s="5"/>
+      <c r="KE131" s="5"/>
+      <c r="KF131" s="5"/>
+      <c r="KG131" s="5"/>
+      <c r="KH131" s="5"/>
+      <c r="KI131" s="5"/>
+      <c r="KJ131" s="5"/>
+      <c r="KK131" s="5"/>
+      <c r="KL131" s="5"/>
+      <c r="KM131" s="5"/>
+      <c r="KN131" s="5"/>
+      <c r="KO131" s="5"/>
+      <c r="KP131" s="5"/>
+      <c r="KQ131" s="5"/>
+      <c r="KR131" s="5"/>
+      <c r="KS131" s="5"/>
+      <c r="KT131" s="5"/>
+      <c r="KU131" s="5"/>
+      <c r="KV131" s="5"/>
+      <c r="KW131" s="5"/>
+      <c r="KX131" s="5"/>
+      <c r="KY131" s="5"/>
+      <c r="KZ131" s="5"/>
+      <c r="LA131" s="5"/>
+      <c r="LB131" s="5"/>
+      <c r="LC131" s="5"/>
+      <c r="LD131" s="5"/>
+      <c r="LE131" s="5"/>
+      <c r="LF131" s="5"/>
+      <c r="LG131" s="5"/>
+      <c r="LH131" s="5"/>
+      <c r="LI131" s="5"/>
+      <c r="LJ131" s="5"/>
+      <c r="LK131" s="5"/>
+      <c r="LL131" s="5"/>
+      <c r="LM131" s="5"/>
+      <c r="LN131" s="5"/>
+      <c r="LO131" s="5"/>
+      <c r="LP131" s="5"/>
+      <c r="LQ131" s="5"/>
+      <c r="LR131" s="5"/>
+      <c r="LS131" s="5"/>
+      <c r="LT131" s="5"/>
+      <c r="LU131" s="5"/>
+      <c r="LV131" s="5"/>
+      <c r="LW131" s="5"/>
+      <c r="LX131" s="5"/>
+      <c r="LY131" s="5"/>
+      <c r="LZ131" s="5"/>
+      <c r="MA131" s="5"/>
+      <c r="MB131" s="5"/>
+      <c r="MC131" s="5"/>
+      <c r="MD131" s="5"/>
+      <c r="ME131" s="5"/>
+      <c r="MF131" s="5"/>
+      <c r="MG131" s="5"/>
+      <c r="MH131" s="5"/>
+      <c r="MI131" s="5"/>
+      <c r="MJ131" s="5"/>
+      <c r="MK131" s="5"/>
+      <c r="ML131" s="5"/>
+      <c r="MM131" s="5"/>
+      <c r="MN131" s="5"/>
+      <c r="MO131" s="5"/>
+      <c r="MP131" s="5"/>
+      <c r="MQ131" s="5"/>
+      <c r="MR131" s="5"/>
+      <c r="MS131" s="5"/>
+      <c r="MT131" s="5"/>
+      <c r="MU131" s="5"/>
+      <c r="MV131" s="5"/>
+      <c r="MW131" s="5"/>
+      <c r="MX131" s="5"/>
+      <c r="MY131" s="5"/>
+      <c r="MZ131" s="5"/>
+      <c r="NA131" s="5"/>
+      <c r="NB131" s="5"/>
+      <c r="NC131" s="5"/>
+      <c r="ND131" s="5"/>
+      <c r="NE131" s="5"/>
+      <c r="NF131" s="5"/>
+      <c r="NG131" s="5"/>
+      <c r="NH131" s="5"/>
+      <c r="NI131" s="5"/>
+      <c r="NJ131" s="5"/>
+      <c r="NK131" s="5"/>
+      <c r="NL131" s="5"/>
+      <c r="NM131" s="5"/>
+      <c r="NN131" s="5"/>
+      <c r="NO131" s="5"/>
+      <c r="NP131" s="5"/>
+      <c r="NQ131" s="5"/>
+      <c r="NR131" s="5"/>
+      <c r="NS131" s="5"/>
+      <c r="NT131" s="5"/>
+      <c r="NU131" s="5"/>
+      <c r="NV131" s="5"/>
+      <c r="NW131" s="5"/>
+      <c r="NX131" s="5"/>
+      <c r="NY131" s="5"/>
+      <c r="NZ131" s="5"/>
+      <c r="OA131" s="5"/>
+      <c r="OB131" s="5"/>
+      <c r="OC131" s="5"/>
+      <c r="OD131" s="5"/>
+      <c r="OE131" s="5"/>
+      <c r="OF131" s="5"/>
+      <c r="OG131" s="5"/>
+      <c r="OH131" s="5"/>
+      <c r="OI131" s="5"/>
+      <c r="OJ131" s="5"/>
+      <c r="OK131" s="5"/>
+      <c r="OL131" s="5"/>
+      <c r="OM131" s="5"/>
+      <c r="ON131" s="5"/>
+      <c r="OO131" s="5"/>
+      <c r="OP131" s="5"/>
+      <c r="OQ131" s="5"/>
+      <c r="OR131" s="5"/>
+      <c r="OS131" s="5"/>
+      <c r="OT131" s="5"/>
+      <c r="OU131" s="5"/>
+      <c r="OV131" s="5"/>
+      <c r="OW131" s="5"/>
+      <c r="OX131" s="5"/>
+      <c r="OY131" s="5"/>
+      <c r="OZ131" s="5"/>
+      <c r="PA131" s="5"/>
+      <c r="PB131" s="5"/>
+      <c r="PC131" s="5"/>
+      <c r="PD131" s="5"/>
+      <c r="PE131" s="5"/>
+      <c r="PF131" s="5"/>
+      <c r="PG131" s="5"/>
+      <c r="PH131" s="5"/>
+      <c r="PI131" s="5"/>
+      <c r="PJ131" s="5"/>
+      <c r="PK131" s="5"/>
+      <c r="PL131" s="5"/>
+      <c r="PM131" s="5"/>
+      <c r="PN131" s="5"/>
+      <c r="PO131" s="5"/>
+      <c r="PP131" s="5"/>
+      <c r="PQ131" s="5"/>
+      <c r="PR131" s="5"/>
+      <c r="PS131" s="5"/>
+      <c r="PT131" s="5"/>
+      <c r="PU131" s="5"/>
+      <c r="PV131" s="5"/>
+      <c r="PW131" s="5"/>
+      <c r="PX131" s="5"/>
+      <c r="PY131" s="5"/>
+      <c r="PZ131" s="5"/>
+      <c r="QA131" s="5"/>
+      <c r="QB131" s="5"/>
+      <c r="QC131" s="5"/>
+      <c r="QD131" s="5"/>
+      <c r="QE131" s="5"/>
+      <c r="QF131" s="5"/>
+      <c r="QG131" s="5"/>
+      <c r="QH131" s="5"/>
+      <c r="QI131" s="5"/>
+      <c r="QJ131" s="5"/>
+      <c r="QK131" s="5"/>
+      <c r="QL131" s="5"/>
+      <c r="QM131" s="5"/>
+      <c r="QN131" s="5"/>
+      <c r="QO131" s="5"/>
+      <c r="QP131" s="5"/>
+      <c r="QQ131" s="5"/>
+      <c r="QR131" s="5"/>
+      <c r="QS131" s="5"/>
+      <c r="QT131" s="5"/>
+      <c r="QU131" s="5"/>
+      <c r="QV131" s="5"/>
+      <c r="QW131" s="5"/>
+      <c r="QX131" s="5"/>
+      <c r="QY131" s="5"/>
+      <c r="QZ131" s="5"/>
+      <c r="RA131" s="5"/>
+      <c r="RB131" s="5"/>
+      <c r="RC131" s="5"/>
+      <c r="RD131" s="5"/>
+      <c r="RE131" s="5"/>
+      <c r="RF131" s="5"/>
+      <c r="RG131" s="5"/>
+      <c r="RH131" s="5"/>
+      <c r="RI131" s="5"/>
+      <c r="RJ131" s="5"/>
+      <c r="RK131" s="5"/>
+      <c r="RL131" s="5"/>
+      <c r="RM131" s="5"/>
+      <c r="RN131" s="5"/>
+      <c r="RO131" s="5"/>
+      <c r="RP131" s="5"/>
+      <c r="RQ131" s="5"/>
+      <c r="RR131" s="5"/>
+      <c r="RS131" s="5"/>
+      <c r="RT131" s="5"/>
+      <c r="RU131" s="5"/>
+      <c r="RV131" s="5"/>
+      <c r="RW131" s="5"/>
+      <c r="RX131" s="5"/>
+      <c r="RY131" s="5"/>
+      <c r="RZ131" s="5"/>
+      <c r="SA131" s="5"/>
+      <c r="SB131" s="5"/>
+      <c r="SC131" s="5"/>
+      <c r="SD131" s="5"/>
+      <c r="SE131" s="5"/>
+      <c r="SF131" s="5"/>
+      <c r="SG131" s="5"/>
+      <c r="SH131" s="5"/>
+      <c r="SI131" s="5"/>
+      <c r="SJ131" s="5"/>
+      <c r="SK131" s="5"/>
+      <c r="SL131" s="5"/>
+      <c r="SM131" s="5"/>
+      <c r="SN131" s="5"/>
+      <c r="SO131" s="5"/>
+      <c r="SP131" s="5"/>
+      <c r="SQ131" s="5"/>
+      <c r="SR131" s="5"/>
+      <c r="SS131" s="5"/>
+      <c r="ST131" s="5"/>
+      <c r="SU131" s="5"/>
+      <c r="SV131" s="5"/>
+      <c r="SW131" s="5"/>
+      <c r="SX131" s="5"/>
+      <c r="SY131" s="5"/>
+      <c r="SZ131" s="5"/>
+      <c r="TA131" s="5"/>
+      <c r="TB131" s="5"/>
+      <c r="TC131" s="5"/>
+      <c r="TD131" s="5"/>
+      <c r="TE131" s="5"/>
+      <c r="TF131" s="5"/>
+      <c r="TG131" s="5"/>
+      <c r="TH131" s="5"/>
+      <c r="TI131" s="5"/>
+      <c r="TJ131" s="5"/>
+      <c r="TK131" s="5"/>
+      <c r="TL131" s="5"/>
+      <c r="TM131" s="5"/>
+      <c r="TN131" s="5"/>
+      <c r="TO131" s="5"/>
+      <c r="TP131" s="5"/>
+      <c r="TQ131" s="5"/>
+      <c r="TR131" s="5"/>
+      <c r="TS131" s="5"/>
+      <c r="TT131" s="5"/>
+      <c r="TU131" s="5"/>
+      <c r="TV131" s="5"/>
+      <c r="TW131" s="5"/>
+      <c r="TX131" s="5"/>
+      <c r="TY131" s="5"/>
+      <c r="TZ131" s="5"/>
+      <c r="UA131" s="5"/>
+      <c r="UB131" s="5"/>
+      <c r="UC131" s="5"/>
+      <c r="UD131" s="5"/>
+      <c r="UE131" s="5"/>
+      <c r="UF131" s="5"/>
+      <c r="UG131" s="5"/>
+      <c r="UH131" s="5"/>
+      <c r="UI131" s="5"/>
+      <c r="UJ131" s="5"/>
+      <c r="UK131" s="5"/>
+      <c r="UL131" s="5"/>
+      <c r="UM131" s="5"/>
+      <c r="UN131" s="5"/>
+      <c r="UO131" s="5"/>
+      <c r="UP131" s="5"/>
+      <c r="UQ131" s="5"/>
+      <c r="UR131" s="5"/>
+      <c r="US131" s="5"/>
+      <c r="UT131" s="5"/>
+      <c r="UU131" s="5"/>
+      <c r="UV131" s="5"/>
+      <c r="UW131" s="5"/>
+      <c r="UX131" s="5"/>
+      <c r="UY131" s="5"/>
+      <c r="UZ131" s="5"/>
+      <c r="VA131" s="5"/>
+      <c r="VB131" s="5"/>
+      <c r="VC131" s="5"/>
+      <c r="VD131" s="5"/>
+      <c r="VE131" s="5"/>
+      <c r="VF131" s="5"/>
+      <c r="VG131" s="5"/>
+      <c r="VH131" s="5"/>
+      <c r="VI131" s="5"/>
+      <c r="VJ131" s="5"/>
+      <c r="VK131" s="5"/>
+      <c r="VL131" s="5"/>
+      <c r="VM131" s="5"/>
+      <c r="VN131" s="5"/>
+      <c r="VO131" s="5"/>
+      <c r="VP131" s="5"/>
+      <c r="VQ131" s="5"/>
+      <c r="VR131" s="5"/>
+      <c r="VS131" s="5"/>
+      <c r="VT131" s="5"/>
+      <c r="VU131" s="5"/>
+      <c r="VV131" s="5"/>
+      <c r="VW131" s="5"/>
+      <c r="VX131" s="5"/>
+      <c r="VY131" s="5"/>
+      <c r="VZ131" s="5"/>
+      <c r="WA131" s="5"/>
+      <c r="WB131" s="5"/>
+      <c r="WC131" s="5"/>
+      <c r="WD131" s="5"/>
+      <c r="WE131" s="5"/>
+      <c r="WF131" s="5"/>
+      <c r="WG131" s="5"/>
+      <c r="WH131" s="5"/>
+      <c r="WI131" s="5"/>
+      <c r="WJ131" s="5"/>
+      <c r="WK131" s="5"/>
+      <c r="WL131" s="5"/>
+      <c r="WM131" s="5"/>
+      <c r="WN131" s="5"/>
+      <c r="WO131" s="5"/>
+      <c r="WP131" s="5"/>
+      <c r="WQ131" s="5"/>
+      <c r="WR131" s="5"/>
+      <c r="WS131" s="5"/>
+      <c r="WT131" s="5"/>
+      <c r="WU131" s="5"/>
+      <c r="WV131" s="5"/>
+      <c r="WW131" s="5"/>
+      <c r="WX131" s="5"/>
+      <c r="WY131" s="5"/>
+      <c r="WZ131" s="5"/>
+      <c r="XA131" s="5"/>
+      <c r="XB131" s="5"/>
+      <c r="XC131" s="5"/>
+      <c r="XD131" s="5"/>
+      <c r="XE131" s="5"/>
+      <c r="XF131" s="5"/>
+      <c r="XG131" s="5"/>
+      <c r="XH131" s="5"/>
+      <c r="XI131" s="5"/>
+      <c r="XJ131" s="5"/>
+      <c r="XK131" s="5"/>
+      <c r="XL131" s="5"/>
+      <c r="XM131" s="5"/>
+      <c r="XN131" s="5"/>
+      <c r="XO131" s="5"/>
+      <c r="XP131" s="5"/>
+      <c r="XQ131" s="5"/>
+      <c r="XR131" s="5"/>
+      <c r="XS131" s="5"/>
+      <c r="XT131" s="5"/>
+      <c r="XU131" s="5"/>
+      <c r="XV131" s="5"/>
+      <c r="XW131" s="5"/>
+      <c r="XX131" s="5"/>
+      <c r="XY131" s="5"/>
+      <c r="XZ131" s="5"/>
+      <c r="YA131" s="5"/>
+      <c r="YB131" s="5"/>
+      <c r="YC131" s="5"/>
+      <c r="YD131" s="5"/>
+      <c r="YE131" s="5"/>
+      <c r="YF131" s="5"/>
+      <c r="YG131" s="5"/>
+      <c r="YH131" s="5"/>
+      <c r="YI131" s="5"/>
+      <c r="YJ131" s="5"/>
+      <c r="YK131" s="5"/>
+      <c r="YL131" s="5"/>
+      <c r="YM131" s="5"/>
+      <c r="YN131" s="5"/>
+      <c r="YO131" s="5"/>
+      <c r="YP131" s="5"/>
+      <c r="YQ131" s="5"/>
+      <c r="YR131" s="5"/>
+      <c r="YS131" s="5"/>
+      <c r="YT131" s="5"/>
+      <c r="YU131" s="5"/>
+      <c r="YV131" s="5"/>
+      <c r="YW131" s="5"/>
+      <c r="YX131" s="5"/>
+      <c r="YY131" s="5"/>
+      <c r="YZ131" s="5"/>
+      <c r="ZA131" s="5"/>
+      <c r="ZB131" s="5"/>
+      <c r="ZC131" s="5"/>
+      <c r="ZD131" s="5"/>
+      <c r="ZE131" s="5"/>
+      <c r="ZF131" s="5"/>
+      <c r="ZG131" s="5"/>
+      <c r="ZH131" s="5"/>
+      <c r="ZI131" s="5"/>
+      <c r="ZJ131" s="5"/>
+      <c r="ZK131" s="5"/>
+      <c r="ZL131" s="5"/>
+      <c r="ZM131" s="5"/>
+      <c r="ZN131" s="5"/>
+      <c r="ZO131" s="5"/>
+      <c r="ZP131" s="5"/>
+      <c r="ZQ131" s="5"/>
+      <c r="ZR131" s="5"/>
+      <c r="ZS131" s="5"/>
+      <c r="ZT131" s="5"/>
+      <c r="ZU131" s="5"/>
+      <c r="ZV131" s="5"/>
+      <c r="ZW131" s="5"/>
+      <c r="ZX131" s="5"/>
+      <c r="ZY131" s="5"/>
+      <c r="ZZ131" s="5"/>
+      <c r="AAA131" s="5"/>
+      <c r="AAB131" s="5"/>
+      <c r="AAC131" s="5"/>
+      <c r="AAD131" s="5"/>
+      <c r="AAE131" s="5"/>
+      <c r="AAF131" s="5"/>
+      <c r="AAG131" s="5"/>
+      <c r="AAH131" s="5"/>
+      <c r="AAI131" s="5"/>
+      <c r="AAJ131" s="5"/>
+      <c r="AAK131" s="5"/>
+      <c r="AAL131" s="5"/>
+      <c r="AAM131" s="5"/>
+      <c r="AAN131" s="5"/>
+      <c r="AAO131" s="5"/>
+      <c r="AAP131" s="5"/>
+      <c r="AAQ131" s="5"/>
+      <c r="AAR131" s="5"/>
+      <c r="AAS131" s="5"/>
+      <c r="AAT131" s="5"/>
+      <c r="AAU131" s="5"/>
+      <c r="AAV131" s="5"/>
+      <c r="AAW131" s="5"/>
+      <c r="AAX131" s="5"/>
+      <c r="AAY131" s="5"/>
+      <c r="AAZ131" s="5"/>
+      <c r="ABA131" s="5"/>
+      <c r="ABB131" s="5"/>
+      <c r="ABC131" s="5"/>
+      <c r="ABD131" s="5"/>
+      <c r="ABE131" s="5"/>
+      <c r="ABF131" s="5"/>
+      <c r="ABG131" s="5"/>
+      <c r="ABH131" s="5"/>
+      <c r="ABI131" s="5"/>
+      <c r="ABJ131" s="5"/>
+      <c r="ABK131" s="5"/>
+      <c r="ABL131" s="5"/>
+      <c r="ABM131" s="5"/>
+      <c r="ABN131" s="5"/>
+      <c r="ABO131" s="5"/>
+      <c r="ABP131" s="5"/>
+      <c r="ABQ131" s="5"/>
+      <c r="ABR131" s="5"/>
+      <c r="ABS131" s="5"/>
+      <c r="ABT131" s="5"/>
+      <c r="ABU131" s="5"/>
+      <c r="ABV131" s="5"/>
+      <c r="ABW131" s="5"/>
+      <c r="ABX131" s="5"/>
+      <c r="ABY131" s="5"/>
+      <c r="ABZ131" s="5"/>
+      <c r="ACA131" s="5"/>
+      <c r="ACB131" s="5"/>
+      <c r="ACC131" s="5"/>
+      <c r="ACD131" s="5"/>
+      <c r="ACE131" s="5"/>
+      <c r="ACF131" s="5"/>
+      <c r="ACG131" s="5"/>
+      <c r="ACH131" s="5"/>
+      <c r="ACI131" s="5"/>
+      <c r="ACJ131" s="5"/>
+      <c r="ACK131" s="5"/>
+      <c r="ACL131" s="5"/>
+      <c r="ACM131" s="5"/>
+      <c r="ACN131" s="5"/>
+      <c r="ACO131" s="5"/>
+      <c r="ACP131" s="5"/>
+      <c r="ACQ131" s="5"/>
+      <c r="ACR131" s="5"/>
+      <c r="ACS131" s="5"/>
+      <c r="ACT131" s="5"/>
+      <c r="ACU131" s="5"/>
+      <c r="ACV131" s="5"/>
+      <c r="ACW131" s="5"/>
+      <c r="ACX131" s="5"/>
+      <c r="ACY131" s="5"/>
+      <c r="ACZ131" s="5"/>
+      <c r="ADA131" s="5"/>
+      <c r="ADB131" s="5"/>
+      <c r="ADC131" s="5"/>
+      <c r="ADD131" s="5"/>
+      <c r="ADE131" s="5"/>
+      <c r="ADF131" s="5"/>
+      <c r="ADG131" s="5"/>
+      <c r="ADH131" s="5"/>
+      <c r="ADI131" s="5"/>
+      <c r="ADJ131" s="5"/>
+      <c r="ADK131" s="5"/>
+      <c r="ADL131" s="5"/>
+      <c r="ADM131" s="5"/>
+      <c r="ADN131" s="5"/>
+      <c r="ADO131" s="5"/>
+      <c r="ADP131" s="5"/>
+      <c r="ADQ131" s="5"/>
+      <c r="ADR131" s="5"/>
+      <c r="ADS131" s="5"/>
+      <c r="ADT131" s="5"/>
+      <c r="ADU131" s="5"/>
+      <c r="ADV131" s="5"/>
+      <c r="ADW131" s="5"/>
+      <c r="ADX131" s="5"/>
+      <c r="ADY131" s="5"/>
+      <c r="ADZ131" s="5"/>
+      <c r="AEA131" s="5"/>
+      <c r="AEB131" s="5"/>
+      <c r="AEC131" s="5"/>
+      <c r="AED131" s="5"/>
+      <c r="AEE131" s="5"/>
+      <c r="AEF131" s="5"/>
+      <c r="AEG131" s="5"/>
+      <c r="AEH131" s="5"/>
+      <c r="AEI131" s="5"/>
+      <c r="AEJ131" s="5"/>
+      <c r="AEK131" s="5"/>
+      <c r="AEL131" s="5"/>
+      <c r="AEM131" s="5"/>
+      <c r="AEN131" s="5"/>
+      <c r="AEO131" s="5"/>
+      <c r="AEP131" s="5"/>
+      <c r="AEQ131" s="5"/>
+      <c r="AER131" s="5"/>
+      <c r="AES131" s="5"/>
+      <c r="AET131" s="5"/>
+      <c r="AEU131" s="5"/>
+      <c r="AEV131" s="5"/>
+      <c r="AEW131" s="5"/>
+      <c r="AEX131" s="5"/>
+      <c r="AEY131" s="5"/>
+      <c r="AEZ131" s="5"/>
+      <c r="AFA131" s="5"/>
+      <c r="AFB131" s="5"/>
+      <c r="AFC131" s="5"/>
+      <c r="AFD131" s="5"/>
+      <c r="AFE131" s="5"/>
+      <c r="AFF131" s="5"/>
+      <c r="AFG131" s="5"/>
+      <c r="AFH131" s="5"/>
+      <c r="AFI131" s="5"/>
+      <c r="AFJ131" s="5"/>
+      <c r="AFK131" s="5"/>
+      <c r="AFL131" s="5"/>
+      <c r="AFM131" s="5"/>
+      <c r="AFN131" s="5"/>
+      <c r="AFO131" s="5"/>
+      <c r="AFP131" s="5"/>
+      <c r="AFQ131" s="5"/>
+      <c r="AFR131" s="5"/>
+      <c r="AFS131" s="5"/>
+      <c r="AFT131" s="5"/>
+      <c r="AFU131" s="5"/>
+      <c r="AFV131" s="5"/>
+      <c r="AFW131" s="5"/>
+      <c r="AFX131" s="5"/>
+      <c r="AFY131" s="5"/>
+      <c r="AFZ131" s="5"/>
+      <c r="AGA131" s="5"/>
+      <c r="AGB131" s="5"/>
+      <c r="AGC131" s="5"/>
+      <c r="AGD131" s="5"/>
+      <c r="AGE131" s="5"/>
+      <c r="AGF131" s="5"/>
+      <c r="AGG131" s="5"/>
+      <c r="AGH131" s="5"/>
+      <c r="AGI131" s="5"/>
+      <c r="AGJ131" s="5"/>
+      <c r="AGK131" s="5"/>
+      <c r="AGL131" s="5"/>
+      <c r="AGM131" s="5"/>
+      <c r="AGN131" s="5"/>
+      <c r="AGO131" s="5"/>
+      <c r="AGP131" s="5"/>
+      <c r="AGQ131" s="5"/>
+      <c r="AGR131" s="5"/>
+      <c r="AGS131" s="5"/>
+      <c r="AGT131" s="5"/>
+      <c r="AGU131" s="5"/>
+      <c r="AGV131" s="5"/>
+      <c r="AGW131" s="5"/>
+      <c r="AGX131" s="5"/>
+      <c r="AGY131" s="5"/>
+      <c r="AGZ131" s="5"/>
+      <c r="AHA131" s="5"/>
+      <c r="AHB131" s="5"/>
+      <c r="AHC131" s="5"/>
+      <c r="AHD131" s="5"/>
+      <c r="AHE131" s="5"/>
+      <c r="AHF131" s="5"/>
+      <c r="AHG131" s="5"/>
+      <c r="AHH131" s="5"/>
+      <c r="AHI131" s="5"/>
+      <c r="AHJ131" s="5"/>
+      <c r="AHK131" s="5"/>
+      <c r="AHL131" s="5"/>
+      <c r="AHM131" s="5"/>
+      <c r="AHN131" s="5"/>
+      <c r="AHO131" s="5"/>
+      <c r="AHP131" s="5"/>
+      <c r="AHQ131" s="5"/>
+      <c r="AHR131" s="5"/>
+      <c r="AHS131" s="5"/>
+      <c r="AHT131" s="5"/>
+      <c r="AHU131" s="5"/>
+      <c r="AHV131" s="5"/>
+      <c r="AHW131" s="5"/>
+      <c r="AHX131" s="5"/>
+      <c r="AHY131" s="5"/>
+      <c r="AHZ131" s="5"/>
+      <c r="AIA131" s="5"/>
+      <c r="AIB131" s="5"/>
+      <c r="AIC131" s="5"/>
+      <c r="AID131" s="5"/>
+      <c r="AIE131" s="5"/>
+      <c r="AIF131" s="5"/>
+      <c r="AIG131" s="5"/>
+      <c r="AIH131" s="5"/>
+      <c r="AII131" s="5"/>
+      <c r="AIJ131" s="5"/>
+      <c r="AIK131" s="5"/>
+      <c r="AIL131" s="5"/>
+      <c r="AIM131" s="5"/>
+      <c r="AIN131" s="5"/>
+      <c r="AIO131" s="5"/>
+      <c r="AIP131" s="5"/>
+      <c r="AIQ131" s="5"/>
+      <c r="AIR131" s="5"/>
+      <c r="AIS131" s="5"/>
+      <c r="AIT131" s="5"/>
+      <c r="AIU131" s="5"/>
+      <c r="AIV131" s="5"/>
+      <c r="AIW131" s="5"/>
+      <c r="AIX131" s="5"/>
+      <c r="AIY131" s="5"/>
+      <c r="AIZ131" s="5"/>
+      <c r="AJA131" s="5"/>
+      <c r="AJB131" s="5"/>
+      <c r="AJC131" s="5"/>
+      <c r="AJD131" s="5"/>
+      <c r="AJE131" s="5"/>
+      <c r="AJF131" s="5"/>
+      <c r="AJG131" s="5"/>
+      <c r="AJH131" s="5"/>
+      <c r="AJI131" s="5"/>
+      <c r="AJJ131" s="5"/>
+      <c r="AJK131" s="5"/>
+      <c r="AJL131" s="5"/>
+      <c r="AJM131" s="5"/>
+      <c r="AJN131" s="5"/>
+      <c r="AJO131" s="5"/>
+      <c r="AJP131" s="5"/>
+      <c r="AJQ131" s="5"/>
+      <c r="AJR131" s="5"/>
+      <c r="AJS131" s="5"/>
+      <c r="AJT131" s="5"/>
+      <c r="AJU131" s="5"/>
+      <c r="AJV131" s="5"/>
+      <c r="AJW131" s="5"/>
+      <c r="AJX131" s="5"/>
+      <c r="AJY131" s="5"/>
+      <c r="AJZ131" s="5"/>
+      <c r="AKA131" s="5"/>
+      <c r="AKB131" s="5"/>
+      <c r="AKC131" s="5"/>
+      <c r="AKD131" s="5"/>
+      <c r="AKE131" s="5"/>
+      <c r="AKF131" s="5"/>
+      <c r="AKG131" s="5"/>
+      <c r="AKH131" s="5"/>
+      <c r="AKI131" s="5"/>
+      <c r="AKJ131" s="5"/>
+      <c r="AKK131" s="5"/>
+      <c r="AKL131" s="5"/>
+      <c r="AKM131" s="5"/>
+      <c r="AKN131" s="5"/>
+      <c r="AKO131" s="5"/>
+      <c r="AKP131" s="5"/>
+      <c r="AKQ131" s="5"/>
+      <c r="AKR131" s="5"/>
+      <c r="AKS131" s="5"/>
+      <c r="AKT131" s="5"/>
+      <c r="AKU131" s="5"/>
+      <c r="AKV131" s="5"/>
+      <c r="AKW131" s="5"/>
+      <c r="AKX131" s="5"/>
+      <c r="AKY131" s="5"/>
+      <c r="AKZ131" s="5"/>
+      <c r="ALA131" s="5"/>
+      <c r="ALB131" s="5"/>
+      <c r="ALC131" s="5"/>
+      <c r="ALD131" s="5"/>
+      <c r="ALE131" s="5"/>
+      <c r="ALF131" s="5"/>
+      <c r="ALG131" s="5"/>
+      <c r="ALH131" s="5"/>
+      <c r="ALI131" s="5"/>
+      <c r="ALJ131" s="5"/>
+      <c r="ALK131" s="5"/>
+      <c r="ALL131" s="5"/>
+      <c r="ALM131" s="5"/>
+      <c r="ALN131" s="5"/>
+      <c r="ALO131" s="5"/>
+      <c r="ALP131" s="5"/>
+      <c r="ALQ131" s="5"/>
+      <c r="ALR131" s="5"/>
+      <c r="ALS131" s="5"/>
+      <c r="ALT131" s="5"/>
+      <c r="ALU131" s="5"/>
+      <c r="ALV131" s="5"/>
+      <c r="ALW131" s="5"/>
+      <c r="ALX131" s="5"/>
+      <c r="ALY131" s="5"/>
+      <c r="ALZ131" s="5"/>
+      <c r="AMA131" s="5"/>
+      <c r="AMB131" s="5"/>
+      <c r="AMC131" s="5"/>
+      <c r="AMD131" s="5"/>
+      <c r="AME131" s="5"/>
+      <c r="AMF131" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A:F"/>
-  <conditionalFormatting sqref="F77:F1048576 F1:F75">
+  <conditionalFormatting sqref="F78:F1048576 F1:F76">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="12">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -6316,123 +6342,124 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="#1743"/>
-    <hyperlink ref="B4" r:id="rId2" display="#1258"/>
-    <hyperlink ref="B5" r:id="rId3" display="#271"/>
-    <hyperlink ref="B6" r:id="rId4" display="#2"/>
-    <hyperlink ref="B7" r:id="rId5" display="#1349"/>
-    <hyperlink ref="B8" r:id="rId6" display="#1725"/>
-    <hyperlink ref="B9" r:id="rId7" display="#1724"/>
-    <hyperlink ref="B10" r:id="rId8" display="#1722"/>
-    <hyperlink ref="B11" r:id="rId9" display="#1226"/>
-    <hyperlink ref="B12" r:id="rId10" display="#1225"/>
-    <hyperlink ref="B13" r:id="rId11" display="#1720"/>
-    <hyperlink ref="B14" r:id="rId12" display="#1323"/>
-    <hyperlink ref="B15" r:id="rId13" display="#30"/>
-    <hyperlink ref="B16" r:id="rId14" display="#1712"/>
-    <hyperlink ref="B17" r:id="rId15" display="#1215"/>
-    <hyperlink ref="B18" r:id="rId16" display="#1214"/>
-    <hyperlink ref="B19" r:id="rId17" display="#1213"/>
-    <hyperlink ref="B20" r:id="rId18" display="#1212"/>
-    <hyperlink ref="B22" r:id="rId19" display="#1202"/>
-    <hyperlink ref="B23" r:id="rId20" display="#27"/>
-    <hyperlink ref="B24" r:id="rId21" display="#26"/>
-    <hyperlink ref="B25" r:id="rId22" display="#1201"/>
-    <hyperlink ref="B26" r:id="rId23" display="#1200"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1708"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1185"/>
-    <hyperlink ref="B29" r:id="rId26" display="#11"/>
-    <hyperlink ref="B30" r:id="rId27" display="#1309"/>
-    <hyperlink ref="B31" r:id="rId28" display="#1176"/>
-    <hyperlink ref="B32" r:id="rId29" display="#1171"/>
-    <hyperlink ref="B33" r:id="rId30" display="#1164"/>
-    <hyperlink ref="B34" r:id="rId31" display="#9"/>
-    <hyperlink ref="B35" r:id="rId32" display="#1163"/>
-    <hyperlink ref="B36" r:id="rId33" display="#1161"/>
-    <hyperlink ref="B37" r:id="rId34" display="#1690"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1155"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1150"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1151"/>
-    <hyperlink ref="B42" r:id="rId38" display="#1200"/>
-    <hyperlink ref="B43" r:id="rId39" display="#1681"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1142"/>
-    <hyperlink ref="B45" r:id="rId41" display="#8"/>
-    <hyperlink ref="B46" r:id="rId42" display="#1674"/>
-    <hyperlink ref="B47" r:id="rId43" display="#1672"/>
-    <hyperlink ref="B48" r:id="rId44" display="#1669"/>
-    <hyperlink ref="B49" r:id="rId45" display="#1670"/>
-    <hyperlink ref="B50" r:id="rId46" display="#1184"/>
-    <hyperlink ref="B51" r:id="rId47" display="#49"/>
-    <hyperlink ref="B52" r:id="rId48" display="#1140"/>
-    <hyperlink ref="B53" r:id="rId49" display="#1132"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1125"/>
-    <hyperlink ref="B56" r:id="rId51" display="#1641"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1124"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1122"/>
-    <hyperlink ref="B59" r:id="rId54" display="#43"/>
-    <hyperlink ref="B60" r:id="rId55" display="#1622"/>
-    <hyperlink ref="B62" r:id="rId56" display="#38"/>
-    <hyperlink ref="B63" r:id="rId57" display="#1621"/>
-    <hyperlink ref="B64" r:id="rId58" display="#1616"/>
-    <hyperlink ref="B65" r:id="rId59" display="#37"/>
-    <hyperlink ref="B66" r:id="rId60" display="#36"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1101"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1099"/>
-    <hyperlink ref="B69" r:id="rId63" display="#1098"/>
-    <hyperlink ref="B70" r:id="rId64" display="#1617"/>
-    <hyperlink ref="B71" r:id="rId65" display="#1092"/>
-    <hyperlink ref="B72" r:id="rId66" display="#1128"/>
-    <hyperlink ref="B73" r:id="rId67" display="#1090"/>
-    <hyperlink ref="B74" r:id="rId68" display="#1608"/>
-    <hyperlink ref="B75" r:id="rId69" display="#35"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1070"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1592"/>
-    <hyperlink ref="B79" r:id="rId72" display="#1591"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1578"/>
-    <hyperlink ref="B81" r:id="rId74" display="#41"/>
-    <hyperlink ref="B82" r:id="rId75" display="#42"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1566"/>
-    <hyperlink ref="B84" r:id="rId77" display="#1565"/>
-    <hyperlink ref="B85" r:id="rId78" display="#1046"/>
-    <hyperlink ref="B86" r:id="rId79" display="#1559"/>
-    <hyperlink ref="B87" r:id="rId80" display="#1038"/>
-    <hyperlink ref="B88" r:id="rId81" display="#1037"/>
-    <hyperlink ref="B89" r:id="rId82" display="#1020"/>
-    <hyperlink ref="B90" r:id="rId83" display="#1032"/>
-    <hyperlink ref="B91" r:id="rId84" display="#1546"/>
-    <hyperlink ref="B92" r:id="rId85" display="#1027"/>
-    <hyperlink ref="B93" r:id="rId86" display="#1529"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1527"/>
-    <hyperlink ref="B96" r:id="rId88" display="#558"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1005"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1020"/>
-    <hyperlink ref="B99" r:id="rId91" display="#993"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1520"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1519"/>
-    <hyperlink ref="B102" r:id="rId94" display="#969"/>
-    <hyperlink ref="B103" r:id="rId95" display="#1003"/>
-    <hyperlink ref="B104" r:id="rId96" display="#1015"/>
-    <hyperlink ref="B105" r:id="rId97" display="#1002"/>
-    <hyperlink ref="B106" r:id="rId98" display="#1471"/>
-    <hyperlink ref="B107" r:id="rId99" display="#1497"/>
-    <hyperlink ref="B108" r:id="rId100" display="#947"/>
-    <hyperlink ref="B109" r:id="rId101" display="#933"/>
-    <hyperlink ref="B110" r:id="rId102" display="#932"/>
-    <hyperlink ref="B111" r:id="rId103" display="#931"/>
-    <hyperlink ref="B112" r:id="rId104" display="#987"/>
-    <hyperlink ref="B113" r:id="rId105" display="#988"/>
-    <hyperlink ref="B114" r:id="rId106" display="#982"/>
-    <hyperlink ref="B115" r:id="rId107" display="#979"/>
-    <hyperlink ref="B116" r:id="rId108" display="#977"/>
-    <hyperlink ref="B117" r:id="rId109" display="#975"/>
-    <hyperlink ref="B118" r:id="rId110" display="#1445"/>
-    <hyperlink ref="B119" r:id="rId111" display="#1444"/>
-    <hyperlink ref="B120" r:id="rId112" display="#1427"/>
-    <hyperlink ref="B122" r:id="rId113" display="#23"/>
-    <hyperlink ref="B123" r:id="rId114" display="#22"/>
-    <hyperlink ref="B124" r:id="rId115" display="#18"/>
-    <hyperlink ref="B125" r:id="rId116" display="#1207"/>
-    <hyperlink ref="B126" r:id="rId117" display="#245"/>
+    <hyperlink ref="B3" r:id="rId1" display="#1745"/>
+    <hyperlink ref="B4" r:id="rId2" display="#1743"/>
+    <hyperlink ref="B5" r:id="rId3" display="#1258"/>
+    <hyperlink ref="B6" r:id="rId4" display="#271"/>
+    <hyperlink ref="B7" r:id="rId5" display="#2"/>
+    <hyperlink ref="B8" r:id="rId6" display="#1349"/>
+    <hyperlink ref="B9" r:id="rId7" display="#1725"/>
+    <hyperlink ref="B10" r:id="rId8" display="#1724"/>
+    <hyperlink ref="B11" r:id="rId9" display="#1722"/>
+    <hyperlink ref="B12" r:id="rId10" display="#1226"/>
+    <hyperlink ref="B13" r:id="rId11" display="#1225"/>
+    <hyperlink ref="B14" r:id="rId12" display="#1720"/>
+    <hyperlink ref="B15" r:id="rId13" display="#1323"/>
+    <hyperlink ref="B16" r:id="rId14" display="#30"/>
+    <hyperlink ref="B17" r:id="rId15" display="#1712"/>
+    <hyperlink ref="B18" r:id="rId16" display="#1215"/>
+    <hyperlink ref="B19" r:id="rId17" display="#1214"/>
+    <hyperlink ref="B20" r:id="rId18" display="#1213"/>
+    <hyperlink ref="B21" r:id="rId19" display="#1212"/>
+    <hyperlink ref="B23" r:id="rId20" display="#1202"/>
+    <hyperlink ref="B24" r:id="rId21" display="#27"/>
+    <hyperlink ref="B25" r:id="rId22" display="#26"/>
+    <hyperlink ref="B26" r:id="rId23" display="#1201"/>
+    <hyperlink ref="B27" r:id="rId24" display="#1200"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1708"/>
+    <hyperlink ref="B29" r:id="rId26" display="#1185"/>
+    <hyperlink ref="B30" r:id="rId27" display="#11"/>
+    <hyperlink ref="B31" r:id="rId28" display="#1309"/>
+    <hyperlink ref="B32" r:id="rId29" display="#1176"/>
+    <hyperlink ref="B33" r:id="rId30" display="#1171"/>
+    <hyperlink ref="B34" r:id="rId31" display="#1164"/>
+    <hyperlink ref="B35" r:id="rId32" display="#9"/>
+    <hyperlink ref="B36" r:id="rId33" display="#1163"/>
+    <hyperlink ref="B37" r:id="rId34" display="#1161"/>
+    <hyperlink ref="B38" r:id="rId35" display="#1690"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1155"/>
+    <hyperlink ref="B41" r:id="rId37" display="#1150"/>
+    <hyperlink ref="B42" r:id="rId38" display="#1151"/>
+    <hyperlink ref="B43" r:id="rId39" display="#1200"/>
+    <hyperlink ref="B44" r:id="rId40" display="#1681"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1142"/>
+    <hyperlink ref="B46" r:id="rId42" display="#8"/>
+    <hyperlink ref="B47" r:id="rId43" display="#1674"/>
+    <hyperlink ref="B48" r:id="rId44" display="#1672"/>
+    <hyperlink ref="B49" r:id="rId45" display="#1669"/>
+    <hyperlink ref="B50" r:id="rId46" display="#1670"/>
+    <hyperlink ref="B51" r:id="rId47" display="#1184"/>
+    <hyperlink ref="B52" r:id="rId48" display="#49"/>
+    <hyperlink ref="B53" r:id="rId49" display="#1140"/>
+    <hyperlink ref="B54" r:id="rId50" display="#1132"/>
+    <hyperlink ref="B56" r:id="rId51" display="#1125"/>
+    <hyperlink ref="B57" r:id="rId52" display="#1641"/>
+    <hyperlink ref="B58" r:id="rId53" display="#1124"/>
+    <hyperlink ref="B59" r:id="rId54" display="#1122"/>
+    <hyperlink ref="B60" r:id="rId55" display="#43"/>
+    <hyperlink ref="B61" r:id="rId56" display="#1622"/>
+    <hyperlink ref="B63" r:id="rId57" display="#38"/>
+    <hyperlink ref="B64" r:id="rId58" display="#1621"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1616"/>
+    <hyperlink ref="B66" r:id="rId60" display="#37"/>
+    <hyperlink ref="B67" r:id="rId61" display="#36"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1101"/>
+    <hyperlink ref="B69" r:id="rId63" display="#1099"/>
+    <hyperlink ref="B70" r:id="rId64" display="#1098"/>
+    <hyperlink ref="B71" r:id="rId65" display="#1617"/>
+    <hyperlink ref="B72" r:id="rId66" display="#1092"/>
+    <hyperlink ref="B73" r:id="rId67" display="#1128"/>
+    <hyperlink ref="B74" r:id="rId68" display="#1090"/>
+    <hyperlink ref="B75" r:id="rId69" display="#1608"/>
+    <hyperlink ref="B76" r:id="rId70" display="#35"/>
+    <hyperlink ref="B78" r:id="rId71" display="#1070"/>
+    <hyperlink ref="B79" r:id="rId72" display="#1592"/>
+    <hyperlink ref="B80" r:id="rId73" display="#1591"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1578"/>
+    <hyperlink ref="B82" r:id="rId75" display="#41"/>
+    <hyperlink ref="B83" r:id="rId76" display="#42"/>
+    <hyperlink ref="B84" r:id="rId77" display="#1566"/>
+    <hyperlink ref="B85" r:id="rId78" display="#1565"/>
+    <hyperlink ref="B86" r:id="rId79" display="#1046"/>
+    <hyperlink ref="B87" r:id="rId80" display="#1559"/>
+    <hyperlink ref="B88" r:id="rId81" display="#1038"/>
+    <hyperlink ref="B89" r:id="rId82" display="#1037"/>
+    <hyperlink ref="B90" r:id="rId83" display="#1020"/>
+    <hyperlink ref="B91" r:id="rId84" display="#1032"/>
+    <hyperlink ref="B92" r:id="rId85" display="#1546"/>
+    <hyperlink ref="B93" r:id="rId86" display="#1027"/>
+    <hyperlink ref="B94" r:id="rId87" display="#1529"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1527"/>
+    <hyperlink ref="B97" r:id="rId89" display="#558"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1005"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1020"/>
+    <hyperlink ref="B100" r:id="rId92" display="#993"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1520"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1519"/>
+    <hyperlink ref="B103" r:id="rId95" display="#969"/>
+    <hyperlink ref="B104" r:id="rId96" display="#1003"/>
+    <hyperlink ref="B105" r:id="rId97" display="#1015"/>
+    <hyperlink ref="B106" r:id="rId98" display="#1002"/>
+    <hyperlink ref="B107" r:id="rId99" display="#1471"/>
+    <hyperlink ref="B108" r:id="rId100" display="#1497"/>
+    <hyperlink ref="B109" r:id="rId101" display="#947"/>
+    <hyperlink ref="B110" r:id="rId102" display="#933"/>
+    <hyperlink ref="B111" r:id="rId103" display="#932"/>
+    <hyperlink ref="B112" r:id="rId104" display="#931"/>
+    <hyperlink ref="B113" r:id="rId105" display="#987"/>
+    <hyperlink ref="B114" r:id="rId106" display="#988"/>
+    <hyperlink ref="B115" r:id="rId107" display="#982"/>
+    <hyperlink ref="B116" r:id="rId108" display="#979"/>
+    <hyperlink ref="B117" r:id="rId109" display="#977"/>
+    <hyperlink ref="B118" r:id="rId110" display="#975"/>
+    <hyperlink ref="B119" r:id="rId111" display="#1445"/>
+    <hyperlink ref="B120" r:id="rId112" display="#1444"/>
+    <hyperlink ref="B121" r:id="rId113" display="#1427"/>
+    <hyperlink ref="B123" r:id="rId114" display="#23"/>
+    <hyperlink ref="B124" r:id="rId115" display="#22"/>
+    <hyperlink ref="B125" r:id="rId116" display="#18"/>
+    <hyperlink ref="B126" r:id="rId117" display="#1207"/>
+    <hyperlink ref="B127" r:id="rId118" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -6441,7 +6468,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId118"/>
+  <drawing r:id="rId119"/>
 </worksheet>
 </file>
 
@@ -6474,10 +6501,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -6486,10 +6513,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,8 +13,8 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$134</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$135</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="303">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -118,6 +118,18 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customize segment properties fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#274</t>
   </si>
   <si>
@@ -127,9 +139,6 @@
     <t xml:space="preserve">Translated and final segments in XLIFF 2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Open!</t>
-  </si>
-  <si>
     <t xml:space="preserve">#273</t>
   </si>
   <si>
@@ -146,9 +155,6 @@
   </si>
   <si>
     <t xml:space="preserve">Let user decide the maximum number of TM matches displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFE</t>
   </si>
   <si>
     <t xml:space="preserve">#1752</t>
@@ -1704,14 +1710,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ136"/>
+  <dimension ref="A1:AMJ137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1762,21 +1768,21 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>45563</v>
+        <v>45604</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>33</v>
@@ -1788,16 +1794,16 @@
     </row>
     <row r="4" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
-        <v>45488</v>
+        <v>45563</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>9</v>
@@ -1810,18 +1816,18 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+    <row r="5" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>45488</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>9</v>
@@ -1834,21 +1840,21 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>33</v>
@@ -1860,7 +1866,7 @@
     </row>
     <row r="7" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>41</v>
@@ -1872,10 +1878,10 @@
         <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
@@ -1884,22 +1890,22 @@
     </row>
     <row r="8" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
-        <v>45784</v>
+        <v>45469</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
@@ -1908,7 +1914,7 @@
     </row>
     <row r="9" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
-        <v>45411</v>
+        <v>45784</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>46</v>
@@ -1920,7 +1926,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>33</v>
@@ -1930,9 +1936,9 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
-        <v>45394</v>
+        <v>45411</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>48</v>
@@ -1944,10 +1950,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
@@ -1955,23 +1961,23 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>45390</v>
+      <c r="A11" s="12" t="n">
+        <v>45394</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>53</v>
+      <c r="F11" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -1980,22 +1986,22 @@
     </row>
     <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
-        <v>45365</v>
+        <v>45390</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>43</v>
+      <c r="F12" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -2004,58 +2010,58 @@
     </row>
     <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>29</v>
+      <c r="C14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
+    <row r="15" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>33</v>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
@@ -2064,7 +2070,7 @@
     </row>
     <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>62</v>
@@ -2072,11 +2078,11 @@
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>33</v>
@@ -2088,7 +2094,7 @@
     </row>
     <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>64</v>
@@ -2100,10 +2106,10 @@
         <v>65</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -2112,7 +2118,7 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
-        <v>45236</v>
+        <v>45223</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -2124,10 +2130,10 @@
         <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -2136,22 +2142,22 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>33</v>
+      <c r="F19" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
@@ -2160,7 +2166,7 @@
     </row>
     <row r="20" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
-        <v>45213</v>
+        <v>45233</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>71</v>
@@ -2172,10 +2178,10 @@
         <v>72</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
@@ -2184,22 +2190,22 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
-        <v>45199</v>
+        <v>45213</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -2208,22 +2214,22 @@
     </row>
     <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
@@ -2232,7 +2238,7 @@
     </row>
     <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>77</v>
@@ -2244,10 +2250,10 @@
         <v>78</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -2255,23 +2261,23 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+      <c r="A24" s="9" t="n">
         <v>45169</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="C24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>80</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
@@ -2280,7 +2286,7 @@
     </row>
     <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="n">
-        <v>45145</v>
+        <v>45169</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>81</v>
@@ -2289,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>9</v>
@@ -2303,23 +2309,23 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="16" t="n">
         <v>45145</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
@@ -2343,37 +2349,40 @@
         <v>9</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
-        <v>45112</v>
+        <v>45145</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>53</v>
+        <v>88</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>88</v>
+        <v>45112</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>7</v>
@@ -2381,11 +2390,8 @@
       <c r="D29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>33</v>
+      <c r="F29" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
@@ -2394,19 +2400,19 @@
     </row>
     <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>33</v>
@@ -2421,16 +2427,16 @@
         <v>45119</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>33</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="32" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>33</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="34" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>99</v>
@@ -2502,10 +2508,10 @@
         <v>100</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="35" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>101</v>
@@ -2526,49 +2532,49 @@
         <v>102</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="20" t="s">
-        <v>53</v>
+      <c r="F36" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>108</v>
@@ -2576,41 +2582,41 @@
       <c r="E37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>109</v>
+      <c r="F37" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>45069</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>53</v>
+      <c r="F38" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>112</v>
@@ -2624,17 +2630,17 @@
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>43</v>
+      <c r="F39" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>114</v>
@@ -2648,8 +2654,8 @@
       <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>53</v>
+      <c r="F40" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
@@ -2663,17 +2669,17 @@
       <c r="B41" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>105</v>
+      <c r="C41" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
@@ -2682,31 +2688,31 @@
     </row>
     <row r="42" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>7</v>
+      <c r="C42" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>120</v>
@@ -2720,17 +2726,17 @@
       <c r="E43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>43</v>
+      <c r="F43" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>122</v>
@@ -2742,10 +2748,10 @@
         <v>123</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
@@ -2754,16 +2760,22 @@
     </row>
     <row r="45" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
@@ -2772,31 +2784,25 @@
     </row>
     <row r="46" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>125</v>
+        <v>44996</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F46" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>127</v>
@@ -2810,8 +2816,8 @@
       <c r="E47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>103</v>
+      <c r="F47" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
@@ -2835,7 +2841,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
@@ -2844,22 +2850,22 @@
     </row>
     <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>132</v>
+      <c r="F49" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
@@ -2868,22 +2874,22 @@
     </row>
     <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
@@ -2892,22 +2898,22 @@
     </row>
     <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>136</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
@@ -2915,47 +2921,47 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="16" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="9" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="18" t="s">
+      <c r="C52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>80</v>
+      <c r="F52" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B53" s="27" t="s">
+    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="16" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>43</v>
+      <c r="E53" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
@@ -2964,22 +2970,22 @@
     </row>
     <row r="54" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>140</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
@@ -2988,7 +2994,7 @@
     </row>
     <row r="55" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>142</v>
@@ -3000,10 +3006,10 @@
         <v>143</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>103</v>
+        <v>32</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
@@ -3012,7 +3018,7 @@
     </row>
     <row r="56" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>144</v>
@@ -3024,10 +3030,10 @@
         <v>145</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
@@ -3048,10 +3054,10 @@
         <v>147</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
@@ -3059,23 +3065,23 @@
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="26" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>148</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
@@ -3083,23 +3089,23 @@
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="28" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B59" s="29" t="s">
         <v>150</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>53</v>
+        <v>9</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
@@ -3108,58 +3114,70 @@
     </row>
     <row r="60" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B60" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B61" s="30" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="24" t="s">
+      <c r="E61" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>33</v>
+      <c r="F61" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+    <row r="62" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="26" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>29</v>
+      <c r="C62" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
@@ -3167,71 +3185,59 @@
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>43</v>
+      <c r="F63" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B64" s="27" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="24" t="s">
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>43</v>
+      <c r="E64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B65" s="31" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B65" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>103</v>
+      <c r="E65" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="66" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B66" s="31" t="s">
         <v>164</v>
@@ -3252,105 +3258,109 @@
         <v>165</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B67" s="32" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="AMG67" s="0"/>
+      <c r="AMH67" s="0"/>
+      <c r="AMI67" s="0"/>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B68" s="31" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>169</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
-        <v>44743</v>
+        <v>373466</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>53</v>
+        <v>172</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>172</v>
+        <v>44743</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>33</v>
+      <c r="F70" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B71" s="34" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B71" s="33" t="s">
         <v>174</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>33</v>
@@ -3358,7 +3368,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>176</v>
@@ -3370,7 +3380,7 @@
         <v>177</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>33</v>
@@ -3378,69 +3388,69 @@
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B73" s="35" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B73" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="26" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="28" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B74" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B75" s="34" t="s">
+      <c r="A75" s="28" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B75" s="36" t="s">
         <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>109</v>
+        <v>156</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B76" s="31" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B76" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -3450,10 +3460,10 @@
         <v>185</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,15 +3480,15 @@
         <v>187</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B78" s="31" t="s">
         <v>188</v>
@@ -3490,15 +3500,15 @@
         <v>189</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>190</v>
@@ -3510,57 +3520,57 @@
         <v>191</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>192</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B82" s="34" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B82" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3570,60 +3580,60 @@
         <v>197</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>53</v>
+        <v>156</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B83" s="31" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="26" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B84" s="31" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B85" s="31" t="s">
+      <c r="C84" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="E84" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B86" s="31" t="s">
         <v>203</v>
@@ -3635,10 +3645,10 @@
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3646,24 +3656,24 @@
         <v>44460</v>
       </c>
       <c r="B87" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>208</v>
@@ -3677,73 +3687,73 @@
       <c r="E88" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>43</v>
+      <c r="F88" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>210</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="28" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B90" s="37" t="s">
+      <c r="A90" s="26" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B90" s="31" t="s">
         <v>212</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26" t="n">
+      <c r="A91" s="28" t="n">
         <v>44325</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="37" t="s">
         <v>214</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>216</v>
@@ -3755,15 +3765,15 @@
         <v>217</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F92" s="21" t="s">
-        <v>103</v>
+        <v>23</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>218</v>
@@ -3775,37 +3785,37 @@
         <v>219</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>220</v>
+        <v>32</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B94" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B95" s="31" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3815,15 +3825,15 @@
         <v>224</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B96" s="31" t="s">
         <v>225</v>
@@ -3835,57 +3845,57 @@
         <v>226</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="38" t="n">
+      <c r="A97" s="26" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="38" t="n">
         <v>44231</v>
       </c>
-      <c r="B97" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="B98" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>43</v>
+      <c r="C98" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B99" s="34" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B99" s="31" t="s">
         <v>230</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -3895,17 +3905,17 @@
         <v>231</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B100" s="31" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B100" s="34" t="s">
         <v>232</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -3915,10 +3925,10 @@
         <v>233</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,40 +3945,40 @@
         <v>235</v>
       </c>
       <c r="E101" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="26" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B103" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>43</v>
+      <c r="F102" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="26" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B104" s="31" t="s">
         <v>238</v>
@@ -3977,158 +3987,158 @@
         <v>7</v>
       </c>
       <c r="D104" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="26" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="38" t="n">
+      <c r="E105" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="38" t="n">
         <v>44146</v>
       </c>
-      <c r="B105" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C105" s="40" t="s">
+      <c r="B106" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F105" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>43</v>
+      <c r="D106" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="26" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="38" t="n">
+      <c r="A108" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="38" t="n">
         <v>44095</v>
       </c>
-      <c r="B108" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F108" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="26" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B109" s="31" t="s">
+      <c r="B109" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C109" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F109" s="20" t="s">
-        <v>53</v>
+      <c r="E109" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="40" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B110" s="31" t="s">
         <v>248</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>250</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>251</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>252</v>
@@ -4140,15 +4150,15 @@
         <v>253</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>254</v>
@@ -4160,15 +4170,15 @@
         <v>255</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>53</v>
+        <v>156</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>256</v>
@@ -4180,15 +4190,15 @@
         <v>257</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>258</v>
@@ -4200,35 +4210,35 @@
         <v>259</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>260</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>262</v>
@@ -4240,15 +4250,15 @@
         <v>263</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F117" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>264</v>
@@ -4260,15 +4270,15 @@
         <v>265</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="26" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>266</v>
@@ -4280,35 +4290,35 @@
         <v>267</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>268</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>270</v>
@@ -4320,15 +4330,15 @@
         <v>271</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>53</v>
+        <v>156</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="26" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>272</v>
@@ -4340,15 +4350,15 @@
         <v>273</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>274</v>
@@ -4360,10 +4370,10 @@
         <v>275</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,15 +4390,15 @@
         <v>277</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="26" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>278</v>
@@ -4400,15 +4410,15 @@
         <v>279</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="26" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>280</v>
@@ -4420,10 +4430,10 @@
         <v>281</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,14 +4453,14 @@
         <v>23</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="26" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B128" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B128" s="31" t="s">
         <v>284</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -4463,32 +4473,32 @@
         <v>23</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="26" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B130" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="26" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="C129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>33</v>
+      <c r="E129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,61 +4509,61 @@
         <v>288</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>289</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>290</v>
+        <v>156</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="26" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B132" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="E132" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="26" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B133" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B133" s="41" t="s">
         <v>293</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>294</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="26" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>295</v>
@@ -4565,21 +4575,41 @@
         <v>296</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="136" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG136" s="0"/>
-      <c r="AMH136" s="0"/>
-      <c r="AMI136" s="0"/>
-      <c r="AMJ136" s="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="26" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG137" s="0"/>
+      <c r="AMH137" s="0"/>
+      <c r="AMI137" s="0"/>
+      <c r="AMJ137" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A:F"/>
-  <conditionalFormatting sqref="F85:F1048576 F1:F83">
+  <autoFilter ref="A1:F135"/>
+  <conditionalFormatting sqref="F86:F1048576 F1:F84">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -4588,130 +4618,131 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="#274"/>
-    <hyperlink ref="B4" r:id="rId2" display="#273"/>
-    <hyperlink ref="B5" r:id="rId3" display="#272"/>
-    <hyperlink ref="B6" r:id="rId4" display="#1754"/>
-    <hyperlink ref="B7" r:id="rId5" display="#1752"/>
-    <hyperlink ref="B8" r:id="rId6" display="#1745"/>
-    <hyperlink ref="B9" r:id="rId7" display="#1743"/>
-    <hyperlink ref="B10" r:id="rId8" display="#1258"/>
-    <hyperlink ref="B11" r:id="rId9" display="#271"/>
-    <hyperlink ref="B12" r:id="rId10" display="#2"/>
-    <hyperlink ref="B13" r:id="rId11" display="#1349"/>
-    <hyperlink ref="B15" r:id="rId12" display="#1725"/>
-    <hyperlink ref="B16" r:id="rId13" display="#1724"/>
-    <hyperlink ref="B17" r:id="rId14" display="#1722"/>
-    <hyperlink ref="B18" r:id="rId15" display="#1226"/>
-    <hyperlink ref="B19" r:id="rId16" display="#1225"/>
-    <hyperlink ref="B20" r:id="rId17" display="#1720"/>
-    <hyperlink ref="B21" r:id="rId18" display="#1323"/>
-    <hyperlink ref="B22" r:id="rId19" display="#30"/>
-    <hyperlink ref="B23" r:id="rId20" display="#1712"/>
-    <hyperlink ref="B24" r:id="rId21" display="#1215"/>
-    <hyperlink ref="B25" r:id="rId22" display="#1214"/>
-    <hyperlink ref="B26" r:id="rId23" display="#1213"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1212"/>
-    <hyperlink ref="B29" r:id="rId25" display="#1202"/>
-    <hyperlink ref="B30" r:id="rId26" display="#27"/>
-    <hyperlink ref="B31" r:id="rId27" display="#26"/>
-    <hyperlink ref="B32" r:id="rId28" display="#1201"/>
-    <hyperlink ref="B33" r:id="rId29" display="#1200"/>
-    <hyperlink ref="B34" r:id="rId30" display="#1708"/>
-    <hyperlink ref="B35" r:id="rId31" display="#1185"/>
-    <hyperlink ref="B36" r:id="rId32" display="#11"/>
-    <hyperlink ref="B37" r:id="rId33" display="#1309"/>
-    <hyperlink ref="B38" r:id="rId34" display="#1176"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1171"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1164"/>
-    <hyperlink ref="B41" r:id="rId37" display="#9"/>
-    <hyperlink ref="B42" r:id="rId38" display="#1163"/>
-    <hyperlink ref="B43" r:id="rId39" display="#1161"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1690"/>
-    <hyperlink ref="B46" r:id="rId41" display="#1155"/>
-    <hyperlink ref="B47" r:id="rId42" display="#1150"/>
-    <hyperlink ref="B48" r:id="rId43" display="#1151"/>
-    <hyperlink ref="B49" r:id="rId44" display="#1200"/>
-    <hyperlink ref="B50" r:id="rId45" display="#1681"/>
-    <hyperlink ref="B51" r:id="rId46" display="#51"/>
-    <hyperlink ref="B52" r:id="rId47" display="#1142"/>
-    <hyperlink ref="B53" r:id="rId48" display="#8"/>
-    <hyperlink ref="B54" r:id="rId49" display="#1674"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1672"/>
-    <hyperlink ref="B56" r:id="rId51" display="#1669"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1670"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1184"/>
-    <hyperlink ref="B59" r:id="rId54" display="#49"/>
-    <hyperlink ref="B60" r:id="rId55" display="#1140"/>
-    <hyperlink ref="B61" r:id="rId56" display="#1132"/>
-    <hyperlink ref="B63" r:id="rId57" display="#1125"/>
-    <hyperlink ref="B64" r:id="rId58" display="#1641"/>
-    <hyperlink ref="B65" r:id="rId59" display="#1124"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1122"/>
-    <hyperlink ref="B67" r:id="rId61" display="#43"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1622"/>
-    <hyperlink ref="B70" r:id="rId63" display="#38"/>
-    <hyperlink ref="B71" r:id="rId64" display="#1621"/>
-    <hyperlink ref="B72" r:id="rId65" display="#1616"/>
-    <hyperlink ref="B73" r:id="rId66" display="#37"/>
-    <hyperlink ref="B74" r:id="rId67" display="#36"/>
-    <hyperlink ref="B75" r:id="rId68" display="#1101"/>
-    <hyperlink ref="B76" r:id="rId69" display="#1099"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1098"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1617"/>
-    <hyperlink ref="B79" r:id="rId72" display="#1092"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1128"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1090"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1608"/>
-    <hyperlink ref="B83" r:id="rId76" display="#35"/>
-    <hyperlink ref="B85" r:id="rId77" display="#1070"/>
-    <hyperlink ref="B86" r:id="rId78" display="#1592"/>
-    <hyperlink ref="B87" r:id="rId79" display="#1591"/>
-    <hyperlink ref="B88" r:id="rId80" display="#1578"/>
-    <hyperlink ref="B89" r:id="rId81" display="#41"/>
-    <hyperlink ref="B90" r:id="rId82" display="#42"/>
-    <hyperlink ref="B91" r:id="rId83" display="#1566"/>
-    <hyperlink ref="B92" r:id="rId84" display="#1565"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1046"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1559"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1038"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1037"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1020"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1032"/>
-    <hyperlink ref="B99" r:id="rId91" display="#1546"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1027"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1529"/>
-    <hyperlink ref="B103" r:id="rId94" display="#1527"/>
-    <hyperlink ref="B104" r:id="rId95" display="#558"/>
-    <hyperlink ref="B105" r:id="rId96" display="#1005"/>
-    <hyperlink ref="B106" r:id="rId97" display="#1020"/>
-    <hyperlink ref="B107" r:id="rId98" display="#993"/>
-    <hyperlink ref="B108" r:id="rId99" display="#1520"/>
-    <hyperlink ref="B109" r:id="rId100" display="#1519"/>
-    <hyperlink ref="B110" r:id="rId101" display="#969"/>
-    <hyperlink ref="B111" r:id="rId102" display="#1003"/>
-    <hyperlink ref="B112" r:id="rId103" display="#1015"/>
-    <hyperlink ref="B113" r:id="rId104" display="#1002"/>
-    <hyperlink ref="B114" r:id="rId105" display="#1471"/>
-    <hyperlink ref="B115" r:id="rId106" display="#1497"/>
-    <hyperlink ref="B116" r:id="rId107" display="#947"/>
-    <hyperlink ref="B117" r:id="rId108" display="#933"/>
-    <hyperlink ref="B118" r:id="rId109" display="#932"/>
-    <hyperlink ref="B119" r:id="rId110" display="#931"/>
-    <hyperlink ref="B120" r:id="rId111" display="#987"/>
-    <hyperlink ref="B121" r:id="rId112" display="#988"/>
-    <hyperlink ref="B122" r:id="rId113" display="#982"/>
-    <hyperlink ref="B123" r:id="rId114" display="#979"/>
-    <hyperlink ref="B124" r:id="rId115" display="#977"/>
-    <hyperlink ref="B125" r:id="rId116" display="#975"/>
-    <hyperlink ref="B126" r:id="rId117" display="#1445"/>
-    <hyperlink ref="B127" r:id="rId118" display="#1444"/>
-    <hyperlink ref="B128" r:id="rId119" display="#1427"/>
-    <hyperlink ref="B130" r:id="rId120" display="#23"/>
-    <hyperlink ref="B131" r:id="rId121" display="#22"/>
-    <hyperlink ref="B132" r:id="rId122" display="#18"/>
-    <hyperlink ref="B133" r:id="rId123" display="#1207"/>
-    <hyperlink ref="B134" r:id="rId124" display="#245"/>
+    <hyperlink ref="B3" r:id="rId1" display="#1766"/>
+    <hyperlink ref="B4" r:id="rId2" display="#274"/>
+    <hyperlink ref="B5" r:id="rId3" display="#273"/>
+    <hyperlink ref="B6" r:id="rId4" display="#272"/>
+    <hyperlink ref="B7" r:id="rId5" display="#1754"/>
+    <hyperlink ref="B8" r:id="rId6" display="#1752"/>
+    <hyperlink ref="B9" r:id="rId7" display="#1745"/>
+    <hyperlink ref="B10" r:id="rId8" display="#1743"/>
+    <hyperlink ref="B11" r:id="rId9" display="#1258"/>
+    <hyperlink ref="B12" r:id="rId10" display="#271"/>
+    <hyperlink ref="B13" r:id="rId11" display="#2"/>
+    <hyperlink ref="B14" r:id="rId12" display="#1349"/>
+    <hyperlink ref="B16" r:id="rId13" display="#1725"/>
+    <hyperlink ref="B17" r:id="rId14" display="#1724"/>
+    <hyperlink ref="B18" r:id="rId15" display="#1722"/>
+    <hyperlink ref="B19" r:id="rId16" display="#1226"/>
+    <hyperlink ref="B20" r:id="rId17" display="#1225"/>
+    <hyperlink ref="B21" r:id="rId18" display="#1720"/>
+    <hyperlink ref="B22" r:id="rId19" display="#1323"/>
+    <hyperlink ref="B23" r:id="rId20" display="#30"/>
+    <hyperlink ref="B24" r:id="rId21" display="#1712"/>
+    <hyperlink ref="B25" r:id="rId22" display="#1215"/>
+    <hyperlink ref="B26" r:id="rId23" display="#1214"/>
+    <hyperlink ref="B27" r:id="rId24" display="#1213"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1212"/>
+    <hyperlink ref="B30" r:id="rId26" display="#1202"/>
+    <hyperlink ref="B31" r:id="rId27" display="#27"/>
+    <hyperlink ref="B32" r:id="rId28" display="#26"/>
+    <hyperlink ref="B33" r:id="rId29" display="#1201"/>
+    <hyperlink ref="B34" r:id="rId30" display="#1200"/>
+    <hyperlink ref="B35" r:id="rId31" display="#1708"/>
+    <hyperlink ref="B36" r:id="rId32" display="#1185"/>
+    <hyperlink ref="B37" r:id="rId33" display="#11"/>
+    <hyperlink ref="B38" r:id="rId34" display="#1309"/>
+    <hyperlink ref="B39" r:id="rId35" display="#1176"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1171"/>
+    <hyperlink ref="B41" r:id="rId37" display="#1164"/>
+    <hyperlink ref="B42" r:id="rId38" display="#9"/>
+    <hyperlink ref="B43" r:id="rId39" display="#1163"/>
+    <hyperlink ref="B44" r:id="rId40" display="#1161"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1690"/>
+    <hyperlink ref="B47" r:id="rId42" display="#1155"/>
+    <hyperlink ref="B48" r:id="rId43" display="#1150"/>
+    <hyperlink ref="B49" r:id="rId44" display="#1151"/>
+    <hyperlink ref="B50" r:id="rId45" display="#1200"/>
+    <hyperlink ref="B51" r:id="rId46" display="#1681"/>
+    <hyperlink ref="B52" r:id="rId47" display="#51"/>
+    <hyperlink ref="B53" r:id="rId48" display="#1142"/>
+    <hyperlink ref="B54" r:id="rId49" display="#8"/>
+    <hyperlink ref="B55" r:id="rId50" display="#1674"/>
+    <hyperlink ref="B56" r:id="rId51" display="#1672"/>
+    <hyperlink ref="B57" r:id="rId52" display="#1669"/>
+    <hyperlink ref="B58" r:id="rId53" display="#1670"/>
+    <hyperlink ref="B59" r:id="rId54" display="#1184"/>
+    <hyperlink ref="B60" r:id="rId55" display="#49"/>
+    <hyperlink ref="B61" r:id="rId56" display="#1140"/>
+    <hyperlink ref="B62" r:id="rId57" display="#1132"/>
+    <hyperlink ref="B64" r:id="rId58" display="#1125"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1641"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1124"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1122"/>
+    <hyperlink ref="B68" r:id="rId62" display="#43"/>
+    <hyperlink ref="B69" r:id="rId63" display="#1622"/>
+    <hyperlink ref="B71" r:id="rId64" display="#38"/>
+    <hyperlink ref="B72" r:id="rId65" display="#1621"/>
+    <hyperlink ref="B73" r:id="rId66" display="#1616"/>
+    <hyperlink ref="B74" r:id="rId67" display="#37"/>
+    <hyperlink ref="B75" r:id="rId68" display="#36"/>
+    <hyperlink ref="B76" r:id="rId69" display="#1101"/>
+    <hyperlink ref="B77" r:id="rId70" display="#1099"/>
+    <hyperlink ref="B78" r:id="rId71" display="#1098"/>
+    <hyperlink ref="B79" r:id="rId72" display="#1617"/>
+    <hyperlink ref="B80" r:id="rId73" display="#1092"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1128"/>
+    <hyperlink ref="B82" r:id="rId75" display="#1090"/>
+    <hyperlink ref="B83" r:id="rId76" display="#1608"/>
+    <hyperlink ref="B84" r:id="rId77" display="#35"/>
+    <hyperlink ref="B86" r:id="rId78" display="#1070"/>
+    <hyperlink ref="B87" r:id="rId79" display="#1592"/>
+    <hyperlink ref="B88" r:id="rId80" display="#1591"/>
+    <hyperlink ref="B89" r:id="rId81" display="#1578"/>
+    <hyperlink ref="B90" r:id="rId82" display="#41"/>
+    <hyperlink ref="B91" r:id="rId83" display="#42"/>
+    <hyperlink ref="B92" r:id="rId84" display="#1566"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1565"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1046"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1559"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1038"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1037"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1020"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1032"/>
+    <hyperlink ref="B100" r:id="rId92" display="#1546"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1027"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1529"/>
+    <hyperlink ref="B104" r:id="rId95" display="#1527"/>
+    <hyperlink ref="B105" r:id="rId96" display="#558"/>
+    <hyperlink ref="B106" r:id="rId97" display="#1005"/>
+    <hyperlink ref="B107" r:id="rId98" display="#1020"/>
+    <hyperlink ref="B108" r:id="rId99" display="#993"/>
+    <hyperlink ref="B109" r:id="rId100" display="#1520"/>
+    <hyperlink ref="B110" r:id="rId101" display="#1519"/>
+    <hyperlink ref="B111" r:id="rId102" display="#969"/>
+    <hyperlink ref="B112" r:id="rId103" display="#1003"/>
+    <hyperlink ref="B113" r:id="rId104" display="#1015"/>
+    <hyperlink ref="B114" r:id="rId105" display="#1002"/>
+    <hyperlink ref="B115" r:id="rId106" display="#1471"/>
+    <hyperlink ref="B116" r:id="rId107" display="#1497"/>
+    <hyperlink ref="B117" r:id="rId108" display="#947"/>
+    <hyperlink ref="B118" r:id="rId109" display="#933"/>
+    <hyperlink ref="B119" r:id="rId110" display="#932"/>
+    <hyperlink ref="B120" r:id="rId111" display="#931"/>
+    <hyperlink ref="B121" r:id="rId112" display="#987"/>
+    <hyperlink ref="B122" r:id="rId113" display="#988"/>
+    <hyperlink ref="B123" r:id="rId114" display="#982"/>
+    <hyperlink ref="B124" r:id="rId115" display="#979"/>
+    <hyperlink ref="B125" r:id="rId116" display="#977"/>
+    <hyperlink ref="B126" r:id="rId117" display="#975"/>
+    <hyperlink ref="B127" r:id="rId118" display="#1445"/>
+    <hyperlink ref="B128" r:id="rId119" display="#1444"/>
+    <hyperlink ref="B129" r:id="rId120" display="#1427"/>
+    <hyperlink ref="B131" r:id="rId121" display="#23"/>
+    <hyperlink ref="B132" r:id="rId122" display="#22"/>
+    <hyperlink ref="B133" r:id="rId123" display="#18"/>
+    <hyperlink ref="B134" r:id="rId124" display="#1207"/>
+    <hyperlink ref="B135" r:id="rId125" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4720,7 +4751,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId125"/>
+  <drawing r:id="rId126"/>
 </worksheet>
 </file>
 
@@ -4753,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4765,10 +4796,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,8 +13,8 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$135</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$136</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="305">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -118,16 +118,22 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the segment marker customizable in Preferences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1766</t>
   </si>
   <si>
     <t xml:space="preserve">Customize segment properties fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
   </si>
   <si>
     <t xml:space="preserve">#274</t>
@@ -1710,14 +1716,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ137"/>
+  <dimension ref="A1:AMJ138"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="3" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>30</v>
@@ -1792,21 +1798,21 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
-        <v>45563</v>
+        <v>45604</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>33</v>
@@ -1818,13 +1824,13 @@
     </row>
     <row r="5" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
-        <v>45488</v>
+        <v>45563</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>38</v>
@@ -1840,17 +1846,17 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+    <row r="6" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
         <v>45488</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1864,21 +1870,21 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>33</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="8" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>43</v>
@@ -1905,7 +1911,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
@@ -1914,22 +1920,22 @@
     </row>
     <row r="9" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
-        <v>45784</v>
+        <v>45469</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
@@ -1938,7 +1944,7 @@
     </row>
     <row r="10" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
-        <v>45411</v>
+        <v>45784</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>48</v>
@@ -1960,9 +1966,9 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
-        <v>45394</v>
+        <v>45411</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>50</v>
@@ -1974,10 +1980,10 @@
         <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -1985,23 +1991,23 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>45390</v>
+      <c r="A12" s="12" t="n">
+        <v>45394</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>55</v>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -2010,22 +2016,22 @@
     </row>
     <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
-        <v>45365</v>
+        <v>45390</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>45</v>
+      <c r="F13" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
@@ -2034,58 +2040,58 @@
     </row>
     <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
+      <c r="C15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13" t="s">
+    <row r="16" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>33</v>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
@@ -2094,7 +2100,7 @@
     </row>
     <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>64</v>
@@ -2102,7 +2108,7 @@
       <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -2118,7 +2124,7 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -2132,8 +2138,8 @@
       <c r="E18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>45</v>
+      <c r="F18" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -2142,7 +2148,7 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
-        <v>45236</v>
+        <v>45223</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>68</v>
@@ -2154,10 +2160,10 @@
         <v>69</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>70</v>
+        <v>32</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
@@ -2166,22 +2172,22 @@
     </row>
     <row r="20" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>33</v>
+      <c r="F20" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
@@ -2190,7 +2196,7 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
-        <v>45213</v>
+        <v>45233</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>73</v>
@@ -2202,10 +2208,10 @@
         <v>74</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -2214,22 +2220,22 @@
     </row>
     <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
-        <v>45199</v>
+        <v>45213</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
@@ -2238,22 +2244,22 @@
     </row>
     <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -2262,7 +2268,7 @@
     </row>
     <row r="24" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>79</v>
@@ -2277,7 +2283,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
@@ -2285,23 +2291,23 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="9" t="n">
         <v>45169</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>82</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="n">
-        <v>45145</v>
+        <v>45169</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>83</v>
@@ -2319,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>9</v>
@@ -2333,23 +2339,23 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="16" t="n">
         <v>45145</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
@@ -2373,37 +2379,40 @@
         <v>9</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
-        <v>45112</v>
+        <v>45145</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>90</v>
+        <v>45112</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>7</v>
@@ -2411,11 +2420,8 @@
       <c r="D30" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>33</v>
+      <c r="F30" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
@@ -2424,19 +2430,19 @@
     </row>
     <row r="31" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>33</v>
@@ -2451,10 +2457,10 @@
         <v>45119</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>96</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="33" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>33</v>
@@ -2520,7 +2526,7 @@
     </row>
     <row r="35" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>101</v>
@@ -2532,10 +2538,10 @@
         <v>102</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
@@ -2544,7 +2550,7 @@
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>103</v>
@@ -2556,49 +2562,49 @@
         <v>104</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>105</v>
+        <v>32</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>55</v>
+      <c r="F37" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>110</v>
@@ -2606,41 +2612,41 @@
       <c r="E38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>111</v>
+      <c r="F38" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>45069</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>55</v>
+      <c r="F39" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>114</v>
@@ -2654,17 +2660,17 @@
       <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>45</v>
+      <c r="F40" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>116</v>
@@ -2678,8 +2684,8 @@
       <c r="E41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>55</v>
+      <c r="F41" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
@@ -2693,17 +2699,17 @@
       <c r="B42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>107</v>
+      <c r="C42" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>119</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
@@ -2712,31 +2718,31 @@
     </row>
     <row r="43" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>7</v>
+      <c r="C43" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>122</v>
@@ -2750,17 +2756,17 @@
       <c r="E44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>45</v>
+      <c r="F44" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>124</v>
@@ -2772,10 +2778,10 @@
         <v>125</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
@@ -2784,16 +2790,22 @@
     </row>
     <row r="46" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
@@ -2802,31 +2814,25 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>127</v>
+        <v>44996</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F47" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>129</v>
@@ -2840,8 +2846,8 @@
       <c r="E48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>105</v>
+      <c r="F48" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
@@ -2865,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
@@ -2874,22 +2880,22 @@
     </row>
     <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>134</v>
+      <c r="F50" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
@@ -2898,22 +2904,22 @@
     </row>
     <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
@@ -2922,22 +2928,22 @@
     </row>
     <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>138</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
@@ -2945,47 +2951,47 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="9" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="18" t="s">
+      <c r="C53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="18" t="s">
-        <v>82</v>
+      <c r="F53" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B54" s="27" t="s">
+    <row r="54" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>45</v>
+      <c r="E54" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>84</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
@@ -2994,13 +3000,13 @@
     </row>
     <row r="55" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>143</v>
@@ -3008,8 +3014,8 @@
       <c r="E55" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>33</v>
+      <c r="F55" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="56" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>144</v>
@@ -3032,8 +3038,8 @@
       <c r="E56" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>105</v>
+      <c r="F56" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="57" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>146</v>
@@ -3057,7 +3063,7 @@
         <v>32</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
@@ -3080,8 +3086,8 @@
       <c r="E58" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F58" s="20" t="s">
-        <v>55</v>
+      <c r="F58" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
@@ -3089,23 +3095,23 @@
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="26" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>150</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>151</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
@@ -3113,23 +3119,23 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="28" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B60" s="29" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
@@ -3138,58 +3144,70 @@
     </row>
     <row r="61" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B61" s="27" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>155</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B62" s="30" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="24" t="s">
+      <c r="E62" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>33</v>
+      <c r="F62" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
+    <row r="63" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="26" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>29</v>
+      <c r="C63" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
@@ -3197,71 +3215,59 @@
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="A64" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>45</v>
+      <c r="F64" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B65" s="27" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="24" t="s">
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>45</v>
+      <c r="E65" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B66" s="31" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B66" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>105</v>
+      <c r="E66" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="67" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B67" s="31" t="s">
         <v>166</v>
@@ -3282,105 +3288,109 @@
         <v>167</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B68" s="32" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="AMG68" s="0"/>
+      <c r="AMH68" s="0"/>
+      <c r="AMI68" s="0"/>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B69" s="31" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B69" s="32" t="s">
         <v>171</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <v>44743</v>
+        <v>373466</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>55</v>
+        <v>174</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>174</v>
+        <v>44743</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>33</v>
+      <c r="F71" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B72" s="34" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B72" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>33</v>
@@ -3388,7 +3398,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>178</v>
@@ -3400,7 +3410,7 @@
         <v>179</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>33</v>
@@ -3408,69 +3418,69 @@
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B74" s="35" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B74" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F74" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="26" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="28" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>33</v>
+        <v>158</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B76" s="34" t="s">
+      <c r="A76" s="28" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B76" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>111</v>
+        <v>158</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B77" s="31" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B77" s="34" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3480,10 +3490,10 @@
         <v>187</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,15 +3510,15 @@
         <v>189</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B79" s="31" t="s">
         <v>190</v>
@@ -3520,15 +3530,15 @@
         <v>191</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>192</v>
@@ -3540,57 +3550,57 @@
         <v>193</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>194</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>33</v>
+        <v>158</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B83" s="34" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3600,60 +3610,60 @@
         <v>199</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>55</v>
+        <v>158</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B84" s="31" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>200</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E84" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="26" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="F85" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B87" s="31" t="s">
         <v>205</v>
@@ -3665,10 +3675,10 @@
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>207</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,24 +3686,24 @@
         <v>44460</v>
       </c>
       <c r="B88" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="E88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B89" s="31" t="s">
         <v>210</v>
@@ -3707,73 +3717,73 @@
       <c r="E89" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>45</v>
+      <c r="F89" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>212</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="28" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B91" s="37" t="s">
+      <c r="A91" s="26" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B91" s="31" t="s">
         <v>214</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>33</v>
+        <v>158</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
+      <c r="A92" s="28" t="n">
         <v>44325</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="37" t="s">
         <v>216</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B93" s="31" t="s">
         <v>218</v>
@@ -3785,15 +3795,15 @@
         <v>219</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="21" t="s">
-        <v>105</v>
+        <v>23</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>220</v>
@@ -3805,37 +3815,37 @@
         <v>221</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>222</v>
+        <v>32</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B95" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B96" s="31" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3845,15 +3855,15 @@
         <v>226</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B97" s="31" t="s">
         <v>227</v>
@@ -3865,57 +3875,57 @@
         <v>228</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="38" t="n">
+      <c r="A98" s="26" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="38" t="n">
         <v>44231</v>
       </c>
-      <c r="B98" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="26" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="B99" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>45</v>
+      <c r="C99" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B100" s="34" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B100" s="31" t="s">
         <v>232</v>
       </c>
       <c r="C100" s="5" t="s">
@@ -3925,17 +3935,17 @@
         <v>233</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>33</v>
+        <v>158</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B101" s="31" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B101" s="34" t="s">
         <v>234</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3945,10 +3955,10 @@
         <v>235</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,40 +3975,40 @@
         <v>237</v>
       </c>
       <c r="E102" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="26" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F102" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="26" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>45</v>
+      <c r="F103" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B105" s="31" t="s">
         <v>240</v>
@@ -4007,124 +4017,124 @@
         <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="26" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="38" t="n">
+      <c r="E106" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="38" t="n">
         <v>44146</v>
       </c>
-      <c r="B106" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C106" s="40" t="s">
+      <c r="B107" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F106" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>45</v>
+      <c r="D107" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="38" t="n">
+      <c r="A109" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="38" t="n">
         <v>44095</v>
       </c>
-      <c r="B109" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="E109" s="40" t="s">
+      <c r="B110" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F109" s="40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F110" s="20" t="s">
-        <v>55</v>
+      <c r="F110" s="40" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B111" s="31" t="s">
         <v>250</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>251</v>
@@ -4132,33 +4142,33 @@
       <c r="E111" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>207</v>
+      <c r="F111" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>252</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>254</v>
@@ -4170,15 +4180,15 @@
         <v>255</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>256</v>
@@ -4190,15 +4200,15 @@
         <v>257</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>55</v>
+        <v>158</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>258</v>
@@ -4210,15 +4220,15 @@
         <v>259</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>260</v>
@@ -4230,35 +4240,35 @@
         <v>261</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>262</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>264</v>
@@ -4270,15 +4280,15 @@
         <v>265</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F118" s="20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="26" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>266</v>
@@ -4290,15 +4300,15 @@
         <v>267</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>33</v>
+        <v>158</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>268</v>
@@ -4310,35 +4320,35 @@
         <v>269</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>270</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="26" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>272</v>
@@ -4350,15 +4360,15 @@
         <v>273</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F122" s="20" t="s">
-        <v>55</v>
+        <v>158</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>274</v>
@@ -4370,15 +4380,15 @@
         <v>275</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>45</v>
+        <v>158</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="26" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>276</v>
@@ -4390,10 +4400,10 @@
         <v>277</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,15 +4420,15 @@
         <v>279</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="26" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B126" s="31" t="s">
         <v>280</v>
@@ -4430,15 +4440,15 @@
         <v>281</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="26" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>282</v>
@@ -4450,10 +4460,10 @@
         <v>283</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,14 +4483,14 @@
         <v>23</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="26" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B129" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B129" s="31" t="s">
         <v>286</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -4493,32 +4503,32 @@
         <v>23</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="26" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B131" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="26" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="C130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E131" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>33</v>
+      <c r="E130" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4529,61 +4539,61 @@
         <v>290</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>291</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>292</v>
+        <v>158</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="26" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B133" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="26" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B134" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B134" s="41" t="s">
         <v>295</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>296</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="26" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>297</v>
@@ -4595,21 +4605,41 @@
         <v>298</v>
       </c>
       <c r="E135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="26" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG137" s="0"/>
-      <c r="AMH137" s="0"/>
-      <c r="AMI137" s="0"/>
-      <c r="AMJ137" s="0"/>
+      <c r="F136" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG138" s="0"/>
+      <c r="AMH138" s="0"/>
+      <c r="AMI138" s="0"/>
+      <c r="AMJ138" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F135"/>
-  <conditionalFormatting sqref="F86:F1048576 F1:F84">
+  <autoFilter ref="A:F"/>
+  <conditionalFormatting sqref="F87:F1048576 F1:F85">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -4618,131 +4648,132 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="#1766"/>
-    <hyperlink ref="B4" r:id="rId2" display="#274"/>
-    <hyperlink ref="B5" r:id="rId3" display="#273"/>
-    <hyperlink ref="B6" r:id="rId4" display="#272"/>
-    <hyperlink ref="B7" r:id="rId5" display="#1754"/>
-    <hyperlink ref="B8" r:id="rId6" display="#1752"/>
-    <hyperlink ref="B9" r:id="rId7" display="#1745"/>
-    <hyperlink ref="B10" r:id="rId8" display="#1743"/>
-    <hyperlink ref="B11" r:id="rId9" display="#1258"/>
-    <hyperlink ref="B12" r:id="rId10" display="#271"/>
-    <hyperlink ref="B13" r:id="rId11" display="#2"/>
-    <hyperlink ref="B14" r:id="rId12" display="#1349"/>
-    <hyperlink ref="B16" r:id="rId13" display="#1725"/>
-    <hyperlink ref="B17" r:id="rId14" display="#1724"/>
-    <hyperlink ref="B18" r:id="rId15" display="#1722"/>
-    <hyperlink ref="B19" r:id="rId16" display="#1226"/>
-    <hyperlink ref="B20" r:id="rId17" display="#1225"/>
-    <hyperlink ref="B21" r:id="rId18" display="#1720"/>
-    <hyperlink ref="B22" r:id="rId19" display="#1323"/>
-    <hyperlink ref="B23" r:id="rId20" display="#30"/>
-    <hyperlink ref="B24" r:id="rId21" display="#1712"/>
-    <hyperlink ref="B25" r:id="rId22" display="#1215"/>
-    <hyperlink ref="B26" r:id="rId23" display="#1214"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1213"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1212"/>
-    <hyperlink ref="B30" r:id="rId26" display="#1202"/>
-    <hyperlink ref="B31" r:id="rId27" display="#27"/>
-    <hyperlink ref="B32" r:id="rId28" display="#26"/>
-    <hyperlink ref="B33" r:id="rId29" display="#1201"/>
-    <hyperlink ref="B34" r:id="rId30" display="#1200"/>
-    <hyperlink ref="B35" r:id="rId31" display="#1708"/>
-    <hyperlink ref="B36" r:id="rId32" display="#1185"/>
-    <hyperlink ref="B37" r:id="rId33" display="#11"/>
-    <hyperlink ref="B38" r:id="rId34" display="#1309"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1176"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1171"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1164"/>
-    <hyperlink ref="B42" r:id="rId38" display="#9"/>
-    <hyperlink ref="B43" r:id="rId39" display="#1163"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1161"/>
-    <hyperlink ref="B45" r:id="rId41" display="#1690"/>
-    <hyperlink ref="B47" r:id="rId42" display="#1155"/>
-    <hyperlink ref="B48" r:id="rId43" display="#1150"/>
-    <hyperlink ref="B49" r:id="rId44" display="#1151"/>
-    <hyperlink ref="B50" r:id="rId45" display="#1200"/>
-    <hyperlink ref="B51" r:id="rId46" display="#1681"/>
-    <hyperlink ref="B52" r:id="rId47" display="#51"/>
-    <hyperlink ref="B53" r:id="rId48" display="#1142"/>
-    <hyperlink ref="B54" r:id="rId49" display="#8"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1674"/>
-    <hyperlink ref="B56" r:id="rId51" display="#1672"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1669"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1670"/>
-    <hyperlink ref="B59" r:id="rId54" display="#1184"/>
-    <hyperlink ref="B60" r:id="rId55" display="#49"/>
-    <hyperlink ref="B61" r:id="rId56" display="#1140"/>
-    <hyperlink ref="B62" r:id="rId57" display="#1132"/>
-    <hyperlink ref="B64" r:id="rId58" display="#1125"/>
-    <hyperlink ref="B65" r:id="rId59" display="#1641"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1124"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1122"/>
-    <hyperlink ref="B68" r:id="rId62" display="#43"/>
-    <hyperlink ref="B69" r:id="rId63" display="#1622"/>
-    <hyperlink ref="B71" r:id="rId64" display="#38"/>
-    <hyperlink ref="B72" r:id="rId65" display="#1621"/>
-    <hyperlink ref="B73" r:id="rId66" display="#1616"/>
-    <hyperlink ref="B74" r:id="rId67" display="#37"/>
-    <hyperlink ref="B75" r:id="rId68" display="#36"/>
-    <hyperlink ref="B76" r:id="rId69" display="#1101"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1099"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1098"/>
-    <hyperlink ref="B79" r:id="rId72" display="#1617"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1092"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1128"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1090"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1608"/>
-    <hyperlink ref="B84" r:id="rId77" display="#35"/>
-    <hyperlink ref="B86" r:id="rId78" display="#1070"/>
-    <hyperlink ref="B87" r:id="rId79" display="#1592"/>
-    <hyperlink ref="B88" r:id="rId80" display="#1591"/>
-    <hyperlink ref="B89" r:id="rId81" display="#1578"/>
-    <hyperlink ref="B90" r:id="rId82" display="#41"/>
-    <hyperlink ref="B91" r:id="rId83" display="#42"/>
-    <hyperlink ref="B92" r:id="rId84" display="#1566"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1565"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1046"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1559"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1038"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1037"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1020"/>
-    <hyperlink ref="B99" r:id="rId91" display="#1032"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1546"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1027"/>
-    <hyperlink ref="B102" r:id="rId94" display="#1529"/>
-    <hyperlink ref="B104" r:id="rId95" display="#1527"/>
-    <hyperlink ref="B105" r:id="rId96" display="#558"/>
-    <hyperlink ref="B106" r:id="rId97" display="#1005"/>
-    <hyperlink ref="B107" r:id="rId98" display="#1020"/>
-    <hyperlink ref="B108" r:id="rId99" display="#993"/>
-    <hyperlink ref="B109" r:id="rId100" display="#1520"/>
-    <hyperlink ref="B110" r:id="rId101" display="#1519"/>
-    <hyperlink ref="B111" r:id="rId102" display="#969"/>
-    <hyperlink ref="B112" r:id="rId103" display="#1003"/>
-    <hyperlink ref="B113" r:id="rId104" display="#1015"/>
-    <hyperlink ref="B114" r:id="rId105" display="#1002"/>
-    <hyperlink ref="B115" r:id="rId106" display="#1471"/>
-    <hyperlink ref="B116" r:id="rId107" display="#1497"/>
-    <hyperlink ref="B117" r:id="rId108" display="#947"/>
-    <hyperlink ref="B118" r:id="rId109" display="#933"/>
-    <hyperlink ref="B119" r:id="rId110" display="#932"/>
-    <hyperlink ref="B120" r:id="rId111" display="#931"/>
-    <hyperlink ref="B121" r:id="rId112" display="#987"/>
-    <hyperlink ref="B122" r:id="rId113" display="#988"/>
-    <hyperlink ref="B123" r:id="rId114" display="#982"/>
-    <hyperlink ref="B124" r:id="rId115" display="#979"/>
-    <hyperlink ref="B125" r:id="rId116" display="#977"/>
-    <hyperlink ref="B126" r:id="rId117" display="#975"/>
-    <hyperlink ref="B127" r:id="rId118" display="#1445"/>
-    <hyperlink ref="B128" r:id="rId119" display="#1444"/>
-    <hyperlink ref="B129" r:id="rId120" display="#1427"/>
-    <hyperlink ref="B131" r:id="rId121" display="#23"/>
-    <hyperlink ref="B132" r:id="rId122" display="#22"/>
-    <hyperlink ref="B133" r:id="rId123" display="#18"/>
-    <hyperlink ref="B134" r:id="rId124" display="#1207"/>
-    <hyperlink ref="B135" r:id="rId125" display="#245"/>
+    <hyperlink ref="B3" r:id="rId1" display="#1768"/>
+    <hyperlink ref="B4" r:id="rId2" display="#1766"/>
+    <hyperlink ref="B5" r:id="rId3" display="#274"/>
+    <hyperlink ref="B6" r:id="rId4" display="#273"/>
+    <hyperlink ref="B7" r:id="rId5" display="#272"/>
+    <hyperlink ref="B8" r:id="rId6" display="#1754"/>
+    <hyperlink ref="B9" r:id="rId7" display="#1752"/>
+    <hyperlink ref="B10" r:id="rId8" display="#1745"/>
+    <hyperlink ref="B11" r:id="rId9" display="#1743"/>
+    <hyperlink ref="B12" r:id="rId10" display="#1258"/>
+    <hyperlink ref="B13" r:id="rId11" display="#271"/>
+    <hyperlink ref="B14" r:id="rId12" display="#2"/>
+    <hyperlink ref="B15" r:id="rId13" display="#1349"/>
+    <hyperlink ref="B17" r:id="rId14" display="#1725"/>
+    <hyperlink ref="B18" r:id="rId15" display="#1724"/>
+    <hyperlink ref="B19" r:id="rId16" display="#1722"/>
+    <hyperlink ref="B20" r:id="rId17" display="#1226"/>
+    <hyperlink ref="B21" r:id="rId18" display="#1225"/>
+    <hyperlink ref="B22" r:id="rId19" display="#1720"/>
+    <hyperlink ref="B23" r:id="rId20" display="#1323"/>
+    <hyperlink ref="B24" r:id="rId21" display="#30"/>
+    <hyperlink ref="B25" r:id="rId22" display="#1712"/>
+    <hyperlink ref="B26" r:id="rId23" display="#1215"/>
+    <hyperlink ref="B27" r:id="rId24" display="#1214"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1213"/>
+    <hyperlink ref="B29" r:id="rId26" display="#1212"/>
+    <hyperlink ref="B31" r:id="rId27" display="#1202"/>
+    <hyperlink ref="B32" r:id="rId28" display="#27"/>
+    <hyperlink ref="B33" r:id="rId29" display="#26"/>
+    <hyperlink ref="B34" r:id="rId30" display="#1201"/>
+    <hyperlink ref="B35" r:id="rId31" display="#1200"/>
+    <hyperlink ref="B36" r:id="rId32" display="#1708"/>
+    <hyperlink ref="B37" r:id="rId33" display="#1185"/>
+    <hyperlink ref="B38" r:id="rId34" display="#11"/>
+    <hyperlink ref="B39" r:id="rId35" display="#1309"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1176"/>
+    <hyperlink ref="B41" r:id="rId37" display="#1171"/>
+    <hyperlink ref="B42" r:id="rId38" display="#1164"/>
+    <hyperlink ref="B43" r:id="rId39" display="#9"/>
+    <hyperlink ref="B44" r:id="rId40" display="#1163"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1161"/>
+    <hyperlink ref="B46" r:id="rId42" display="#1690"/>
+    <hyperlink ref="B48" r:id="rId43" display="#1155"/>
+    <hyperlink ref="B49" r:id="rId44" display="#1150"/>
+    <hyperlink ref="B50" r:id="rId45" display="#1151"/>
+    <hyperlink ref="B51" r:id="rId46" display="#1200"/>
+    <hyperlink ref="B52" r:id="rId47" display="#1681"/>
+    <hyperlink ref="B53" r:id="rId48" display="#51"/>
+    <hyperlink ref="B54" r:id="rId49" display="#1142"/>
+    <hyperlink ref="B55" r:id="rId50" display="#8"/>
+    <hyperlink ref="B56" r:id="rId51" display="#1674"/>
+    <hyperlink ref="B57" r:id="rId52" display="#1672"/>
+    <hyperlink ref="B58" r:id="rId53" display="#1669"/>
+    <hyperlink ref="B59" r:id="rId54" display="#1670"/>
+    <hyperlink ref="B60" r:id="rId55" display="#1184"/>
+    <hyperlink ref="B61" r:id="rId56" display="#49"/>
+    <hyperlink ref="B62" r:id="rId57" display="#1140"/>
+    <hyperlink ref="B63" r:id="rId58" display="#1132"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1125"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1641"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1124"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1122"/>
+    <hyperlink ref="B69" r:id="rId63" display="#43"/>
+    <hyperlink ref="B70" r:id="rId64" display="#1622"/>
+    <hyperlink ref="B72" r:id="rId65" display="#38"/>
+    <hyperlink ref="B73" r:id="rId66" display="#1621"/>
+    <hyperlink ref="B74" r:id="rId67" display="#1616"/>
+    <hyperlink ref="B75" r:id="rId68" display="#37"/>
+    <hyperlink ref="B76" r:id="rId69" display="#36"/>
+    <hyperlink ref="B77" r:id="rId70" display="#1101"/>
+    <hyperlink ref="B78" r:id="rId71" display="#1099"/>
+    <hyperlink ref="B79" r:id="rId72" display="#1098"/>
+    <hyperlink ref="B80" r:id="rId73" display="#1617"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1092"/>
+    <hyperlink ref="B82" r:id="rId75" display="#1128"/>
+    <hyperlink ref="B83" r:id="rId76" display="#1090"/>
+    <hyperlink ref="B84" r:id="rId77" display="#1608"/>
+    <hyperlink ref="B85" r:id="rId78" display="#35"/>
+    <hyperlink ref="B87" r:id="rId79" display="#1070"/>
+    <hyperlink ref="B88" r:id="rId80" display="#1592"/>
+    <hyperlink ref="B89" r:id="rId81" display="#1591"/>
+    <hyperlink ref="B90" r:id="rId82" display="#1578"/>
+    <hyperlink ref="B91" r:id="rId83" display="#41"/>
+    <hyperlink ref="B92" r:id="rId84" display="#42"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1566"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1565"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1046"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1559"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1038"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1037"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1020"/>
+    <hyperlink ref="B100" r:id="rId92" display="#1032"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1546"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1027"/>
+    <hyperlink ref="B103" r:id="rId95" display="#1529"/>
+    <hyperlink ref="B105" r:id="rId96" display="#1527"/>
+    <hyperlink ref="B106" r:id="rId97" display="#558"/>
+    <hyperlink ref="B107" r:id="rId98" display="#1005"/>
+    <hyperlink ref="B108" r:id="rId99" display="#1020"/>
+    <hyperlink ref="B109" r:id="rId100" display="#993"/>
+    <hyperlink ref="B110" r:id="rId101" display="#1520"/>
+    <hyperlink ref="B111" r:id="rId102" display="#1519"/>
+    <hyperlink ref="B112" r:id="rId103" display="#969"/>
+    <hyperlink ref="B113" r:id="rId104" display="#1003"/>
+    <hyperlink ref="B114" r:id="rId105" display="#1015"/>
+    <hyperlink ref="B115" r:id="rId106" display="#1002"/>
+    <hyperlink ref="B116" r:id="rId107" display="#1471"/>
+    <hyperlink ref="B117" r:id="rId108" display="#1497"/>
+    <hyperlink ref="B118" r:id="rId109" display="#947"/>
+    <hyperlink ref="B119" r:id="rId110" display="#933"/>
+    <hyperlink ref="B120" r:id="rId111" display="#932"/>
+    <hyperlink ref="B121" r:id="rId112" display="#931"/>
+    <hyperlink ref="B122" r:id="rId113" display="#987"/>
+    <hyperlink ref="B123" r:id="rId114" display="#988"/>
+    <hyperlink ref="B124" r:id="rId115" display="#982"/>
+    <hyperlink ref="B125" r:id="rId116" display="#979"/>
+    <hyperlink ref="B126" r:id="rId117" display="#977"/>
+    <hyperlink ref="B127" r:id="rId118" display="#975"/>
+    <hyperlink ref="B128" r:id="rId119" display="#1445"/>
+    <hyperlink ref="B129" r:id="rId120" display="#1444"/>
+    <hyperlink ref="B130" r:id="rId121" display="#1427"/>
+    <hyperlink ref="B132" r:id="rId122" display="#23"/>
+    <hyperlink ref="B133" r:id="rId123" display="#22"/>
+    <hyperlink ref="B134" r:id="rId124" display="#18"/>
+    <hyperlink ref="B135" r:id="rId125" display="#1207"/>
+    <hyperlink ref="B136" r:id="rId126" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4751,7 +4782,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId126"/>
+  <drawing r:id="rId127"/>
 </worksheet>
 </file>
 
@@ -4784,10 +4815,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4796,10 +4827,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,8 +13,8 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$136</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$137</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="307">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -118,6 +118,15 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurrency issue in COMPILE-triggered scripts in team projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1768</t>
   </si>
   <si>
@@ -125,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
   </si>
   <si>
     <t xml:space="preserve">#1766</t>
@@ -1716,14 +1722,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ138"/>
+  <dimension ref="A1:AMJ139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1776,7 +1782,7 @@
     </row>
     <row r="3" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>45609</v>
+        <v>45629</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>30</v>
@@ -1788,10 +1794,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
@@ -1800,46 +1806,46 @@
     </row>
     <row r="4" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
-        <v>45563</v>
+        <v>45604</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
@@ -1848,13 +1854,13 @@
     </row>
     <row r="6" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
-        <v>45488</v>
+        <v>45563</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>40</v>
@@ -1863,55 +1869,55 @@
         <v>9</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+    <row r="7" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>45488</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
-        <v>45483</v>
+        <v>45488</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
@@ -1920,7 +1926,7 @@
     </row>
     <row r="9" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
-        <v>45469</v>
+        <v>45483</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
@@ -1932,10 +1938,10 @@
         <v>46</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
@@ -1944,22 +1950,22 @@
     </row>
     <row r="10" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
-        <v>45784</v>
+        <v>45469</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="11" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
-        <v>45411</v>
+        <v>45784</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>50</v>
@@ -1980,19 +1986,19 @@
         <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
-        <v>45394</v>
+        <v>45411</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>52</v>
@@ -2004,10 +2010,10 @@
         <v>53</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -2015,23 +2021,23 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>45390</v>
+      <c r="A13" s="12" t="n">
+        <v>45394</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>57</v>
+      <c r="F13" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
@@ -2040,22 +2046,22 @@
     </row>
     <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
-        <v>45365</v>
+        <v>45390</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>47</v>
+      <c r="F14" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
@@ -2064,58 +2070,58 @@
     </row>
     <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>45238</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13" t="s">
+    <row r="17" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>33</v>
+      <c r="F17" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>66</v>
@@ -2132,14 +2138,14 @@
       <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -2148,7 +2154,7 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>68</v>
@@ -2160,10 +2166,10 @@
         <v>69</v>
       </c>
       <c r="E19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="20" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
-        <v>45236</v>
+        <v>45223</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>70</v>
@@ -2184,10 +2190,10 @@
         <v>71</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
@@ -2196,22 +2202,22 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>33</v>
+      <c r="F21" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -2220,7 +2226,7 @@
     </row>
     <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
-        <v>45213</v>
+        <v>45233</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>75</v>
@@ -2232,10 +2238,10 @@
         <v>76</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
@@ -2244,22 +2250,22 @@
     </row>
     <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
-        <v>45199</v>
+        <v>45213</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -2268,22 +2274,22 @@
     </row>
     <row r="24" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>81</v>
@@ -2304,10 +2310,10 @@
         <v>82</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
@@ -2315,23 +2321,23 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="n">
+      <c r="A26" s="9" t="n">
         <v>45169</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>84</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
@@ -2340,7 +2346,7 @@
     </row>
     <row r="27" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
-        <v>45145</v>
+        <v>45169</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>85</v>
@@ -2349,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>9</v>
@@ -2363,23 +2369,23 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="16" t="n">
         <v>45145</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
@@ -2403,37 +2409,40 @@
         <v>9</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
-        <v>45112</v>
+        <v>45145</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>92</v>
+        <v>45112</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>7</v>
@@ -2441,11 +2450,8 @@
       <c r="D31" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>33</v>
+      <c r="F31" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
@@ -2454,22 +2460,22 @@
     </row>
     <row r="32" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>94</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="E32" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
@@ -2481,19 +2487,19 @@
         <v>45119</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
@@ -2502,22 +2508,22 @@
     </row>
     <row r="34" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>100</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
@@ -2541,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>103</v>
@@ -2562,10 +2568,10 @@
         <v>104</v>
       </c>
       <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
@@ -2574,7 +2580,7 @@
     </row>
     <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>105</v>
@@ -2586,49 +2592,49 @@
         <v>106</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>107</v>
+        <v>35</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="20" t="s">
-        <v>57</v>
+      <c r="F38" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>112</v>
@@ -2636,41 +2642,41 @@
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>113</v>
+      <c r="F39" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>45069</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="20" t="s">
-        <v>57</v>
+      <c r="F40" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>116</v>
@@ -2684,17 +2690,17 @@
       <c r="E41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>47</v>
+      <c r="F41" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>118</v>
@@ -2708,8 +2714,8 @@
       <c r="E42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>57</v>
+      <c r="F42" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
@@ -2723,17 +2729,17 @@
       <c r="B43" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>109</v>
+      <c r="C43" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
@@ -2742,31 +2748,31 @@
     </row>
     <row r="44" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>7</v>
+      <c r="C44" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>123</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>124</v>
@@ -2780,17 +2786,17 @@
       <c r="E45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>47</v>
+      <c r="F45" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>126</v>
@@ -2802,10 +2808,10 @@
         <v>127</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>57</v>
+        <v>9</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
@@ -2814,16 +2820,22 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
@@ -2832,31 +2844,25 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>129</v>
+        <v>44996</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="F48" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>131</v>
@@ -2870,8 +2876,8 @@
       <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>107</v>
+      <c r="F49" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
@@ -2895,7 +2901,7 @@
         <v>9</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
@@ -2904,22 +2910,22 @@
     </row>
     <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>136</v>
+      <c r="F51" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
@@ -2928,22 +2934,22 @@
     </row>
     <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
@@ -2952,22 +2958,22 @@
     </row>
     <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
@@ -2975,47 +2981,47 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="9" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="18" t="s">
+      <c r="C54" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="18" t="s">
-        <v>84</v>
+      <c r="F54" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B55" s="27" t="s">
+    <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>47</v>
+      <c r="E55" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
@@ -3024,22 +3030,22 @@
     </row>
     <row r="56" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>144</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>145</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="57" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>146</v>
@@ -3060,10 +3066,10 @@
         <v>147</v>
       </c>
       <c r="E57" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="58" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>148</v>
@@ -3084,10 +3090,10 @@
         <v>149</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
@@ -3108,10 +3114,10 @@
         <v>151</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
@@ -3119,23 +3125,23 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B60" s="29" t="s">
+      <c r="A60" s="26" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B60" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
@@ -3143,23 +3149,23 @@
       <c r="AMJ60" s="0"/>
     </row>
     <row r="61" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B61" s="27" t="s">
+      <c r="A61" s="28" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B61" s="29" t="s">
         <v>154</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>155</v>
       </c>
       <c r="E61" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
@@ -3168,58 +3174,70 @@
     </row>
     <row r="62" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B62" s="27" t="s">
         <v>156</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>157</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B63" s="30" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="24" t="s">
+      <c r="E63" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>33</v>
+      <c r="F63" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
+    <row r="64" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="26" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B64" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>29</v>
+      <c r="C64" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
@@ -3227,71 +3245,59 @@
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="A65" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>47</v>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B66" s="27" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B66" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="24" t="s">
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>47</v>
+      <c r="E66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B67" s="31" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B67" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>107</v>
+      <c r="E67" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
@@ -3300,7 +3306,7 @@
     </row>
     <row r="68" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B68" s="31" t="s">
         <v>168</v>
@@ -3312,113 +3318,117 @@
         <v>169</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B69" s="32" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="AMG69" s="0"/>
+      <c r="AMH69" s="0"/>
+      <c r="AMI69" s="0"/>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B70" s="31" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B70" s="32" t="s">
         <v>173</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
-        <v>44743</v>
+        <v>373466</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>175</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F71" s="20" t="s">
-        <v>57</v>
+        <v>176</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>176</v>
+        <v>44743</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>33</v>
+      <c r="F72" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B73" s="34" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B73" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>180</v>
@@ -3430,77 +3440,77 @@
         <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B75" s="35" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B75" s="34" t="s">
         <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>183</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="28" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B77" s="34" t="s">
+      <c r="A77" s="28" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B77" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B78" s="31" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B78" s="34" t="s">
         <v>188</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -3510,10 +3520,10 @@
         <v>189</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,15 +3540,15 @@
         <v>191</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>192</v>
@@ -3550,15 +3560,15 @@
         <v>193</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>194</v>
@@ -3570,57 +3580,57 @@
         <v>195</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>196</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B83" s="31" t="s">
         <v>198</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>199</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B84" s="34" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B84" s="31" t="s">
         <v>200</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3630,60 +3640,60 @@
         <v>201</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="20" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="26" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B85" s="31" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B85" s="34" t="s">
         <v>202</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="26" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B86" s="31" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B87" s="31" t="s">
+      <c r="C86" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="E86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B88" s="31" t="s">
         <v>207</v>
@@ -3695,10 +3705,10 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>209</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,24 +3716,24 @@
         <v>44460</v>
       </c>
       <c r="B89" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="E89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>212</v>
@@ -3737,73 +3747,73 @@
       <c r="E90" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>47</v>
+      <c r="F90" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B91" s="31" t="s">
         <v>214</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="28" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B92" s="37" t="s">
+      <c r="A92" s="26" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B92" s="31" t="s">
         <v>216</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>217</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="26" t="n">
+      <c r="A93" s="28" t="n">
         <v>44325</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="37" t="s">
         <v>218</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B94" s="31" t="s">
         <v>220</v>
@@ -3815,15 +3825,15 @@
         <v>221</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>107</v>
+        <v>23</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B95" s="31" t="s">
         <v>222</v>
@@ -3835,37 +3845,37 @@
         <v>223</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>224</v>
+        <v>35</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B96" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B97" s="31" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3875,15 +3885,15 @@
         <v>228</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B98" s="31" t="s">
         <v>229</v>
@@ -3895,57 +3905,57 @@
         <v>230</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="38" t="n">
+      <c r="A99" s="26" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="38" t="n">
         <v>44231</v>
       </c>
-      <c r="B99" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="F99" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="26" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B100" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="B100" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>47</v>
+      <c r="C100" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B101" s="34" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B101" s="31" t="s">
         <v>234</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3955,17 +3965,17 @@
         <v>235</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B102" s="31" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B102" s="34" t="s">
         <v>236</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3975,10 +3985,10 @@
         <v>237</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,40 +4005,40 @@
         <v>239</v>
       </c>
       <c r="E103" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="26" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>47</v>
+      <c r="F104" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B106" s="31" t="s">
         <v>242</v>
@@ -4037,158 +4047,158 @@
         <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="38" t="n">
+      <c r="E107" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="38" t="n">
         <v>44146</v>
       </c>
-      <c r="B107" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C107" s="40" t="s">
+      <c r="B108" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="F107" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="26" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B108" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>47</v>
+      <c r="D108" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="26" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="38" t="n">
+      <c r="A110" s="26" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="38" t="n">
         <v>44095</v>
       </c>
-      <c r="B110" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F110" s="40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="26" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B111" s="31" t="s">
+      <c r="B111" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F111" s="20" t="s">
-        <v>57</v>
+      <c r="E111" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="40" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>252</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>253</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>209</v>
+        <v>35</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B113" s="31" t="s">
         <v>254</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>255</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F113" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>256</v>
@@ -4200,15 +4210,15 @@
         <v>257</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B115" s="31" t="s">
         <v>258</v>
@@ -4220,15 +4230,15 @@
         <v>259</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B116" s="31" t="s">
         <v>260</v>
@@ -4240,15 +4250,15 @@
         <v>261</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B117" s="31" t="s">
         <v>262</v>
@@ -4260,35 +4270,35 @@
         <v>263</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B118" s="31" t="s">
         <v>264</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="26" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B119" s="31" t="s">
         <v>266</v>
@@ -4300,15 +4310,15 @@
         <v>267</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F119" s="20" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B120" s="31" t="s">
         <v>268</v>
@@ -4320,15 +4330,15 @@
         <v>269</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>33</v>
+        <v>160</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B121" s="31" t="s">
         <v>270</v>
@@ -4340,35 +4350,35 @@
         <v>271</v>
       </c>
       <c r="E121" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="26" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B122" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>273</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B123" s="31" t="s">
         <v>274</v>
@@ -4380,15 +4390,15 @@
         <v>275</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F123" s="20" t="s">
-        <v>57</v>
+        <v>160</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="26" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B124" s="31" t="s">
         <v>276</v>
@@ -4400,15 +4410,15 @@
         <v>277</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>47</v>
+        <v>160</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="26" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B125" s="31" t="s">
         <v>278</v>
@@ -4420,10 +4430,10 @@
         <v>279</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,15 +4450,15 @@
         <v>281</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="26" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B127" s="31" t="s">
         <v>282</v>
@@ -4460,15 +4470,15 @@
         <v>283</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="26" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>284</v>
@@ -4480,10 +4490,10 @@
         <v>285</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,14 +4513,14 @@
         <v>23</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="26" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B130" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B130" s="31" t="s">
         <v>288</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -4523,32 +4533,32 @@
         <v>23</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="26" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B132" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="26" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="C131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>33</v>
+      <c r="E131" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,61 +4569,61 @@
         <v>292</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>293</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>294</v>
+        <v>160</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="26" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B134" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="26" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B135" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B135" s="41" t="s">
         <v>297</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>298</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="26" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>299</v>
@@ -4625,21 +4635,41 @@
         <v>300</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="138" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG138" s="0"/>
-      <c r="AMH138" s="0"/>
-      <c r="AMI138" s="0"/>
-      <c r="AMJ138" s="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="26" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="139" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG139" s="0"/>
+      <c r="AMH139" s="0"/>
+      <c r="AMI139" s="0"/>
+      <c r="AMJ139" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A:F"/>
-  <conditionalFormatting sqref="F87:F1048576 F1:F85">
+  <autoFilter ref="A1:F137"/>
+  <conditionalFormatting sqref="F88:F1048576 F1:F86">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -4648,132 +4678,133 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="#1768"/>
-    <hyperlink ref="B4" r:id="rId2" display="#1766"/>
-    <hyperlink ref="B5" r:id="rId3" display="#274"/>
-    <hyperlink ref="B6" r:id="rId4" display="#273"/>
-    <hyperlink ref="B7" r:id="rId5" display="#272"/>
-    <hyperlink ref="B8" r:id="rId6" display="#1754"/>
-    <hyperlink ref="B9" r:id="rId7" display="#1752"/>
-    <hyperlink ref="B10" r:id="rId8" display="#1745"/>
-    <hyperlink ref="B11" r:id="rId9" display="#1743"/>
-    <hyperlink ref="B12" r:id="rId10" display="#1258"/>
-    <hyperlink ref="B13" r:id="rId11" display="#271"/>
-    <hyperlink ref="B14" r:id="rId12" display="#2"/>
-    <hyperlink ref="B15" r:id="rId13" display="#1349"/>
-    <hyperlink ref="B17" r:id="rId14" display="#1725"/>
-    <hyperlink ref="B18" r:id="rId15" display="#1724"/>
-    <hyperlink ref="B19" r:id="rId16" display="#1722"/>
-    <hyperlink ref="B20" r:id="rId17" display="#1226"/>
-    <hyperlink ref="B21" r:id="rId18" display="#1225"/>
-    <hyperlink ref="B22" r:id="rId19" display="#1720"/>
-    <hyperlink ref="B23" r:id="rId20" display="#1323"/>
-    <hyperlink ref="B24" r:id="rId21" display="#30"/>
-    <hyperlink ref="B25" r:id="rId22" display="#1712"/>
-    <hyperlink ref="B26" r:id="rId23" display="#1215"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1214"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1213"/>
-    <hyperlink ref="B29" r:id="rId26" display="#1212"/>
-    <hyperlink ref="B31" r:id="rId27" display="#1202"/>
-    <hyperlink ref="B32" r:id="rId28" display="#27"/>
-    <hyperlink ref="B33" r:id="rId29" display="#26"/>
-    <hyperlink ref="B34" r:id="rId30" display="#1201"/>
-    <hyperlink ref="B35" r:id="rId31" display="#1200"/>
-    <hyperlink ref="B36" r:id="rId32" display="#1708"/>
-    <hyperlink ref="B37" r:id="rId33" display="#1185"/>
-    <hyperlink ref="B38" r:id="rId34" display="#11"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1309"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1176"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1171"/>
-    <hyperlink ref="B42" r:id="rId38" display="#1164"/>
-    <hyperlink ref="B43" r:id="rId39" display="#9"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1163"/>
-    <hyperlink ref="B45" r:id="rId41" display="#1161"/>
-    <hyperlink ref="B46" r:id="rId42" display="#1690"/>
-    <hyperlink ref="B48" r:id="rId43" display="#1155"/>
-    <hyperlink ref="B49" r:id="rId44" display="#1150"/>
-    <hyperlink ref="B50" r:id="rId45" display="#1151"/>
-    <hyperlink ref="B51" r:id="rId46" display="#1200"/>
-    <hyperlink ref="B52" r:id="rId47" display="#1681"/>
-    <hyperlink ref="B53" r:id="rId48" display="#51"/>
-    <hyperlink ref="B54" r:id="rId49" display="#1142"/>
-    <hyperlink ref="B55" r:id="rId50" display="#8"/>
-    <hyperlink ref="B56" r:id="rId51" display="#1674"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1672"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1669"/>
-    <hyperlink ref="B59" r:id="rId54" display="#1670"/>
-    <hyperlink ref="B60" r:id="rId55" display="#1184"/>
-    <hyperlink ref="B61" r:id="rId56" display="#49"/>
-    <hyperlink ref="B62" r:id="rId57" display="#1140"/>
-    <hyperlink ref="B63" r:id="rId58" display="#1132"/>
-    <hyperlink ref="B65" r:id="rId59" display="#1125"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1641"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1124"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1122"/>
-    <hyperlink ref="B69" r:id="rId63" display="#43"/>
-    <hyperlink ref="B70" r:id="rId64" display="#1622"/>
-    <hyperlink ref="B72" r:id="rId65" display="#38"/>
-    <hyperlink ref="B73" r:id="rId66" display="#1621"/>
-    <hyperlink ref="B74" r:id="rId67" display="#1616"/>
-    <hyperlink ref="B75" r:id="rId68" display="#37"/>
-    <hyperlink ref="B76" r:id="rId69" display="#36"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1101"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1099"/>
-    <hyperlink ref="B79" r:id="rId72" display="#1098"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1617"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1092"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1128"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1090"/>
-    <hyperlink ref="B84" r:id="rId77" display="#1608"/>
-    <hyperlink ref="B85" r:id="rId78" display="#35"/>
-    <hyperlink ref="B87" r:id="rId79" display="#1070"/>
-    <hyperlink ref="B88" r:id="rId80" display="#1592"/>
-    <hyperlink ref="B89" r:id="rId81" display="#1591"/>
-    <hyperlink ref="B90" r:id="rId82" display="#1578"/>
-    <hyperlink ref="B91" r:id="rId83" display="#41"/>
-    <hyperlink ref="B92" r:id="rId84" display="#42"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1566"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1565"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1046"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1559"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1038"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1037"/>
-    <hyperlink ref="B99" r:id="rId91" display="#1020"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1032"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1546"/>
-    <hyperlink ref="B102" r:id="rId94" display="#1027"/>
-    <hyperlink ref="B103" r:id="rId95" display="#1529"/>
-    <hyperlink ref="B105" r:id="rId96" display="#1527"/>
-    <hyperlink ref="B106" r:id="rId97" display="#558"/>
-    <hyperlink ref="B107" r:id="rId98" display="#1005"/>
-    <hyperlink ref="B108" r:id="rId99" display="#1020"/>
-    <hyperlink ref="B109" r:id="rId100" display="#993"/>
-    <hyperlink ref="B110" r:id="rId101" display="#1520"/>
-    <hyperlink ref="B111" r:id="rId102" display="#1519"/>
-    <hyperlink ref="B112" r:id="rId103" display="#969"/>
-    <hyperlink ref="B113" r:id="rId104" display="#1003"/>
-    <hyperlink ref="B114" r:id="rId105" display="#1015"/>
-    <hyperlink ref="B115" r:id="rId106" display="#1002"/>
-    <hyperlink ref="B116" r:id="rId107" display="#1471"/>
-    <hyperlink ref="B117" r:id="rId108" display="#1497"/>
-    <hyperlink ref="B118" r:id="rId109" display="#947"/>
-    <hyperlink ref="B119" r:id="rId110" display="#933"/>
-    <hyperlink ref="B120" r:id="rId111" display="#932"/>
-    <hyperlink ref="B121" r:id="rId112" display="#931"/>
-    <hyperlink ref="B122" r:id="rId113" display="#987"/>
-    <hyperlink ref="B123" r:id="rId114" display="#988"/>
-    <hyperlink ref="B124" r:id="rId115" display="#982"/>
-    <hyperlink ref="B125" r:id="rId116" display="#979"/>
-    <hyperlink ref="B126" r:id="rId117" display="#977"/>
-    <hyperlink ref="B127" r:id="rId118" display="#975"/>
-    <hyperlink ref="B128" r:id="rId119" display="#1445"/>
-    <hyperlink ref="B129" r:id="rId120" display="#1444"/>
-    <hyperlink ref="B130" r:id="rId121" display="#1427"/>
-    <hyperlink ref="B132" r:id="rId122" display="#23"/>
-    <hyperlink ref="B133" r:id="rId123" display="#22"/>
-    <hyperlink ref="B134" r:id="rId124" display="#18"/>
-    <hyperlink ref="B135" r:id="rId125" display="#1207"/>
-    <hyperlink ref="B136" r:id="rId126" display="#245"/>
+    <hyperlink ref="B3" r:id="rId1" display="#1277"/>
+    <hyperlink ref="B4" r:id="rId2" display="#1768"/>
+    <hyperlink ref="B5" r:id="rId3" display="#1766"/>
+    <hyperlink ref="B6" r:id="rId4" display="#274"/>
+    <hyperlink ref="B7" r:id="rId5" display="#273"/>
+    <hyperlink ref="B8" r:id="rId6" display="#272"/>
+    <hyperlink ref="B9" r:id="rId7" display="#1754"/>
+    <hyperlink ref="B10" r:id="rId8" display="#1752"/>
+    <hyperlink ref="B11" r:id="rId9" display="#1745"/>
+    <hyperlink ref="B12" r:id="rId10" display="#1743"/>
+    <hyperlink ref="B13" r:id="rId11" display="#1258"/>
+    <hyperlink ref="B14" r:id="rId12" display="#271"/>
+    <hyperlink ref="B15" r:id="rId13" display="#2"/>
+    <hyperlink ref="B16" r:id="rId14" display="#1349"/>
+    <hyperlink ref="B18" r:id="rId15" display="#1725"/>
+    <hyperlink ref="B19" r:id="rId16" display="#1724"/>
+    <hyperlink ref="B20" r:id="rId17" display="#1722"/>
+    <hyperlink ref="B21" r:id="rId18" display="#1226"/>
+    <hyperlink ref="B22" r:id="rId19" display="#1225"/>
+    <hyperlink ref="B23" r:id="rId20" display="#1720"/>
+    <hyperlink ref="B24" r:id="rId21" display="#1323"/>
+    <hyperlink ref="B25" r:id="rId22" display="#30"/>
+    <hyperlink ref="B26" r:id="rId23" display="#1712"/>
+    <hyperlink ref="B27" r:id="rId24" display="#1215"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1214"/>
+    <hyperlink ref="B29" r:id="rId26" display="#1213"/>
+    <hyperlink ref="B30" r:id="rId27" display="#1212"/>
+    <hyperlink ref="B32" r:id="rId28" display="#1202"/>
+    <hyperlink ref="B33" r:id="rId29" display="#27"/>
+    <hyperlink ref="B34" r:id="rId30" display="#26"/>
+    <hyperlink ref="B35" r:id="rId31" display="#1201"/>
+    <hyperlink ref="B36" r:id="rId32" display="#1200"/>
+    <hyperlink ref="B37" r:id="rId33" display="#1708"/>
+    <hyperlink ref="B38" r:id="rId34" display="#1185"/>
+    <hyperlink ref="B39" r:id="rId35" display="#11"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1309"/>
+    <hyperlink ref="B41" r:id="rId37" display="#1176"/>
+    <hyperlink ref="B42" r:id="rId38" display="#1171"/>
+    <hyperlink ref="B43" r:id="rId39" display="#1164"/>
+    <hyperlink ref="B44" r:id="rId40" display="#9"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1163"/>
+    <hyperlink ref="B46" r:id="rId42" display="#1161"/>
+    <hyperlink ref="B47" r:id="rId43" display="#1690"/>
+    <hyperlink ref="B49" r:id="rId44" display="#1155"/>
+    <hyperlink ref="B50" r:id="rId45" display="#1150"/>
+    <hyperlink ref="B51" r:id="rId46" display="#1151"/>
+    <hyperlink ref="B52" r:id="rId47" display="#1200"/>
+    <hyperlink ref="B53" r:id="rId48" display="#1681"/>
+    <hyperlink ref="B54" r:id="rId49" display="#51"/>
+    <hyperlink ref="B55" r:id="rId50" display="#1142"/>
+    <hyperlink ref="B56" r:id="rId51" display="#8"/>
+    <hyperlink ref="B57" r:id="rId52" display="#1674"/>
+    <hyperlink ref="B58" r:id="rId53" display="#1672"/>
+    <hyperlink ref="B59" r:id="rId54" display="#1669"/>
+    <hyperlink ref="B60" r:id="rId55" display="#1670"/>
+    <hyperlink ref="B61" r:id="rId56" display="#1184"/>
+    <hyperlink ref="B62" r:id="rId57" display="#49"/>
+    <hyperlink ref="B63" r:id="rId58" display="#1140"/>
+    <hyperlink ref="B64" r:id="rId59" display="#1132"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1125"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1641"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1124"/>
+    <hyperlink ref="B69" r:id="rId63" display="#1122"/>
+    <hyperlink ref="B70" r:id="rId64" display="#43"/>
+    <hyperlink ref="B71" r:id="rId65" display="#1622"/>
+    <hyperlink ref="B73" r:id="rId66" display="#38"/>
+    <hyperlink ref="B74" r:id="rId67" display="#1621"/>
+    <hyperlink ref="B75" r:id="rId68" display="#1616"/>
+    <hyperlink ref="B76" r:id="rId69" display="#37"/>
+    <hyperlink ref="B77" r:id="rId70" display="#36"/>
+    <hyperlink ref="B78" r:id="rId71" display="#1101"/>
+    <hyperlink ref="B79" r:id="rId72" display="#1099"/>
+    <hyperlink ref="B80" r:id="rId73" display="#1098"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1617"/>
+    <hyperlink ref="B82" r:id="rId75" display="#1092"/>
+    <hyperlink ref="B83" r:id="rId76" display="#1128"/>
+    <hyperlink ref="B84" r:id="rId77" display="#1090"/>
+    <hyperlink ref="B85" r:id="rId78" display="#1608"/>
+    <hyperlink ref="B86" r:id="rId79" display="#35"/>
+    <hyperlink ref="B88" r:id="rId80" display="#1070"/>
+    <hyperlink ref="B89" r:id="rId81" display="#1592"/>
+    <hyperlink ref="B90" r:id="rId82" display="#1591"/>
+    <hyperlink ref="B91" r:id="rId83" display="#1578"/>
+    <hyperlink ref="B92" r:id="rId84" display="#41"/>
+    <hyperlink ref="B93" r:id="rId85" display="#42"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1566"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1565"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1046"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1559"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1038"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1037"/>
+    <hyperlink ref="B100" r:id="rId92" display="#1020"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1032"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1546"/>
+    <hyperlink ref="B103" r:id="rId95" display="#1027"/>
+    <hyperlink ref="B104" r:id="rId96" display="#1529"/>
+    <hyperlink ref="B106" r:id="rId97" display="#1527"/>
+    <hyperlink ref="B107" r:id="rId98" display="#558"/>
+    <hyperlink ref="B108" r:id="rId99" display="#1005"/>
+    <hyperlink ref="B109" r:id="rId100" display="#1020"/>
+    <hyperlink ref="B110" r:id="rId101" display="#993"/>
+    <hyperlink ref="B111" r:id="rId102" display="#1520"/>
+    <hyperlink ref="B112" r:id="rId103" display="#1519"/>
+    <hyperlink ref="B113" r:id="rId104" display="#969"/>
+    <hyperlink ref="B114" r:id="rId105" display="#1003"/>
+    <hyperlink ref="B115" r:id="rId106" display="#1015"/>
+    <hyperlink ref="B116" r:id="rId107" display="#1002"/>
+    <hyperlink ref="B117" r:id="rId108" display="#1471"/>
+    <hyperlink ref="B118" r:id="rId109" display="#1497"/>
+    <hyperlink ref="B119" r:id="rId110" display="#947"/>
+    <hyperlink ref="B120" r:id="rId111" display="#933"/>
+    <hyperlink ref="B121" r:id="rId112" display="#932"/>
+    <hyperlink ref="B122" r:id="rId113" display="#931"/>
+    <hyperlink ref="B123" r:id="rId114" display="#987"/>
+    <hyperlink ref="B124" r:id="rId115" display="#988"/>
+    <hyperlink ref="B125" r:id="rId116" display="#982"/>
+    <hyperlink ref="B126" r:id="rId117" display="#979"/>
+    <hyperlink ref="B127" r:id="rId118" display="#977"/>
+    <hyperlink ref="B128" r:id="rId119" display="#975"/>
+    <hyperlink ref="B129" r:id="rId120" display="#1445"/>
+    <hyperlink ref="B130" r:id="rId121" display="#1444"/>
+    <hyperlink ref="B131" r:id="rId122" display="#1427"/>
+    <hyperlink ref="B133" r:id="rId123" display="#23"/>
+    <hyperlink ref="B134" r:id="rId124" display="#22"/>
+    <hyperlink ref="B135" r:id="rId125" display="#18"/>
+    <hyperlink ref="B136" r:id="rId126" display="#1207"/>
+    <hyperlink ref="B137" r:id="rId127" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4782,7 +4813,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId127"/>
+  <drawing r:id="rId128"/>
 </worksheet>
 </file>
 
@@ -4815,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4827,10 +4858,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,8 +13,8 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$137</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$140</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="312">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -112,12 +112,24 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
+    <t xml:space="preserve">TOTAL 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITS filtering messes up EOL in target files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">WIP</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1277</t>
   </si>
   <si>
@@ -142,6 +154,15 @@
     <t xml:space="preserve">Customize segment properties fields</t>
   </si>
   <si>
+    <t xml:space="preserve">#1374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unescaped closing angle bracket in ITS-excluded target content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
     <t xml:space="preserve">#274</t>
   </si>
   <si>
@@ -175,9 +196,6 @@
     <t xml:space="preserve">Dynamic subfilter in text search results</t>
   </si>
   <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1745</t>
   </si>
   <si>
@@ -203,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">Extraneous tags which are not escaped in XML target file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">#2</t>
@@ -1034,6 +1049,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Atkinson Hyperlegible"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF784B04"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1060,13 +1082,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF127622"/>
-      <name val="Atkinson Hyperlegible"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1203,6 +1218,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1217,12 +1238,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1272,7 +1287,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1321,6 +1336,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1329,15 +1352,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,15 +1376,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1365,7 +1388,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1401,11 +1424,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,15 +1440,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,7 +1460,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1722,12 +1745,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ139"/>
+  <dimension ref="A1:AMJ142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
@@ -1782,13 +1805,13 @@
     </row>
     <row r="3" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
-        <v>45629</v>
+        <v>45677</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>31</v>
@@ -1796,7 +1819,7 @@
       <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AMG3" s="0"/>
@@ -1805,23 +1828,11 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>45609</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
@@ -1830,166 +1841,166 @@
     </row>
     <row r="5" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
-        <v>45604</v>
+        <v>45629</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
-        <v>45563</v>
+        <v>45609</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>32</v>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
-        <v>45488</v>
+        <v>45604</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
+      <c r="F7" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>45488</v>
+    <row r="8" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>45568</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
+      <c r="F8" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>45483</v>
+    <row r="9" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>45563</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
         <v>46</v>
       </c>
+      <c r="D9" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>45469</v>
+    <row r="10" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>45488</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>45784</v>
+    <row r="11" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <v>45488</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -1997,8 +2008,8 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
-        <v>45411</v>
+      <c r="A12" s="14" t="n">
+        <v>45483</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>52</v>
@@ -2006,23 +2017,23 @@
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>45394</v>
+    <row r="13" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <v>45469</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>54</v>
@@ -2030,62 +2041,62 @@
       <c r="C13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>45390</v>
+    <row r="14" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <v>45784</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>45365</v>
+    <row r="15" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <v>45411</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
@@ -2093,35 +2104,47 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>45363</v>
+      <c r="A16" s="14" t="n">
+        <v>45394</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>29</v>
+    <row r="17" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>32</v>
       </c>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -2130,22 +2153,22 @@
     </row>
     <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
-        <v>45238</v>
+        <v>45365</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -2154,46 +2177,34 @@
     </row>
     <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
-        <v>45230</v>
+        <v>45363</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>45223</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>49</v>
+      <c r="F20" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
@@ -2202,22 +2213,22 @@
     </row>
     <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>74</v>
+        <v>39</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -2226,22 +2237,22 @@
     </row>
     <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
-        <v>45233</v>
+        <v>45230</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
@@ -2250,22 +2261,22 @@
     </row>
     <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
-        <v>45213</v>
+        <v>45223</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -2274,22 +2285,22 @@
     </row>
     <row r="24" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
-        <v>45199</v>
+        <v>45236</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>49</v>
+      <c r="F24" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
@@ -2298,22 +2309,22 @@
     </row>
     <row r="25" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
-        <v>45170</v>
+        <v>45233</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
@@ -2322,22 +2333,22 @@
     </row>
     <row r="26" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
-        <v>45169</v>
+        <v>45213</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>84</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
@@ -2345,23 +2356,23 @@
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
-        <v>45169</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="9" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>86</v>
+      <c r="F27" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
@@ -2369,23 +2380,23 @@
       <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
-        <v>45145</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="9" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>88</v>
+      <c r="E28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
@@ -2394,22 +2405,22 @@
     </row>
     <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
-        <v>45145</v>
+        <v>45169</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
@@ -2417,41 +2428,47 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
-        <v>45145</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="19" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>45112</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="11" t="s">
+    <row r="31" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>93</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
@@ -2460,7 +2477,7 @@
     </row>
     <row r="32" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
-        <v>45124</v>
+        <v>45145</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>94</v>
@@ -2474,7 +2491,7 @@
       <c r="E32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AMG32" s="0"/>
@@ -2484,21 +2501,21 @@
     </row>
     <row r="33" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
-        <v>45119</v>
+        <v>45145</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>96</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="AMG33" s="0"/>
@@ -2506,23 +2523,17 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
-        <v>45119</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>99</v>
+        <v>45112</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="12" t="s">
         <v>32</v>
       </c>
       <c r="AMG34" s="0"/>
@@ -2532,22 +2543,22 @@
     </row>
     <row r="35" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
-        <v>45118</v>
+        <v>45124</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>32</v>
+      <c r="F35" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
@@ -2556,22 +2567,22 @@
     </row>
     <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>104</v>
-      </c>
       <c r="E36" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
@@ -2580,22 +2591,22 @@
     </row>
     <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
-        <v>45110</v>
+        <v>45119</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
@@ -2604,46 +2615,46 @@
     </row>
     <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
-        <v>45104</v>
+        <v>45118</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>109</v>
+      <c r="F38" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
-        <v>45094</v>
+        <v>45118</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>59</v>
+      <c r="F39" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
@@ -2652,94 +2663,94 @@
     </row>
     <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
-        <v>45069</v>
+        <v>45110</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>115</v>
+        <v>39</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
-        <v>45069</v>
+        <v>45104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>59</v>
+      <c r="F41" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
-        <v>45064</v>
+        <v>45094</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>49</v>
+      <c r="F42" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
-        <v>45049</v>
+        <v>45069</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>59</v>
+      <c r="F43" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="AMG43" s="0"/>
       <c r="AMH43" s="0"/>
@@ -2748,70 +2759,70 @@
     </row>
     <row r="44" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
-        <v>45049</v>
+        <v>45069</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>59</v>
+        <v>9</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
-        <v>45044</v>
+        <v>45064</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>59</v>
+      <c r="F45" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>45040</v>
+        <v>45049</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>49</v>
+      <c r="F46" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
@@ -2820,22 +2831,22 @@
     </row>
     <row r="47" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
-        <v>45028</v>
+        <v>45049</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="E47" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
@@ -2844,25 +2855,31 @@
     </row>
     <row r="48" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
-        <v>44996</v>
+        <v>45044</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>59</v>
+      <c r="E48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>45007</v>
+        <v>45040</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>131</v>
@@ -2876,17 +2893,17 @@
       <c r="E49" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>59</v>
+      <c r="F49" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>44993</v>
+        <v>45028</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>133</v>
@@ -2898,49 +2915,43 @@
         <v>134</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
-        <v>44993</v>
-      </c>
-      <c r="B51" s="10" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>109</v>
+      <c r="F51" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
-        <v>44991</v>
+        <v>45007</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>137</v>
@@ -2948,8 +2959,8 @@
       <c r="E52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>138</v>
+      <c r="F52" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
@@ -2958,22 +2969,22 @@
     </row>
     <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
-        <v>44981</v>
+        <v>44993</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>140</v>
-      </c>
       <c r="E53" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
@@ -2982,22 +2993,22 @@
     </row>
     <row r="54" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
-        <v>44973</v>
+        <v>44993</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>32</v>
+      <c r="F54" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
@@ -3005,95 +3016,95 @@
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="9" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>86</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B56" s="27" t="s">
+    <row r="56" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="C56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E56" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>49</v>
+      <c r="E56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26" t="n">
-        <v>44967</v>
-      </c>
-      <c r="B57" s="27" t="s">
+    <row r="57" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="24" t="s">
+      <c r="C57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>32</v>
+      <c r="E57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="n">
-        <v>44964</v>
-      </c>
-      <c r="B58" s="27" t="s">
+    <row r="58" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>35</v>
+      <c r="C58" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
@@ -3101,23 +3112,23 @@
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="28" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>109</v>
+      <c r="E59" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
@@ -3125,23 +3136,23 @@
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="28" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="20" t="s">
-        <v>59</v>
+      <c r="E60" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
@@ -3150,22 +3161,22 @@
     </row>
     <row r="61" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="n">
-        <v>44949</v>
+        <v>44964</v>
       </c>
       <c r="B61" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>32</v>
+      <c r="E61" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
@@ -3173,23 +3184,23 @@
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B62" s="27" t="s">
+      <c r="A62" s="28" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="E62" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>59</v>
+      <c r="F62" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="AMG62" s="0"/>
       <c r="AMH62" s="0"/>
@@ -3197,107 +3208,119 @@
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26" t="n">
-        <v>44946</v>
-      </c>
-      <c r="B63" s="27" t="s">
+      <c r="A63" s="28" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>59</v>
+      <c r="E63" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="24" t="s">
+    <row r="64" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="30" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>32</v>
+      <c r="E64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>29</v>
+    <row r="65" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B66" s="31" t="s">
+    <row r="66" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="28" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="E66" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>49</v>
+      <c r="F66" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG66" s="0"/>
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="24" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B67" s="27" t="s">
+    <row r="67" s="26" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="28" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B67" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="C67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>49</v>
+      <c r="E67" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
@@ -3305,23 +3328,11 @@
       <c r="AMJ67" s="0"/>
     </row>
     <row r="68" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B68" s="31" t="s">
+      <c r="A68" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>109</v>
+      <c r="F68" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
@@ -3329,108 +3340,126 @@
       <c r="AMJ68" s="0"/>
     </row>
     <row r="69" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B69" s="31" t="s">
+      <c r="A69" s="28" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="AMG69" s="0"/>
       <c r="AMH69" s="0"/>
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="n">
+    <row r="70" s="26" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMG70" s="0"/>
+      <c r="AMH70" s="0"/>
+      <c r="AMI70" s="0"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AMG71" s="0"/>
+      <c r="AMH71" s="0"/>
+      <c r="AMI71" s="0"/>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="28" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AMG72" s="0"/>
+      <c r="AMH72" s="0"/>
+      <c r="AMI72" s="0"/>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="28" t="n">
         <v>44757</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="34" t="s">
         <v>178</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B74" s="34" t="s">
+      <c r="A74" s="28" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B74" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3442,260 +3471,269 @@
       <c r="E74" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F74" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="28" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26" t="n">
-        <v>44693</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="5" t="s">
+    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B76" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B76" s="35" t="s">
+      <c r="C76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="E76" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>59</v>
+        <v>165</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="28" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="28" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="30" t="n">
         <v>44659</v>
       </c>
-      <c r="B77" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="B80" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="28" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F77" s="14" t="s">
+      <c r="F81" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="28" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F82" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B78" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26" t="n">
+    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="28" t="n">
         <v>44705</v>
       </c>
-      <c r="B79" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="n">
+      <c r="B83" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="28" t="n">
         <v>44693</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="n">
+      <c r="B84" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="28" t="n">
         <v>44622</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F82" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26" t="n">
+      <c r="B85" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="28" t="n">
         <v>44614</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="B86" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26" t="n">
+      <c r="D86" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="28" t="n">
         <v>44613</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="n">
+      <c r="B87" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="28" t="n">
         <v>44608</v>
       </c>
-      <c r="B85" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="36" t="s">
         <v>207</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3705,257 +3743,242 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26" t="n">
-        <v>44460</v>
-      </c>
-      <c r="B89" s="31" t="s">
+      <c r="A89" s="28" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B89" s="33" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="n">
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="28" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="28" t="n">
         <v>44460</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B91" s="31" t="s">
+      <c r="B92" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="n">
-        <v>44326</v>
-      </c>
-      <c r="B92" s="31" t="s">
+      <c r="E92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B93" s="37" t="s">
+        <v>44460</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="28" t="n">
+        <v>44372</v>
+      </c>
+      <c r="B94" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="26" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B94" s="31" t="s">
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="26" t="n">
-        <v>44321</v>
-      </c>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="28" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="30" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B96" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26" t="n">
-        <v>44316</v>
-      </c>
-      <c r="B96" s="31" t="s">
+      <c r="C96" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="28" t="n">
+        <v>44325</v>
+      </c>
+      <c r="B97" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F97" s="14" t="s">
-        <v>32</v>
+      <c r="F97" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26" t="n">
+      <c r="A98" s="28" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="28" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="28" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="28" t="n">
         <v>44257</v>
       </c>
-      <c r="B98" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="26" t="n">
-        <v>44243</v>
-      </c>
-      <c r="B99" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="38" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E100" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F100" s="40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="33" t="s">
         <v>234</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3965,17 +3988,17 @@
         <v>235</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="26" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B102" s="34" t="s">
+      <c r="A102" s="28" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B102" s="33" t="s">
         <v>236</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3985,691 +4008,751 @@
         <v>237</v>
       </c>
       <c r="E102" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="40" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="28" t="n">
+        <v>44218</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="28" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F102" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26" t="n">
+      <c r="F105" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="28" t="n">
         <v>44175</v>
       </c>
-      <c r="B103" s="31" t="s">
+      <c r="B106" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="28" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="28" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="28" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B110" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="40" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F111" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="28" t="n">
+        <v>44132</v>
+      </c>
+      <c r="B112" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="26" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B104" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B107" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="38" t="n">
-        <v>44146</v>
-      </c>
-      <c r="B108" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="F108" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="26" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B109" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26" t="n">
+      <c r="C112" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="28" t="n">
         <v>44103</v>
       </c>
-      <c r="B110" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="38" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B111" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="26" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="B113" s="33" t="s">
         <v>253</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F112" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="26" t="n">
-        <v>44057</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>254</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="40" t="n">
+        <v>44095</v>
+      </c>
+      <c r="B114" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26" t="n">
+      <c r="C114" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="42" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="28" t="n">
+        <v>44095</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="28" t="n">
+        <v>44057</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="28" t="n">
         <v>44028</v>
       </c>
-      <c r="B114" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="26" t="n">
+      <c r="B117" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="28" t="n">
         <v>44064</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="26" t="n">
+      <c r="B118" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="28" t="n">
         <v>44028</v>
       </c>
-      <c r="B116" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="26" t="n">
+      <c r="B119" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="28" t="n">
         <v>44016</v>
       </c>
-      <c r="B117" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="26" t="n">
+      <c r="B120" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="28" t="n">
         <v>44010</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="B121" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="26" t="n">
+      <c r="F121" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="28" t="n">
         <v>43995</v>
       </c>
-      <c r="B119" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="26" t="n">
-        <v>43948</v>
-      </c>
-      <c r="B120" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F120" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="26" t="n">
-        <v>43947</v>
-      </c>
-      <c r="B121" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="B122" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="26" t="n">
-        <v>43936</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>272</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="28" t="n">
+        <v>43948</v>
+      </c>
+      <c r="B123" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26" t="n">
+      <c r="C123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="28" t="n">
+        <v>43947</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="28" t="n">
+        <v>43936</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="28" t="n">
         <v>43929</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="26" t="n">
+      <c r="B126" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="28" t="n">
         <v>43891</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F124" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="26" t="n">
+      <c r="B127" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="28" t="n">
         <v>43885</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="26" t="n">
+      <c r="B128" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="28" t="n">
         <v>43857</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="26" t="n">
+      <c r="B129" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="28" t="n">
         <v>43857</v>
       </c>
-      <c r="B127" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="26" t="n">
+      <c r="B130" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="28" t="n">
         <v>43852</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="26" t="n">
+      <c r="B131" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="28" t="n">
         <v>43584</v>
       </c>
-      <c r="B129" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="B132" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="26" t="n">
+      <c r="F132" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="28" t="n">
         <v>43584</v>
       </c>
-      <c r="B130" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E130" s="5" t="s">
+      <c r="B133" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="26" t="n">
+      <c r="F133" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="28" t="n">
         <v>43540</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E131" s="5" t="s">
+      <c r="B134" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E134" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="26" t="n">
+      <c r="F134" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="28" t="n">
         <v>43203</v>
       </c>
-      <c r="B133" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F133" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="26" t="n">
+      <c r="B136" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="28" t="n">
         <v>43203</v>
       </c>
-      <c r="B134" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26" t="n">
+      <c r="B137" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="28" t="n">
         <v>42842</v>
       </c>
-      <c r="B135" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F135" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26" t="n">
+      <c r="B138" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="28" t="n">
         <v>42457</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E136" s="5" t="s">
+      <c r="B139" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F136" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26" t="n">
+      <c r="F139" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="28" t="n">
         <v>39028</v>
       </c>
-      <c r="B137" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG139" s="0"/>
-      <c r="AMH139" s="0"/>
-      <c r="AMI139" s="0"/>
-      <c r="AMJ139" s="0"/>
+      <c r="B140" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG142" s="0"/>
+      <c r="AMH142" s="0"/>
+      <c r="AMI142" s="0"/>
+      <c r="AMJ142" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F137"/>
-  <conditionalFormatting sqref="F88:F1048576 F1:F86">
+  <autoFilter ref="A:F"/>
+  <conditionalFormatting sqref="F91:F1048576 F1:F89">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -4678,133 +4761,135 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="#1277"/>
-    <hyperlink ref="B4" r:id="rId2" display="#1768"/>
-    <hyperlink ref="B5" r:id="rId3" display="#1766"/>
-    <hyperlink ref="B6" r:id="rId4" display="#274"/>
-    <hyperlink ref="B7" r:id="rId5" display="#273"/>
-    <hyperlink ref="B8" r:id="rId6" display="#272"/>
-    <hyperlink ref="B9" r:id="rId7" display="#1754"/>
-    <hyperlink ref="B10" r:id="rId8" display="#1752"/>
-    <hyperlink ref="B11" r:id="rId9" display="#1745"/>
-    <hyperlink ref="B12" r:id="rId10" display="#1743"/>
-    <hyperlink ref="B13" r:id="rId11" display="#1258"/>
-    <hyperlink ref="B14" r:id="rId12" display="#271"/>
-    <hyperlink ref="B15" r:id="rId13" display="#2"/>
-    <hyperlink ref="B16" r:id="rId14" display="#1349"/>
-    <hyperlink ref="B18" r:id="rId15" display="#1725"/>
-    <hyperlink ref="B19" r:id="rId16" display="#1724"/>
-    <hyperlink ref="B20" r:id="rId17" display="#1722"/>
-    <hyperlink ref="B21" r:id="rId18" display="#1226"/>
-    <hyperlink ref="B22" r:id="rId19" display="#1225"/>
-    <hyperlink ref="B23" r:id="rId20" display="#1720"/>
-    <hyperlink ref="B24" r:id="rId21" display="#1323"/>
-    <hyperlink ref="B25" r:id="rId22" display="#30"/>
-    <hyperlink ref="B26" r:id="rId23" display="#1712"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1215"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1214"/>
-    <hyperlink ref="B29" r:id="rId26" display="#1213"/>
-    <hyperlink ref="B30" r:id="rId27" display="#1212"/>
-    <hyperlink ref="B32" r:id="rId28" display="#1202"/>
-    <hyperlink ref="B33" r:id="rId29" display="#27"/>
-    <hyperlink ref="B34" r:id="rId30" display="#26"/>
-    <hyperlink ref="B35" r:id="rId31" display="#1201"/>
-    <hyperlink ref="B36" r:id="rId32" display="#1200"/>
-    <hyperlink ref="B37" r:id="rId33" display="#1708"/>
-    <hyperlink ref="B38" r:id="rId34" display="#1185"/>
-    <hyperlink ref="B39" r:id="rId35" display="#11"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1309"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1176"/>
-    <hyperlink ref="B42" r:id="rId38" display="#1171"/>
-    <hyperlink ref="B43" r:id="rId39" display="#1164"/>
-    <hyperlink ref="B44" r:id="rId40" display="#9"/>
-    <hyperlink ref="B45" r:id="rId41" display="#1163"/>
-    <hyperlink ref="B46" r:id="rId42" display="#1161"/>
-    <hyperlink ref="B47" r:id="rId43" display="#1690"/>
-    <hyperlink ref="B49" r:id="rId44" display="#1155"/>
-    <hyperlink ref="B50" r:id="rId45" display="#1150"/>
-    <hyperlink ref="B51" r:id="rId46" display="#1151"/>
-    <hyperlink ref="B52" r:id="rId47" display="#1200"/>
-    <hyperlink ref="B53" r:id="rId48" display="#1681"/>
-    <hyperlink ref="B54" r:id="rId49" display="#51"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1142"/>
-    <hyperlink ref="B56" r:id="rId51" display="#8"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1674"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1672"/>
-    <hyperlink ref="B59" r:id="rId54" display="#1669"/>
-    <hyperlink ref="B60" r:id="rId55" display="#1670"/>
-    <hyperlink ref="B61" r:id="rId56" display="#1184"/>
-    <hyperlink ref="B62" r:id="rId57" display="#49"/>
-    <hyperlink ref="B63" r:id="rId58" display="#1140"/>
-    <hyperlink ref="B64" r:id="rId59" display="#1132"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1125"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1641"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1124"/>
-    <hyperlink ref="B69" r:id="rId63" display="#1122"/>
-    <hyperlink ref="B70" r:id="rId64" display="#43"/>
-    <hyperlink ref="B71" r:id="rId65" display="#1622"/>
-    <hyperlink ref="B73" r:id="rId66" display="#38"/>
-    <hyperlink ref="B74" r:id="rId67" display="#1621"/>
-    <hyperlink ref="B75" r:id="rId68" display="#1616"/>
-    <hyperlink ref="B76" r:id="rId69" display="#37"/>
-    <hyperlink ref="B77" r:id="rId70" display="#36"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1101"/>
-    <hyperlink ref="B79" r:id="rId72" display="#1099"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1098"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1617"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1092"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1128"/>
-    <hyperlink ref="B84" r:id="rId77" display="#1090"/>
-    <hyperlink ref="B85" r:id="rId78" display="#1608"/>
-    <hyperlink ref="B86" r:id="rId79" display="#35"/>
-    <hyperlink ref="B88" r:id="rId80" display="#1070"/>
-    <hyperlink ref="B89" r:id="rId81" display="#1592"/>
-    <hyperlink ref="B90" r:id="rId82" display="#1591"/>
-    <hyperlink ref="B91" r:id="rId83" display="#1578"/>
-    <hyperlink ref="B92" r:id="rId84" display="#41"/>
-    <hyperlink ref="B93" r:id="rId85" display="#42"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1566"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1565"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1046"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1559"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1038"/>
-    <hyperlink ref="B99" r:id="rId91" display="#1037"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1020"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1032"/>
-    <hyperlink ref="B102" r:id="rId94" display="#1546"/>
-    <hyperlink ref="B103" r:id="rId95" display="#1027"/>
-    <hyperlink ref="B104" r:id="rId96" display="#1529"/>
-    <hyperlink ref="B106" r:id="rId97" display="#1527"/>
-    <hyperlink ref="B107" r:id="rId98" display="#558"/>
-    <hyperlink ref="B108" r:id="rId99" display="#1005"/>
-    <hyperlink ref="B109" r:id="rId100" display="#1020"/>
-    <hyperlink ref="B110" r:id="rId101" display="#993"/>
-    <hyperlink ref="B111" r:id="rId102" display="#1520"/>
-    <hyperlink ref="B112" r:id="rId103" display="#1519"/>
-    <hyperlink ref="B113" r:id="rId104" display="#969"/>
-    <hyperlink ref="B114" r:id="rId105" display="#1003"/>
-    <hyperlink ref="B115" r:id="rId106" display="#1015"/>
-    <hyperlink ref="B116" r:id="rId107" display="#1002"/>
-    <hyperlink ref="B117" r:id="rId108" display="#1471"/>
-    <hyperlink ref="B118" r:id="rId109" display="#1497"/>
-    <hyperlink ref="B119" r:id="rId110" display="#947"/>
-    <hyperlink ref="B120" r:id="rId111" display="#933"/>
-    <hyperlink ref="B121" r:id="rId112" display="#932"/>
-    <hyperlink ref="B122" r:id="rId113" display="#931"/>
-    <hyperlink ref="B123" r:id="rId114" display="#987"/>
-    <hyperlink ref="B124" r:id="rId115" display="#988"/>
-    <hyperlink ref="B125" r:id="rId116" display="#982"/>
-    <hyperlink ref="B126" r:id="rId117" display="#979"/>
-    <hyperlink ref="B127" r:id="rId118" display="#977"/>
-    <hyperlink ref="B128" r:id="rId119" display="#975"/>
-    <hyperlink ref="B129" r:id="rId120" display="#1445"/>
-    <hyperlink ref="B130" r:id="rId121" display="#1444"/>
-    <hyperlink ref="B131" r:id="rId122" display="#1427"/>
-    <hyperlink ref="B133" r:id="rId123" display="#23"/>
-    <hyperlink ref="B134" r:id="rId124" display="#22"/>
-    <hyperlink ref="B135" r:id="rId125" display="#18"/>
-    <hyperlink ref="B136" r:id="rId126" display="#1207"/>
-    <hyperlink ref="B137" r:id="rId127" display="#245"/>
+    <hyperlink ref="B3" r:id="rId1" display="#1388"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1277"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1768"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1766"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1374"/>
+    <hyperlink ref="B9" r:id="rId6" display="#274"/>
+    <hyperlink ref="B10" r:id="rId7" display="#273"/>
+    <hyperlink ref="B11" r:id="rId8" display="#272"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1754"/>
+    <hyperlink ref="B13" r:id="rId10" display="#1752"/>
+    <hyperlink ref="B14" r:id="rId11" display="#1745"/>
+    <hyperlink ref="B15" r:id="rId12" display="#1743"/>
+    <hyperlink ref="B16" r:id="rId13" display="#1258"/>
+    <hyperlink ref="B17" r:id="rId14" display="#271"/>
+    <hyperlink ref="B18" r:id="rId15" display="#2"/>
+    <hyperlink ref="B19" r:id="rId16" display="#1349"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1725"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1724"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1722"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1226"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1225"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1720"/>
+    <hyperlink ref="B27" r:id="rId23" display="#1323"/>
+    <hyperlink ref="B28" r:id="rId24" display="#30"/>
+    <hyperlink ref="B29" r:id="rId25" display="#1712"/>
+    <hyperlink ref="B30" r:id="rId26" display="#1215"/>
+    <hyperlink ref="B31" r:id="rId27" display="#1214"/>
+    <hyperlink ref="B32" r:id="rId28" display="#1213"/>
+    <hyperlink ref="B33" r:id="rId29" display="#1212"/>
+    <hyperlink ref="B35" r:id="rId30" display="#1202"/>
+    <hyperlink ref="B36" r:id="rId31" display="#27"/>
+    <hyperlink ref="B37" r:id="rId32" display="#26"/>
+    <hyperlink ref="B38" r:id="rId33" display="#1201"/>
+    <hyperlink ref="B39" r:id="rId34" display="#1200"/>
+    <hyperlink ref="B40" r:id="rId35" display="#1708"/>
+    <hyperlink ref="B41" r:id="rId36" display="#1185"/>
+    <hyperlink ref="B42" r:id="rId37" display="#11"/>
+    <hyperlink ref="B43" r:id="rId38" display="#1309"/>
+    <hyperlink ref="B44" r:id="rId39" display="#1176"/>
+    <hyperlink ref="B45" r:id="rId40" display="#1171"/>
+    <hyperlink ref="B46" r:id="rId41" display="#1164"/>
+    <hyperlink ref="B47" r:id="rId42" display="#9"/>
+    <hyperlink ref="B48" r:id="rId43" display="#1163"/>
+    <hyperlink ref="B49" r:id="rId44" display="#1161"/>
+    <hyperlink ref="B50" r:id="rId45" display="#1690"/>
+    <hyperlink ref="B52" r:id="rId46" display="#1155"/>
+    <hyperlink ref="B53" r:id="rId47" display="#1150"/>
+    <hyperlink ref="B54" r:id="rId48" display="#1151"/>
+    <hyperlink ref="B55" r:id="rId49" display="#1200"/>
+    <hyperlink ref="B56" r:id="rId50" display="#1681"/>
+    <hyperlink ref="B57" r:id="rId51" display="#51"/>
+    <hyperlink ref="B58" r:id="rId52" display="#1142"/>
+    <hyperlink ref="B59" r:id="rId53" display="#8"/>
+    <hyperlink ref="B60" r:id="rId54" display="#1674"/>
+    <hyperlink ref="B61" r:id="rId55" display="#1672"/>
+    <hyperlink ref="B62" r:id="rId56" display="#1669"/>
+    <hyperlink ref="B63" r:id="rId57" display="#1670"/>
+    <hyperlink ref="B64" r:id="rId58" display="#1184"/>
+    <hyperlink ref="B65" r:id="rId59" display="#49"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1140"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1132"/>
+    <hyperlink ref="B69" r:id="rId62" display="#1125"/>
+    <hyperlink ref="B70" r:id="rId63" display="#1641"/>
+    <hyperlink ref="B71" r:id="rId64" display="#1124"/>
+    <hyperlink ref="B72" r:id="rId65" display="#1122"/>
+    <hyperlink ref="B73" r:id="rId66" display="#43"/>
+    <hyperlink ref="B74" r:id="rId67" display="#1622"/>
+    <hyperlink ref="B76" r:id="rId68" display="#38"/>
+    <hyperlink ref="B77" r:id="rId69" display="#1621"/>
+    <hyperlink ref="B78" r:id="rId70" display="#1616"/>
+    <hyperlink ref="B79" r:id="rId71" display="#37"/>
+    <hyperlink ref="B80" r:id="rId72" display="#36"/>
+    <hyperlink ref="B81" r:id="rId73" display="#1101"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1099"/>
+    <hyperlink ref="B83" r:id="rId75" display="#1098"/>
+    <hyperlink ref="B84" r:id="rId76" display="#1617"/>
+    <hyperlink ref="B85" r:id="rId77" display="#1092"/>
+    <hyperlink ref="B86" r:id="rId78" display="#1128"/>
+    <hyperlink ref="B87" r:id="rId79" display="#1090"/>
+    <hyperlink ref="B88" r:id="rId80" display="#1608"/>
+    <hyperlink ref="B89" r:id="rId81" display="#35"/>
+    <hyperlink ref="B91" r:id="rId82" display="#1070"/>
+    <hyperlink ref="B92" r:id="rId83" display="#1592"/>
+    <hyperlink ref="B93" r:id="rId84" display="#1591"/>
+    <hyperlink ref="B94" r:id="rId85" display="#1578"/>
+    <hyperlink ref="B95" r:id="rId86" display="#41"/>
+    <hyperlink ref="B96" r:id="rId87" display="#42"/>
+    <hyperlink ref="B97" r:id="rId88" display="#1566"/>
+    <hyperlink ref="B98" r:id="rId89" display="#1565"/>
+    <hyperlink ref="B99" r:id="rId90" display="#1046"/>
+    <hyperlink ref="B100" r:id="rId91" display="#1559"/>
+    <hyperlink ref="B101" r:id="rId92" display="#1038"/>
+    <hyperlink ref="B102" r:id="rId93" display="#1037"/>
+    <hyperlink ref="B103" r:id="rId94" display="#1020"/>
+    <hyperlink ref="B104" r:id="rId95" display="#1032"/>
+    <hyperlink ref="B105" r:id="rId96" display="#1546"/>
+    <hyperlink ref="B106" r:id="rId97" display="#1027"/>
+    <hyperlink ref="B107" r:id="rId98" display="#1529"/>
+    <hyperlink ref="B109" r:id="rId99" display="#1527"/>
+    <hyperlink ref="B110" r:id="rId100" display="#558"/>
+    <hyperlink ref="B111" r:id="rId101" display="#1005"/>
+    <hyperlink ref="B112" r:id="rId102" display="#1020"/>
+    <hyperlink ref="B113" r:id="rId103" display="#993"/>
+    <hyperlink ref="B114" r:id="rId104" display="#1520"/>
+    <hyperlink ref="B115" r:id="rId105" display="#1519"/>
+    <hyperlink ref="B116" r:id="rId106" display="#969"/>
+    <hyperlink ref="B117" r:id="rId107" display="#1003"/>
+    <hyperlink ref="B118" r:id="rId108" display="#1015"/>
+    <hyperlink ref="B119" r:id="rId109" display="#1002"/>
+    <hyperlink ref="B120" r:id="rId110" display="#1471"/>
+    <hyperlink ref="B121" r:id="rId111" display="#1497"/>
+    <hyperlink ref="B122" r:id="rId112" display="#947"/>
+    <hyperlink ref="B123" r:id="rId113" display="#933"/>
+    <hyperlink ref="B124" r:id="rId114" display="#932"/>
+    <hyperlink ref="B125" r:id="rId115" display="#931"/>
+    <hyperlink ref="B126" r:id="rId116" display="#987"/>
+    <hyperlink ref="B127" r:id="rId117" display="#988"/>
+    <hyperlink ref="B128" r:id="rId118" display="#982"/>
+    <hyperlink ref="B129" r:id="rId119" display="#979"/>
+    <hyperlink ref="B130" r:id="rId120" display="#977"/>
+    <hyperlink ref="B131" r:id="rId121" display="#975"/>
+    <hyperlink ref="B132" r:id="rId122" display="#1445"/>
+    <hyperlink ref="B133" r:id="rId123" display="#1444"/>
+    <hyperlink ref="B134" r:id="rId124" display="#1427"/>
+    <hyperlink ref="B136" r:id="rId125" display="#23"/>
+    <hyperlink ref="B137" r:id="rId126" display="#22"/>
+    <hyperlink ref="B138" r:id="rId127" display="#18"/>
+    <hyperlink ref="B139" r:id="rId128" display="#1207"/>
+    <hyperlink ref="B140" r:id="rId129" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4813,7 +4898,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId128"/>
+  <drawing r:id="rId130"/>
 </worksheet>
 </file>
 
@@ -4846,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4858,10 +4943,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -13,8 +13,8 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$140</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$141</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A:$F</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="314">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t xml:space="preserve">Project not loaded if it contains DTD internal entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate JSON format stastics file when save</t>
   </si>
   <si>
     <t xml:space="preserve">#1161</t>
@@ -1185,7 +1191,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1201,7 +1207,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EEF2"/>
-        <bgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1225,7 +1231,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1244,6 +1250,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
         <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFD9EEF2"/>
       </patternFill>
     </fill>
   </fills>
@@ -1340,10 +1352,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1393,6 +1401,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1539,11 +1551,11 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFDDE8CB"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFFD7D7"/>
-      <rgbColor rgb="FFAFD095"/>
-      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1745,12 +1757,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ142"/>
+  <dimension ref="A1:AMJ143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
@@ -1855,7 +1867,7 @@
       <c r="E5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG5" s="0"/>
@@ -1879,7 +1891,7 @@
       <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG6" s="0"/>
@@ -1903,7 +1915,7 @@
       <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG7" s="0"/>
@@ -1927,7 +1939,7 @@
       <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AMG8" s="0"/>
@@ -1951,7 +1963,7 @@
       <c r="E9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG9" s="0"/>
@@ -1975,7 +1987,7 @@
       <c r="E10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG10" s="0"/>
@@ -1984,7 +1996,7 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="13" t="n">
         <v>45488</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1993,13 +2005,13 @@
       <c r="C11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG11" s="0"/>
@@ -2008,7 +2020,7 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="13" t="n">
         <v>45483</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2017,13 +2029,13 @@
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG12" s="0"/>
@@ -2032,7 +2044,7 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="13" t="n">
         <v>45469</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2041,13 +2053,13 @@
       <c r="C13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AMG13" s="0"/>
@@ -2056,7 +2068,7 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="13" t="n">
         <v>45784</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2065,13 +2077,13 @@
       <c r="C14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG14" s="0"/>
@@ -2080,7 +2092,7 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="13" t="n">
         <v>45411</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2089,13 +2101,13 @@
       <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="AMG15" s="0"/>
@@ -2104,7 +2116,7 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="13" t="n">
         <v>45394</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2113,7 +2125,7 @@
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -2143,7 +2155,7 @@
       <c r="E17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>32</v>
       </c>
       <c r="AMG17" s="0"/>
@@ -2161,7 +2173,7 @@
       <c r="C18" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
@@ -2203,7 +2215,7 @@
       <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="AMG20" s="0"/>
@@ -2221,13 +2233,13 @@
       <c r="C21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG21" s="0"/>
@@ -2251,7 +2263,7 @@
       <c r="E22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG22" s="0"/>
@@ -2299,7 +2311,7 @@
       <c r="E24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="17" t="s">
         <v>79</v>
       </c>
       <c r="AMG24" s="0"/>
@@ -2323,7 +2335,7 @@
       <c r="E25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG25" s="0"/>
@@ -2428,22 +2440,22 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="n">
+      <c r="A30" s="18" t="n">
         <v>45169</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>91</v>
       </c>
       <c r="AMG30" s="0"/>
@@ -2452,22 +2464,22 @@
       <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="n">
+      <c r="A31" s="18" t="n">
         <v>45145</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>93</v>
       </c>
       <c r="AMG31" s="0"/>
@@ -2491,7 +2503,7 @@
       <c r="E32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>32</v>
       </c>
       <c r="AMG32" s="0"/>
@@ -2515,7 +2527,7 @@
       <c r="E33" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="AMG33" s="0"/>
@@ -2557,7 +2569,7 @@
       <c r="E35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG35" s="0"/>
@@ -2581,7 +2593,7 @@
       <c r="E36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG36" s="0"/>
@@ -2605,7 +2617,7 @@
       <c r="E37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG37" s="0"/>
@@ -2629,7 +2641,7 @@
       <c r="E38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG38" s="0"/>
@@ -2653,7 +2665,7 @@
       <c r="E39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>36</v>
       </c>
       <c r="AMG39" s="0"/>
@@ -2701,7 +2713,7 @@
       <c r="E41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>114</v>
       </c>
       <c r="AMG41" s="0"/>
@@ -2749,7 +2761,7 @@
       <c r="E43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="23" t="s">
         <v>120</v>
       </c>
       <c r="AMG43" s="0"/>
@@ -2821,7 +2833,7 @@
       <c r="E46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>32</v>
       </c>
       <c r="AMG46" s="0"/>
@@ -2836,7 +2848,7 @@
       <c r="B47" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>116</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -2877,9 +2889,9 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>131</v>
@@ -2891,19 +2903,19 @@
         <v>132</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>133</v>
@@ -2915,10 +2927,10 @@
         <v>134</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
@@ -2927,13 +2939,19 @@
     </row>
     <row r="51" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>32</v>
@@ -2945,19 +2963,14 @@
     </row>
     <row r="52" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>136</v>
-      </c>
+        <v>44996</v>
+      </c>
+      <c r="B52" s="26"/>
       <c r="C52" s="11" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>32</v>
@@ -2967,9 +2980,9 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>138</v>
@@ -2983,8 +2996,8 @@
       <c r="E53" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>114</v>
+      <c r="F53" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
@@ -3007,7 +3020,7 @@
       <c r="E54" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>114</v>
       </c>
       <c r="AMG54" s="0"/>
@@ -3017,22 +3030,22 @@
     </row>
     <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>143</v>
+      <c r="F55" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
@@ -3041,22 +3054,22 @@
     </row>
     <row r="56" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="E56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="AMG56" s="0"/>
       <c r="AMH56" s="0"/>
@@ -3065,22 +3078,22 @@
     </row>
     <row r="57" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
-        <v>44973</v>
+        <v>44981</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>147</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="AMG57" s="0"/>
       <c r="AMH57" s="0"/>
@@ -3088,47 +3101,47 @@
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B58" s="20" t="s">
+      <c r="A58" s="9" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="21" t="s">
+      <c r="C58" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>91</v>
+      <c r="F58" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="AMG58" s="0"/>
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B59" s="29" t="s">
+    <row r="59" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>44</v>
+      <c r="E59" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
@@ -3137,22 +3150,22 @@
     </row>
     <row r="60" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B60" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>36</v>
+      <c r="F60" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
@@ -3161,22 +3174,22 @@
     </row>
     <row r="61" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B61" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>114</v>
+      <c r="F61" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
@@ -3185,21 +3198,21 @@
     </row>
     <row r="62" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B62" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="26" t="s">
+      <c r="C62" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="22" t="s">
         <v>114</v>
       </c>
       <c r="AMG62" s="0"/>
@@ -3214,17 +3227,17 @@
       <c r="B63" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C63" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="26" t="s">
+      <c r="C63" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="12" t="s">
-        <v>32</v>
+      <c r="F63" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="AMG63" s="0"/>
       <c r="AMH63" s="0"/>
@@ -3232,23 +3245,23 @@
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="28" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B64" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="26" t="s">
+      <c r="C64" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>36</v>
+      <c r="E64" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
@@ -3256,23 +3269,23 @@
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B65" s="29" t="s">
+      <c r="A65" s="30" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B65" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D65" s="26" t="s">
+      <c r="C65" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>32</v>
+      <c r="E65" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="AMG65" s="0"/>
       <c r="AMH65" s="0"/>
@@ -3281,19 +3294,19 @@
     </row>
     <row r="66" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B66" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="C66" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="26" t="s">
+      <c r="C66" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="26" t="s">
-        <v>165</v>
+      <c r="E66" s="25" t="s">
+        <v>39</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>32</v>
@@ -3303,36 +3316,48 @@
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
     </row>
-    <row r="67" s="26" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B67" s="32" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="26" t="s">
+      <c r="E67" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E67" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>36</v>
+      <c r="F67" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
+    <row r="68" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="28" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B68" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>29</v>
+      <c r="C68" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
@@ -3340,46 +3365,34 @@
       <c r="AMJ68" s="0"/>
     </row>
     <row r="69" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="28" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="A69" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>44</v>
+      <c r="F69" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG69" s="0"/>
       <c r="AMH69" s="0"/>
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
     </row>
-    <row r="70" s="26" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="28" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B70" s="29" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B70" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="26" t="s">
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F70" s="26" t="s">
+      <c r="E70" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AMG70" s="0"/>
@@ -3387,24 +3400,24 @@
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
     </row>
-    <row r="71" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B71" s="33" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B71" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>114</v>
+      <c r="E71" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="AMG71" s="0"/>
       <c r="AMH71" s="0"/>
@@ -3413,7 +3426,7 @@
     </row>
     <row r="72" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B72" s="33" t="s">
         <v>175</v>
@@ -3425,113 +3438,117 @@
         <v>176</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="AMG72" s="0"/>
       <c r="AMH72" s="0"/>
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B73" s="34" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="AMG73" s="0"/>
+      <c r="AMH73" s="0"/>
+      <c r="AMI73" s="0"/>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B74" s="33" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B74" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="n">
-        <v>44743</v>
+        <v>373466</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>32</v>
+        <v>183</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="28" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>183</v>
+        <v>44743</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>36</v>
+      <c r="F76" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B77" s="36" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B78" s="36" t="s">
         <v>187</v>
@@ -3543,77 +3560,77 @@
         <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F78" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B79" s="37" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B79" s="36" t="s">
         <v>189</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="30" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B80" s="38" t="s">
+      <c r="A80" s="28" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B80" s="37" t="s">
         <v>191</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B81" s="36" t="s">
+      <c r="A81" s="30" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>120</v>
+        <v>167</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="28" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B82" s="33" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B82" s="36" t="s">
         <v>195</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3623,10 +3640,10 @@
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +3660,7 @@
         <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>32</v>
@@ -3651,7 +3668,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="28" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>199</v>
@@ -3663,15 +3680,15 @@
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>201</v>
@@ -3683,57 +3700,57 @@
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="28" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B86" s="33" t="s">
         <v>203</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>205</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B88" s="36" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B88" s="33" t="s">
         <v>207</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3743,60 +3760,60 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B89" s="33" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B89" s="36" t="s">
         <v>209</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="28" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="28" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="F90" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>214</v>
@@ -3808,10 +3825,10 @@
         <v>215</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,24 +3836,24 @@
         <v>44460</v>
       </c>
       <c r="B93" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="28" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>219</v>
@@ -3850,35 +3867,35 @@
       <c r="E94" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>44</v>
+      <c r="F94" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>221</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="30" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B96" s="39" t="s">
+      <c r="A96" s="28" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B96" s="33" t="s">
         <v>223</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3888,35 +3905,35 @@
         <v>224</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="28" t="n">
+      <c r="A97" s="30" t="n">
         <v>44325</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="39" t="s">
         <v>225</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>226</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>227</v>
@@ -3928,15 +3945,15 @@
         <v>228</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>114</v>
+        <v>23</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>229</v>
@@ -3948,37 +3965,37 @@
         <v>230</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>231</v>
+        <v>39</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B100" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B101" s="33" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>234</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3988,15 +4005,15 @@
         <v>235</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="28" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>236</v>
@@ -4008,57 +4025,57 @@
         <v>237</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="40" t="n">
+      <c r="A103" s="28" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="40" t="n">
         <v>44231</v>
       </c>
-      <c r="B103" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103" s="42" t="s">
+      <c r="B104" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104" s="42" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="28" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B104" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B105" s="36" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B105" s="33" t="s">
         <v>241</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -4068,17 +4085,17 @@
         <v>242</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B106" s="33" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B106" s="36" t="s">
         <v>243</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -4088,10 +4105,10 @@
         <v>244</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,40 +4125,40 @@
         <v>246</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="28" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B109" s="33" t="s">
+    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="28" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B108" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F109" s="5" t="s">
+      <c r="E108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="28" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>249</v>
@@ -4150,124 +4167,124 @@
         <v>7</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="40" t="n">
+      <c r="A111" s="28" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="40" t="n">
         <v>44146</v>
       </c>
-      <c r="B111" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="42" t="s">
+      <c r="B112" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="C112" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E111" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F111" s="42" t="s">
+      <c r="D112" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F112" s="42" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="28" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="40" t="n">
+      <c r="A114" s="28" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="40" t="n">
         <v>44095</v>
       </c>
-      <c r="B114" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="E114" s="42" t="s">
+      <c r="B115" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F114" s="42" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="28" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>32</v>
+      <c r="F115" s="42" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B116" s="33" t="s">
         <v>259</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>260</v>
@@ -4275,33 +4292,33 @@
       <c r="E116" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>216</v>
+      <c r="F116" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="28" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>261</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>262</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B118" s="33" t="s">
         <v>263</v>
@@ -4313,15 +4330,15 @@
         <v>264</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>265</v>
@@ -4333,15 +4350,15 @@
         <v>266</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="28" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>267</v>
@@ -4353,15 +4370,15 @@
         <v>268</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>269</v>
@@ -4373,7 +4390,7 @@
         <v>270</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>44</v>
@@ -4381,19 +4398,19 @@
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="28" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>271</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>44</v>
@@ -4401,7 +4418,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="28" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>273</v>
@@ -4413,15 +4430,15 @@
         <v>274</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="28" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>275</v>
@@ -4433,15 +4450,15 @@
         <v>276</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>36</v>
+        <v>167</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>277</v>
@@ -4453,27 +4470,27 @@
         <v>278</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F125" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>279</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>280</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>44</v>
@@ -4481,7 +4498,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>281</v>
@@ -4493,15 +4510,15 @@
         <v>282</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>283</v>
@@ -4513,15 +4530,15 @@
         <v>284</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>44</v>
+        <v>167</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>285</v>
@@ -4533,7 +4550,7 @@
         <v>286</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>44</v>
@@ -4553,7 +4570,7 @@
         <v>288</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>44</v>
@@ -4561,7 +4578,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>289</v>
@@ -4573,7 +4590,7 @@
         <v>290</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>44</v>
@@ -4581,7 +4598,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>291</v>
@@ -4593,7 +4610,7 @@
         <v>292</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>44</v>
@@ -4621,9 +4638,9 @@
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B134" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B134" s="33" t="s">
         <v>295</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -4639,29 +4656,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="28" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B136" s="43" t="s">
+    <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="28" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="C135" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>36</v>
+      <c r="E135" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4678,55 +4695,55 @@
         <v>300</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>301</v>
+        <v>167</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D138" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F138" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="28" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B139" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B139" s="43" t="s">
         <v>304</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>305</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="28" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>306</v>
@@ -4738,21 +4755,41 @@
         <v>307</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="142" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG142" s="0"/>
-      <c r="AMH142" s="0"/>
-      <c r="AMI142" s="0"/>
-      <c r="AMJ142" s="0"/>
+    <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="28" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG143" s="0"/>
+      <c r="AMH143" s="0"/>
+      <c r="AMI143" s="0"/>
+      <c r="AMJ143" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A:F"/>
-  <conditionalFormatting sqref="F91:F1048576 F1:F89">
+  <autoFilter ref="A1:F141"/>
+  <conditionalFormatting sqref="F92:F1048576 F1:F90">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
     </cfRule>
@@ -4804,92 +4841,93 @@
     <hyperlink ref="B46" r:id="rId41" display="#1164"/>
     <hyperlink ref="B47" r:id="rId42" display="#9"/>
     <hyperlink ref="B48" r:id="rId43" display="#1163"/>
-    <hyperlink ref="B49" r:id="rId44" display="#1161"/>
-    <hyperlink ref="B50" r:id="rId45" display="#1690"/>
-    <hyperlink ref="B52" r:id="rId46" display="#1155"/>
-    <hyperlink ref="B53" r:id="rId47" display="#1150"/>
-    <hyperlink ref="B54" r:id="rId48" display="#1151"/>
-    <hyperlink ref="B55" r:id="rId49" display="#1200"/>
-    <hyperlink ref="B56" r:id="rId50" display="#1681"/>
-    <hyperlink ref="B57" r:id="rId51" display="#51"/>
-    <hyperlink ref="B58" r:id="rId52" display="#1142"/>
-    <hyperlink ref="B59" r:id="rId53" display="#8"/>
-    <hyperlink ref="B60" r:id="rId54" display="#1674"/>
-    <hyperlink ref="B61" r:id="rId55" display="#1672"/>
-    <hyperlink ref="B62" r:id="rId56" display="#1669"/>
-    <hyperlink ref="B63" r:id="rId57" display="#1670"/>
-    <hyperlink ref="B64" r:id="rId58" display="#1184"/>
-    <hyperlink ref="B65" r:id="rId59" display="#49"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1140"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1132"/>
-    <hyperlink ref="B69" r:id="rId62" display="#1125"/>
-    <hyperlink ref="B70" r:id="rId63" display="#1641"/>
-    <hyperlink ref="B71" r:id="rId64" display="#1124"/>
-    <hyperlink ref="B72" r:id="rId65" display="#1122"/>
-    <hyperlink ref="B73" r:id="rId66" display="#43"/>
-    <hyperlink ref="B74" r:id="rId67" display="#1622"/>
-    <hyperlink ref="B76" r:id="rId68" display="#38"/>
-    <hyperlink ref="B77" r:id="rId69" display="#1621"/>
-    <hyperlink ref="B78" r:id="rId70" display="#1616"/>
-    <hyperlink ref="B79" r:id="rId71" display="#37"/>
-    <hyperlink ref="B80" r:id="rId72" display="#36"/>
-    <hyperlink ref="B81" r:id="rId73" display="#1101"/>
-    <hyperlink ref="B82" r:id="rId74" display="#1099"/>
-    <hyperlink ref="B83" r:id="rId75" display="#1098"/>
-    <hyperlink ref="B84" r:id="rId76" display="#1617"/>
-    <hyperlink ref="B85" r:id="rId77" display="#1092"/>
-    <hyperlink ref="B86" r:id="rId78" display="#1128"/>
-    <hyperlink ref="B87" r:id="rId79" display="#1090"/>
-    <hyperlink ref="B88" r:id="rId80" display="#1608"/>
-    <hyperlink ref="B89" r:id="rId81" display="#35"/>
-    <hyperlink ref="B91" r:id="rId82" display="#1070"/>
-    <hyperlink ref="B92" r:id="rId83" display="#1592"/>
-    <hyperlink ref="B93" r:id="rId84" display="#1591"/>
-    <hyperlink ref="B94" r:id="rId85" display="#1578"/>
-    <hyperlink ref="B95" r:id="rId86" display="#41"/>
-    <hyperlink ref="B96" r:id="rId87" display="#42"/>
-    <hyperlink ref="B97" r:id="rId88" display="#1566"/>
-    <hyperlink ref="B98" r:id="rId89" display="#1565"/>
-    <hyperlink ref="B99" r:id="rId90" display="#1046"/>
-    <hyperlink ref="B100" r:id="rId91" display="#1559"/>
-    <hyperlink ref="B101" r:id="rId92" display="#1038"/>
-    <hyperlink ref="B102" r:id="rId93" display="#1037"/>
-    <hyperlink ref="B103" r:id="rId94" display="#1020"/>
-    <hyperlink ref="B104" r:id="rId95" display="#1032"/>
-    <hyperlink ref="B105" r:id="rId96" display="#1546"/>
-    <hyperlink ref="B106" r:id="rId97" display="#1027"/>
-    <hyperlink ref="B107" r:id="rId98" display="#1529"/>
-    <hyperlink ref="B109" r:id="rId99" display="#1527"/>
-    <hyperlink ref="B110" r:id="rId100" display="#558"/>
-    <hyperlink ref="B111" r:id="rId101" display="#1005"/>
-    <hyperlink ref="B112" r:id="rId102" display="#1020"/>
-    <hyperlink ref="B113" r:id="rId103" display="#993"/>
-    <hyperlink ref="B114" r:id="rId104" display="#1520"/>
-    <hyperlink ref="B115" r:id="rId105" display="#1519"/>
-    <hyperlink ref="B116" r:id="rId106" display="#969"/>
-    <hyperlink ref="B117" r:id="rId107" display="#1003"/>
-    <hyperlink ref="B118" r:id="rId108" display="#1015"/>
-    <hyperlink ref="B119" r:id="rId109" display="#1002"/>
-    <hyperlink ref="B120" r:id="rId110" display="#1471"/>
-    <hyperlink ref="B121" r:id="rId111" display="#1497"/>
-    <hyperlink ref="B122" r:id="rId112" display="#947"/>
-    <hyperlink ref="B123" r:id="rId113" display="#933"/>
-    <hyperlink ref="B124" r:id="rId114" display="#932"/>
-    <hyperlink ref="B125" r:id="rId115" display="#931"/>
-    <hyperlink ref="B126" r:id="rId116" display="#987"/>
-    <hyperlink ref="B127" r:id="rId117" display="#988"/>
-    <hyperlink ref="B128" r:id="rId118" display="#982"/>
-    <hyperlink ref="B129" r:id="rId119" display="#979"/>
-    <hyperlink ref="B130" r:id="rId120" display="#977"/>
-    <hyperlink ref="B131" r:id="rId121" display="#975"/>
-    <hyperlink ref="B132" r:id="rId122" display="#1445"/>
-    <hyperlink ref="B133" r:id="rId123" display="#1444"/>
-    <hyperlink ref="B134" r:id="rId124" display="#1427"/>
-    <hyperlink ref="B136" r:id="rId125" display="#23"/>
-    <hyperlink ref="B137" r:id="rId126" display="#22"/>
-    <hyperlink ref="B138" r:id="rId127" display="#18"/>
-    <hyperlink ref="B139" r:id="rId128" display="#1207"/>
-    <hyperlink ref="B140" r:id="rId129" display="#245"/>
+    <hyperlink ref="B49" r:id="rId44" display="#1695"/>
+    <hyperlink ref="B50" r:id="rId45" display="#1161"/>
+    <hyperlink ref="B51" r:id="rId46" display="#1690"/>
+    <hyperlink ref="B53" r:id="rId47" display="#1155"/>
+    <hyperlink ref="B54" r:id="rId48" display="#1150"/>
+    <hyperlink ref="B55" r:id="rId49" display="#1151"/>
+    <hyperlink ref="B56" r:id="rId50" display="#1200"/>
+    <hyperlink ref="B57" r:id="rId51" display="#1681"/>
+    <hyperlink ref="B58" r:id="rId52" display="#51"/>
+    <hyperlink ref="B59" r:id="rId53" display="#1142"/>
+    <hyperlink ref="B60" r:id="rId54" display="#8"/>
+    <hyperlink ref="B61" r:id="rId55" display="#1674"/>
+    <hyperlink ref="B62" r:id="rId56" display="#1672"/>
+    <hyperlink ref="B63" r:id="rId57" display="#1669"/>
+    <hyperlink ref="B64" r:id="rId58" display="#1670"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1184"/>
+    <hyperlink ref="B66" r:id="rId60" display="#49"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1140"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1132"/>
+    <hyperlink ref="B70" r:id="rId63" display="#1125"/>
+    <hyperlink ref="B71" r:id="rId64" display="#1641"/>
+    <hyperlink ref="B72" r:id="rId65" display="#1124"/>
+    <hyperlink ref="B73" r:id="rId66" display="#1122"/>
+    <hyperlink ref="B74" r:id="rId67" display="#43"/>
+    <hyperlink ref="B75" r:id="rId68" display="#1622"/>
+    <hyperlink ref="B77" r:id="rId69" display="#38"/>
+    <hyperlink ref="B78" r:id="rId70" display="#1621"/>
+    <hyperlink ref="B79" r:id="rId71" display="#1616"/>
+    <hyperlink ref="B80" r:id="rId72" display="#37"/>
+    <hyperlink ref="B81" r:id="rId73" display="#36"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1101"/>
+    <hyperlink ref="B83" r:id="rId75" display="#1099"/>
+    <hyperlink ref="B84" r:id="rId76" display="#1098"/>
+    <hyperlink ref="B85" r:id="rId77" display="#1617"/>
+    <hyperlink ref="B86" r:id="rId78" display="#1092"/>
+    <hyperlink ref="B87" r:id="rId79" display="#1128"/>
+    <hyperlink ref="B88" r:id="rId80" display="#1090"/>
+    <hyperlink ref="B89" r:id="rId81" display="#1608"/>
+    <hyperlink ref="B90" r:id="rId82" display="#35"/>
+    <hyperlink ref="B92" r:id="rId83" display="#1070"/>
+    <hyperlink ref="B93" r:id="rId84" display="#1592"/>
+    <hyperlink ref="B94" r:id="rId85" display="#1591"/>
+    <hyperlink ref="B95" r:id="rId86" display="#1578"/>
+    <hyperlink ref="B96" r:id="rId87" display="#41"/>
+    <hyperlink ref="B97" r:id="rId88" display="#42"/>
+    <hyperlink ref="B98" r:id="rId89" display="#1566"/>
+    <hyperlink ref="B99" r:id="rId90" display="#1565"/>
+    <hyperlink ref="B100" r:id="rId91" display="#1046"/>
+    <hyperlink ref="B101" r:id="rId92" display="#1559"/>
+    <hyperlink ref="B102" r:id="rId93" display="#1038"/>
+    <hyperlink ref="B103" r:id="rId94" display="#1037"/>
+    <hyperlink ref="B104" r:id="rId95" display="#1020"/>
+    <hyperlink ref="B105" r:id="rId96" display="#1032"/>
+    <hyperlink ref="B106" r:id="rId97" display="#1546"/>
+    <hyperlink ref="B107" r:id="rId98" display="#1027"/>
+    <hyperlink ref="B108" r:id="rId99" display="#1529"/>
+    <hyperlink ref="B110" r:id="rId100" display="#1527"/>
+    <hyperlink ref="B111" r:id="rId101" display="#558"/>
+    <hyperlink ref="B112" r:id="rId102" display="#1005"/>
+    <hyperlink ref="B113" r:id="rId103" display="#1020"/>
+    <hyperlink ref="B114" r:id="rId104" display="#993"/>
+    <hyperlink ref="B115" r:id="rId105" display="#1520"/>
+    <hyperlink ref="B116" r:id="rId106" display="#1519"/>
+    <hyperlink ref="B117" r:id="rId107" display="#969"/>
+    <hyperlink ref="B118" r:id="rId108" display="#1003"/>
+    <hyperlink ref="B119" r:id="rId109" display="#1015"/>
+    <hyperlink ref="B120" r:id="rId110" display="#1002"/>
+    <hyperlink ref="B121" r:id="rId111" display="#1471"/>
+    <hyperlink ref="B122" r:id="rId112" display="#1497"/>
+    <hyperlink ref="B123" r:id="rId113" display="#947"/>
+    <hyperlink ref="B124" r:id="rId114" display="#933"/>
+    <hyperlink ref="B125" r:id="rId115" display="#932"/>
+    <hyperlink ref="B126" r:id="rId116" display="#931"/>
+    <hyperlink ref="B127" r:id="rId117" display="#987"/>
+    <hyperlink ref="B128" r:id="rId118" display="#988"/>
+    <hyperlink ref="B129" r:id="rId119" display="#982"/>
+    <hyperlink ref="B130" r:id="rId120" display="#979"/>
+    <hyperlink ref="B131" r:id="rId121" display="#977"/>
+    <hyperlink ref="B132" r:id="rId122" display="#975"/>
+    <hyperlink ref="B133" r:id="rId123" display="#1445"/>
+    <hyperlink ref="B134" r:id="rId124" display="#1444"/>
+    <hyperlink ref="B135" r:id="rId125" display="#1427"/>
+    <hyperlink ref="B137" r:id="rId126" display="#23"/>
+    <hyperlink ref="B138" r:id="rId127" display="#22"/>
+    <hyperlink ref="B139" r:id="rId128" display="#18"/>
+    <hyperlink ref="B140" r:id="rId129" display="#1207"/>
+    <hyperlink ref="B141" r:id="rId130" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4898,7 +4936,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId130"/>
+  <drawing r:id="rId131"/>
 </worksheet>
 </file>
 
@@ -4931,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4943,10 +4981,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tickets/OmegaT_issues_nopw.xlsx
+++ b/tools/tickets/OmegaT_issues_nopw.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="322">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrated</t>
   </si>
   <si>
     <t xml:space="preserve">#30</t>
@@ -1866,15 +1869,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ149"/>
+  <dimension ref="A1:AMN149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
@@ -1914,8 +1917,12 @@
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
+      <c r="AMK1" s="0"/>
+      <c r="AML1" s="0"/>
+      <c r="AMM1" s="0"/>
+      <c r="AMN1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
@@ -1926,6 +1933,10 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
+      <c r="AMK2" s="0"/>
+      <c r="AML2" s="0"/>
+      <c r="AMM2" s="0"/>
+      <c r="AMN2" s="0"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
@@ -1938,8 +1949,12 @@
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
+      <c r="AMK3" s="0"/>
+      <c r="AML3" s="0"/>
+      <c r="AMM3" s="0"/>
+      <c r="AMN3" s="0"/>
     </row>
-    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
         <v>45849</v>
       </c>
@@ -1962,8 +1977,12 @@
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
+      <c r="AMK4" s="0"/>
+      <c r="AML4" s="0"/>
+      <c r="AMM4" s="0"/>
+      <c r="AMN4" s="0"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
         <v>45849</v>
       </c>
@@ -1986,6 +2005,10 @@
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
+      <c r="AMK5" s="0"/>
+      <c r="AML5" s="0"/>
+      <c r="AMM5" s="0"/>
+      <c r="AMN5" s="0"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -2010,8 +2033,12 @@
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
+      <c r="AMK6" s="0"/>
+      <c r="AML6" s="0"/>
+      <c r="AMM6" s="0"/>
+      <c r="AMN6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
         <v>45814</v>
       </c>
@@ -3045,7 +3072,7 @@
       <c r="AME7" s="8"/>
       <c r="AMF7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
         <v>45677</v>
       </c>
@@ -4079,7 +4106,7 @@
       <c r="AME8" s="8"/>
       <c r="AMF8" s="8"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -4090,8 +4117,12 @@
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
+      <c r="AMK9" s="0"/>
+      <c r="AML9" s="0"/>
+      <c r="AMM9" s="0"/>
+      <c r="AMN9" s="0"/>
     </row>
-    <row r="10" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>45629</v>
       </c>
@@ -4114,8 +4145,12 @@
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
+      <c r="AMK10" s="0"/>
+      <c r="AML10" s="0"/>
+      <c r="AMM10" s="0"/>
+      <c r="AMN10" s="0"/>
     </row>
-    <row r="11" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
         <v>45609</v>
       </c>
@@ -4138,8 +4173,12 @@
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
+      <c r="AMK11" s="0"/>
+      <c r="AML11" s="0"/>
+      <c r="AMM11" s="0"/>
+      <c r="AMN11" s="0"/>
     </row>
-    <row r="12" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
         <v>45604</v>
       </c>
@@ -4162,8 +4201,12 @@
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
+      <c r="AMK12" s="0"/>
+      <c r="AML12" s="0"/>
+      <c r="AMM12" s="0"/>
+      <c r="AMN12" s="0"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
         <v>45568</v>
       </c>
@@ -4186,8 +4229,12 @@
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
+      <c r="AMK13" s="0"/>
+      <c r="AML13" s="0"/>
+      <c r="AMM13" s="0"/>
+      <c r="AMN13" s="0"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
         <v>45563</v>
       </c>
@@ -5224,8 +5271,12 @@
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
+      <c r="AMK14" s="0"/>
+      <c r="AML14" s="0"/>
+      <c r="AMM14" s="0"/>
+      <c r="AMN14" s="0"/>
     </row>
-    <row r="15" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
         <v>45488</v>
       </c>
@@ -5248,8 +5299,12 @@
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
+      <c r="AMK15" s="0"/>
+      <c r="AML15" s="0"/>
+      <c r="AMM15" s="0"/>
+      <c r="AMN15" s="0"/>
     </row>
-    <row r="16" s="11" customFormat="true" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="11" customFormat="true" ht="11.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
         <v>45488</v>
       </c>
@@ -6286,8 +6341,12 @@
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
+      <c r="AMK16" s="0"/>
+      <c r="AML16" s="0"/>
+      <c r="AMM16" s="0"/>
+      <c r="AMN16" s="0"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>45483</v>
       </c>
@@ -6310,8 +6369,12 @@
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
+      <c r="AMK17" s="0"/>
+      <c r="AML17" s="0"/>
+      <c r="AMM17" s="0"/>
+      <c r="AMN17" s="0"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>45469</v>
       </c>
@@ -6334,8 +6397,12 @@
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
+      <c r="AMK18" s="0"/>
+      <c r="AML18" s="0"/>
+      <c r="AMM18" s="0"/>
+      <c r="AMN18" s="0"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
         <v>45784</v>
       </c>
@@ -6358,8 +6425,12 @@
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
+      <c r="AMK19" s="0"/>
+      <c r="AML19" s="0"/>
+      <c r="AMM19" s="0"/>
+      <c r="AMN19" s="0"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
         <v>45411</v>
       </c>
@@ -6382,8 +6453,12 @@
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
+      <c r="AMK20" s="0"/>
+      <c r="AML20" s="0"/>
+      <c r="AMM20" s="0"/>
+      <c r="AMN20" s="0"/>
     </row>
-    <row r="21" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>45394</v>
       </c>
@@ -7420,8 +7495,12 @@
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
+      <c r="AMK21" s="0"/>
+      <c r="AML21" s="0"/>
+      <c r="AMM21" s="0"/>
+      <c r="AMN21" s="0"/>
     </row>
-    <row r="22" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
         <v>45390</v>
       </c>
@@ -7444,8 +7523,12 @@
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
+      <c r="AMK22" s="0"/>
+      <c r="AML22" s="0"/>
+      <c r="AMM22" s="0"/>
+      <c r="AMN22" s="0"/>
     </row>
-    <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
         <v>45365</v>
       </c>
@@ -7468,8 +7551,12 @@
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
+      <c r="AMK23" s="0"/>
+      <c r="AML23" s="0"/>
+      <c r="AMM23" s="0"/>
+      <c r="AMN23" s="0"/>
     </row>
-    <row r="24" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
         <v>45363</v>
       </c>
@@ -7492,8 +7579,12 @@
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
+      <c r="AMK24" s="0"/>
+      <c r="AML24" s="0"/>
+      <c r="AMM24" s="0"/>
+      <c r="AMN24" s="0"/>
     </row>
-    <row r="25" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -8522,8 +8613,12 @@
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
+      <c r="AMK25" s="0"/>
+      <c r="AML25" s="0"/>
+      <c r="AMM25" s="0"/>
+      <c r="AMN25" s="0"/>
     </row>
-    <row r="26" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="8" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
         <v>45238</v>
       </c>
@@ -9560,8 +9655,12 @@
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
+      <c r="AMK26" s="0"/>
+      <c r="AML26" s="0"/>
+      <c r="AMM26" s="0"/>
+      <c r="AMN26" s="0"/>
     </row>
-    <row r="27" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
         <v>45230</v>
       </c>
@@ -9584,8 +9683,12 @@
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
+      <c r="AMK27" s="0"/>
+      <c r="AML27" s="0"/>
+      <c r="AMM27" s="0"/>
+      <c r="AMN27" s="0"/>
     </row>
-    <row r="28" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
         <v>45223</v>
       </c>
@@ -9608,8 +9711,12 @@
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
+      <c r="AMK28" s="0"/>
+      <c r="AML28" s="0"/>
+      <c r="AMM28" s="0"/>
+      <c r="AMN28" s="0"/>
     </row>
-    <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
         <v>45236</v>
       </c>
@@ -9632,8 +9739,12 @@
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
+      <c r="AMK29" s="0"/>
+      <c r="AML29" s="0"/>
+      <c r="AMM29" s="0"/>
+      <c r="AMN29" s="0"/>
     </row>
-    <row r="30" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
         <v>45233</v>
       </c>
@@ -9656,8 +9767,12 @@
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
+      <c r="AMK30" s="0"/>
+      <c r="AML30" s="0"/>
+      <c r="AMM30" s="0"/>
+      <c r="AMN30" s="0"/>
     </row>
-    <row r="31" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
         <v>45213</v>
       </c>
@@ -9680,43 +9795,51 @@
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
+      <c r="AMK31" s="0"/>
+      <c r="AML31" s="0"/>
+      <c r="AMM31" s="0"/>
+      <c r="AMN31" s="0"/>
     </row>
-    <row r="32" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+    <row r="32" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="n">
         <v>45199</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>34</v>
+      <c r="F32" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
+      <c r="AMK32" s="0"/>
+      <c r="AML32" s="0"/>
+      <c r="AMM32" s="0"/>
+      <c r="AMN32" s="0"/>
     </row>
-    <row r="33" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
         <v>45170</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>33</v>
@@ -9728,19 +9851,23 @@
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
+      <c r="AMK33" s="0"/>
+      <c r="AML33" s="0"/>
+      <c r="AMM33" s="0"/>
+      <c r="AMN33" s="0"/>
     </row>
-    <row r="34" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
         <v>45169</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>33</v>
@@ -9752,13 +9879,17 @@
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
+      <c r="AMK34" s="0"/>
+      <c r="AML34" s="0"/>
+      <c r="AMM34" s="0"/>
+      <c r="AMN34" s="0"/>
     </row>
     <row r="35" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="18" t="n">
         <v>45169</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>7</v>
@@ -9770,19 +9901,23 @@
         <v>9</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
+      <c r="AMK35" s="0"/>
+      <c r="AML35" s="0"/>
+      <c r="AMM35" s="0"/>
+      <c r="AMN35" s="0"/>
     </row>
-    <row r="36" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="n">
         <v>45145</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>7</v>
@@ -9794,25 +9929,29 @@
         <v>9</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
+      <c r="AMK36" s="0"/>
+      <c r="AML36" s="0"/>
+      <c r="AMM36" s="0"/>
+      <c r="AMN36" s="0"/>
     </row>
-    <row r="37" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
         <v>45145</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>9</v>
@@ -9824,19 +9963,23 @@
       <c r="AMH37" s="0"/>
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
+      <c r="AMK37" s="0"/>
+      <c r="AML37" s="0"/>
+      <c r="AMM37" s="0"/>
+      <c r="AMN37" s="0"/>
     </row>
-    <row r="38" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
         <v>45145</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>9</v>
@@ -9848,8 +9991,12 @@
       <c r="AMH38" s="0"/>
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
+      <c r="AMK38" s="0"/>
+      <c r="AML38" s="0"/>
+      <c r="AMM38" s="0"/>
+      <c r="AMN38" s="0"/>
     </row>
-    <row r="39" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
         <v>45112</v>
       </c>
@@ -9857,7 +10004,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>43</v>
@@ -9866,19 +10013,23 @@
       <c r="AMH39" s="0"/>
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
+      <c r="AMK39" s="0"/>
+      <c r="AML39" s="0"/>
+      <c r="AMM39" s="0"/>
+      <c r="AMN39" s="0"/>
     </row>
-    <row r="40" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
         <v>45124</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>9</v>
@@ -9890,19 +10041,23 @@
       <c r="AMH40" s="0"/>
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
+      <c r="AMK40" s="0"/>
+      <c r="AML40" s="0"/>
+      <c r="AMM40" s="0"/>
+      <c r="AMN40" s="0"/>
     </row>
-    <row r="41" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
         <v>45119</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>33</v>
@@ -9914,19 +10069,23 @@
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
+      <c r="AMK41" s="0"/>
+      <c r="AML41" s="0"/>
+      <c r="AMM41" s="0"/>
+      <c r="AMN41" s="0"/>
     </row>
-    <row r="42" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
         <v>45119</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>33</v>
@@ -9938,19 +10097,23 @@
       <c r="AMH42" s="0"/>
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
+      <c r="AMK42" s="0"/>
+      <c r="AML42" s="0"/>
+      <c r="AMM42" s="0"/>
+      <c r="AMN42" s="0"/>
     </row>
-    <row r="43" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
         <v>45118</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>9</v>
@@ -9962,19 +10125,23 @@
       <c r="AMH43" s="0"/>
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
+      <c r="AMK43" s="0"/>
+      <c r="AML43" s="0"/>
+      <c r="AMM43" s="0"/>
+      <c r="AMN43" s="0"/>
     </row>
-    <row r="44" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
         <v>45118</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>9</v>
@@ -9986,19 +10153,23 @@
       <c r="AMH44" s="0"/>
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
+      <c r="AMK44" s="0"/>
+      <c r="AML44" s="0"/>
+      <c r="AMM44" s="0"/>
+      <c r="AMN44" s="0"/>
     </row>
-    <row r="45" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
         <v>45110</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>33</v>
@@ -10010,43 +10181,51 @@
       <c r="AMH45" s="0"/>
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
+      <c r="AMK45" s="0"/>
+      <c r="AML45" s="0"/>
+      <c r="AMM45" s="0"/>
+      <c r="AMN45" s="0"/>
     </row>
-    <row r="46" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
         <v>45104</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
+      <c r="AMK46" s="0"/>
+      <c r="AML46" s="0"/>
+      <c r="AMM46" s="0"/>
+      <c r="AMN46" s="0"/>
     </row>
-    <row r="47" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
         <v>45094</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>9</v>
@@ -10058,43 +10237,51 @@
       <c r="AMH47" s="0"/>
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
+      <c r="AMK47" s="0"/>
+      <c r="AML47" s="0"/>
+      <c r="AMM47" s="0"/>
+      <c r="AMN47" s="0"/>
     </row>
-    <row r="48" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
         <v>45069</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
+      <c r="AMK48" s="0"/>
+      <c r="AML48" s="0"/>
+      <c r="AMM48" s="0"/>
+      <c r="AMN48" s="0"/>
     </row>
-    <row r="49" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
         <v>45069</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>9</v>
@@ -10106,19 +10293,23 @@
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
+      <c r="AMK49" s="0"/>
+      <c r="AML49" s="0"/>
+      <c r="AMM49" s="0"/>
+      <c r="AMN49" s="0"/>
     </row>
-    <row r="50" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
         <v>45064</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>9</v>
@@ -10130,19 +10321,23 @@
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
+      <c r="AMK50" s="0"/>
+      <c r="AML50" s="0"/>
+      <c r="AMM50" s="0"/>
+      <c r="AMN50" s="0"/>
     </row>
-    <row r="51" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
         <v>45049</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>9</v>
@@ -10154,19 +10349,23 @@
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
+      <c r="AMK51" s="0"/>
+      <c r="AML51" s="0"/>
+      <c r="AMM51" s="0"/>
+      <c r="AMN51" s="0"/>
     </row>
-    <row r="52" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
         <v>45049</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>33</v>
@@ -10178,19 +10377,23 @@
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
+      <c r="AMK52" s="0"/>
+      <c r="AML52" s="0"/>
+      <c r="AMM52" s="0"/>
+      <c r="AMN52" s="0"/>
     </row>
-    <row r="53" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
         <v>45044</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>9</v>
@@ -10202,19 +10405,23 @@
       <c r="AMH53" s="0"/>
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
+      <c r="AMK53" s="0"/>
+      <c r="AML53" s="0"/>
+      <c r="AMM53" s="0"/>
+      <c r="AMN53" s="0"/>
     </row>
-    <row r="54" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
         <v>45041</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>33</v>
@@ -10226,19 +10433,23 @@
       <c r="AMH54" s="0"/>
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
+      <c r="AMK54" s="0"/>
+      <c r="AML54" s="0"/>
+      <c r="AMM54" s="0"/>
+      <c r="AMN54" s="0"/>
     </row>
-    <row r="55" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
         <v>45040</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>9</v>
@@ -10250,19 +10461,23 @@
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
+      <c r="AMK55" s="0"/>
+      <c r="AML55" s="0"/>
+      <c r="AMM55" s="0"/>
+      <c r="AMN55" s="0"/>
     </row>
-    <row r="56" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
         <v>45028</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>33</v>
@@ -10274,8 +10489,12 @@
       <c r="AMH56" s="0"/>
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
+      <c r="AMK56" s="0"/>
+      <c r="AML56" s="0"/>
+      <c r="AMM56" s="0"/>
+      <c r="AMN56" s="0"/>
     </row>
-    <row r="57" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
         <v>44996</v>
       </c>
@@ -10284,7 +10503,7 @@
         <v>31</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>43</v>
@@ -10293,19 +10512,23 @@
       <c r="AMH57" s="0"/>
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
+      <c r="AMK57" s="0"/>
+      <c r="AML57" s="0"/>
+      <c r="AMM57" s="0"/>
+      <c r="AMN57" s="0"/>
     </row>
-    <row r="58" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
         <v>45007</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>9</v>
@@ -10317,91 +10540,107 @@
       <c r="AMH58" s="0"/>
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
+      <c r="AMK58" s="0"/>
+      <c r="AML58" s="0"/>
+      <c r="AMM58" s="0"/>
+      <c r="AMN58" s="0"/>
     </row>
-    <row r="59" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="n">
         <v>44993</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AMG59" s="0"/>
       <c r="AMH59" s="0"/>
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
+      <c r="AMK59" s="0"/>
+      <c r="AML59" s="0"/>
+      <c r="AMM59" s="0"/>
+      <c r="AMN59" s="0"/>
     </row>
-    <row r="60" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="n">
         <v>44993</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AMG60" s="0"/>
       <c r="AMH60" s="0"/>
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
+      <c r="AMK60" s="0"/>
+      <c r="AML60" s="0"/>
+      <c r="AMM60" s="0"/>
+      <c r="AMN60" s="0"/>
     </row>
-    <row r="61" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="n">
         <v>44991</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AMG61" s="0"/>
       <c r="AMH61" s="0"/>
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
+      <c r="AMK61" s="0"/>
+      <c r="AML61" s="0"/>
+      <c r="AMM61" s="0"/>
+      <c r="AMN61" s="0"/>
     </row>
-    <row r="62" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
         <v>44981</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>33</v>
@@ -10413,19 +10652,23 @@
       <c r="AMH62" s="0"/>
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
+      <c r="AMK62" s="0"/>
+      <c r="AML62" s="0"/>
+      <c r="AMM62" s="0"/>
+      <c r="AMN62" s="0"/>
     </row>
-    <row r="63" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
         <v>44973</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>9</v>
@@ -10437,43 +10680,51 @@
       <c r="AMH63" s="0"/>
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
+      <c r="AMK63" s="0"/>
+      <c r="AML63" s="0"/>
+      <c r="AMM63" s="0"/>
+      <c r="AMN63" s="0"/>
     </row>
-    <row r="64" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="18" t="n">
         <v>44972</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AMG64" s="0"/>
       <c r="AMH64" s="0"/>
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
+      <c r="AMK64" s="0"/>
+      <c r="AML64" s="0"/>
+      <c r="AMM64" s="0"/>
+      <c r="AMN64" s="0"/>
     </row>
-    <row r="65" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="n">
         <v>44970</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>33</v>
@@ -10485,19 +10736,23 @@
       <c r="AMH65" s="0"/>
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
+      <c r="AMK65" s="0"/>
+      <c r="AML65" s="0"/>
+      <c r="AMM65" s="0"/>
+      <c r="AMN65" s="0"/>
     </row>
-    <row r="66" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="n">
         <v>44967</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E66" s="25" t="s">
         <v>33</v>
@@ -10509,91 +10764,107 @@
       <c r="AMH66" s="0"/>
       <c r="AMI66" s="0"/>
       <c r="AMJ66" s="0"/>
+      <c r="AMK66" s="0"/>
+      <c r="AML66" s="0"/>
+      <c r="AMM66" s="0"/>
+      <c r="AMN66" s="0"/>
     </row>
-    <row r="67" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="n">
         <v>44964</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AMG67" s="0"/>
       <c r="AMH67" s="0"/>
       <c r="AMI67" s="0"/>
       <c r="AMJ67" s="0"/>
+      <c r="AMK67" s="0"/>
+      <c r="AML67" s="0"/>
+      <c r="AMM67" s="0"/>
+      <c r="AMN67" s="0"/>
     </row>
-    <row r="68" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="n">
         <v>44952</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AMG68" s="0"/>
       <c r="AMH68" s="0"/>
       <c r="AMI68" s="0"/>
       <c r="AMJ68" s="0"/>
+      <c r="AMK68" s="0"/>
+      <c r="AML68" s="0"/>
+      <c r="AMM68" s="0"/>
+      <c r="AMN68" s="0"/>
     </row>
-    <row r="69" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="28" t="n">
         <v>44952</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AMG69" s="0"/>
       <c r="AMH69" s="0"/>
       <c r="AMI69" s="0"/>
       <c r="AMJ69" s="0"/>
+      <c r="AMK69" s="0"/>
+      <c r="AML69" s="0"/>
+      <c r="AMM69" s="0"/>
+      <c r="AMN69" s="0"/>
     </row>
-    <row r="70" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="n">
         <v>44949</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>9</v>
@@ -10605,19 +10876,23 @@
       <c r="AMH70" s="0"/>
       <c r="AMI70" s="0"/>
       <c r="AMJ70" s="0"/>
+      <c r="AMK70" s="0"/>
+      <c r="AML70" s="0"/>
+      <c r="AMM70" s="0"/>
+      <c r="AMN70" s="0"/>
     </row>
-    <row r="71" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="n">
         <v>44948</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E71" s="25" t="s">
         <v>33</v>
@@ -10629,22 +10904,26 @@
       <c r="AMH71" s="0"/>
       <c r="AMI71" s="0"/>
       <c r="AMJ71" s="0"/>
+      <c r="AMK71" s="0"/>
+      <c r="AML71" s="0"/>
+      <c r="AMM71" s="0"/>
+      <c r="AMN71" s="0"/>
     </row>
-    <row r="72" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="11" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="n">
         <v>44946</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>43</v>
@@ -10653,22 +10932,26 @@
       <c r="AMH72" s="0"/>
       <c r="AMI72" s="0"/>
       <c r="AMJ72" s="0"/>
+      <c r="AMK72" s="0"/>
+      <c r="AML72" s="0"/>
+      <c r="AMM72" s="0"/>
+      <c r="AMN72" s="0"/>
     </row>
-    <row r="73" s="11" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="11" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="n">
         <v>44929</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C73" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>47</v>
@@ -11691,10 +11974,14 @@
       <c r="AMH73" s="0"/>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
+      <c r="AMK73" s="0"/>
+      <c r="AML73" s="0"/>
+      <c r="AMM73" s="0"/>
+      <c r="AMN73" s="0"/>
     </row>
-    <row r="74" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="25" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -12721,22 +13008,26 @@
       <c r="AMH74" s="0"/>
       <c r="AMI74" s="0"/>
       <c r="AMJ74" s="0"/>
+      <c r="AMK74" s="0"/>
+      <c r="AML74" s="0"/>
+      <c r="AMM74" s="0"/>
+      <c r="AMN74" s="0"/>
     </row>
-    <row r="75" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="n">
         <v>44879</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>34</v>
@@ -12745,19 +13036,23 @@
       <c r="AMH75" s="0"/>
       <c r="AMI75" s="0"/>
       <c r="AMJ75" s="0"/>
+      <c r="AMK75" s="0"/>
+      <c r="AML75" s="0"/>
+      <c r="AMM75" s="0"/>
+      <c r="AMN75" s="0"/>
     </row>
-    <row r="76" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="28" t="n">
         <v>44858</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" s="25" t="s">
         <v>33</v>
@@ -13783,25 +14078,29 @@
       <c r="AMH76" s="0"/>
       <c r="AMI76" s="0"/>
       <c r="AMJ76" s="0"/>
+      <c r="AMK76" s="0"/>
+      <c r="AML76" s="0"/>
+      <c r="AMM76" s="0"/>
+      <c r="AMN76" s="0"/>
     </row>
-    <row r="77" s="25" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="25" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="n">
         <v>44855</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -14821,46 +15120,54 @@
       <c r="AMH77" s="0"/>
       <c r="AMI77" s="0"/>
       <c r="AMJ77" s="0"/>
+      <c r="AMK77" s="0"/>
+      <c r="AML77" s="0"/>
+      <c r="AMM77" s="0"/>
+      <c r="AMN77" s="0"/>
     </row>
-    <row r="78" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28" t="n">
         <v>44844</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AMG78" s="0"/>
       <c r="AMH78" s="0"/>
       <c r="AMI78" s="0"/>
       <c r="AMJ78" s="0"/>
+      <c r="AMK78" s="0"/>
+      <c r="AML78" s="0"/>
+      <c r="AMM78" s="0"/>
+      <c r="AMN78" s="0"/>
     </row>
-    <row r="79" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="8" customFormat="true" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="28" t="n">
         <v>44757</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>43</v>
@@ -15883,19 +16190,23 @@
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
+      <c r="AMK79" s="0"/>
+      <c r="AML79" s="0"/>
+      <c r="AMM79" s="0"/>
+      <c r="AMN79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="28" t="n">
         <v>373466</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>23</v>
@@ -15904,7 +16215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="28" t="n">
         <v>44743</v>
       </c>
@@ -15912,44 +16223,44 @@
         <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="28" t="n">
         <v>44740</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="28" t="n">
         <v>44739</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>23</v>
@@ -15958,18 +16269,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="28" t="n">
         <v>44693</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>33</v>
@@ -15978,118 +16289,118 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="n">
         <v>44695</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="30" t="n">
         <v>44659</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="28" t="n">
         <v>44712</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="n">
         <v>44705</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="28" t="n">
         <v>44705</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="28" t="n">
         <v>44693</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>33</v>
@@ -16098,78 +16409,78 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="28" t="n">
         <v>44622</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="28" t="n">
         <v>44614</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="28" t="n">
         <v>44613</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="28" t="n">
         <v>44608</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>23</v>
@@ -16178,83 +16489,83 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="n">
         <v>44580</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="n">
         <v>44463</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="n">
         <v>44460</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="28" t="n">
         <v>44460</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>23</v>
@@ -16263,18 +16574,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="28" t="n">
         <v>44372</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>23</v>
@@ -16283,58 +16594,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="28" t="n">
         <v>44326</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="30" t="n">
         <v>44325</v>
       </c>
       <c r="B102" s="39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="28" t="n">
         <v>44325</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>23</v>
@@ -16343,58 +16654,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="28" t="n">
         <v>44321</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="28" t="n">
         <v>44316</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="28" t="n">
         <v>44279</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>23</v>
@@ -16403,98 +16714,98 @@
         <v>47</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="28" t="n">
         <v>44257</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="28" t="n">
         <v>44243</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="40" t="n">
         <v>44231</v>
       </c>
       <c r="B109" s="41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C109" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F109" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="28" t="n">
         <v>44218</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="28" t="n">
         <v>44216</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>23</v>
@@ -16503,38 +16814,38 @@
         <v>47</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="28" t="n">
         <v>44175</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="28" t="n">
         <v>44175</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>23</v>
@@ -16543,23 +16854,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="28" t="n">
         <v>44162</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>33</v>
@@ -16568,12 +16879,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="28" t="n">
         <v>44148</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>7</v>
@@ -16582,104 +16893,104 @@
         <v>8</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="40" t="n">
         <v>44146</v>
       </c>
       <c r="B117" s="41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C117" s="42" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="28" t="n">
         <v>44132</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="28" t="n">
         <v>44103</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="40" t="n">
         <v>44095</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C120" s="42" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E120" s="42" t="s">
         <v>33</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="28" t="n">
         <v>44095</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>33</v>
@@ -16688,98 +16999,98 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="28" t="n">
         <v>44057</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="28" t="n">
         <v>44028</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F123" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="28" t="n">
         <v>44064</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="28" t="n">
         <v>44028</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="28" t="n">
         <v>44016</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>33</v>
@@ -16788,18 +17099,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="28" t="n">
         <v>44010</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>23</v>
@@ -16808,18 +17119,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="28" t="n">
         <v>43995</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>33</v>
@@ -16828,58 +17139,58 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="28" t="n">
         <v>43948</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F129" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="28" t="n">
         <v>43947</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F130" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="28" t="n">
         <v>43936</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>33</v>
@@ -16888,138 +17199,138 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="28" t="n">
         <v>43929</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="28" t="n">
         <v>43891</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F133" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="28" t="n">
         <v>43885</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="28" t="n">
         <v>43857</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28" t="n">
         <v>43857</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="28" t="n">
         <v>43852</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="28" t="n">
         <v>43584</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>23</v>
@@ -17028,18 +17339,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="28" t="n">
         <v>43584</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>23</v>
@@ -17048,18 +17359,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="28" t="n">
         <v>43540</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>23</v>
@@ -17068,63 +17379,63 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="28" t="n">
         <v>43203</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="28" t="n">
         <v>43203</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="28" t="n">
         <v>42842</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>33</v>
@@ -17133,18 +17444,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="28" t="n">
         <v>42457</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>23</v>
@@ -17153,18 +17464,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="28" t="n">
         <v>39028</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>33</v>
@@ -19220,9 +19531,19 @@
       <c r="AMH149" s="0"/>
       <c r="AMI149" s="0"/>
       <c r="AMJ149" s="0"/>
+      <c r="AMK149" s="0"/>
+      <c r="AML149" s="0"/>
+      <c r="AMM149" s="0"/>
+      <c r="AMN149" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F146"/>
+  <autoFilter ref="A1:F146">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Protected entries in XLIFF show translation as source text"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="F97:F1048576 F1:F95">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="resolved" dxfId="13">
       <formula>NOT(ISERROR(SEARCH("resolved",F1)))</formula>
@@ -19407,10 +19728,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -19419,10 +19740,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
